--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="185">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -605,6 +605,126 @@
   <si>
     <t>(9) = (7) / (5)</t>
   </si>
+  <si>
+    <t>200000100002000</t>
+  </si>
+  <si>
+    <t>BASIC SALARY- CIVILIAN</t>
+  </si>
+  <si>
+    <t>5010101001</t>
+  </si>
+  <si>
+    <t>49,498,000.00</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>CLOTHING/UNIFORM ALLOWANCE- CIVILIAN</t>
+  </si>
+  <si>
+    <t>5010204001</t>
+  </si>
+  <si>
+    <t>485,000.00</t>
+  </si>
+  <si>
+    <t>PERA-CIVILIAN</t>
+  </si>
+  <si>
+    <t>5010201001</t>
+  </si>
+  <si>
+    <t>2,328,000.00</t>
+  </si>
+  <si>
+    <t>(150,000.00)</t>
+  </si>
+  <si>
+    <t>2,178,000.00</t>
+  </si>
+  <si>
+    <t>REPRESENTATION ALLOWANCE (RA)</t>
+  </si>
+  <si>
+    <t>5010202000</t>
+  </si>
+  <si>
+    <t>270,000.00</t>
+  </si>
+  <si>
+    <t>70,000.00</t>
+  </si>
+  <si>
+    <t>340,000.00</t>
+  </si>
+  <si>
+    <t>RM - BUILDINGS</t>
+  </si>
+  <si>
+    <t>5021304001</t>
+  </si>
+  <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>80,000.00</t>
+  </si>
+  <si>
+    <t>130,000.00</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION ALLOWANCE (TA)</t>
+  </si>
+  <si>
+    <t>5010203001</t>
+  </si>
+  <si>
+    <t>SUBTOTAL STO-OPERATIONS OF REGIONAL OFFICES - PS</t>
+  </si>
+  <si>
+    <t>52,901,000.00</t>
+  </si>
+  <si>
+    <t>105,802,000.00</t>
+  </si>
+  <si>
+    <t>0.00</t>
+  </si>
+  <si>
+    <t>310100100001000</t>
+  </si>
+  <si>
+    <t>8,267,000.00</t>
+  </si>
+  <si>
+    <t>25,000.00</t>
+  </si>
+  <si>
+    <t>8,242,000.00</t>
+  </si>
+  <si>
+    <t>20,000.00</t>
+  </si>
+  <si>
+    <t>60,000.00</t>
+  </si>
+  <si>
+    <t>432,000.00</t>
+  </si>
+  <si>
+    <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
+  </si>
+  <si>
+    <t>8,879,000.00</t>
+  </si>
+  <si>
+    <t>17,758,000.00</t>
+  </si>
+  <si>
+    <t>8,854,000.00</t>
+  </si>
 </sst>
 </file>
 
@@ -615,7 +735,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,6 +829,12 @@
     <font>
       <b/>
       <sz val="12"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -948,7 +1074,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="137">
+  <cellXfs count="141">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1295,6 +1421,18 @@
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="9">
@@ -1679,7 +1817,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO16"/>
+  <dimension ref="A1:TO34"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -11293,6 +11431,396 @@
     </row>
     <row r="16">
       <c r="A16" s="136" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="13" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="137" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="C19" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="N19" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD19" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF19" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="C20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="M20" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="N20" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P20" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="S20" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD20" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE20" s="138" t="s">
+        <v>192</v>
+      </c>
+      <c r="AF20" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="C21" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="M21" s="138" t="s">
+        <v>195</v>
+      </c>
+      <c r="N21" s="138" t="s">
+        <v>196</v>
+      </c>
+      <c r="P21" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="S21" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD21" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE21" s="138" t="s">
+        <v>197</v>
+      </c>
+      <c r="AF21" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="C22" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="M22" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="N22" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="P22" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="S22" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD22" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE22" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="AF22" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="C23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="M23" s="138" t="s">
+        <v>205</v>
+      </c>
+      <c r="N23" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="P23" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="S23" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD23" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE23" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF23" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="C24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="N24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF24" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="139" t="s">
+        <v>210</v>
+      </c>
+      <c r="M25" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="P25" s="140" t="s">
+        <v>212</v>
+      </c>
+      <c r="S25" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD25" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE25" s="140" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF25" s="140" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="13" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="137" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="C28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M28" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD28" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE28" s="138" t="s">
+        <v>217</v>
+      </c>
+      <c r="AF28" s="138" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="C29" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>191</v>
+      </c>
+      <c r="M29" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="N29" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P29" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="S29" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD29" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE29" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF29" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="C30" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="76" t="s">
+        <v>194</v>
+      </c>
+      <c r="M30" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="N30" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P30" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="S30" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD30" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE30" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="AF30" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="C31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="M31" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="N31" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P31" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="S31" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD31" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE31" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF31" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="C32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M32" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="N32" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P32" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="S32" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD32" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE32" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="AF32" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="140" t="s">
+        <v>222</v>
+      </c>
+      <c r="P33" s="140" t="s">
+        <v>223</v>
+      </c>
+      <c r="S33" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD33" s="140" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE33" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="AF33" s="140" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="136" t="s">
         <v>45</v>
       </c>
     </row>
@@ -11334,6 +11862,10 @@
       <autoFilter ref="A15:QN1381"/>
     </customSheetView>
   </customSheetViews>
+  <mergeCells>
+    <mergeCell ref="A25:L25"/>
+    <mergeCell ref="A33:L33"/>
+  </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId2"/>
   <headerFooter>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AF$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AG$14</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN-DEC'!$10:$14</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.Cols" localSheetId="0" hidden="1">'JAN-DEC'!$T:$AB</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.FilterData" localSheetId="0" hidden="1">'JAN-DEC'!#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -506,6 +506,9 @@
     <t>DISBURSEMENTS</t>
   </si>
   <si>
+    <t>REMARKS</t>
+  </si>
+  <si>
     <t xml:space="preserve">SAOB-OBLIGATION
 GRANDTOTAL</t>
   </si>
@@ -724,6 +727,15 @@
   </si>
   <si>
     <t>8,854,000.00</t>
+  </si>
+  <si>
+    <t>61,780,000.00</t>
+  </si>
+  <si>
+    <t>123,560,000.00</t>
+  </si>
+  <si>
+    <t>61,755,000.00</t>
   </si>
 </sst>
 </file>
@@ -1074,7 +1086,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="141">
+  <cellXfs count="142">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1383,15 +1395,6 @@
     <xf numFmtId="43" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="12" applyBorder="1" xfId="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="7">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1408,6 +1411,15 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="2" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="3" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="7">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="4" applyBorder="1" xfId="7">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="5" applyBorder="1" xfId="7">
@@ -1432,6 +1444,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1819,9 +1834,9 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:TO34"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K36" sqref="K36"/>
+      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1845,7 +1860,7 @@
     <col min="29" max="29" bestFit="1" width="17.28515625" customWidth="1" style="60"/>
     <col min="30" max="30" width="18.7109375" customWidth="1" style="10"/>
     <col min="31" max="31" width="18.85546875" customWidth="1" style="10"/>
-    <col min="32" max="32" width="16.85546875" customWidth="1" style="15"/>
+    <col min="32" max="32" width="17.140625" customWidth="1" style="15"/>
     <col min="33" max="33" width="13.85546875" customWidth="1" style="15"/>
     <col min="34" max="35" hidden="1" width="21.7109375" customWidth="1" style="12"/>
     <col min="36" max="284" hidden="1" width="18.7109375" customWidth="1" style="12"/>
@@ -2910,31 +2925,31 @@
       <c r="SK3" s="12"/>
     </row>
     <row r="4" hidden="1">
-      <c r="J4" s="127" t="s">
+      <c r="J4" s="124" t="s">
         <v>140</v>
       </c>
-      <c r="K4" s="127"/>
-      <c r="L4" s="127"/>
-      <c r="M4" s="127"/>
-      <c r="N4" s="127"/>
-      <c r="O4" s="127"/>
-      <c r="P4" s="127"/>
-      <c r="Q4" s="127"/>
-      <c r="R4" s="127"/>
-      <c r="S4" s="127"/>
-      <c r="T4" s="127"/>
-      <c r="U4" s="127"/>
-      <c r="V4" s="127"/>
-      <c r="W4" s="127"/>
-      <c r="X4" s="127"/>
-      <c r="Y4" s="127"/>
-      <c r="Z4" s="127"/>
-      <c r="AA4" s="127"/>
-      <c r="AB4" s="127"/>
-      <c r="AC4" s="127"/>
-      <c r="AD4" s="127"/>
-      <c r="AE4" s="127"/>
-      <c r="AF4" s="127"/>
+      <c r="K4" s="124"/>
+      <c r="L4" s="124"/>
+      <c r="M4" s="124"/>
+      <c r="N4" s="124"/>
+      <c r="O4" s="124"/>
+      <c r="P4" s="124"/>
+      <c r="Q4" s="124"/>
+      <c r="R4" s="124"/>
+      <c r="S4" s="124"/>
+      <c r="T4" s="124"/>
+      <c r="U4" s="124"/>
+      <c r="V4" s="124"/>
+      <c r="W4" s="124"/>
+      <c r="X4" s="124"/>
+      <c r="Y4" s="124"/>
+      <c r="Z4" s="124"/>
+      <c r="AA4" s="124"/>
+      <c r="AB4" s="124"/>
+      <c r="AC4" s="124"/>
+      <c r="AD4" s="124"/>
+      <c r="AE4" s="124"/>
+      <c r="AF4" s="124"/>
       <c r="AG4" s="66"/>
       <c r="AH4" s="22"/>
       <c r="AI4" s="22"/>
@@ -3438,31 +3453,31 @@
       <c r="TO4" s="22"/>
     </row>
     <row r="5" hidden="1">
-      <c r="J5" s="128" t="s">
+      <c r="J5" s="125" t="s">
         <v>8</v>
       </c>
-      <c r="K5" s="128"/>
-      <c r="L5" s="128"/>
-      <c r="M5" s="128"/>
-      <c r="N5" s="128"/>
-      <c r="O5" s="128"/>
-      <c r="P5" s="128"/>
-      <c r="Q5" s="128"/>
-      <c r="R5" s="128"/>
-      <c r="S5" s="128"/>
-      <c r="T5" s="128"/>
-      <c r="U5" s="128"/>
-      <c r="V5" s="128"/>
-      <c r="W5" s="128"/>
-      <c r="X5" s="128"/>
-      <c r="Y5" s="128"/>
-      <c r="Z5" s="128"/>
-      <c r="AA5" s="128"/>
-      <c r="AB5" s="128"/>
-      <c r="AC5" s="128"/>
-      <c r="AD5" s="128"/>
-      <c r="AE5" s="128"/>
-      <c r="AF5" s="128"/>
+      <c r="K5" s="125"/>
+      <c r="L5" s="125"/>
+      <c r="M5" s="125"/>
+      <c r="N5" s="125"/>
+      <c r="O5" s="125"/>
+      <c r="P5" s="125"/>
+      <c r="Q5" s="125"/>
+      <c r="R5" s="125"/>
+      <c r="S5" s="125"/>
+      <c r="T5" s="125"/>
+      <c r="U5" s="125"/>
+      <c r="V5" s="125"/>
+      <c r="W5" s="125"/>
+      <c r="X5" s="125"/>
+      <c r="Y5" s="125"/>
+      <c r="Z5" s="125"/>
+      <c r="AA5" s="125"/>
+      <c r="AB5" s="125"/>
+      <c r="AC5" s="125"/>
+      <c r="AD5" s="125"/>
+      <c r="AE5" s="125"/>
+      <c r="AF5" s="125"/>
       <c r="AG5" s="67"/>
       <c r="AH5" s="23"/>
       <c r="AI5" s="23"/>
@@ -3966,31 +3981,31 @@
       <c r="TO5" s="23"/>
     </row>
     <row r="6" hidden="1">
-      <c r="J6" s="129" t="s">
+      <c r="J6" s="126" t="s">
         <v>141</v>
       </c>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
-      <c r="O6" s="129"/>
-      <c r="P6" s="129"/>
-      <c r="Q6" s="129"/>
-      <c r="R6" s="129"/>
-      <c r="S6" s="129"/>
-      <c r="T6" s="129"/>
-      <c r="U6" s="129"/>
-      <c r="V6" s="129"/>
-      <c r="W6" s="129"/>
-      <c r="X6" s="129"/>
-      <c r="Y6" s="129"/>
-      <c r="Z6" s="129"/>
-      <c r="AA6" s="129"/>
-      <c r="AB6" s="129"/>
-      <c r="AC6" s="129"/>
-      <c r="AD6" s="129"/>
-      <c r="AE6" s="129"/>
-      <c r="AF6" s="129"/>
+      <c r="K6" s="126"/>
+      <c r="L6" s="126"/>
+      <c r="M6" s="126"/>
+      <c r="N6" s="126"/>
+      <c r="O6" s="126"/>
+      <c r="P6" s="126"/>
+      <c r="Q6" s="126"/>
+      <c r="R6" s="126"/>
+      <c r="S6" s="126"/>
+      <c r="T6" s="126"/>
+      <c r="U6" s="126"/>
+      <c r="V6" s="126"/>
+      <c r="W6" s="126"/>
+      <c r="X6" s="126"/>
+      <c r="Y6" s="126"/>
+      <c r="Z6" s="126"/>
+      <c r="AA6" s="126"/>
+      <c r="AB6" s="126"/>
+      <c r="AC6" s="126"/>
+      <c r="AD6" s="126"/>
+      <c r="AE6" s="126"/>
+      <c r="AF6" s="126"/>
       <c r="AG6" s="68"/>
       <c r="AH6" s="24"/>
       <c r="AI6" s="24"/>
@@ -6631,18 +6646,18 @@
       <c r="TO10" s="27"/>
     </row>
     <row r="11" ht="13.5" customHeight="1" s="35" customFormat="1">
-      <c r="A11" s="130" t="s">
+      <c r="A11" s="127" t="s">
         <v>147</v>
       </c>
-      <c r="B11" s="131"/>
-      <c r="C11" s="131"/>
-      <c r="D11" s="131"/>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131"/>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
+      <c r="B11" s="128"/>
+      <c r="C11" s="128"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="128"/>
+      <c r="G11" s="128"/>
+      <c r="H11" s="128"/>
+      <c r="I11" s="128"/>
+      <c r="J11" s="129"/>
       <c r="K11" s="79" t="s">
         <v>148</v>
       </c>
@@ -6675,12 +6690,14 @@
       <c r="AF11" s="75" t="s">
         <v>152</v>
       </c>
-      <c r="AG11" s="69"/>
+      <c r="AG11" s="69" t="s">
+        <v>153</v>
+      </c>
       <c r="AH11" s="120" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="AI11" s="119" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="AJ11" s="34" t="s">
         <v>105</v>
@@ -6885,7 +6902,7 @@
       <c r="HX11" s="34"/>
       <c r="HY11" s="34"/>
       <c r="HZ11" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="IA11" s="34"/>
       <c r="IB11" s="34"/>
@@ -6938,10 +6955,10 @@
       <c r="JW11" s="34"/>
       <c r="JX11" s="34"/>
       <c r="JY11" s="120" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="JZ11" s="119" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="KA11" s="34" t="s">
         <v>105</v>
@@ -7146,7 +7163,7 @@
       <c r="RO11" s="34"/>
       <c r="RP11" s="34"/>
       <c r="RQ11" s="34" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="RR11" s="34"/>
       <c r="RS11" s="34"/>
@@ -7200,26 +7217,26 @@
       <c r="TO11" s="34"/>
     </row>
     <row r="12" ht="15.75" customHeight="1" s="59" customFormat="1">
-      <c r="A12" s="124" t="s">
-        <v>158</v>
-      </c>
-      <c r="B12" s="125"/>
-      <c r="C12" s="125"/>
-      <c r="D12" s="125"/>
-      <c r="E12" s="125"/>
-      <c r="F12" s="125"/>
-      <c r="G12" s="125"/>
-      <c r="H12" s="125"/>
-      <c r="I12" s="125"/>
-      <c r="J12" s="126"/>
+      <c r="A12" s="130" t="s">
+        <v>159</v>
+      </c>
+      <c r="B12" s="131"/>
+      <c r="C12" s="131"/>
+      <c r="D12" s="131"/>
+      <c r="E12" s="131"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="131"/>
+      <c r="J12" s="132"/>
       <c r="K12" s="80" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="L12" s="36" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="M12" s="36" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="N12" s="37" t="s">
         <v>12</v>
@@ -7228,52 +7245,52 @@
         <v>13</v>
       </c>
       <c r="P12" s="37" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="Q12" s="38" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="R12" s="38" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="T12" s="38" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="U12" s="38" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="V12" s="39" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="W12" s="38" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="X12" s="38" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Y12" s="38" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Z12" s="38" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="AA12" s="38" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="AB12" s="38" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="AC12" s="63" t="s">
         <v>0</v>
       </c>
       <c r="AD12" s="82" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AE12" s="37" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="AF12" s="71"/>
       <c r="AG12" s="69"/>
@@ -8777,16 +8794,16 @@
       </c>
     </row>
     <row r="13" s="35" customFormat="1">
-      <c r="A13" s="124"/>
-      <c r="B13" s="125"/>
-      <c r="C13" s="125"/>
-      <c r="D13" s="125"/>
-      <c r="E13" s="125"/>
-      <c r="F13" s="125"/>
-      <c r="G13" s="125"/>
-      <c r="H13" s="125"/>
-      <c r="I13" s="125"/>
-      <c r="J13" s="126"/>
+      <c r="A13" s="130"/>
+      <c r="B13" s="131"/>
+      <c r="C13" s="131"/>
+      <c r="D13" s="131"/>
+      <c r="E13" s="131"/>
+      <c r="F13" s="131"/>
+      <c r="G13" s="131"/>
+      <c r="H13" s="131"/>
+      <c r="I13" s="131"/>
+      <c r="J13" s="132"/>
       <c r="K13" s="80"/>
       <c r="L13" s="36" t="s">
         <v>12</v>
@@ -9353,7 +9370,7 @@
     </row>
     <row r="14" s="55" customFormat="1">
       <c r="A14" s="133" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
@@ -9367,16 +9384,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="N14" s="65" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="O14" s="49" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P14" s="65" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q14" s="65" t="s">
         <v>4</v>
@@ -9418,13 +9435,13 @@
         <v>3</v>
       </c>
       <c r="AD14" s="84" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="AE14" s="50" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AF14" s="51" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG14" s="70"/>
       <c r="AH14" s="52"/>
@@ -11436,7 +11453,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="18">
@@ -11446,204 +11463,204 @@
     </row>
     <row r="19">
       <c r="C19" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K19" s="76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M19" s="138" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="N19" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P19" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="P19" s="138" t="s">
-        <v>188</v>
-      </c>
       <c r="S19" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD19" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE19" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD19" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE19" s="138" t="s">
-        <v>188</v>
-      </c>
       <c r="AF19" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K20" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="M20" s="138" t="s">
+        <v>193</v>
+      </c>
+      <c r="N20" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="K20" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="M20" s="138" t="s">
-        <v>192</v>
-      </c>
-      <c r="N20" s="138" t="s">
-        <v>189</v>
-      </c>
       <c r="P20" s="138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="S20" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD20" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE20" s="138" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="AF20" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M21" s="138" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N21" s="138" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="P21" s="138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="S21" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD21" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE21" s="138" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="AF21" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M22" s="138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N22" s="138" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P22" s="138" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="S22" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD22" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE22" s="138" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="AF22" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="13" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="M23" s="138" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="N23" s="138" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="P23" s="138" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="S23" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD23" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE23" s="138" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="AF23" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M24" s="138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="N24" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P24" s="138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="S24" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD24" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE24" s="138" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="AF24" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="139" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="M25" s="140" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="P25" s="140" t="s">
+        <v>213</v>
+      </c>
+      <c r="S25" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="AD25" s="140" t="s">
+        <v>214</v>
+      </c>
+      <c r="AE25" s="140" t="s">
         <v>212</v>
       </c>
-      <c r="S25" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD25" s="140" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE25" s="140" t="s">
-        <v>211</v>
-      </c>
       <c r="AF25" s="140" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
@@ -11653,175 +11670,190 @@
     </row>
     <row r="28">
       <c r="C28" s="13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="K28" s="76" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="M28" s="138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P28" s="138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE28" s="138" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="13" t="s">
+        <v>191</v>
+      </c>
+      <c r="K29" s="76" t="s">
+        <v>192</v>
+      </c>
+      <c r="M29" s="138" t="s">
+        <v>220</v>
+      </c>
+      <c r="N29" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="K29" s="76" t="s">
-        <v>191</v>
-      </c>
-      <c r="M29" s="138" t="s">
-        <v>219</v>
-      </c>
-      <c r="N29" s="138" t="s">
-        <v>189</v>
-      </c>
       <c r="P29" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S29" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD29" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF29" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="N30" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="S30" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD30" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF30" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" s="13" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N31" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S31" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD31" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF31" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N32" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M33" s="140" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="P33" s="140" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="S33" s="140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD33" s="140" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE33" s="140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF33" s="140" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="136" t="s">
-        <v>45</v>
+        <v>44</v>
+      </c>
+      <c r="M34" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="P34" s="140" t="s">
+        <v>227</v>
+      </c>
+      <c r="S34" s="140" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE34" s="140" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF34" s="140" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="304"/>
@@ -11863,11 +11895,15 @@
     </customSheetView>
   </customSheetViews>
   <mergeCells>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="A12:J12"/>
+    <mergeCell ref="A13:J13"/>
+    <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A33:L33"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
-  <pageSetup paperSize="9" scale="66" orientation="landscape" r:id="rId2"/>
+  <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>
   <headerFooter>
     <oddFooter>&amp;LDOH RO7 SAOB - MARCH 2018&amp;RPage &amp;P of &amp;N</oddFooter>
   </headerFooter>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -702,13 +702,10 @@
     <t>8,267,000.00</t>
   </si>
   <si>
-    <t>25,000.00</t>
+    <t>20,000.00</t>
   </si>
   <si>
-    <t>8,242,000.00</t>
-  </si>
-  <si>
-    <t>20,000.00</t>
+    <t>8,247,000.00</t>
   </si>
   <si>
     <t>60,000.00</t>
@@ -726,7 +723,7 @@
     <t>17,758,000.00</t>
   </si>
   <si>
-    <t>8,854,000.00</t>
+    <t>8,859,000.00</t>
   </si>
   <si>
     <t>61,780,000.00</t>
@@ -735,7 +732,64 @@
     <t>123,560,000.00</t>
   </si>
   <si>
-    <t>61,755,000.00</t>
+    <t>61,760,000.00</t>
+  </si>
+  <si>
+    <t>SUB-ALLOTMENT-PS</t>
+  </si>
+  <si>
+    <t>100000100001000</t>
+  </si>
+  <si>
+    <t>SAA-RRFHS</t>
+  </si>
+  <si>
+    <t>SALARIES AND WAGES FOR DOCTOR TO THE BARRIOS</t>
+  </si>
+  <si>
+    <t>PRODUCTIVITY INCENTIVE ALLOWANCE- CIVILIAN</t>
+  </si>
+  <si>
+    <t>5010208001</t>
+  </si>
+  <si>
+    <t>85,000.00</t>
+  </si>
+  <si>
+    <t>SALARIES AND WAGES - CASUAL/ CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>5010102000</t>
+  </si>
+  <si>
+    <t>(90,000.00)</t>
+  </si>
+  <si>
+    <t>-20,000.00</t>
+  </si>
+  <si>
+    <t>SUBSISTENCE ALLOWANCE- MAGNA CARTA BENEFITS FOR PUBLIC HEALTH WORKERS UNDER R.A. 7305</t>
+  </si>
+  <si>
+    <t>5010205003</t>
+  </si>
+  <si>
+    <t>100,000.00</t>
+  </si>
+  <si>
+    <t>90,000.00</t>
+  </si>
+  <si>
+    <t>180,000.00</t>
+  </si>
+  <si>
+    <t>SUBTOTAL SAA-RRFHS</t>
+  </si>
+  <si>
+    <t>425,000.00</t>
+  </si>
+  <si>
+    <t>TOTAL MOOE</t>
   </si>
 </sst>
 </file>
@@ -747,7 +801,7 @@
     <numFmt numFmtId="164" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="165" formatCode="[$-409]mmmm\ d\,\ yyyy;@"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="17">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -847,6 +901,12 @@
     <font>
       <b/>
       <sz val="11"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="10"/>
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
@@ -1086,7 +1146,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="142">
+  <cellXfs count="145">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -1447,6 +1507,15 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="43" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="4" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1832,7 +1901,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO34"/>
+  <dimension ref="A1:TO46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -11694,7 +11763,7 @@
         <v>218</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="29">
@@ -11705,13 +11774,13 @@
         <v>192</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>190</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>190</v>
@@ -11720,7 +11789,7 @@
         <v>190</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>190</v>
@@ -11734,13 +11803,13 @@
         <v>195</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>190</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>190</v>
@@ -11749,7 +11818,7 @@
         <v>190</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>190</v>
@@ -11763,13 +11832,13 @@
         <v>200</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>190</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>190</v>
@@ -11778,7 +11847,7 @@
         <v>190</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>190</v>
@@ -11792,13 +11861,13 @@
         <v>210</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N32" s="138" t="s">
         <v>190</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S32" s="138" t="s">
         <v>190</v>
@@ -11807,7 +11876,7 @@
         <v>190</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF32" s="138" t="s">
         <v>190</v>
@@ -11815,13 +11884,13 @@
     </row>
     <row r="33">
       <c r="A33" s="139" t="s">
+        <v>221</v>
+      </c>
+      <c r="M33" s="140" t="s">
         <v>222</v>
       </c>
-      <c r="M33" s="140" t="s">
+      <c r="P33" s="140" t="s">
         <v>223</v>
-      </c>
-      <c r="P33" s="140" t="s">
-        <v>224</v>
       </c>
       <c r="S33" s="140" t="s">
         <v>217</v>
@@ -11830,10 +11899,10 @@
         <v>217</v>
       </c>
       <c r="AE33" s="140" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF33" s="140" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="34">
@@ -11841,19 +11910,232 @@
         <v>44</v>
       </c>
       <c r="M34" s="141" t="s">
+        <v>225</v>
+      </c>
+      <c r="P34" s="142" t="s">
         <v>226</v>
       </c>
-      <c r="P34" s="140" t="s">
+      <c r="S34" s="142" t="s">
+        <v>217</v>
+      </c>
+      <c r="AE34" s="142" t="s">
         <v>227</v>
       </c>
-      <c r="S34" s="140" t="s">
+      <c r="AF34" s="142" t="s">
         <v>217</v>
       </c>
-      <c r="AE34" s="140" t="s">
+    </row>
+    <row r="35">
+      <c r="A35" s="136" t="s">
         <v>228</v>
       </c>
-      <c r="AF34" s="140" t="s">
-        <v>219</v>
+    </row>
+    <row r="36">
+      <c r="A36" s="13" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="137" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="B38" s="143" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="C39" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="K39" s="76" t="s">
+        <v>233</v>
+      </c>
+      <c r="M39" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="N39" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P39" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="S39" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD39" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE39" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="AF39" s="138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="13" t="s">
+        <v>199</v>
+      </c>
+      <c r="K40" s="76" t="s">
+        <v>200</v>
+      </c>
+      <c r="M40" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="N40" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P40" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="S40" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD40" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE40" s="138" t="s">
+        <v>207</v>
+      </c>
+      <c r="AF40" s="138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K41" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="M41" s="138" t="s">
+        <v>202</v>
+      </c>
+      <c r="N41" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="P41" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="S41" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD41" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE41" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF41" s="138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="13" t="s">
+        <v>239</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>240</v>
+      </c>
+      <c r="M42" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="N42" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="P42" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="S42" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD42" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE42" s="138" t="s">
+        <v>241</v>
+      </c>
+      <c r="AF42" s="138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="C43" s="13" t="s">
+        <v>209</v>
+      </c>
+      <c r="K43" s="76" t="s">
+        <v>210</v>
+      </c>
+      <c r="M43" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="N43" s="138" t="s">
+        <v>242</v>
+      </c>
+      <c r="P43" s="138" t="s">
+        <v>243</v>
+      </c>
+      <c r="S43" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD43" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE43" s="138" t="s">
+        <v>243</v>
+      </c>
+      <c r="AF43" s="138" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="137" t="s">
+        <v>244</v>
+      </c>
+      <c r="M44" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="P44" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="S44" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="AD44" s="144" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE44" s="144" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF44" s="144" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="136" t="s">
+        <v>246</v>
+      </c>
+      <c r="M46" s="141" t="s">
+        <v>190</v>
+      </c>
+      <c r="P46" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="S46" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="AE46" s="142" t="s">
+        <v>190</v>
+      </c>
+      <c r="AF46" s="142" t="s">
+        <v>190</v>
       </c>
     </row>
     <row r="304"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -16,7 +16,7 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AG$14</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'JAN-DEC'!$A$1:$AG$30</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">'JAN-DEC'!$10:$14</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.Cols" localSheetId="0" hidden="1">'JAN-DEC'!$T:$AB</definedName>
     <definedName name="Z_24A30693_6617_4D04_BF43_4D36BFF721D2_.wvu.FilterData" localSheetId="0" hidden="1">'JAN-DEC'!#REF!</definedName>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -549,7 +549,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>March</t>
+    <t>October</t>
   </si>
   <si>
     <t>April</t>
@@ -570,16 +570,13 @@
     <t>September</t>
   </si>
   <si>
-    <t>October</t>
-  </si>
-  <si>
     <t>November</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>As of March</t>
+    <t>As of October</t>
   </si>
   <si>
     <t xml:space="preserve">BALANCE OF </t>
@@ -756,6 +753,24 @@
     <t>85,000.00</t>
   </si>
   <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
+    <t>-45,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RM - MACHINERY </t>
+  </si>
+  <si>
+    <t>5021305001</t>
+  </si>
+  <si>
+    <t>-20,000.00</t>
+  </si>
+  <si>
+    <t>15,000.00</t>
+  </si>
+  <si>
     <t>SALARIES AND WAGES - CASUAL/ CONTRACTUAL</t>
   </si>
   <si>
@@ -763,9 +778,6 @@
   </si>
   <si>
     <t>(90,000.00)</t>
-  </si>
-  <si>
-    <t>-20,000.00</t>
   </si>
   <si>
     <t>SUBSISTENCE ALLOWANCE- MAGNA CARTA BENEFITS FOR PUBLIC HEALTH WORKERS UNDER R.A. 7305</t>
@@ -787,6 +799,99 @@
   </si>
   <si>
     <t>425,000.00</t>
+  </si>
+  <si>
+    <t>65,000.00</t>
+  </si>
+  <si>
+    <t>360,000.00</t>
+  </si>
+  <si>
+    <t>100000100002000</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STO-OPERATIONS OF REGIONAL OFFICES  </t>
+  </si>
+  <si>
+    <t>DRUGS AND MEDICINES EXPENSES</t>
+  </si>
+  <si>
+    <t>5020307000</t>
+  </si>
+  <si>
+    <t>710,000.00</t>
+  </si>
+  <si>
+    <t>ELECTRICITY EXPENSES</t>
+  </si>
+  <si>
+    <t>5020402000</t>
+  </si>
+  <si>
+    <t>663,000.00</t>
+  </si>
+  <si>
+    <t>FUEL, OIL AND LUBRICANTS EXPENSES</t>
+  </si>
+  <si>
+    <t>5020309000</t>
+  </si>
+  <si>
+    <t>231,000.00</t>
+  </si>
+  <si>
+    <t>MEDICAL, DENTAL AND LABORATORY SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>5020308000</t>
+  </si>
+  <si>
+    <t>157,000.00</t>
+  </si>
+  <si>
+    <t>OFFICE SUPPLIES EXPENSES</t>
+  </si>
+  <si>
+    <t>5020301002</t>
+  </si>
+  <si>
+    <t>1,571,000.00</t>
+  </si>
+  <si>
+    <t>TRAINING EXPENSES</t>
+  </si>
+  <si>
+    <t>5020201002</t>
+  </si>
+  <si>
+    <t>612,000.00</t>
+  </si>
+  <si>
+    <t>TRAVEL EXPENSES-LOCAL</t>
+  </si>
+  <si>
+    <t>5020101000</t>
+  </si>
+  <si>
+    <t>1,460,000.00</t>
+  </si>
+  <si>
+    <t>WATER EXPENSES</t>
+  </si>
+  <si>
+    <t>5020401000</t>
+  </si>
+  <si>
+    <t>61,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL  STO-OPERATIONS OF REGIONAL OFFICES   - MOOE</t>
+  </si>
+  <si>
+    <t>5,465,000.00</t>
+  </si>
+  <si>
+    <t>10,930,000.00</t>
   </si>
   <si>
     <t>TOTAL MOOE</t>
@@ -1494,14 +1599,11 @@
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="2" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
@@ -1511,6 +1613,9 @@
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="16" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
@@ -1901,11 +2006,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO46"/>
+  <dimension ref="A1:TO62"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="G1" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S24" sqref="S24"/>
+      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -1921,12 +2026,12 @@
     <col min="15" max="15" width="14.42578125" customWidth="1" style="10"/>
     <col min="16" max="16" width="18.42578125" customWidth="1" style="10"/>
     <col min="17" max="18" hidden="1" width="16" customWidth="1" style="10"/>
-    <col min="19" max="19" width="17.140625" customWidth="1" style="10"/>
+    <col min="19" max="19" width="17.28515625" customWidth="1" style="10"/>
     <col min="20" max="21" hidden="1" width="15.42578125" customWidth="1" style="10"/>
     <col min="22" max="22" hidden="1" width="15.42578125" customWidth="1" style="14"/>
     <col min="23" max="27" hidden="1" width="15.42578125" customWidth="1" style="10"/>
     <col min="28" max="28" hidden="1" width="12" customWidth="1" style="10"/>
-    <col min="29" max="29" bestFit="1" width="17.28515625" customWidth="1" style="60"/>
+    <col min="29" max="29" hidden="1" width="0.140625" customWidth="1" style="60"/>
     <col min="30" max="30" width="18.7109375" customWidth="1" style="10"/>
     <col min="31" max="31" width="18.85546875" customWidth="1" style="10"/>
     <col min="32" max="32" width="17.140625" customWidth="1" style="15"/>
@@ -7344,22 +7449,20 @@
         <v>172</v>
       </c>
       <c r="Z12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA12" s="38" t="s">
         <v>173</v>
       </c>
-      <c r="AA12" s="38" t="s">
+      <c r="AB12" s="38" t="s">
         <v>174</v>
       </c>
-      <c r="AB12" s="38" t="s">
+      <c r="AC12" s="63"/>
+      <c r="AD12" s="82" t="s">
         <v>175</v>
       </c>
-      <c r="AC12" s="63" t="s">
-        <v>0</v>
-      </c>
-      <c r="AD12" s="82" t="s">
+      <c r="AE12" s="37" t="s">
         <v>176</v>
-      </c>
-      <c r="AE12" s="37" t="s">
-        <v>177</v>
       </c>
       <c r="AF12" s="71"/>
       <c r="AG12" s="69"/>
@@ -8895,9 +8998,7 @@
       <c r="Z13" s="43"/>
       <c r="AA13" s="43"/>
       <c r="AB13" s="43"/>
-      <c r="AC13" s="73" t="s">
-        <v>2</v>
-      </c>
+      <c r="AC13" s="73"/>
       <c r="AD13" s="83"/>
       <c r="AE13" s="37" t="s">
         <v>149</v>
@@ -9439,7 +9540,7 @@
     </row>
     <row r="14" s="55" customFormat="1">
       <c r="A14" s="133" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B14" s="134"/>
       <c r="C14" s="134"/>
@@ -9453,16 +9554,16 @@
       <c r="K14" s="81"/>
       <c r="L14" s="48"/>
       <c r="M14" s="48" t="s">
+        <v>178</v>
+      </c>
+      <c r="N14" s="65" t="s">
         <v>179</v>
       </c>
-      <c r="N14" s="65" t="s">
+      <c r="O14" s="49" t="s">
         <v>180</v>
       </c>
-      <c r="O14" s="49" t="s">
+      <c r="P14" s="65" t="s">
         <v>181</v>
-      </c>
-      <c r="P14" s="65" t="s">
-        <v>182</v>
       </c>
       <c r="Q14" s="65" t="s">
         <v>4</v>
@@ -9500,17 +9601,15 @@
       <c r="AB14" s="65" t="s">
         <v>4</v>
       </c>
-      <c r="AC14" s="74" t="s">
-        <v>3</v>
-      </c>
+      <c r="AC14" s="74"/>
       <c r="AD14" s="84" t="s">
+        <v>182</v>
+      </c>
+      <c r="AE14" s="50" t="s">
         <v>183</v>
       </c>
-      <c r="AE14" s="50" t="s">
+      <c r="AF14" s="51" t="s">
         <v>184</v>
-      </c>
-      <c r="AF14" s="51" t="s">
-        <v>185</v>
       </c>
       <c r="AG14" s="70"/>
       <c r="AH14" s="52"/>
@@ -11522,7 +11621,7 @@
     </row>
     <row r="17">
       <c r="A17" s="13" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18">
@@ -11532,204 +11631,204 @@
     </row>
     <row r="19">
       <c r="C19" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K19" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="K19" s="76" t="s">
+      <c r="M19" s="138" t="s">
         <v>188</v>
       </c>
-      <c r="M19" s="138" t="s">
+      <c r="N19" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="N19" s="138" t="s">
-        <v>190</v>
-      </c>
       <c r="P19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="S19" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="S19" s="138" t="s">
-        <v>190</v>
-      </c>
       <c r="AD19" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE19" s="138" t="s">
+        <v>188</v>
+      </c>
+      <c r="AF19" s="138" t="s">
         <v>189</v>
-      </c>
-      <c r="AF19" s="138" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K20" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="K20" s="76" t="s">
+      <c r="M20" s="138" t="s">
         <v>192</v>
       </c>
-      <c r="M20" s="138" t="s">
-        <v>193</v>
-      </c>
       <c r="N20" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P20" s="138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="S20" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD20" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE20" s="138" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="AF20" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="21">
       <c r="C21" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K21" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="K21" s="76" t="s">
+      <c r="M21" s="138" t="s">
         <v>195</v>
       </c>
-      <c r="M21" s="138" t="s">
+      <c r="N21" s="138" t="s">
         <v>196</v>
       </c>
-      <c r="N21" s="138" t="s">
+      <c r="P21" s="138" t="s">
         <v>197</v>
       </c>
-      <c r="P21" s="138" t="s">
-        <v>198</v>
-      </c>
       <c r="S21" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD21" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE21" s="138" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AF21" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="22">
       <c r="C22" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K22" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="K22" s="76" t="s">
+      <c r="M22" s="138" t="s">
         <v>200</v>
       </c>
-      <c r="M22" s="138" t="s">
+      <c r="N22" s="138" t="s">
         <v>201</v>
       </c>
-      <c r="N22" s="138" t="s">
+      <c r="P22" s="138" t="s">
         <v>202</v>
       </c>
-      <c r="P22" s="138" t="s">
-        <v>203</v>
-      </c>
       <c r="S22" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD22" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE22" s="138" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF22" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="23">
       <c r="C23" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K23" s="76" t="s">
         <v>204</v>
       </c>
-      <c r="K23" s="76" t="s">
+      <c r="M23" s="138" t="s">
         <v>205</v>
       </c>
-      <c r="M23" s="138" t="s">
+      <c r="N23" s="138" t="s">
         <v>206</v>
       </c>
-      <c r="N23" s="138" t="s">
+      <c r="P23" s="138" t="s">
         <v>207</v>
       </c>
-      <c r="P23" s="138" t="s">
-        <v>208</v>
-      </c>
       <c r="S23" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD23" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE23" s="138" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="AF23" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="24">
       <c r="C24" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K24" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="K24" s="76" t="s">
+      <c r="M24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="N24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="S24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD24" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE24" s="138" t="s">
+        <v>200</v>
+      </c>
+      <c r="AF24" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="137" t="s">
         <v>210</v>
       </c>
-      <c r="M24" s="138" t="s">
-        <v>201</v>
-      </c>
-      <c r="N24" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="P24" s="138" t="s">
-        <v>201</v>
-      </c>
-      <c r="S24" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD24" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE24" s="138" t="s">
-        <v>201</v>
-      </c>
-      <c r="AF24" s="138" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" s="139" t="s">
+      <c r="M25" s="139" t="s">
         <v>211</v>
       </c>
-      <c r="M25" s="140" t="s">
+      <c r="P25" s="139" t="s">
         <v>212</v>
       </c>
-      <c r="P25" s="140" t="s">
+      <c r="S25" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="S25" s="140" t="s">
-        <v>214</v>
-      </c>
-      <c r="AD25" s="140" t="s">
-        <v>214</v>
-      </c>
-      <c r="AE25" s="140" t="s">
-        <v>212</v>
-      </c>
-      <c r="AF25" s="140" t="s">
-        <v>214</v>
+      <c r="AD25" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE25" s="139" t="s">
+        <v>211</v>
+      </c>
+      <c r="AF25" s="139" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="27">
@@ -11739,403 +11838,742 @@
     </row>
     <row r="28">
       <c r="C28" s="13" t="s">
+        <v>186</v>
+      </c>
+      <c r="K28" s="76" t="s">
         <v>187</v>
       </c>
-      <c r="K28" s="76" t="s">
-        <v>188</v>
-      </c>
       <c r="M28" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="N28" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P28" s="138" t="s">
+        <v>215</v>
+      </c>
+      <c r="S28" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="N28" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="P28" s="138" t="s">
+      <c r="AD28" s="138" t="s">
         <v>216</v>
       </c>
-      <c r="S28" s="138" t="s">
+      <c r="AE28" s="138" t="s">
         <v>217</v>
       </c>
-      <c r="AD28" s="138" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE28" s="138" t="s">
-        <v>218</v>
-      </c>
       <c r="AF28" s="138" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="13" t="s">
+        <v>190</v>
+      </c>
+      <c r="K29" s="76" t="s">
         <v>191</v>
       </c>
-      <c r="K29" s="76" t="s">
-        <v>192</v>
-      </c>
       <c r="M29" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N29" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S29" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD29" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF29" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="30">
       <c r="C30" s="13" t="s">
+        <v>193</v>
+      </c>
+      <c r="K30" s="76" t="s">
         <v>194</v>
       </c>
-      <c r="K30" s="76" t="s">
-        <v>195</v>
-      </c>
       <c r="M30" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="N30" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="S30" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD30" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF30" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31">
       <c r="C31" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K31" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="K31" s="76" t="s">
-        <v>200</v>
-      </c>
       <c r="M31" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N31" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S31" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD31" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF31" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K32" s="76" t="s">
         <v>209</v>
       </c>
-      <c r="K32" s="76" t="s">
-        <v>210</v>
-      </c>
       <c r="M32" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="N32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
-      <c r="A33" s="139" t="s">
+      <c r="A33" s="137" t="s">
+        <v>220</v>
+      </c>
+      <c r="M33" s="139" t="s">
         <v>221</v>
       </c>
-      <c r="M33" s="140" t="s">
+      <c r="P33" s="139" t="s">
         <v>222</v>
       </c>
-      <c r="P33" s="140" t="s">
+      <c r="S33" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD33" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE33" s="139" t="s">
         <v>223</v>
       </c>
-      <c r="S33" s="140" t="s">
-        <v>217</v>
-      </c>
-      <c r="AD33" s="140" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE33" s="140" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF33" s="140" t="s">
-        <v>217</v>
+      <c r="AF33" s="139" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="M34" s="141" t="s">
+      <c r="M34" s="140" t="s">
+        <v>224</v>
+      </c>
+      <c r="P34" s="141" t="s">
         <v>225</v>
       </c>
-      <c r="P34" s="142" t="s">
+      <c r="S34" s="141" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE34" s="141" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="142" t="s">
-        <v>217</v>
-      </c>
-      <c r="AE34" s="142" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF34" s="142" t="s">
-        <v>217</v>
+      <c r="AF34" s="141" t="s">
+        <v>216</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="136" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="142" t="s">
         <v>229</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="137" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="143" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="13" t="s">
+        <v>231</v>
+      </c>
+      <c r="K39" s="76" t="s">
         <v>232</v>
       </c>
-      <c r="K39" s="76" t="s">
+      <c r="M39" s="138" t="s">
         <v>233</v>
       </c>
-      <c r="M39" s="138" t="s">
-        <v>234</v>
-      </c>
       <c r="N39" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P39" s="138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="S39" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD39" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE39" s="138" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AF39" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K40" s="76" t="s">
         <v>199</v>
       </c>
-      <c r="K40" s="76" t="s">
-        <v>200</v>
-      </c>
       <c r="M40" s="138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="N40" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="S40" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD40" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="AF40" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="41">
       <c r="C41" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K41" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="M41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S41" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="AD41" s="138" t="s">
+        <v>234</v>
+      </c>
+      <c r="AE41" s="138" t="s">
         <v>235</v>
       </c>
-      <c r="K41" s="76" t="s">
-        <v>236</v>
-      </c>
-      <c r="M41" s="138" t="s">
-        <v>202</v>
-      </c>
-      <c r="N41" s="138" t="s">
-        <v>237</v>
-      </c>
-      <c r="P41" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="S41" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD41" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE41" s="138" t="s">
-        <v>238</v>
-      </c>
       <c r="AF41" s="138" t="s">
-        <v>190</v>
+        <v>234</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="M42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S42" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD42" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE42" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF42" s="138" t="s">
         <v>239</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>240</v>
-      </c>
-      <c r="M42" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="N42" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="P42" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="S42" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD42" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE42" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="AF42" s="138" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>210</v>
+        <v>241</v>
       </c>
       <c r="M43" s="138" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="N43" s="138" t="s">
         <v>242</v>
       </c>
       <c r="P43" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S43" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD43" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE43" s="138" t="s">
+        <v>238</v>
+      </c>
+      <c r="AF43" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="C44" s="13" t="s">
         <v>243</v>
       </c>
-      <c r="S43" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD43" s="138" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE43" s="138" t="s">
-        <v>243</v>
-      </c>
-      <c r="AF43" s="138" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="137" t="s">
+      <c r="K44" s="76" t="s">
         <v>244</v>
       </c>
-      <c r="M44" s="144" t="s">
+      <c r="M44" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="P44" s="144" t="s">
+      <c r="N44" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P44" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="S44" s="144" t="s">
-        <v>190</v>
-      </c>
-      <c r="AD44" s="144" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE44" s="144" t="s">
+      <c r="S44" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD44" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE44" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="AF44" s="144" t="s">
-        <v>190</v>
+      <c r="AF44" s="138" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="136" t="s">
+      <c r="C45" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K45" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M45" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="N45" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="P45" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="S45" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD45" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE45" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF45" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="142" t="s">
+        <v>248</v>
+      </c>
+      <c r="M46" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="S46" s="144" t="s">
+        <v>250</v>
+      </c>
+      <c r="AD46" s="144" t="s">
+        <v>250</v>
+      </c>
+      <c r="AE46" s="144" t="s">
+        <v>251</v>
+      </c>
+      <c r="AF46" s="144" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="136" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="46">
-      <c r="A46" s="136" t="s">
-        <v>246</v>
-      </c>
-      <c r="M46" s="141" t="s">
-        <v>190</v>
-      </c>
-      <c r="P46" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="S46" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE46" s="142" t="s">
-        <v>190</v>
-      </c>
-      <c r="AF46" s="142" t="s">
-        <v>190</v>
+    <row r="48">
+      <c r="A48" s="13" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="137" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="K50" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="M50" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="N50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P50" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="S50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE50" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF50" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="M51" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="N51" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P51" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="S51" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD51" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE51" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF51" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="C52" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K52" s="76" t="s">
+        <v>261</v>
+      </c>
+      <c r="M52" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="N52" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P52" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="S52" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD52" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE52" s="138" t="s">
+        <v>262</v>
+      </c>
+      <c r="AF52" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="C53" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="76" t="s">
+        <v>264</v>
+      </c>
+      <c r="M53" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="N53" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P53" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="S53" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD53" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE53" s="138" t="s">
+        <v>265</v>
+      </c>
+      <c r="AF53" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="C54" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K54" s="76" t="s">
+        <v>267</v>
+      </c>
+      <c r="M54" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="N54" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P54" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="S54" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD54" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE54" s="138" t="s">
+        <v>268</v>
+      </c>
+      <c r="AF54" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="C55" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>270</v>
+      </c>
+      <c r="M55" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="N55" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P55" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="S55" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD55" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE55" s="138" t="s">
+        <v>271</v>
+      </c>
+      <c r="AF55" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="C56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>273</v>
+      </c>
+      <c r="M56" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="N56" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P56" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="S56" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD56" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE56" s="138" t="s">
+        <v>274</v>
+      </c>
+      <c r="AF56" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="C57" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>276</v>
+      </c>
+      <c r="M57" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="N57" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P57" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="S57" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD57" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE57" s="138" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF57" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="137" t="s">
+        <v>278</v>
+      </c>
+      <c r="M58" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="P58" s="139" t="s">
+        <v>280</v>
+      </c>
+      <c r="S58" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD58" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE58" s="139" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF58" s="139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="M59" s="140" t="s">
+        <v>279</v>
+      </c>
+      <c r="P59" s="141" t="s">
+        <v>280</v>
+      </c>
+      <c r="S59" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE59" s="141" t="s">
+        <v>279</v>
+      </c>
+      <c r="AF59" s="141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="B61" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" s="141" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="B62" s="136" t="s">
+        <v>281</v>
+      </c>
+      <c r="M62" s="141" t="s">
+        <v>279</v>
       </c>
     </row>
     <row r="304"/>
@@ -12183,6 +12621,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A33:L33"/>
+    <mergeCell ref="A58:L58"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>
@@ -12207,7 +12646,7 @@
   </rowBreaks>
   <ignoredErrors>
     <ignoredError sqref="P13" formulaRange="1"/>
-    <ignoredError sqref="M14:O14 JY14:JZ14 S14:AI14" numberStoredAsText="1"/>
+    <ignoredError sqref="M14:O14 JY14:JZ14 S14:AB14 AD14:AI14" numberStoredAsText="1"/>
     <ignoredError sqref="P14" numberStoredAsText="1" formulaRange="1"/>
   </ignoredErrors>
 </worksheet>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -703,6 +703,9 @@
   </si>
   <si>
     <t>8,247,000.00</t>
+  </si>
+  <si>
+    <t>30,000.00</t>
   </si>
   <si>
     <t>60,000.00</t>
@@ -11862,7 +11865,7 @@
         <v>217</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="29">
@@ -11873,13 +11876,13 @@
         <v>191</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11888,7 +11891,7 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
@@ -11902,13 +11905,13 @@
         <v>194</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11917,7 +11920,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -11931,13 +11934,13 @@
         <v>199</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -11946,7 +11949,7 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
@@ -11960,13 +11963,13 @@
         <v>209</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N32" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S32" s="138" t="s">
         <v>189</v>
@@ -11975,7 +11978,7 @@
         <v>189</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF32" s="138" t="s">
         <v>189</v>
@@ -11983,13 +11986,13 @@
     </row>
     <row r="33">
       <c r="A33" s="137" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M33" s="139" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P33" s="139" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="S33" s="139" t="s">
         <v>216</v>
@@ -11998,10 +12001,10 @@
         <v>216</v>
       </c>
       <c r="AE33" s="139" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="AF33" s="139" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="34">
@@ -12009,56 +12012,56 @@
         <v>44</v>
       </c>
       <c r="M34" s="140" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="P34" s="141" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S34" s="141" t="s">
         <v>216</v>
       </c>
       <c r="AE34" s="141" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AF34" s="141" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="136" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="13" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="142" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" s="143" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
     </row>
     <row r="39">
       <c r="C39" s="13" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="K39" s="76" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="M39" s="138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="N39" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P39" s="138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="S39" s="138" t="s">
         <v>189</v>
@@ -12067,7 +12070,7 @@
         <v>189</v>
       </c>
       <c r="AE39" s="138" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AF39" s="138" t="s">
         <v>189</v>
@@ -12119,24 +12122,24 @@
         <v>189</v>
       </c>
       <c r="S41" s="138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AD41" s="138" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="AE41" s="138" t="s">
+        <v>236</v>
+      </c>
+      <c r="AF41" s="138" t="s">
         <v>235</v>
-      </c>
-      <c r="AF41" s="138" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="M42" s="138" t="s">
         <v>189</v>
@@ -12154,24 +12157,24 @@
         <v>216</v>
       </c>
       <c r="AE42" s="138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF42" s="138" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="M43" s="138" t="s">
         <v>201</v>
       </c>
       <c r="N43" s="138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="P43" s="138" t="s">
         <v>189</v>
@@ -12183,7 +12186,7 @@
         <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="AF43" s="138" t="s">
         <v>189</v>
@@ -12191,19 +12194,19 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="N44" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P44" s="138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="S44" s="138" t="s">
         <v>189</v>
@@ -12212,7 +12215,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12226,13 +12229,13 @@
         <v>209</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="N45" s="138" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12241,7 +12244,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12249,25 +12252,25 @@
     </row>
     <row r="46">
       <c r="A46" s="142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M46" s="144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="P46" s="144" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="S46" s="144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AD46" s="144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="AE46" s="144" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="AF46" s="144" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
     </row>
     <row r="47">
@@ -12277,29 +12280,29 @@
     </row>
     <row r="48">
       <c r="A48" s="13" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="137" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
     </row>
     <row r="50">
       <c r="C50" s="13" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M50" s="138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="N50" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P50" s="138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="S50" s="138" t="s">
         <v>189</v>
@@ -12308,7 +12311,7 @@
         <v>189</v>
       </c>
       <c r="AE50" s="138" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="AF50" s="138" t="s">
         <v>189</v>
@@ -12316,19 +12319,19 @@
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12337,7 +12340,7 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
@@ -12345,19 +12348,19 @@
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12366,7 +12369,7 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
@@ -12374,19 +12377,19 @@
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12395,7 +12398,7 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
@@ -12403,19 +12406,19 @@
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12424,7 +12427,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12432,19 +12435,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="K55" s="76" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12453,7 +12456,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12461,19 +12464,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12482,7 +12485,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12490,19 +12493,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12511,7 +12514,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12519,13 +12522,13 @@
     </row>
     <row r="58">
       <c r="A58" s="137" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="M58" s="139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="P58" s="139" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="S58" s="139" t="s">
         <v>213</v>
@@ -12534,7 +12537,7 @@
         <v>213</v>
       </c>
       <c r="AE58" s="139" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF58" s="139" t="s">
         <v>213</v>
@@ -12542,19 +12545,19 @@
     </row>
     <row r="59">
       <c r="A59" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="M59" s="140" t="s">
+        <v>280</v>
+      </c>
+      <c r="P59" s="141" t="s">
         <v>281</v>
-      </c>
-      <c r="M59" s="140" t="s">
-        <v>279</v>
-      </c>
-      <c r="P59" s="141" t="s">
-        <v>280</v>
       </c>
       <c r="S59" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AE59" s="141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="AF59" s="141" t="s">
         <v>189</v>
@@ -12565,15 +12568,15 @@
         <v>44</v>
       </c>
       <c r="M61" s="141" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="136" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="M62" s="141" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
     </row>
     <row r="304"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -714,6 +714,18 @@
     <t>432,000.00</t>
   </si>
   <si>
+    <t>SALARIES AND WAGES - CASUAL/ CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>5010102000</t>
+  </si>
+  <si>
+    <t>-60,000.00</t>
+  </si>
+  <si>
+    <t>55,000.00</t>
+  </si>
+  <si>
     <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
   </si>
   <si>
@@ -723,7 +735,10 @@
     <t>17,758,000.00</t>
   </si>
   <si>
-    <t>8,859,000.00</t>
+    <t>8,799,000.00</t>
+  </si>
+  <si>
+    <t>85,000.00</t>
   </si>
   <si>
     <t>61,780,000.00</t>
@@ -732,7 +747,7 @@
     <t>123,560,000.00</t>
   </si>
   <si>
-    <t>61,760,000.00</t>
+    <t>61,700,000.00</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -753,9 +768,6 @@
     <t>5010208001</t>
   </si>
   <si>
-    <t>85,000.00</t>
-  </si>
-  <si>
     <t>45,000.00</t>
   </si>
   <si>
@@ -772,12 +784,6 @@
   </si>
   <si>
     <t>15,000.00</t>
-  </si>
-  <si>
-    <t>SALARIES AND WAGES - CASUAL/ CONTRACTUAL</t>
-  </si>
-  <si>
-    <t>5010102000</t>
   </si>
   <si>
     <t>(90,000.00)</t>
@@ -898,6 +904,9 @@
   </si>
   <si>
     <t>TOTAL MOOE</t>
+  </si>
+  <si>
+    <t>TOTAL SAA PS</t>
   </si>
 </sst>
 </file>
@@ -2009,7 +2018,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO62"/>
+  <dimension ref="A1:TO64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -11957,140 +11966,140 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>208</v>
+        <v>221</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="N32" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P32" s="138" t="s">
+        <v>213</v>
+      </c>
+      <c r="S32" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="S32" s="138" t="s">
+      <c r="AD32" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="AE32" s="138" t="s">
+        <v>223</v>
+      </c>
+      <c r="AF32" s="138" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="C33" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K33" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M33" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD32" s="138" t="s">
+      <c r="P33" s="138" t="s">
+        <v>219</v>
+      </c>
+      <c r="S33" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AE32" s="138" t="s">
+      <c r="AD33" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE33" s="138" t="s">
         <v>219</v>
       </c>
-      <c r="AF32" s="138" t="s">
+      <c r="AF33" s="138" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" s="137" t="s">
-        <v>221</v>
-      </c>
-      <c r="M33" s="139" t="s">
-        <v>222</v>
-      </c>
-      <c r="P33" s="139" t="s">
-        <v>223</v>
-      </c>
-      <c r="S33" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="AD33" s="139" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE33" s="139" t="s">
-        <v>224</v>
-      </c>
-      <c r="AF33" s="139" t="s">
-        <v>218</v>
-      </c>
-    </row>
     <row r="34">
-      <c r="A34" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" s="140" t="s">
+      <c r="A34" s="137" t="s">
         <v>225</v>
       </c>
-      <c r="P34" s="141" t="s">
+      <c r="M34" s="139" t="s">
         <v>226</v>
       </c>
-      <c r="S34" s="141" t="s">
-        <v>216</v>
-      </c>
-      <c r="AE34" s="141" t="s">
+      <c r="P34" s="139" t="s">
         <v>227</v>
       </c>
-      <c r="AF34" s="141" t="s">
-        <v>218</v>
+      <c r="S34" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD34" s="139" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE34" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF34" s="139" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="136" t="s">
-        <v>228</v>
+        <v>44</v>
+      </c>
+      <c r="M35" s="140" t="s">
+        <v>230</v>
+      </c>
+      <c r="P35" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="S35" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE35" s="141" t="s">
+        <v>232</v>
+      </c>
+      <c r="AF35" s="141" t="s">
+        <v>229</v>
       </c>
     </row>
     <row r="36">
-      <c r="A36" s="13" t="s">
-        <v>229</v>
+      <c r="A36" s="136" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="37">
-      <c r="A37" s="142" t="s">
-        <v>230</v>
+      <c r="A37" s="13" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="143" t="s">
-        <v>231</v>
+      <c r="A38" s="142" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="39">
-      <c r="C39" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="K39" s="76" t="s">
-        <v>233</v>
-      </c>
-      <c r="M39" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="N39" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P39" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="S39" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD39" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE39" s="138" t="s">
-        <v>234</v>
-      </c>
-      <c r="AF39" s="138" t="s">
-        <v>189</v>
+      <c r="B39" s="143" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
-        <v>198</v>
+        <v>237</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>199</v>
+        <v>238</v>
       </c>
       <c r="M40" s="138" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="S40" s="138" t="s">
         <v>189</v>
@@ -12099,7 +12108,7 @@
         <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>206</v>
+        <v>229</v>
       </c>
       <c r="AF40" s="138" t="s">
         <v>189</v>
@@ -12107,39 +12116,39 @@
     </row>
     <row r="41">
       <c r="C41" s="13" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="M41" s="138" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="N41" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P41" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="S41" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="S41" s="138" t="s">
-        <v>235</v>
-      </c>
       <c r="AD41" s="138" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="AE41" s="138" t="s">
-        <v>236</v>
+        <v>206</v>
       </c>
       <c r="AF41" s="138" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="M42" s="138" t="s">
         <v>189</v>
@@ -12151,16 +12160,16 @@
         <v>189</v>
       </c>
       <c r="S42" s="138" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AD42" s="138" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="AE42" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF42" s="138" t="s">
         <v>239</v>
-      </c>
-      <c r="AF42" s="138" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="43">
@@ -12171,42 +12180,42 @@
         <v>242</v>
       </c>
       <c r="M43" s="138" t="s">
-        <v>201</v>
+        <v>189</v>
       </c>
       <c r="N43" s="138" t="s">
-        <v>243</v>
+        <v>189</v>
       </c>
       <c r="P43" s="138" t="s">
         <v>189</v>
       </c>
       <c r="S43" s="138" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AD43" s="138" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="AF43" s="138" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="K44" s="76" t="s">
+        <v>222</v>
+      </c>
+      <c r="M44" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="N44" s="138" t="s">
         <v>245</v>
       </c>
-      <c r="M44" s="138" t="s">
-        <v>246</v>
-      </c>
-      <c r="N44" s="138" t="s">
+      <c r="P44" s="138" t="s">
         <v>189</v>
-      </c>
-      <c r="P44" s="138" t="s">
-        <v>246</v>
       </c>
       <c r="S44" s="138" t="s">
         <v>189</v>
@@ -12215,7 +12224,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12223,16 +12232,16 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>208</v>
+        <v>246</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>209</v>
+        <v>247</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="N45" s="138" t="s">
-        <v>247</v>
+        <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
         <v>248</v>
@@ -12251,87 +12260,87 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="142" t="s">
+      <c r="C46" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K46" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M46" s="138" t="s">
         <v>249</v>
       </c>
-      <c r="M46" s="144" t="s">
+      <c r="N46" s="138" t="s">
+        <v>249</v>
+      </c>
+      <c r="P46" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="P46" s="144" t="s">
+      <c r="S46" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD46" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE46" s="138" t="s">
         <v>250</v>
       </c>
-      <c r="S46" s="144" t="s">
+      <c r="AF46" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="142" t="s">
         <v>251</v>
       </c>
-      <c r="AD46" s="144" t="s">
-        <v>251</v>
-      </c>
-      <c r="AE46" s="144" t="s">
+      <c r="M47" s="144" t="s">
         <v>252</v>
       </c>
-      <c r="AF46" s="144" t="s">
+      <c r="P47" s="144" t="s">
+        <v>252</v>
+      </c>
+      <c r="S47" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD47" s="144" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE47" s="144" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF47" s="144" t="s">
         <v>219</v>
       </c>
     </row>
-    <row r="47">
-      <c r="A47" s="136" t="s">
+    <row r="48">
+      <c r="A48" s="136" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="48">
-      <c r="A48" s="13" t="s">
-        <v>253</v>
-      </c>
-    </row>
     <row r="49">
-      <c r="A49" s="137" t="s">
-        <v>254</v>
+      <c r="A49" s="13" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="50">
-      <c r="C50" s="13" t="s">
-        <v>255</v>
-      </c>
-      <c r="K50" s="76" t="s">
+      <c r="A50" s="137" t="s">
         <v>256</v>
-      </c>
-      <c r="M50" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="N50" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P50" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="S50" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD50" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE50" s="138" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF50" s="138" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K51" s="76" t="s">
         <v>258</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="M51" s="138" t="s">
         <v>259</v>
-      </c>
-      <c r="M51" s="138" t="s">
-        <v>260</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12340,7 +12349,7 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
@@ -12348,19 +12357,19 @@
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K52" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="K52" s="76" t="s">
+      <c r="M52" s="138" t="s">
         <v>262</v>
-      </c>
-      <c r="M52" s="138" t="s">
-        <v>263</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12369,7 +12378,7 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
@@ -12377,19 +12386,19 @@
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K53" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="K53" s="76" t="s">
+      <c r="M53" s="138" t="s">
         <v>265</v>
-      </c>
-      <c r="M53" s="138" t="s">
-        <v>266</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12398,7 +12407,7 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
@@ -12406,19 +12415,19 @@
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K54" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="K54" s="76" t="s">
+      <c r="M54" s="138" t="s">
         <v>268</v>
-      </c>
-      <c r="M54" s="138" t="s">
-        <v>269</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12427,7 +12436,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12435,19 +12444,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K55" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="M55" s="138" t="s">
         <v>271</v>
-      </c>
-      <c r="M55" s="138" t="s">
-        <v>272</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12456,7 +12465,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12464,19 +12473,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K56" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="K56" s="76" t="s">
+      <c r="M56" s="138" t="s">
         <v>274</v>
-      </c>
-      <c r="M56" s="138" t="s">
-        <v>275</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12485,7 +12494,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12493,19 +12502,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K57" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="M57" s="138" t="s">
         <v>277</v>
-      </c>
-      <c r="M57" s="138" t="s">
-        <v>278</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12514,69 +12523,151 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="137" t="s">
+      <c r="C58" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K58" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="M58" s="139" t="s">
+      <c r="M58" s="138" t="s">
         <v>280</v>
       </c>
-      <c r="P58" s="139" t="s">
+      <c r="N58" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P58" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="S58" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD58" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE58" s="138" t="s">
+        <v>280</v>
+      </c>
+      <c r="AF58" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="137" t="s">
         <v>281</v>
       </c>
-      <c r="S58" s="139" t="s">
+      <c r="M59" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="P59" s="139" t="s">
+        <v>283</v>
+      </c>
+      <c r="S59" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AD58" s="139" t="s">
+      <c r="AD59" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AE58" s="139" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF58" s="139" t="s">
+      <c r="AE59" s="139" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF59" s="139" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="59">
-      <c r="A59" s="136" t="s">
+    <row r="60">
+      <c r="A60" s="136" t="s">
+        <v>284</v>
+      </c>
+      <c r="M60" s="140" t="s">
         <v>282</v>
       </c>
-      <c r="M59" s="140" t="s">
-        <v>280</v>
-      </c>
-      <c r="P59" s="141" t="s">
-        <v>281</v>
-      </c>
-      <c r="S59" s="141" t="s">
+      <c r="P60" s="141" t="s">
+        <v>283</v>
+      </c>
+      <c r="S60" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE59" s="141" t="s">
-        <v>280</v>
-      </c>
-      <c r="AF59" s="141" t="s">
+      <c r="AE60" s="141" t="s">
+        <v>282</v>
+      </c>
+      <c r="AF60" s="141" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="B61" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M61" s="141" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="P62" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="S62" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="AD62" s="141" t="s">
+        <v>206</v>
+      </c>
+      <c r="AE62" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF62" s="144" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="136" t="s">
+        <v>284</v>
+      </c>
+      <c r="M63" s="141" t="s">
         <v>282</v>
       </c>
-      <c r="M62" s="141" t="s">
-        <v>280</v>
+      <c r="P63" s="141" t="s">
+        <v>283</v>
+      </c>
+      <c r="S63" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD63" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE63" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF63" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="B64" s="136" t="s">
+        <v>285</v>
+      </c>
+      <c r="M64" s="141" t="s">
+        <v>252</v>
+      </c>
+      <c r="P64" s="141" t="s">
+        <v>252</v>
+      </c>
+      <c r="S64" s="141" t="s">
+        <v>253</v>
+      </c>
+      <c r="AD64" s="141" t="s">
+        <v>253</v>
+      </c>
+      <c r="AE64" s="141" t="s">
+        <v>254</v>
+      </c>
+      <c r="AF64" s="144" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="304"/>
@@ -12623,8 +12714,8 @@
     <mergeCell ref="A13:J13"/>
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
-    <mergeCell ref="A33:L33"/>
-    <mergeCell ref="A58:L58"/>
+    <mergeCell ref="A34:L34"/>
+    <mergeCell ref="A59:L59"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="286">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -549,7 +549,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>October</t>
+    <t>November</t>
   </si>
   <si>
     <t>April</t>
@@ -570,13 +570,13 @@
     <t>September</t>
   </si>
   <si>
-    <t>November</t>
+    <t>October</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>As of October</t>
+    <t>As of November</t>
   </si>
   <si>
     <t xml:space="preserve">BALANCE OF </t>
@@ -699,15 +699,6 @@
     <t>8,267,000.00</t>
   </si>
   <si>
-    <t>20,000.00</t>
-  </si>
-  <si>
-    <t>8,247,000.00</t>
-  </si>
-  <si>
-    <t>30,000.00</t>
-  </si>
-  <si>
     <t>60,000.00</t>
   </si>
   <si>
@@ -720,12 +711,6 @@
     <t>5010102000</t>
   </si>
   <si>
-    <t>-60,000.00</t>
-  </si>
-  <si>
-    <t>55,000.00</t>
-  </si>
-  <si>
     <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
   </si>
   <si>
@@ -735,19 +720,10 @@
     <t>17,758,000.00</t>
   </si>
   <si>
-    <t>8,799,000.00</t>
-  </si>
-  <si>
-    <t>85,000.00</t>
-  </si>
-  <si>
     <t>61,780,000.00</t>
   </si>
   <si>
     <t>123,560,000.00</t>
-  </si>
-  <si>
-    <t>61,700,000.00</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -768,10 +744,7 @@
     <t>5010208001</t>
   </si>
   <si>
-    <t>45,000.00</t>
-  </si>
-  <si>
-    <t>-45,000.00</t>
+    <t>85,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">RM - MACHINERY </t>
@@ -780,13 +753,10 @@
     <t>5021305001</t>
   </si>
   <si>
-    <t>-20,000.00</t>
+    <t>(90,000.00)</t>
   </si>
   <si>
-    <t>15,000.00</t>
-  </si>
-  <si>
-    <t>(90,000.00)</t>
+    <t>-20,000.00</t>
   </si>
   <si>
     <t>SUBSISTENCE ALLOWANCE- MAGNA CARTA BENEFITS FOR PUBLIC HEALTH WORKERS UNDER R.A. 7305</t>
@@ -808,12 +778,6 @@
   </si>
   <si>
     <t>425,000.00</t>
-  </si>
-  <si>
-    <t>65,000.00</t>
-  </si>
-  <si>
-    <t>360,000.00</t>
   </si>
   <si>
     <t>100000100002000</t>
@@ -7461,10 +7425,10 @@
         <v>172</v>
       </c>
       <c r="Z12" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>173</v>
       </c>
       <c r="AB12" s="38" t="s">
         <v>174</v>
@@ -11865,16 +11829,16 @@
         <v>215</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="AE28" s="138" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>218</v>
+        <v>189</v>
       </c>
     </row>
     <row r="29">
@@ -11885,13 +11849,13 @@
         <v>191</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11900,7 +11864,7 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
@@ -11914,13 +11878,13 @@
         <v>194</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11929,7 +11893,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -11943,13 +11907,13 @@
         <v>199</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -11958,7 +11922,7 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
@@ -11966,10 +11930,10 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>213</v>
@@ -11981,16 +11945,16 @@
         <v>213</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>223</v>
+        <v>213</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>224</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
@@ -12001,13 +11965,13 @@
         <v>209</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P33" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="S33" s="138" t="s">
         <v>189</v>
@@ -12016,7 +11980,7 @@
         <v>189</v>
       </c>
       <c r="AE33" s="138" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="AF33" s="138" t="s">
         <v>189</v>
@@ -12024,25 +11988,25 @@
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="M34" s="139" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="S34" s="139" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AD34" s="139" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="AE34" s="139" t="s">
-        <v>228</v>
+        <v>221</v>
       </c>
       <c r="AF34" s="139" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
     </row>
     <row r="35">
@@ -12050,56 +12014,56 @@
         <v>44</v>
       </c>
       <c r="M35" s="140" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P35" s="141" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="S35" s="141" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AE35" s="141" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="AF35" s="141" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="136" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="142" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="143" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="M40" s="138" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="S40" s="138" t="s">
         <v>189</v>
@@ -12108,7 +12072,7 @@
         <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="AF40" s="138" t="s">
         <v>189</v>
@@ -12160,24 +12124,24 @@
         <v>189</v>
       </c>
       <c r="S42" s="138" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="AD42" s="138" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="AE42" s="138" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="AF42" s="138" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="M43" s="138" t="s">
         <v>189</v>
@@ -12189,30 +12153,30 @@
         <v>189</v>
       </c>
       <c r="S43" s="138" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="AD43" s="138" t="s">
-        <v>216</v>
+        <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>243</v>
+        <v>213</v>
       </c>
       <c r="AF43" s="138" t="s">
-        <v>244</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="M44" s="138" t="s">
         <v>201</v>
       </c>
       <c r="N44" s="138" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="P44" s="138" t="s">
         <v>189</v>
@@ -12224,7 +12188,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>243</v>
+        <v>235</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12232,19 +12196,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12253,7 +12217,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12267,13 +12231,13 @@
         <v>209</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="N46" s="138" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12282,7 +12246,7 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>250</v>
+        <v>240</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
@@ -12290,25 +12254,25 @@
     </row>
     <row r="47">
       <c r="A47" s="142" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="M47" s="144" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P47" s="144" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="S47" s="144" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AD47" s="144" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AE47" s="144" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AF47" s="144" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48">
@@ -12318,29 +12282,29 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>255</v>
+        <v>243</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="137" t="s">
-        <v>256</v>
+        <v>244</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>257</v>
+        <v>245</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>258</v>
+        <v>246</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12349,7 +12313,7 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
@@ -12357,19 +12321,19 @@
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12378,7 +12342,7 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
@@ -12386,19 +12350,19 @@
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12407,7 +12371,7 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
@@ -12415,19 +12379,19 @@
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
-        <v>266</v>
+        <v>254</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>267</v>
+        <v>255</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12436,7 +12400,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12444,19 +12408,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="K55" s="76" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12465,7 +12429,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12473,19 +12437,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12494,7 +12458,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>274</v>
+        <v>262</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12502,19 +12466,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>275</v>
+        <v>263</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>276</v>
+        <v>264</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12523,7 +12487,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>277</v>
+        <v>265</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12531,19 +12495,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>278</v>
+        <v>266</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>279</v>
+        <v>267</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12552,7 +12516,7 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>280</v>
+        <v>268</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
@@ -12560,13 +12524,13 @@
     </row>
     <row r="59">
       <c r="A59" s="137" t="s">
-        <v>281</v>
+        <v>269</v>
       </c>
       <c r="M59" s="139" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P59" s="139" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="S59" s="139" t="s">
         <v>213</v>
@@ -12575,7 +12539,7 @@
         <v>213</v>
       </c>
       <c r="AE59" s="139" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AF59" s="139" t="s">
         <v>213</v>
@@ -12583,19 +12547,19 @@
     </row>
     <row r="60">
       <c r="A60" s="136" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M60" s="140" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P60" s="141" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="S60" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AE60" s="141" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="AF60" s="141" t="s">
         <v>189</v>
@@ -12606,33 +12570,33 @@
         <v>44</v>
       </c>
       <c r="M62" s="141" t="s">
-        <v>230</v>
+        <v>223</v>
       </c>
       <c r="P62" s="141" t="s">
-        <v>231</v>
+        <v>224</v>
       </c>
       <c r="S62" s="141" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AD62" s="141" t="s">
-        <v>206</v>
+        <v>189</v>
       </c>
       <c r="AE62" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AF62" s="144" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" s="136" t="s">
-        <v>284</v>
+        <v>272</v>
       </c>
       <c r="M63" s="141" t="s">
-        <v>282</v>
+        <v>270</v>
       </c>
       <c r="P63" s="141" t="s">
-        <v>283</v>
+        <v>271</v>
       </c>
       <c r="S63" s="141" t="s">
         <v>189</v>
@@ -12649,25 +12613,25 @@
     </row>
     <row r="64">
       <c r="B64" s="136" t="s">
-        <v>285</v>
+        <v>273</v>
       </c>
       <c r="M64" s="141" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="P64" s="141" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="S64" s="141" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AD64" s="141" t="s">
-        <v>253</v>
+        <v>189</v>
       </c>
       <c r="AE64" s="141" t="s">
-        <v>254</v>
+        <v>242</v>
       </c>
       <c r="AF64" s="144" t="s">
-        <v>219</v>
+        <v>189</v>
       </c>
     </row>
     <row r="304"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="274" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -699,6 +699,12 @@
     <t>8,267,000.00</t>
   </si>
   <si>
+    <t>25,000.00</t>
+  </si>
+  <si>
+    <t>8,242,000.00</t>
+  </si>
+  <si>
     <t>60,000.00</t>
   </si>
   <si>
@@ -711,6 +717,9 @@
     <t>5010102000</t>
   </si>
   <si>
+    <t>-50,000.00</t>
+  </si>
+  <si>
     <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
   </si>
   <si>
@@ -720,10 +729,22 @@
     <t>17,758,000.00</t>
   </si>
   <si>
+    <t>75,000.00</t>
+  </si>
+  <si>
+    <t>8,804,000.00</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUBTOTAL  - PS</t>
+  </si>
+  <si>
     <t>61,780,000.00</t>
   </si>
   <si>
     <t>123,560,000.00</t>
+  </si>
+  <si>
+    <t>61,705,000.00</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -1982,7 +2003,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO64"/>
+  <dimension ref="A1:TO67"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -11829,16 +11850,16 @@
         <v>215</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="AE28" s="138" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29">
@@ -11849,13 +11870,13 @@
         <v>191</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11864,7 +11885,7 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
@@ -11878,13 +11899,13 @@
         <v>194</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11893,7 +11914,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -11907,13 +11928,13 @@
         <v>199</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -11922,7 +11943,7 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
@@ -11930,10 +11951,10 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>213</v>
@@ -11945,16 +11966,16 @@
         <v>213</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33">
@@ -11965,13 +11986,13 @@
         <v>209</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P33" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="S33" s="138" t="s">
         <v>189</v>
@@ -11980,7 +12001,7 @@
         <v>189</v>
       </c>
       <c r="AE33" s="138" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="AF33" s="138" t="s">
         <v>189</v>
@@ -11988,169 +12009,115 @@
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="M34" s="139" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="S34" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD34" s="139" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE34" s="139" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF34" s="139" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="13" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="137" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="137" t="s">
+        <v>228</v>
+      </c>
+      <c r="M37" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AD34" s="139" t="s">
+      <c r="P37" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AE34" s="139" t="s">
-        <v>221</v>
-      </c>
-      <c r="AF34" s="139" t="s">
+      <c r="S37" s="139" t="s">
         <v>213</v>
       </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="136" t="s">
+      <c r="AD37" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE37" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AF37" s="139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="140" t="s">
-        <v>223</v>
-      </c>
-      <c r="P35" s="141" t="s">
-        <v>224</v>
-      </c>
-      <c r="S35" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE35" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="AF35" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="136" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
+      <c r="M38" s="140" t="s">
+        <v>229</v>
+      </c>
+      <c r="P38" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="S38" s="141" t="s">
         <v>226</v>
       </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="142" t="s">
-        <v>227</v>
+      <c r="AE38" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="AF38" s="141" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="143" t="s">
-        <v>228</v>
+      <c r="A39" s="136" t="s">
+        <v>232</v>
       </c>
     </row>
     <row r="40">
-      <c r="C40" s="13" t="s">
-        <v>229</v>
-      </c>
-      <c r="K40" s="76" t="s">
-        <v>230</v>
-      </c>
-      <c r="M40" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="N40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P40" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="S40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE40" s="138" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF40" s="138" t="s">
-        <v>189</v>
+      <c r="A40" s="13" t="s">
+        <v>233</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" s="13" t="s">
-        <v>198</v>
-      </c>
-      <c r="K41" s="76" t="s">
-        <v>199</v>
-      </c>
-      <c r="M41" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="N41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P41" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="S41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE41" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="AF41" s="138" t="s">
-        <v>189</v>
+      <c r="A41" s="142" t="s">
+        <v>234</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="M42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="S42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE42" s="138" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF42" s="138" t="s">
-        <v>189</v>
+      <c r="B42" s="143" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="M43" s="138" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="N43" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P43" s="138" t="s">
-        <v>189</v>
+        <v>238</v>
       </c>
       <c r="S43" s="138" t="s">
         <v>189</v>
@@ -12159,7 +12126,7 @@
         <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>213</v>
+        <v>238</v>
       </c>
       <c r="AF43" s="138" t="s">
         <v>189</v>
@@ -12167,19 +12134,19 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>218</v>
+        <v>198</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>219</v>
+        <v>199</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>201</v>
+        <v>206</v>
       </c>
       <c r="N44" s="138" t="s">
-        <v>234</v>
+        <v>189</v>
       </c>
       <c r="P44" s="138" t="s">
-        <v>189</v>
+        <v>206</v>
       </c>
       <c r="S44" s="138" t="s">
         <v>189</v>
@@ -12188,7 +12155,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12196,19 +12163,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>236</v>
+        <v>203</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>237</v>
+        <v>204</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12217,7 +12184,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12225,19 +12192,19 @@
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>208</v>
+        <v>239</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>209</v>
+        <v>240</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="N46" s="138" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12246,152 +12213,152 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="142" t="s">
+      <c r="C47" s="13" t="s">
+        <v>220</v>
+      </c>
+      <c r="K47" s="76" t="s">
+        <v>221</v>
+      </c>
+      <c r="M47" s="138" t="s">
+        <v>201</v>
+      </c>
+      <c r="N47" s="138" t="s">
         <v>241</v>
       </c>
-      <c r="M47" s="144" t="s">
+      <c r="P47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE47" s="138" t="s">
         <v>242</v>
       </c>
-      <c r="P47" s="144" t="s">
-        <v>242</v>
-      </c>
-      <c r="S47" s="144" t="s">
+      <c r="AF47" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD47" s="144" t="s">
+    </row>
+    <row r="48">
+      <c r="C48" s="13" t="s">
+        <v>243</v>
+      </c>
+      <c r="K48" s="76" t="s">
+        <v>244</v>
+      </c>
+      <c r="M48" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="N48" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AE47" s="144" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF47" s="144" t="s">
+      <c r="P48" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="S48" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="136" t="s">
+      <c r="AD48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE48" s="138" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF48" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K49" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M49" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="N49" s="138" t="s">
+        <v>246</v>
+      </c>
+      <c r="P49" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="S49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE49" s="138" t="s">
+        <v>247</v>
+      </c>
+      <c r="AF49" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="142" t="s">
+        <v>248</v>
+      </c>
+      <c r="M50" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="P50" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="S50" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD50" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE50" s="144" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF50" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="136" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="137" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="C51" s="13" t="s">
-        <v>245</v>
-      </c>
-      <c r="K51" s="76" t="s">
-        <v>246</v>
-      </c>
-      <c r="M51" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="N51" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P51" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="S51" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD51" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE51" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF51" s="138" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="52">
-      <c r="C52" s="13" t="s">
-        <v>248</v>
-      </c>
-      <c r="K52" s="76" t="s">
-        <v>249</v>
-      </c>
-      <c r="M52" s="138" t="s">
+      <c r="A52" s="13" t="s">
         <v>250</v>
       </c>
-      <c r="N52" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P52" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="S52" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD52" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE52" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF52" s="138" t="s">
-        <v>189</v>
-      </c>
     </row>
     <row r="53">
-      <c r="C53" s="13" t="s">
+      <c r="A53" s="137" t="s">
         <v>251</v>
-      </c>
-      <c r="K53" s="76" t="s">
-        <v>252</v>
-      </c>
-      <c r="M53" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="N53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P53" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="S53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE53" s="138" t="s">
-        <v>253</v>
-      </c>
-      <c r="AF53" s="138" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
+        <v>252</v>
+      </c>
+      <c r="K54" s="76" t="s">
+        <v>253</v>
+      </c>
+      <c r="M54" s="138" t="s">
         <v>254</v>
-      </c>
-      <c r="K54" s="76" t="s">
-        <v>255</v>
-      </c>
-      <c r="M54" s="138" t="s">
-        <v>256</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12400,7 +12367,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12408,19 +12375,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
+        <v>255</v>
+      </c>
+      <c r="K55" s="76" t="s">
+        <v>256</v>
+      </c>
+      <c r="M55" s="138" t="s">
         <v>257</v>
-      </c>
-      <c r="K55" s="76" t="s">
-        <v>258</v>
-      </c>
-      <c r="M55" s="138" t="s">
-        <v>259</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12429,7 +12396,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12437,19 +12404,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K56" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="M56" s="138" t="s">
         <v>260</v>
-      </c>
-      <c r="K56" s="76" t="s">
-        <v>261</v>
-      </c>
-      <c r="M56" s="138" t="s">
-        <v>262</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12458,7 +12425,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12466,19 +12433,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="K57" s="76" t="s">
+        <v>262</v>
+      </c>
+      <c r="M57" s="138" t="s">
         <v>263</v>
-      </c>
-      <c r="K57" s="76" t="s">
-        <v>264</v>
-      </c>
-      <c r="M57" s="138" t="s">
-        <v>265</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12487,7 +12454,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12495,19 +12462,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
+        <v>264</v>
+      </c>
+      <c r="K58" s="76" t="s">
+        <v>265</v>
+      </c>
+      <c r="M58" s="138" t="s">
         <v>266</v>
-      </c>
-      <c r="K58" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="M58" s="138" t="s">
-        <v>268</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12516,121 +12483,208 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="137" t="s">
+      <c r="C59" s="13" t="s">
+        <v>267</v>
+      </c>
+      <c r="K59" s="76" t="s">
+        <v>268</v>
+      </c>
+      <c r="M59" s="138" t="s">
         <v>269</v>
       </c>
-      <c r="M59" s="139" t="s">
+      <c r="N59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="138" t="s">
+        <v>269</v>
+      </c>
+      <c r="S59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE59" s="138" t="s">
+        <v>269</v>
+      </c>
+      <c r="AF59" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="13" t="s">
         <v>270</v>
       </c>
-      <c r="P59" s="139" t="s">
+      <c r="K60" s="76" t="s">
         <v>271</v>
       </c>
-      <c r="S59" s="139" t="s">
+      <c r="M60" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="N60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P60" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="S60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE60" s="138" t="s">
+        <v>272</v>
+      </c>
+      <c r="AF60" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="13" t="s">
+        <v>273</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>274</v>
+      </c>
+      <c r="M61" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="N61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P61" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="S61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE61" s="138" t="s">
+        <v>275</v>
+      </c>
+      <c r="AF61" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="137" t="s">
+        <v>276</v>
+      </c>
+      <c r="M62" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="P62" s="139" t="s">
+        <v>278</v>
+      </c>
+      <c r="S62" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AD59" s="139" t="s">
+      <c r="AD62" s="139" t="s">
         <v>213</v>
       </c>
-      <c r="AE59" s="139" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF59" s="139" t="s">
+      <c r="AE62" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF62" s="139" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="60">
-      <c r="A60" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="M60" s="140" t="s">
-        <v>270</v>
-      </c>
-      <c r="P60" s="141" t="s">
-        <v>271</v>
-      </c>
-      <c r="S60" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE60" s="141" t="s">
-        <v>270</v>
-      </c>
-      <c r="AF60" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="B62" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="141" t="s">
-        <v>223</v>
-      </c>
-      <c r="P62" s="141" t="s">
-        <v>224</v>
-      </c>
-      <c r="S62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF62" s="144" t="s">
-        <v>189</v>
-      </c>
-    </row>
     <row r="63">
-      <c r="B63" s="136" t="s">
-        <v>272</v>
-      </c>
-      <c r="M63" s="141" t="s">
-        <v>270</v>
+      <c r="A63" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="M63" s="140" t="s">
+        <v>277</v>
       </c>
       <c r="P63" s="141" t="s">
-        <v>271</v>
+        <v>278</v>
       </c>
       <c r="S63" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD63" s="141" t="s">
+      <c r="AE63" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="AF63" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE63" s="141" t="s">
+    </row>
+    <row r="65">
+      <c r="B65" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="P65" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="S65" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD65" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE65" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF63" s="144" t="s">
+      <c r="AF65" s="144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="M66" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="P66" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="S66" s="141" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="136" t="s">
-        <v>273</v>
-      </c>
-      <c r="M64" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="P64" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="S64" s="141" t="s">
+      <c r="AD66" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD64" s="141" t="s">
+      <c r="AE66" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE64" s="141" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF64" s="144" t="s">
+      <c r="AF66" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="M67" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="P67" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="S67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE67" s="141" t="s">
+        <v>249</v>
+      </c>
+      <c r="AF67" s="144" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12679,7 +12733,8 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A37:L37"/>
+    <mergeCell ref="A62:L62"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -735,9 +735,6 @@
     <t>8,804,000.00</t>
   </si>
   <si>
-    <t xml:space="preserve">SUBTOTAL  - PS</t>
-  </si>
-  <si>
     <t>61,780,000.00</t>
   </si>
   <si>
@@ -756,7 +753,7 @@
     <t>SAA-RRFHS</t>
   </si>
   <si>
-    <t>SALARIES AND WAGES FOR DOCTOR TO THE BARRIOS</t>
+    <t>SALARIES FOR THE DOCTOR TO THE BARRIOS FOR NEGROS ISLAND</t>
   </si>
   <si>
     <t>PRODUCTIVITY INCENTIVE ALLOWANCE- CIVILIAN</t>
@@ -2003,7 +2000,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO67"/>
+  <dimension ref="A1:TO64"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -12031,93 +12028,147 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="13" t="s">
+      <c r="A35" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" s="140" t="s">
+        <v>228</v>
+      </c>
+      <c r="P35" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="S35" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE35" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="AF35" s="141" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="142" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="B39" s="143" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="C40" s="13" t="s">
+        <v>235</v>
+      </c>
+      <c r="K40" s="76" t="s">
+        <v>236</v>
+      </c>
+      <c r="M40" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="137" t="s">
+      <c r="P40" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="S40" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="137" t="s">
-        <v>228</v>
-      </c>
-      <c r="M37" s="139" t="s">
+      <c r="AD40" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE40" s="138" t="s">
+        <v>237</v>
+      </c>
+      <c r="AF40" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="C41" s="13" t="s">
+        <v>198</v>
+      </c>
+      <c r="K41" s="76" t="s">
+        <v>199</v>
+      </c>
+      <c r="M41" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="N41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P41" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="S41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD41" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE41" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="AF41" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="C42" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K42" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="M42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD42" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE42" s="138" t="s">
         <v>213</v>
       </c>
-      <c r="P37" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="S37" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD37" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE37" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="AF37" s="139" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M38" s="140" t="s">
-        <v>229</v>
-      </c>
-      <c r="P38" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="S38" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE38" s="141" t="s">
-        <v>231</v>
-      </c>
-      <c r="AF38" s="141" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="136" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="13" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="142" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="B42" s="143" t="s">
-        <v>235</v>
+      <c r="AF42" s="138" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="M43" s="138" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="N43" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P43" s="138" t="s">
-        <v>238</v>
+        <v>189</v>
       </c>
       <c r="S43" s="138" t="s">
         <v>189</v>
@@ -12126,7 +12177,7 @@
         <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>238</v>
+        <v>213</v>
       </c>
       <c r="AF43" s="138" t="s">
         <v>189</v>
@@ -12134,19 +12185,19 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>198</v>
+        <v>220</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>199</v>
+        <v>221</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="N44" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="P44" s="138" t="s">
         <v>189</v>
-      </c>
-      <c r="P44" s="138" t="s">
-        <v>206</v>
       </c>
       <c r="S44" s="138" t="s">
         <v>189</v>
@@ -12155,7 +12206,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12163,19 +12214,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>203</v>
+        <v>242</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>204</v>
+        <v>243</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>189</v>
+        <v>244</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12184,7 +12235,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>213</v>
+        <v>244</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12192,19 +12243,19 @@
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="N46" s="138" t="s">
-        <v>189</v>
+        <v>245</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>189</v>
+        <v>246</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12213,152 +12264,152 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>213</v>
+        <v>246</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="47">
-      <c r="C47" s="13" t="s">
-        <v>220</v>
-      </c>
-      <c r="K47" s="76" t="s">
-        <v>221</v>
-      </c>
-      <c r="M47" s="138" t="s">
-        <v>201</v>
-      </c>
-      <c r="N47" s="138" t="s">
-        <v>241</v>
-      </c>
-      <c r="P47" s="138" t="s">
+      <c r="A47" s="142" t="s">
+        <v>247</v>
+      </c>
+      <c r="M47" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="P47" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="S47" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="S47" s="138" t="s">
+      <c r="AD47" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="AD47" s="138" t="s">
+      <c r="AE47" s="144" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF47" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="AE47" s="138" t="s">
-        <v>242</v>
-      </c>
-      <c r="AF47" s="138" t="s">
+    </row>
+    <row r="48">
+      <c r="A48" s="136" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="13" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="137" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="C51" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K51" s="76" t="s">
+        <v>252</v>
+      </c>
+      <c r="M51" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="48">
-      <c r="C48" s="13" t="s">
-        <v>243</v>
-      </c>
-      <c r="K48" s="76" t="s">
-        <v>244</v>
-      </c>
-      <c r="M48" s="138" t="s">
-        <v>245</v>
-      </c>
-      <c r="N48" s="138" t="s">
+      <c r="P51" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="S51" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="P48" s="138" t="s">
-        <v>245</v>
-      </c>
-      <c r="S48" s="138" t="s">
+      <c r="AD51" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD48" s="138" t="s">
+      <c r="AE51" s="138" t="s">
+        <v>253</v>
+      </c>
+      <c r="AF51" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AE48" s="138" t="s">
-        <v>245</v>
-      </c>
-      <c r="AF48" s="138" t="s">
+    </row>
+    <row r="52">
+      <c r="C52" s="13" t="s">
+        <v>254</v>
+      </c>
+      <c r="K52" s="76" t="s">
+        <v>255</v>
+      </c>
+      <c r="M52" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="49">
-      <c r="C49" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K49" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="M49" s="138" t="s">
-        <v>246</v>
-      </c>
-      <c r="N49" s="138" t="s">
-        <v>246</v>
-      </c>
-      <c r="P49" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="S49" s="138" t="s">
+      <c r="P52" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="S52" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD49" s="138" t="s">
+      <c r="AD52" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AE49" s="138" t="s">
-        <v>247</v>
-      </c>
-      <c r="AF49" s="138" t="s">
+      <c r="AE52" s="138" t="s">
+        <v>256</v>
+      </c>
+      <c r="AF52" s="138" t="s">
         <v>189</v>
       </c>
     </row>
-    <row r="50">
-      <c r="A50" s="142" t="s">
-        <v>248</v>
-      </c>
-      <c r="M50" s="144" t="s">
-        <v>249</v>
-      </c>
-      <c r="P50" s="144" t="s">
-        <v>249</v>
-      </c>
-      <c r="S50" s="144" t="s">
+    <row r="53">
+      <c r="C53" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="K53" s="76" t="s">
+        <v>258</v>
+      </c>
+      <c r="M53" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AD50" s="144" t="s">
+      <c r="P53" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="S53" s="138" t="s">
         <v>189</v>
       </c>
-      <c r="AE50" s="144" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF50" s="144" t="s">
+      <c r="AD53" s="138" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="13" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="137" t="s">
-        <v>251</v>
+      <c r="AE53" s="138" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF53" s="138" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12367,7 +12418,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12375,19 +12426,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="K55" s="76" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12396,7 +12447,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12404,19 +12455,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12425,7 +12476,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12433,19 +12484,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12454,7 +12505,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12462,19 +12513,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12483,208 +12534,121 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="59">
-      <c r="C59" s="13" t="s">
-        <v>267</v>
-      </c>
-      <c r="K59" s="76" t="s">
-        <v>268</v>
-      </c>
-      <c r="M59" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="N59" s="138" t="s">
+      <c r="A59" s="137" t="s">
+        <v>275</v>
+      </c>
+      <c r="M59" s="139" t="s">
+        <v>276</v>
+      </c>
+      <c r="P59" s="139" t="s">
+        <v>277</v>
+      </c>
+      <c r="S59" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AD59" s="139" t="s">
+        <v>213</v>
+      </c>
+      <c r="AE59" s="139" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF59" s="139" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="M60" s="140" t="s">
+        <v>276</v>
+      </c>
+      <c r="P60" s="141" t="s">
+        <v>277</v>
+      </c>
+      <c r="S60" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="P59" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="S59" s="138" t="s">
+      <c r="AE60" s="141" t="s">
+        <v>276</v>
+      </c>
+      <c r="AF60" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD59" s="138" t="s">
+    </row>
+    <row r="62">
+      <c r="B62" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" s="141" t="s">
+        <v>228</v>
+      </c>
+      <c r="P62" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="S62" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="AD62" s="141" t="s">
+        <v>226</v>
+      </c>
+      <c r="AE62" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE59" s="138" t="s">
-        <v>269</v>
-      </c>
-      <c r="AF59" s="138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="C60" s="13" t="s">
-        <v>270</v>
-      </c>
-      <c r="K60" s="76" t="s">
-        <v>271</v>
-      </c>
-      <c r="M60" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="N60" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P60" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="S60" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD60" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE60" s="138" t="s">
-        <v>272</v>
-      </c>
-      <c r="AF60" s="138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="C61" s="13" t="s">
-        <v>273</v>
-      </c>
-      <c r="K61" s="76" t="s">
-        <v>274</v>
-      </c>
-      <c r="M61" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="N61" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P61" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="S61" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD61" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE61" s="138" t="s">
-        <v>275</v>
-      </c>
-      <c r="AF61" s="138" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="137" t="s">
+      <c r="AF62" s="144" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="B63" s="136" t="s">
+        <v>278</v>
+      </c>
+      <c r="M63" s="141" t="s">
         <v>276</v>
       </c>
-      <c r="M62" s="139" t="s">
+      <c r="P63" s="141" t="s">
         <v>277</v>
-      </c>
-      <c r="P62" s="139" t="s">
-        <v>278</v>
-      </c>
-      <c r="S62" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="AD62" s="139" t="s">
-        <v>213</v>
-      </c>
-      <c r="AE62" s="139" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF62" s="139" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="136" t="s">
-        <v>279</v>
-      </c>
-      <c r="M63" s="140" t="s">
-        <v>277</v>
-      </c>
-      <c r="P63" s="141" t="s">
-        <v>278</v>
       </c>
       <c r="S63" s="141" t="s">
         <v>189</v>
       </c>
+      <c r="AD63" s="141" t="s">
+        <v>189</v>
+      </c>
       <c r="AE63" s="141" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF63" s="141" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="65">
-      <c r="B65" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M65" s="141" t="s">
-        <v>229</v>
-      </c>
-      <c r="P65" s="141" t="s">
-        <v>230</v>
-      </c>
-      <c r="S65" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="AD65" s="141" t="s">
-        <v>226</v>
-      </c>
-      <c r="AE65" s="141" t="s">
+      <c r="AF63" s="144" t="s">
         <v>189</v>
       </c>
-      <c r="AF65" s="144" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="B66" s="136" t="s">
+    </row>
+    <row r="64">
+      <c r="B64" s="136" t="s">
         <v>279</v>
       </c>
-      <c r="M66" s="141" t="s">
-        <v>277</v>
-      </c>
-      <c r="P66" s="141" t="s">
-        <v>278</v>
-      </c>
-      <c r="S66" s="141" t="s">
+      <c r="M64" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="P64" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="S64" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD66" s="141" t="s">
+      <c r="AD64" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE66" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF66" s="144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="136" t="s">
-        <v>280</v>
-      </c>
-      <c r="M67" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="P67" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="S67" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD67" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE67" s="141" t="s">
-        <v>249</v>
-      </c>
-      <c r="AF67" s="144" t="s">
+      <c r="AE64" s="141" t="s">
+        <v>248</v>
+      </c>
+      <c r="AF64" s="144" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12733,8 +12697,7 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A37:L37"/>
-    <mergeCell ref="A62:L62"/>
+    <mergeCell ref="A59:L59"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -621,6 +621,15 @@
     <t/>
   </si>
   <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>49,448,000.00</t>
+  </si>
+  <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
     <t>CLOTHING/UNIFORM ALLOWANCE- CIVILIAN</t>
   </si>
   <si>
@@ -666,9 +675,6 @@
     <t>5021304001</t>
   </si>
   <si>
-    <t>50,000.00</t>
-  </si>
-  <si>
     <t>80,000.00</t>
   </si>
   <si>
@@ -687,10 +693,7 @@
     <t>52,901,000.00</t>
   </si>
   <si>
-    <t>105,802,000.00</t>
-  </si>
-  <si>
-    <t>0.00</t>
+    <t>52,851,000.00</t>
   </si>
   <si>
     <t>310100100001000</t>
@@ -717,6 +720,9 @@
     <t>5010102000</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>-50,000.00</t>
   </si>
   <si>
@@ -724,9 +730,6 @@
   </si>
   <si>
     <t>8,879,000.00</t>
-  </si>
-  <si>
-    <t>17,758,000.00</t>
   </si>
   <si>
     <t>75,000.00</t>
@@ -738,10 +741,13 @@
     <t>61,780,000.00</t>
   </si>
   <si>
-    <t>123,560,000.00</t>
+    <t>125,000.00</t>
   </si>
   <si>
-    <t>61,705,000.00</t>
+    <t>61,655,000.00</t>
+  </si>
+  <si>
+    <t>120,000.00</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -882,10 +888,16 @@
     <t>5,465,000.00</t>
   </si>
   <si>
-    <t>10,930,000.00</t>
+    <t>TOTAL MOOE</t>
   </si>
   <si>
-    <t>TOTAL MOOE</t>
+    <t>TOTAL CO</t>
+  </si>
+  <si>
+    <t>CURRENT APPROPRIATIONS</t>
+  </si>
+  <si>
+    <t>TOTAL CA</t>
   </si>
   <si>
     <t>TOTAL SAA PS</t>
@@ -2000,7 +2012,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO64"/>
+  <dimension ref="A1:TO70"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -11640,33 +11652,33 @@
         <v>188</v>
       </c>
       <c r="S19" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AD19" s="138" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AE19" s="138" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="AF19" s="138" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20">
       <c r="C20" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K20" s="76" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M20" s="138" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="N20" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P20" s="138" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="S20" s="138" t="s">
         <v>189</v>
@@ -11675,7 +11687,7 @@
         <v>189</v>
       </c>
       <c r="AE20" s="138" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="AF20" s="138" t="s">
         <v>189</v>
@@ -11683,19 +11695,19 @@
     </row>
     <row r="21">
       <c r="C21" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M21" s="138" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N21" s="138" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="P21" s="138" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="S21" s="138" t="s">
         <v>189</v>
@@ -11704,7 +11716,7 @@
         <v>189</v>
       </c>
       <c r="AE21" s="138" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF21" s="138" t="s">
         <v>189</v>
@@ -11712,19 +11724,19 @@
     </row>
     <row r="22">
       <c r="C22" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M22" s="138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N22" s="138" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="P22" s="138" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="S22" s="138" t="s">
         <v>189</v>
@@ -11733,7 +11745,7 @@
         <v>189</v>
       </c>
       <c r="AE22" s="138" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="AF22" s="138" t="s">
         <v>189</v>
@@ -11741,19 +11753,19 @@
     </row>
     <row r="23">
       <c r="C23" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M23" s="138" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="N23" s="138" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="P23" s="138" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="S23" s="138" t="s">
         <v>189</v>
@@ -11762,7 +11774,7 @@
         <v>189</v>
       </c>
       <c r="AE23" s="138" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AF23" s="138" t="s">
         <v>189</v>
@@ -11770,19 +11782,19 @@
     </row>
     <row r="24">
       <c r="C24" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M24" s="138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="N24" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P24" s="138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="S24" s="138" t="s">
         <v>189</v>
@@ -11791,7 +11803,7 @@
         <v>189</v>
       </c>
       <c r="AE24" s="138" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="AF24" s="138" t="s">
         <v>189</v>
@@ -11799,30 +11811,30 @@
     </row>
     <row r="25">
       <c r="A25" s="137" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="M25" s="139" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="P25" s="139" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="S25" s="139" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AD25" s="139" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="AE25" s="139" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="AF25" s="139" t="s">
-        <v>213</v>
+        <v>192</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="27">
@@ -11838,42 +11850,42 @@
         <v>187</v>
       </c>
       <c r="M28" s="138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="N28" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P28" s="138" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AE28" s="138" t="s">
+        <v>218</v>
+      </c>
+      <c r="AF28" s="138" t="s">
         <v>217</v>
-      </c>
-      <c r="AF28" s="138" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="13" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="K29" s="76" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11882,7 +11894,7 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
@@ -11890,19 +11902,19 @@
     </row>
     <row r="30">
       <c r="C30" s="13" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11911,7 +11923,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -11919,19 +11931,19 @@
     </row>
     <row r="31">
       <c r="C31" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -11940,7 +11952,7 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
@@ -11948,48 +11960,48 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="N32" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
     </row>
     <row r="33">
       <c r="C33" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K33" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P33" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="S33" s="138" t="s">
         <v>189</v>
@@ -11998,7 +12010,7 @@
         <v>189</v>
       </c>
       <c r="AE33" s="138" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="AF33" s="138" t="s">
         <v>189</v>
@@ -12006,25 +12018,25 @@
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="M34" s="139" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="S34" s="139" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AD34" s="139" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="AE34" s="139" t="s">
+        <v>228</v>
+      </c>
+      <c r="AF34" s="139" t="s">
         <v>227</v>
-      </c>
-      <c r="AF34" s="139" t="s">
-        <v>226</v>
       </c>
     </row>
     <row r="35">
@@ -12032,56 +12044,59 @@
         <v>44</v>
       </c>
       <c r="M35" s="140" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="P35" s="141" t="s">
         <v>229</v>
       </c>
       <c r="S35" s="141" t="s">
-        <v>226</v>
+        <v>230</v>
+      </c>
+      <c r="AD35" s="141" t="s">
+        <v>230</v>
       </c>
       <c r="AE35" s="141" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="AF35" s="141" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="136" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="142" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="143" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="M40" s="138" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="S40" s="138" t="s">
         <v>189</v>
@@ -12090,7 +12105,7 @@
         <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AF40" s="138" t="s">
         <v>189</v>
@@ -12098,19 +12113,19 @@
     </row>
     <row r="41">
       <c r="C41" s="13" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="M41" s="138" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="N41" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P41" s="138" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="S41" s="138" t="s">
         <v>189</v>
@@ -12119,7 +12134,7 @@
         <v>189</v>
       </c>
       <c r="AE41" s="138" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="AF41" s="138" t="s">
         <v>189</v>
@@ -12127,10 +12142,10 @@
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M42" s="138" t="s">
         <v>189</v>
@@ -12148,7 +12163,7 @@
         <v>189</v>
       </c>
       <c r="AE42" s="138" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AF42" s="138" t="s">
         <v>189</v>
@@ -12156,10 +12171,10 @@
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="M43" s="138" t="s">
         <v>189</v>
@@ -12177,7 +12192,7 @@
         <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AF43" s="138" t="s">
         <v>189</v>
@@ -12185,16 +12200,16 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="N44" s="138" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="P44" s="138" t="s">
         <v>189</v>
@@ -12206,7 +12221,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12214,19 +12229,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12235,7 +12250,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12243,19 +12258,19 @@
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="N46" s="138" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12264,7 +12279,7 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
@@ -12272,13 +12287,13 @@
     </row>
     <row r="47">
       <c r="A47" s="142" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M47" s="144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="P47" s="144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="S47" s="144" t="s">
         <v>189</v>
@@ -12287,7 +12302,7 @@
         <v>189</v>
       </c>
       <c r="AE47" s="144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="AF47" s="144" t="s">
         <v>189</v>
@@ -12300,29 +12315,29 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="137" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12331,7 +12346,7 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
@@ -12339,19 +12354,19 @@
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12360,7 +12375,7 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
@@ -12368,19 +12383,19 @@
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12389,7 +12404,7 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
@@ -12397,19 +12412,19 @@
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12418,7 +12433,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12426,19 +12441,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="K55" s="76" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12447,7 +12462,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12455,19 +12470,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12476,7 +12491,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12484,19 +12499,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12505,7 +12520,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12513,19 +12528,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12534,7 +12549,7 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
@@ -12542,102 +12557,92 @@
     </row>
     <row r="59">
       <c r="A59" s="137" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="M59" s="139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="P59" s="139" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S59" s="139" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AD59" s="139" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
       <c r="AE59" s="139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF59" s="139" t="s">
-        <v>213</v>
+        <v>223</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="M60" s="140" t="s">
         <v>278</v>
       </c>
-      <c r="M60" s="140" t="s">
-        <v>276</v>
-      </c>
       <c r="P60" s="141" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="S60" s="141" t="s">
         <v>189</v>
       </c>
+      <c r="AD60" s="141" t="s">
+        <v>189</v>
+      </c>
       <c r="AE60" s="141" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AF60" s="141" t="s">
         <v>189</v>
       </c>
     </row>
+    <row r="61">
+      <c r="A61" s="136" t="s">
+        <v>94</v>
+      </c>
+    </row>
     <row r="62">
-      <c r="B62" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M62" s="141" t="s">
-        <v>228</v>
+      <c r="A62" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="M62" s="140" t="s">
+        <v>189</v>
       </c>
       <c r="P62" s="141" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="S62" s="141" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="AD62" s="141" t="s">
-        <v>226</v>
+        <v>189</v>
       </c>
       <c r="AE62" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF62" s="144" t="s">
-        <v>226</v>
+      <c r="AF62" s="141" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="63">
-      <c r="B63" s="136" t="s">
-        <v>278</v>
-      </c>
-      <c r="M63" s="141" t="s">
-        <v>276</v>
-      </c>
-      <c r="P63" s="141" t="s">
-        <v>277</v>
-      </c>
-      <c r="S63" s="141" t="s">
+      <c r="A63" s="136" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="M64" s="140" t="s">
         <v>189</v>
       </c>
-      <c r="AD63" s="141" t="s">
+      <c r="P64" s="141" t="s">
         <v>189</v>
-      </c>
-      <c r="AE63" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF63" s="144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="B64" s="136" t="s">
-        <v>279</v>
-      </c>
-      <c r="M64" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="P64" s="141" t="s">
-        <v>248</v>
       </c>
       <c r="S64" s="141" t="s">
         <v>189</v>
@@ -12646,9 +12651,124 @@
         <v>189</v>
       </c>
       <c r="AE64" s="141" t="s">
-        <v>248</v>
-      </c>
-      <c r="AF64" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF64" s="141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="B66" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="P66" s="141" t="s">
+        <v>229</v>
+      </c>
+      <c r="S66" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="AD66" s="141" t="s">
+        <v>230</v>
+      </c>
+      <c r="AE66" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF66" s="144" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="B67" s="136" t="s">
+        <v>279</v>
+      </c>
+      <c r="M67" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="P67" s="141" t="s">
+        <v>278</v>
+      </c>
+      <c r="S67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE67" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF67" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="B68" s="136" t="s">
+        <v>280</v>
+      </c>
+      <c r="M68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF68" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="B69" s="136" t="s">
+        <v>282</v>
+      </c>
+      <c r="M69" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P69" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S69" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD69" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE69" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF69" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="B70" s="136" t="s">
+        <v>283</v>
+      </c>
+      <c r="M70" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="P70" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="S70" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD70" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE70" s="141" t="s">
+        <v>250</v>
+      </c>
+      <c r="AF70" s="144" t="s">
         <v>189</v>
       </c>
     </row>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -36,15 +36,15 @@
   </definedNames>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
   <customWorkbookViews>
+    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
+    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
     <customWorkbookView name="MGaviola - Personal View" guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" mergeInterval="0" personalView="1" xWindow="15" yWindow="37" windowWidth="1343" windowHeight="301" activeSheetId="1"/>
-    <customWorkbookView name="JMendez-pc - Personal View" guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1600" windowHeight="628" activeSheetId="1"/>
-    <customWorkbookView name="CENSORED - Personal View" guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" mergeInterval="0" personalView="1" maximized="1" xWindow="1" yWindow="1" windowWidth="1407" windowHeight="878" activeSheetId="6"/>
   </customWorkbookViews>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -500,7 +500,7 @@
     <t>OBLIGATIONS INCURRED</t>
   </si>
   <si>
-    <t>UNOBLIGATEG</t>
+    <t>UNOBLIGATED</t>
   </si>
   <si>
     <t>DISBURSEMENTS</t>
@@ -630,6 +630,9 @@
     <t>45,000.00</t>
   </si>
   <si>
+    <t>99.91%</t>
+  </si>
+  <si>
     <t>CLOTHING/UNIFORM ALLOWANCE- CIVILIAN</t>
   </si>
   <si>
@@ -637,6 +640,9 @@
   </si>
   <si>
     <t>485,000.00</t>
+  </si>
+  <si>
+    <t>100%</t>
   </si>
   <si>
     <t>PERA-CIVILIAN</t>
@@ -693,6 +699,9 @@
     <t>52,901,000.00</t>
   </si>
   <si>
+    <t>0.00</t>
+  </si>
+  <si>
     <t>52,851,000.00</t>
   </si>
   <si>
@@ -708,6 +717,12 @@
     <t>8,242,000.00</t>
   </si>
   <si>
+    <t>1,025,000.00</t>
+  </si>
+  <si>
+    <t>87.6%</t>
+  </si>
+  <si>
     <t>60,000.00</t>
   </si>
   <si>
@@ -720,10 +735,10 @@
     <t>5010102000</t>
   </si>
   <si>
-    <t>0.00</t>
+    <t>-50,000.00</t>
   </si>
   <si>
-    <t>-50,000.00</t>
+    <t>Infinity%</t>
   </si>
   <si>
     <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
@@ -738,6 +753,12 @@
     <t>8,804,000.00</t>
   </si>
   <si>
+    <t>1,075,000.00</t>
+  </si>
+  <si>
+    <t>87.89%</t>
+  </si>
+  <si>
     <t>61,780,000.00</t>
   </si>
   <si>
@@ -747,7 +768,10 @@
     <t>61,655,000.00</t>
   </si>
   <si>
-    <t>120,000.00</t>
+    <t>1,120,000.00</t>
+  </si>
+  <si>
+    <t>98.19%</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -898,6 +922,12 @@
   </si>
   <si>
     <t>TOTAL CA</t>
+  </si>
+  <si>
+    <t>CONAP</t>
+  </si>
+  <si>
+    <t>TOTAL CONAP</t>
   </si>
   <si>
     <t>TOTAL SAA PS</t>
@@ -2012,11 +2042,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO70"/>
+  <dimension ref="A1:TO73"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="S32" sqref="S32"/>
+      <selection pane="bottomLeft" activeCell="AE11" sqref="AE11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -11652,7 +11682,7 @@
         <v>188</v>
       </c>
       <c r="S19" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD19" s="138" t="s">
         <v>190</v>
@@ -11663,22 +11693,25 @@
       <c r="AF19" s="138" t="s">
         <v>192</v>
       </c>
+      <c r="AG19" s="138" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="20">
       <c r="C20" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K20" s="76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M20" s="138" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N20" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P20" s="138" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="S20" s="138" t="s">
         <v>189</v>
@@ -11687,27 +11720,30 @@
         <v>189</v>
       </c>
       <c r="AE20" s="138" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="AF20" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG20" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="21">
       <c r="C21" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K21" s="76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M21" s="138" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="N21" s="138" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="P21" s="138" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="S21" s="138" t="s">
         <v>189</v>
@@ -11716,27 +11752,30 @@
         <v>189</v>
       </c>
       <c r="AE21" s="138" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="AF21" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG21" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="22">
       <c r="C22" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K22" s="76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M22" s="138" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N22" s="138" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="P22" s="138" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="S22" s="138" t="s">
         <v>189</v>
@@ -11745,27 +11784,30 @@
         <v>189</v>
       </c>
       <c r="AE22" s="138" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="AF22" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG22" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="23">
       <c r="C23" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K23" s="76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M23" s="138" t="s">
         <v>190</v>
       </c>
       <c r="N23" s="138" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="P23" s="138" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="S23" s="138" t="s">
         <v>189</v>
@@ -11774,27 +11816,30 @@
         <v>189</v>
       </c>
       <c r="AE23" s="138" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="AF23" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG23" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="24">
       <c r="C24" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K24" s="76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M24" s="138" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N24" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P24" s="138" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="S24" s="138" t="s">
         <v>189</v>
@@ -11803,38 +11848,44 @@
         <v>189</v>
       </c>
       <c r="AE24" s="138" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="AF24" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG24" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="137" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="M25" s="139" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="P25" s="139" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="S25" s="139" t="s">
-        <v>190</v>
+        <v>216</v>
       </c>
       <c r="AD25" s="139" t="s">
         <v>190</v>
       </c>
       <c r="AE25" s="139" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="AF25" s="139" t="s">
         <v>192</v>
       </c>
+      <c r="AG25" s="139" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="13" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27">
@@ -11850,42 +11901,45 @@
         <v>187</v>
       </c>
       <c r="M28" s="138" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="N28" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P28" s="138" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="AE28" s="138" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>217</v>
+        <v>222</v>
+      </c>
+      <c r="AG28" s="138" t="s">
+        <v>223</v>
       </c>
     </row>
     <row r="29">
       <c r="C29" s="13" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="K29" s="76" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11894,27 +11948,30 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG29" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="30">
       <c r="C30" s="13" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="K30" s="76" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11923,27 +11980,30 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>220</v>
+        <v>225</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG30" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="31">
       <c r="C31" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K31" s="76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -11952,27 +12012,30 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG31" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M32" s="138" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="N32" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P32" s="138" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="S32" s="138" t="s">
         <v>190</v>
@@ -11981,27 +12044,30 @@
         <v>190</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="AF32" s="138" t="s">
         <v>190</v>
       </c>
+      <c r="AG32" s="138" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="33">
       <c r="C33" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K33" s="76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P33" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="S33" s="138" t="s">
         <v>189</v>
@@ -12010,33 +12076,39 @@
         <v>189</v>
       </c>
       <c r="AE33" s="138" t="s">
-        <v>219</v>
+        <v>224</v>
       </c>
       <c r="AF33" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG33" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="M34" s="139" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
       <c r="S34" s="139" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AD34" s="139" t="s">
-        <v>227</v>
+        <v>232</v>
       </c>
       <c r="AE34" s="139" t="s">
-        <v>228</v>
+        <v>233</v>
       </c>
       <c r="AF34" s="139" t="s">
-        <v>227</v>
+        <v>234</v>
+      </c>
+      <c r="AG34" s="139" t="s">
+        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -12044,59 +12116,62 @@
         <v>44</v>
       </c>
       <c r="M35" s="140" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="P35" s="141" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="S35" s="141" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="AD35" s="141" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="AE35" s="141" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="AF35" s="141" t="s">
-        <v>232</v>
+        <v>239</v>
+      </c>
+      <c r="AG35" s="141" t="s">
+        <v>240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="136" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="142" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="143" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="K40" s="76" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="M40" s="138" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="S40" s="138" t="s">
         <v>189</v>
@@ -12105,7 +12180,7 @@
         <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="AF40" s="138" t="s">
         <v>189</v>
@@ -12113,19 +12188,19 @@
     </row>
     <row r="41">
       <c r="C41" s="13" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="K41" s="76" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M41" s="138" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="N41" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P41" s="138" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="S41" s="138" t="s">
         <v>189</v>
@@ -12134,7 +12209,7 @@
         <v>189</v>
       </c>
       <c r="AE41" s="138" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="AF41" s="138" t="s">
         <v>189</v>
@@ -12142,10 +12217,10 @@
     </row>
     <row r="42">
       <c r="C42" s="13" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="K42" s="76" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="M42" s="138" t="s">
         <v>189</v>
@@ -12163,7 +12238,7 @@
         <v>189</v>
       </c>
       <c r="AE42" s="138" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF42" s="138" t="s">
         <v>189</v>
@@ -12171,10 +12246,10 @@
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="K43" s="76" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="M43" s="138" t="s">
         <v>189</v>
@@ -12192,7 +12267,7 @@
         <v>189</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AF43" s="138" t="s">
         <v>189</v>
@@ -12200,16 +12275,16 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="N44" s="138" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="P44" s="138" t="s">
         <v>189</v>
@@ -12221,7 +12296,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12229,19 +12304,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="K45" s="76" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12250,7 +12325,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12258,19 +12333,19 @@
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="N46" s="138" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12279,7 +12354,7 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
@@ -12287,13 +12362,13 @@
     </row>
     <row r="47">
       <c r="A47" s="142" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="M47" s="144" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="P47" s="144" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="S47" s="144" t="s">
         <v>189</v>
@@ -12302,7 +12377,7 @@
         <v>189</v>
       </c>
       <c r="AE47" s="144" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="AF47" s="144" t="s">
         <v>189</v>
@@ -12315,29 +12390,29 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="137" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12346,27 +12421,30 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG51" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12375,27 +12453,30 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG52" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="K53" s="76" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12404,27 +12485,30 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG53" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
       <c r="K54" s="76" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12433,27 +12517,30 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG54" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="K55" s="76" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12462,27 +12549,30 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG55" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
       <c r="K56" s="76" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12491,27 +12581,30 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG56" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12520,27 +12613,30 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG57" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12549,44 +12645,50 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG58" s="138" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="137" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="M59" s="139" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P59" s="139" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="S59" s="139" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AD59" s="139" t="s">
-        <v>223</v>
+        <v>216</v>
       </c>
       <c r="AE59" s="139" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AF59" s="139" t="s">
-        <v>223</v>
+        <v>216</v>
+      </c>
+      <c r="AG59" s="139" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="136" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="M60" s="140" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="P60" s="141" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="S60" s="141" t="s">
         <v>189</v>
@@ -12595,10 +12697,13 @@
         <v>189</v>
       </c>
       <c r="AE60" s="141" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
       <c r="AF60" s="141" t="s">
         <v>189</v>
+      </c>
+      <c r="AG60" s="141" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="61">
@@ -12608,7 +12713,7 @@
     </row>
     <row r="62">
       <c r="A62" s="136" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
       <c r="M62" s="140" t="s">
         <v>189</v>
@@ -12628,15 +12733,18 @@
       <c r="AF62" s="141" t="s">
         <v>189</v>
       </c>
+      <c r="AG62" s="141" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="136" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="136" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
       <c r="M64" s="140" t="s">
         <v>189</v>
@@ -12656,85 +12764,73 @@
       <c r="AF64" s="141" t="s">
         <v>189</v>
       </c>
+      <c r="AG64" s="141" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="136" t="s">
+        <v>291</v>
+      </c>
     </row>
     <row r="66">
-      <c r="B66" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M66" s="141" t="s">
-        <v>229</v>
+      <c r="A66" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="M66" s="140" t="s">
+        <v>189</v>
       </c>
       <c r="P66" s="141" t="s">
-        <v>229</v>
+        <v>189</v>
       </c>
       <c r="S66" s="141" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="AD66" s="141" t="s">
-        <v>230</v>
+        <v>189</v>
       </c>
       <c r="AE66" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF66" s="144" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="B67" s="136" t="s">
-        <v>279</v>
-      </c>
-      <c r="M67" s="141" t="s">
-        <v>278</v>
-      </c>
-      <c r="P67" s="141" t="s">
-        <v>278</v>
-      </c>
-      <c r="S67" s="141" t="s">
+      <c r="AF66" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD67" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE67" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF67" s="144" t="s">
+      <c r="AG66" s="141" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" s="136" t="s">
-        <v>280</v>
+        <v>44</v>
       </c>
       <c r="M68" s="141" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="P68" s="141" t="s">
-        <v>189</v>
+        <v>236</v>
       </c>
       <c r="S68" s="141" t="s">
-        <v>189</v>
+        <v>232</v>
       </c>
       <c r="AD68" s="141" t="s">
-        <v>189</v>
+        <v>237</v>
       </c>
       <c r="AE68" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AF68" s="144" t="s">
-        <v>189</v>
+        <v>239</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="136" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M69" s="141" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="P69" s="141" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="S69" s="141" t="s">
         <v>189</v>
@@ -12751,13 +12847,13 @@
     </row>
     <row r="70">
       <c r="B70" s="136" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="M70" s="141" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="P70" s="141" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="S70" s="141" t="s">
         <v>189</v>
@@ -12766,9 +12862,78 @@
         <v>189</v>
       </c>
       <c r="AE70" s="141" t="s">
-        <v>250</v>
+        <v>189</v>
       </c>
       <c r="AF70" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="B71" s="136" t="s">
+        <v>290</v>
+      </c>
+      <c r="M71" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P71" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S71" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD71" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE71" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF71" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="B72" s="136" t="s">
+        <v>292</v>
+      </c>
+      <c r="M72" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P72" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S72" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD72" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE72" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF72" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="B73" s="136" t="s">
+        <v>293</v>
+      </c>
+      <c r="M73" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="P73" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="S73" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD73" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE73" s="141" t="s">
+        <v>258</v>
+      </c>
+      <c r="AF73" s="144" t="s">
         <v>189</v>
       </c>
     </row>
@@ -12788,18 +12953,6 @@
     <row r="1360"/>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="80" orientation="landscape"/>
-    </customSheetView>
-    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
-      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
-      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
-      <pageSetup paperSize="9" scale="90" orientation="landscape"/>
-    </customSheetView>
     <customSheetView guid="{9BEE38D6-6653-4D30-B7FE-4B53FEFD21A5}" showPageBreaks="1" printArea="1" showAutoFilter="1" hiddenColumns="1" view="pageBreakPreview" topLeftCell="A407">
       <selection activeCell="B415" activeCellId="48" sqref="B702 B698 B693 B688 B683 B679 B675 B668 B662 B658 B654 B650 B645 B641 B637 B632 B627 B622 B617 B612 B608 B604 B600 B596 B588 B582 B575 B569 B564 B559 B555 B551 B547 B543 B539 B535 B531 B525 B518 B513 B508 B461 B454 B447 B440 B434 B429 B422 B415"/>
       <pageMargins left="0.17" right="0" top="0.17" bottom="0.56000000000000005" header="0.3" footer="0.17"/>
@@ -12808,6 +12961,18 @@
         <oddFooter>&amp;LDOH RO7 SAOB - November 2017&amp;RPage &amp;P of &amp;N</oddFooter>
       </headerFooter>
       <autoFilter ref="A15:QN1381"/>
+    </customSheetView>
+    <customSheetView guid="{24A30693-6617-4D04-BF43-4D36BFF721D2}" scale="90" showPageBreaks="1" printArea="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A273" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I280" sqref="I280"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="90" orientation="landscape"/>
+    </customSheetView>
+    <customSheetView guid="{F30315C3-06C8-48C1-9206-E997EE99CBC2}" scale="90" showPageBreaks="1" hiddenRows="1" hiddenColumns="1" topLeftCell="A11">
+      <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G60" sqref="G60"/>
+      <pageMargins left="0" right="0" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
+      <pageSetup paperSize="9" scale="80" orientation="landscape"/>
     </customSheetView>
   </customSheetViews>
   <mergeCells>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -711,19 +711,16 @@
     <t>8,267,000.00</t>
   </si>
   <si>
-    <t>25,000.00</t>
+    <t>60,000.00</t>
   </si>
   <si>
-    <t>8,242,000.00</t>
+    <t>8,207,000.00</t>
   </si>
   <si>
-    <t>1,025,000.00</t>
+    <t>90,050,000.00</t>
   </si>
   <si>
-    <t>87.6%</t>
-  </si>
-  <si>
-    <t>60,000.00</t>
+    <t>989.27%</t>
   </si>
   <si>
     <t>432,000.00</t>
@@ -747,31 +744,31 @@
     <t>8,879,000.00</t>
   </si>
   <si>
-    <t>75,000.00</t>
+    <t>110,000.00</t>
   </si>
   <si>
-    <t>8,804,000.00</t>
+    <t>8,769,000.00</t>
   </si>
   <si>
-    <t>1,075,000.00</t>
+    <t>90,100,000.00</t>
   </si>
   <si>
-    <t>87.89%</t>
+    <t>914.75%</t>
   </si>
   <si>
     <t>61,780,000.00</t>
   </si>
   <si>
-    <t>125,000.00</t>
+    <t>160,000.00</t>
   </si>
   <si>
-    <t>61,655,000.00</t>
+    <t>61,620,000.00</t>
   </si>
   <si>
-    <t>1,120,000.00</t>
+    <t>90,145,000.00</t>
   </si>
   <si>
-    <t>98.19%</t>
+    <t>45.91%</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -11933,13 +11930,13 @@
         <v>195</v>
       </c>
       <c r="M29" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N29" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P29" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S29" s="138" t="s">
         <v>189</v>
@@ -11948,7 +11945,7 @@
         <v>189</v>
       </c>
       <c r="AE29" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF29" s="138" t="s">
         <v>189</v>
@@ -11965,13 +11962,13 @@
         <v>199</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -11980,7 +11977,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -11997,13 +11994,13 @@
         <v>204</v>
       </c>
       <c r="M31" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N31" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P31" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S31" s="138" t="s">
         <v>189</v>
@@ -12012,7 +12009,7 @@
         <v>189</v>
       </c>
       <c r="AE31" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF31" s="138" t="s">
         <v>189</v>
@@ -12023,10 +12020,10 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K32" s="76" t="s">
         <v>226</v>
-      </c>
-      <c r="K32" s="76" t="s">
-        <v>227</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>216</v>
@@ -12044,13 +12041,13 @@
         <v>190</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AF32" s="138" t="s">
         <v>190</v>
       </c>
       <c r="AG32" s="138" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="33">
@@ -12061,13 +12058,13 @@
         <v>213</v>
       </c>
       <c r="M33" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="N33" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P33" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="S33" s="138" t="s">
         <v>189</v>
@@ -12076,7 +12073,7 @@
         <v>189</v>
       </c>
       <c r="AE33" s="138" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="AF33" s="138" t="s">
         <v>189</v>
@@ -12087,28 +12084,28 @@
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
+        <v>229</v>
+      </c>
+      <c r="M34" s="139" t="s">
         <v>230</v>
       </c>
-      <c r="M34" s="139" t="s">
+      <c r="P34" s="139" t="s">
+        <v>230</v>
+      </c>
+      <c r="S34" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="P34" s="139" t="s">
+      <c r="AD34" s="139" t="s">
         <v>231</v>
       </c>
-      <c r="S34" s="139" t="s">
+      <c r="AE34" s="139" t="s">
         <v>232</v>
       </c>
-      <c r="AD34" s="139" t="s">
-        <v>232</v>
-      </c>
-      <c r="AE34" s="139" t="s">
+      <c r="AF34" s="139" t="s">
         <v>233</v>
       </c>
-      <c r="AF34" s="139" t="s">
+      <c r="AG34" s="139" t="s">
         <v>234</v>
-      </c>
-      <c r="AG34" s="139" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="35">
@@ -12116,62 +12113,62 @@
         <v>44</v>
       </c>
       <c r="M35" s="140" t="s">
+        <v>235</v>
+      </c>
+      <c r="P35" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="S35" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD35" s="141" t="s">
         <v>236</v>
       </c>
-      <c r="P35" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="S35" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD35" s="141" t="s">
+      <c r="AE35" s="141" t="s">
         <v>237</v>
       </c>
-      <c r="AE35" s="141" t="s">
+      <c r="AF35" s="141" t="s">
         <v>238</v>
       </c>
-      <c r="AF35" s="141" t="s">
+      <c r="AG35" s="141" t="s">
         <v>239</v>
-      </c>
-      <c r="AG35" s="141" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="136" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="13" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="142" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" s="143" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="40">
       <c r="C40" s="13" t="s">
+        <v>244</v>
+      </c>
+      <c r="K40" s="76" t="s">
         <v>245</v>
       </c>
-      <c r="K40" s="76" t="s">
+      <c r="M40" s="138" t="s">
         <v>246</v>
-      </c>
-      <c r="M40" s="138" t="s">
-        <v>247</v>
       </c>
       <c r="N40" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P40" s="138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="S40" s="138" t="s">
         <v>189</v>
@@ -12180,7 +12177,7 @@
         <v>189</v>
       </c>
       <c r="AE40" s="138" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AF40" s="138" t="s">
         <v>189</v>
@@ -12246,10 +12243,10 @@
     </row>
     <row r="43">
       <c r="C43" s="13" t="s">
+        <v>247</v>
+      </c>
+      <c r="K43" s="76" t="s">
         <v>248</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>249</v>
       </c>
       <c r="M43" s="138" t="s">
         <v>189</v>
@@ -12275,16 +12272,16 @@
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K44" s="76" t="s">
         <v>226</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>227</v>
       </c>
       <c r="M44" s="138" t="s">
         <v>206</v>
       </c>
       <c r="N44" s="138" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="P44" s="138" t="s">
         <v>189</v>
@@ -12296,7 +12293,7 @@
         <v>189</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>189</v>
@@ -12304,19 +12301,19 @@
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
+        <v>251</v>
+      </c>
+      <c r="K45" s="76" t="s">
         <v>252</v>
       </c>
-      <c r="K45" s="76" t="s">
+      <c r="M45" s="138" t="s">
         <v>253</v>
-      </c>
-      <c r="M45" s="138" t="s">
-        <v>254</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="S45" s="138" t="s">
         <v>189</v>
@@ -12325,7 +12322,7 @@
         <v>189</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="AF45" s="138" t="s">
         <v>189</v>
@@ -12339,13 +12336,13 @@
         <v>213</v>
       </c>
       <c r="M46" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="N46" s="138" t="s">
+        <v>254</v>
+      </c>
+      <c r="P46" s="138" t="s">
         <v>255</v>
-      </c>
-      <c r="N46" s="138" t="s">
-        <v>255</v>
-      </c>
-      <c r="P46" s="138" t="s">
-        <v>256</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12354,7 +12351,7 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
@@ -12362,13 +12359,13 @@
     </row>
     <row r="47">
       <c r="A47" s="142" t="s">
+        <v>256</v>
+      </c>
+      <c r="M47" s="144" t="s">
         <v>257</v>
       </c>
-      <c r="M47" s="144" t="s">
-        <v>258</v>
-      </c>
       <c r="P47" s="144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S47" s="144" t="s">
         <v>189</v>
@@ -12377,7 +12374,7 @@
         <v>189</v>
       </c>
       <c r="AE47" s="144" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF47" s="144" t="s">
         <v>189</v>
@@ -12390,29 +12387,29 @@
     </row>
     <row r="49">
       <c r="A49" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="137" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
+        <v>260</v>
+      </c>
+      <c r="K51" s="76" t="s">
         <v>261</v>
       </c>
-      <c r="K51" s="76" t="s">
+      <c r="M51" s="138" t="s">
         <v>262</v>
-      </c>
-      <c r="M51" s="138" t="s">
-        <v>263</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>189</v>
@@ -12421,7 +12418,7 @@
         <v>189</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>189</v>
@@ -12432,19 +12429,19 @@
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
+        <v>263</v>
+      </c>
+      <c r="K52" s="76" t="s">
         <v>264</v>
       </c>
-      <c r="K52" s="76" t="s">
+      <c r="M52" s="138" t="s">
         <v>265</v>
-      </c>
-      <c r="M52" s="138" t="s">
-        <v>266</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12453,7 +12450,7 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
@@ -12464,19 +12461,19 @@
     </row>
     <row r="53">
       <c r="C53" s="13" t="s">
+        <v>266</v>
+      </c>
+      <c r="K53" s="76" t="s">
         <v>267</v>
       </c>
-      <c r="K53" s="76" t="s">
+      <c r="M53" s="138" t="s">
         <v>268</v>
-      </c>
-      <c r="M53" s="138" t="s">
-        <v>269</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>189</v>
@@ -12485,7 +12482,7 @@
         <v>189</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>189</v>
@@ -12496,19 +12493,19 @@
     </row>
     <row r="54">
       <c r="C54" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="K54" s="76" t="s">
         <v>270</v>
       </c>
-      <c r="K54" s="76" t="s">
+      <c r="M54" s="138" t="s">
         <v>271</v>
-      </c>
-      <c r="M54" s="138" t="s">
-        <v>272</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>189</v>
@@ -12517,7 +12514,7 @@
         <v>189</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>189</v>
@@ -12528,19 +12525,19 @@
     </row>
     <row r="55">
       <c r="C55" s="13" t="s">
+        <v>272</v>
+      </c>
+      <c r="K55" s="76" t="s">
         <v>273</v>
       </c>
-      <c r="K55" s="76" t="s">
+      <c r="M55" s="138" t="s">
         <v>274</v>
-      </c>
-      <c r="M55" s="138" t="s">
-        <v>275</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>189</v>
@@ -12549,7 +12546,7 @@
         <v>189</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>189</v>
@@ -12560,19 +12557,19 @@
     </row>
     <row r="56">
       <c r="C56" s="13" t="s">
+        <v>275</v>
+      </c>
+      <c r="K56" s="76" t="s">
         <v>276</v>
       </c>
-      <c r="K56" s="76" t="s">
+      <c r="M56" s="138" t="s">
         <v>277</v>
-      </c>
-      <c r="M56" s="138" t="s">
-        <v>278</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>189</v>
@@ -12581,7 +12578,7 @@
         <v>189</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>189</v>
@@ -12592,19 +12589,19 @@
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
+        <v>278</v>
+      </c>
+      <c r="K57" s="76" t="s">
         <v>279</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="M57" s="138" t="s">
         <v>280</v>
-      </c>
-      <c r="M57" s="138" t="s">
-        <v>281</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12613,7 +12610,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12624,19 +12621,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
+        <v>281</v>
+      </c>
+      <c r="K58" s="76" t="s">
         <v>282</v>
       </c>
-      <c r="K58" s="76" t="s">
+      <c r="M58" s="138" t="s">
         <v>283</v>
-      </c>
-      <c r="M58" s="138" t="s">
-        <v>284</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12645,7 +12642,7 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
@@ -12656,13 +12653,13 @@
     </row>
     <row r="59">
       <c r="A59" s="137" t="s">
+        <v>284</v>
+      </c>
+      <c r="M59" s="139" t="s">
         <v>285</v>
       </c>
-      <c r="M59" s="139" t="s">
-        <v>286</v>
-      </c>
       <c r="P59" s="139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S59" s="139" t="s">
         <v>216</v>
@@ -12671,7 +12668,7 @@
         <v>216</v>
       </c>
       <c r="AE59" s="139" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF59" s="139" t="s">
         <v>216</v>
@@ -12682,13 +12679,13 @@
     </row>
     <row r="60">
       <c r="A60" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M60" s="140" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P60" s="141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S60" s="141" t="s">
         <v>189</v>
@@ -12697,7 +12694,7 @@
         <v>189</v>
       </c>
       <c r="AE60" s="141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AF60" s="141" t="s">
         <v>189</v>
@@ -12713,7 +12710,7 @@
     </row>
     <row r="62">
       <c r="A62" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M62" s="140" t="s">
         <v>189</v>
@@ -12739,12 +12736,12 @@
     </row>
     <row r="63">
       <c r="A63" s="136" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M64" s="140" t="s">
         <v>189</v>
@@ -12770,12 +12767,12 @@
     </row>
     <row r="65">
       <c r="A65" s="136" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M66" s="140" t="s">
         <v>189</v>
@@ -12804,33 +12801,33 @@
         <v>44</v>
       </c>
       <c r="M68" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="P68" s="141" t="s">
+        <v>235</v>
+      </c>
+      <c r="S68" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD68" s="141" t="s">
         <v>236</v>
-      </c>
-      <c r="P68" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="S68" s="141" t="s">
-        <v>232</v>
-      </c>
-      <c r="AD68" s="141" t="s">
-        <v>237</v>
       </c>
       <c r="AE68" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AF68" s="144" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" s="136" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="M69" s="141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="P69" s="141" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="S69" s="141" t="s">
         <v>189</v>
@@ -12847,7 +12844,7 @@
     </row>
     <row r="70">
       <c r="B70" s="136" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="M70" s="141" t="s">
         <v>189</v>
@@ -12870,7 +12867,7 @@
     </row>
     <row r="71">
       <c r="B71" s="136" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="M71" s="141" t="s">
         <v>189</v>
@@ -12893,7 +12890,7 @@
     </row>
     <row r="72">
       <c r="B72" s="136" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="M72" s="141" t="s">
         <v>189</v>
@@ -12916,13 +12913,13 @@
     </row>
     <row r="73">
       <c r="B73" s="136" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="M73" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="P73" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="S73" s="141" t="s">
         <v>189</v>
@@ -12931,7 +12928,7 @@
         <v>189</v>
       </c>
       <c r="AE73" s="141" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="AF73" s="144" t="s">
         <v>189</v>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -606,7 +606,7 @@
     <t>(9) = (7) / (5)</t>
   </si>
   <si>
-    <t>200000100002000</t>
+    <t>310202100002000</t>
   </si>
   <si>
     <t>BASIC SALARY- CIVILIAN</t>
@@ -717,10 +717,10 @@
     <t>8,207,000.00</t>
   </si>
   <si>
-    <t>90,050,000.00</t>
+    <t>20,050,000.00</t>
   </si>
   <si>
-    <t>989.27%</t>
+    <t>142.53%</t>
   </si>
   <si>
     <t>432,000.00</t>
@@ -750,25 +750,49 @@
     <t>8,769,000.00</t>
   </si>
   <si>
-    <t>90,100,000.00</t>
+    <t>20,100,000.00</t>
   </si>
   <si>
-    <t>914.75%</t>
+    <t>126.38%</t>
   </si>
   <si>
-    <t>61,780,000.00</t>
+    <t>200000000001000</t>
+  </si>
+  <si>
+    <t>BONUS- CIVILIAN</t>
+  </si>
+  <si>
+    <t>5010214001</t>
+  </si>
+  <si>
+    <t>RM - MOTOR VEHICLES</t>
+  </si>
+  <si>
+    <t>5021306001</t>
+  </si>
+  <si>
+    <t>10,000,000.00</t>
+  </si>
+  <si>
+    <t>SUBTOTAL HEALTH PROMOTION - PS</t>
+  </si>
+  <si>
+    <t>10,080,000.00</t>
+  </si>
+  <si>
+    <t>71,860,000.00</t>
   </si>
   <si>
     <t>160,000.00</t>
   </si>
   <si>
-    <t>61,620,000.00</t>
+    <t>71,700,000.00</t>
   </si>
   <si>
-    <t>90,145,000.00</t>
+    <t>20,145,000.00</t>
   </si>
   <si>
-    <t>45.91%</t>
+    <t>71.97%</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -783,13 +807,22 @@
     <t>SALARIES FOR THE DOCTOR TO THE BARRIOS FOR NEGROS ISLAND</t>
   </si>
   <si>
+    <t>90,000,000.00</t>
+  </si>
+  <si>
+    <t>89,920,000.00</t>
+  </si>
+  <si>
+    <t>85,000.00</t>
+  </si>
+  <si>
     <t>PRODUCTIVITY INCENTIVE ALLOWANCE- CIVILIAN</t>
   </si>
   <si>
     <t>5010208001</t>
   </si>
   <si>
-    <t>85,000.00</t>
+    <t>100.00%</t>
   </si>
   <si>
     <t xml:space="preserve">RM - MACHINERY </t>
@@ -813,6 +846,15 @@
     <t>100,000.00</t>
   </si>
   <si>
+    <t>25,000.00</t>
+  </si>
+  <si>
+    <t>75,000.00</t>
+  </si>
+  <si>
+    <t>75.00%</t>
+  </si>
+  <si>
     <t>90,000.00</t>
   </si>
   <si>
@@ -822,7 +864,16 @@
     <t>SUBTOTAL SAA-RRFHS</t>
   </si>
   <si>
-    <t>425,000.00</t>
+    <t>90,425,000.00</t>
+  </si>
+  <si>
+    <t>105,000.00</t>
+  </si>
+  <si>
+    <t>90,320,000.00</t>
+  </si>
+  <si>
+    <t>99.88%</t>
   </si>
   <si>
     <t>100000100002000</t>
@@ -2039,7 +2090,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO73"/>
+  <dimension ref="A1:TO79"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -12109,240 +12160,198 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" s="136" t="s">
+      <c r="A35" s="13" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="137" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="C37" s="13" t="s">
+        <v>236</v>
+      </c>
+      <c r="K37" s="76" t="s">
+        <v>237</v>
+      </c>
+      <c r="M37" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="N37" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P37" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="S37" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD37" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE37" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF37" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG37" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="C38" s="13" t="s">
+        <v>238</v>
+      </c>
+      <c r="K38" s="76" t="s">
+        <v>239</v>
+      </c>
+      <c r="M38" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="N38" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P38" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="S38" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD38" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE38" s="138" t="s">
+        <v>240</v>
+      </c>
+      <c r="AF38" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG38" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="137" t="s">
+        <v>241</v>
+      </c>
+      <c r="M39" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="P39" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="S39" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="AD39" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="AE39" s="139" t="s">
+        <v>242</v>
+      </c>
+      <c r="AF39" s="139" t="s">
+        <v>216</v>
+      </c>
+      <c r="AG39" s="139" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="136" t="s">
         <v>44</v>
       </c>
-      <c r="M35" s="140" t="s">
-        <v>235</v>
-      </c>
-      <c r="P35" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="S35" s="141" t="s">
+      <c r="M40" s="140" t="s">
+        <v>243</v>
+      </c>
+      <c r="P40" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="S40" s="141" t="s">
         <v>231</v>
       </c>
-      <c r="AD35" s="141" t="s">
-        <v>236</v>
-      </c>
-      <c r="AE35" s="141" t="s">
-        <v>237</v>
-      </c>
-      <c r="AF35" s="141" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG35" s="141" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="136" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="13" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="142" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="143" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="C40" s="13" t="s">
+      <c r="AD40" s="141" t="s">
         <v>244</v>
       </c>
-      <c r="K40" s="76" t="s">
+      <c r="AE40" s="141" t="s">
         <v>245</v>
       </c>
-      <c r="M40" s="138" t="s">
+      <c r="AF40" s="141" t="s">
         <v>246</v>
       </c>
-      <c r="N40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P40" s="138" t="s">
-        <v>246</v>
-      </c>
-      <c r="S40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD40" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE40" s="138" t="s">
-        <v>246</v>
-      </c>
-      <c r="AF40" s="138" t="s">
-        <v>189</v>
+      <c r="AG40" s="141" t="s">
+        <v>247</v>
       </c>
     </row>
     <row r="41">
-      <c r="C41" s="13" t="s">
-        <v>203</v>
-      </c>
-      <c r="K41" s="76" t="s">
-        <v>204</v>
-      </c>
-      <c r="M41" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="N41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P41" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="S41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD41" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE41" s="138" t="s">
-        <v>210</v>
-      </c>
-      <c r="AF41" s="138" t="s">
-        <v>189</v>
+      <c r="A41" s="136" t="s">
+        <v>248</v>
       </c>
     </row>
     <row r="42">
-      <c r="C42" s="13" t="s">
-        <v>208</v>
-      </c>
-      <c r="K42" s="76" t="s">
-        <v>209</v>
-      </c>
-      <c r="M42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="N42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="S42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD42" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE42" s="138" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF42" s="138" t="s">
-        <v>189</v>
+      <c r="A42" s="13" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="43">
-      <c r="C43" s="13" t="s">
-        <v>247</v>
-      </c>
-      <c r="K43" s="76" t="s">
-        <v>248</v>
-      </c>
-      <c r="M43" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="N43" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P43" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="S43" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD43" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE43" s="138" t="s">
-        <v>216</v>
-      </c>
-      <c r="AF43" s="138" t="s">
-        <v>189</v>
+      <c r="A43" s="142" t="s">
+        <v>250</v>
       </c>
     </row>
     <row r="44">
-      <c r="C44" s="13" t="s">
-        <v>225</v>
-      </c>
-      <c r="K44" s="76" t="s">
-        <v>226</v>
-      </c>
-      <c r="M44" s="138" t="s">
-        <v>206</v>
-      </c>
-      <c r="N44" s="138" t="s">
-        <v>249</v>
-      </c>
-      <c r="P44" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="S44" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD44" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE44" s="138" t="s">
-        <v>250</v>
-      </c>
-      <c r="AF44" s="138" t="s">
-        <v>189</v>
+      <c r="B44" s="143" t="s">
+        <v>251</v>
       </c>
     </row>
     <row r="45">
       <c r="C45" s="13" t="s">
-        <v>251</v>
+        <v>186</v>
       </c>
       <c r="K45" s="76" t="s">
+        <v>187</v>
+      </c>
+      <c r="M45" s="138" t="s">
         <v>252</v>
-      </c>
-      <c r="M45" s="138" t="s">
-        <v>253</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="S45" s="138" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AD45" s="138" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="AE45" s="138" t="s">
         <v>253</v>
       </c>
       <c r="AF45" s="138" t="s">
-        <v>189</v>
+        <v>254</v>
+      </c>
+      <c r="AG45" s="138" t="s">
+        <v>193</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>212</v>
+        <v>255</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>213</v>
+        <v>256</v>
       </c>
       <c r="M46" s="138" t="s">
         <v>254</v>
       </c>
       <c r="N46" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P46" s="138" t="s">
         <v>254</v>
-      </c>
-      <c r="P46" s="138" t="s">
-        <v>255</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12351,97 +12360,190 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
       </c>
+      <c r="AG46" s="138" t="s">
+        <v>257</v>
+      </c>
     </row>
     <row r="47">
-      <c r="A47" s="142" t="s">
-        <v>256</v>
-      </c>
-      <c r="M47" s="144" t="s">
+      <c r="C47" s="13" t="s">
+        <v>203</v>
+      </c>
+      <c r="K47" s="76" t="s">
+        <v>204</v>
+      </c>
+      <c r="M47" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="N47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P47" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="S47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE47" s="138" t="s">
+        <v>210</v>
+      </c>
+      <c r="AF47" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG47" s="138" t="s">
         <v>257</v>
       </c>
-      <c r="P47" s="144" t="s">
+    </row>
+    <row r="48">
+      <c r="C48" s="13" t="s">
+        <v>208</v>
+      </c>
+      <c r="K48" s="76" t="s">
+        <v>209</v>
+      </c>
+      <c r="M48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE48" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF48" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG48" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="C49" s="13" t="s">
+        <v>258</v>
+      </c>
+      <c r="K49" s="76" t="s">
+        <v>259</v>
+      </c>
+      <c r="M49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="N49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE49" s="138" t="s">
+        <v>216</v>
+      </c>
+      <c r="AF49" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG49" s="138" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="C50" s="13" t="s">
+        <v>225</v>
+      </c>
+      <c r="K50" s="76" t="s">
+        <v>226</v>
+      </c>
+      <c r="M50" s="138" t="s">
+        <v>206</v>
+      </c>
+      <c r="N50" s="138" t="s">
+        <v>260</v>
+      </c>
+      <c r="P50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="S50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE50" s="138" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF50" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG50" s="138" t="s">
         <v>257</v>
-      </c>
-      <c r="S47" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD47" s="144" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE47" s="144" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF47" s="144" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="136" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="13" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="137" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="S51" s="138" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="AD51" s="138" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="AF51" s="138" t="s">
-        <v>189</v>
+        <v>265</v>
       </c>
       <c r="AG51" s="138" t="s">
-        <v>197</v>
+        <v>267</v>
       </c>
     </row>
     <row r="52">
       <c r="C52" s="13" t="s">
-        <v>263</v>
+        <v>212</v>
       </c>
       <c r="K52" s="76" t="s">
-        <v>264</v>
+        <v>213</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="N52" s="138" t="s">
-        <v>189</v>
+        <v>268</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12450,158 +12552,71 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="AG52" s="138" t="s">
-        <v>197</v>
+        <v>257</v>
       </c>
     </row>
     <row r="53">
-      <c r="C53" s="13" t="s">
-        <v>266</v>
-      </c>
-      <c r="K53" s="76" t="s">
-        <v>267</v>
-      </c>
-      <c r="M53" s="138" t="s">
-        <v>268</v>
-      </c>
-      <c r="N53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P53" s="138" t="s">
-        <v>268</v>
-      </c>
-      <c r="S53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE53" s="138" t="s">
-        <v>268</v>
-      </c>
-      <c r="AF53" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG53" s="138" t="s">
-        <v>197</v>
+      <c r="A53" s="142" t="s">
+        <v>270</v>
+      </c>
+      <c r="M53" s="144" t="s">
+        <v>271</v>
+      </c>
+      <c r="P53" s="144" t="s">
+        <v>271</v>
+      </c>
+      <c r="S53" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD53" s="144" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE53" s="144" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF53" s="144" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG53" s="144" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="54">
-      <c r="C54" s="13" t="s">
-        <v>269</v>
-      </c>
-      <c r="K54" s="76" t="s">
-        <v>270</v>
-      </c>
-      <c r="M54" s="138" t="s">
-        <v>271</v>
-      </c>
-      <c r="N54" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P54" s="138" t="s">
-        <v>271</v>
-      </c>
-      <c r="S54" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD54" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE54" s="138" t="s">
-        <v>271</v>
-      </c>
-      <c r="AF54" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG54" s="138" t="s">
-        <v>197</v>
+      <c r="A54" s="136" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="55">
-      <c r="C55" s="13" t="s">
-        <v>272</v>
-      </c>
-      <c r="K55" s="76" t="s">
-        <v>273</v>
-      </c>
-      <c r="M55" s="138" t="s">
-        <v>274</v>
-      </c>
-      <c r="N55" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P55" s="138" t="s">
-        <v>274</v>
-      </c>
-      <c r="S55" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD55" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE55" s="138" t="s">
-        <v>274</v>
-      </c>
-      <c r="AF55" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG55" s="138" t="s">
-        <v>197</v>
+      <c r="A55" s="13" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="56">
-      <c r="C56" s="13" t="s">
-        <v>275</v>
-      </c>
-      <c r="K56" s="76" t="s">
+      <c r="A56" s="137" t="s">
         <v>276</v>
-      </c>
-      <c r="M56" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="N56" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="P56" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="S56" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD56" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE56" s="138" t="s">
-        <v>277</v>
-      </c>
-      <c r="AF56" s="138" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG56" s="138" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
+        <v>277</v>
+      </c>
+      <c r="K57" s="76" t="s">
         <v>278</v>
       </c>
-      <c r="K57" s="76" t="s">
+      <c r="M57" s="138" t="s">
         <v>279</v>
-      </c>
-      <c r="M57" s="138" t="s">
-        <v>280</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12610,7 +12625,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12621,19 +12636,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
+        <v>280</v>
+      </c>
+      <c r="K58" s="76" t="s">
         <v>281</v>
       </c>
-      <c r="K58" s="76" t="s">
+      <c r="M58" s="138" t="s">
         <v>282</v>
-      </c>
-      <c r="M58" s="138" t="s">
-        <v>283</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12642,7 +12657,7 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
@@ -12652,133 +12667,232 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="137" t="s">
+      <c r="C59" s="13" t="s">
+        <v>283</v>
+      </c>
+      <c r="K59" s="76" t="s">
         <v>284</v>
       </c>
-      <c r="M59" s="139" t="s">
+      <c r="M59" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="P59" s="139" t="s">
+      <c r="N59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P59" s="138" t="s">
         <v>285</v>
       </c>
-      <c r="S59" s="139" t="s">
+      <c r="S59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE59" s="138" t="s">
+        <v>285</v>
+      </c>
+      <c r="AF59" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG59" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="C60" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="K60" s="76" t="s">
+        <v>287</v>
+      </c>
+      <c r="M60" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="N60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P60" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="S60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE60" s="138" t="s">
+        <v>288</v>
+      </c>
+      <c r="AF60" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG60" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="C61" s="13" t="s">
+        <v>289</v>
+      </c>
+      <c r="K61" s="76" t="s">
+        <v>290</v>
+      </c>
+      <c r="M61" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="N61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P61" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="S61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE61" s="138" t="s">
+        <v>291</v>
+      </c>
+      <c r="AF61" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG61" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="C62" s="13" t="s">
+        <v>292</v>
+      </c>
+      <c r="K62" s="76" t="s">
+        <v>293</v>
+      </c>
+      <c r="M62" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="N62" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P62" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="S62" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD62" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE62" s="138" t="s">
+        <v>294</v>
+      </c>
+      <c r="AF62" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG62" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="C63" s="13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K63" s="76" t="s">
+        <v>296</v>
+      </c>
+      <c r="M63" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="N63" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P63" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="S63" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD63" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE63" s="138" t="s">
+        <v>297</v>
+      </c>
+      <c r="AF63" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG63" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="C64" s="13" t="s">
+        <v>298</v>
+      </c>
+      <c r="K64" s="76" t="s">
+        <v>299</v>
+      </c>
+      <c r="M64" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="N64" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="P64" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="S64" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD64" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE64" s="138" t="s">
+        <v>300</v>
+      </c>
+      <c r="AF64" s="138" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG64" s="138" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="137" t="s">
+        <v>301</v>
+      </c>
+      <c r="M65" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="P65" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="S65" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="AD59" s="139" t="s">
+      <c r="AD65" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="AE59" s="139" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF59" s="139" t="s">
+      <c r="AE65" s="139" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF65" s="139" t="s">
         <v>216</v>
       </c>
-      <c r="AG59" s="139" t="s">
+      <c r="AG65" s="139" t="s">
         <v>197</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" s="136" t="s">
-        <v>286</v>
-      </c>
-      <c r="M60" s="140" t="s">
-        <v>285</v>
-      </c>
-      <c r="P60" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="S60" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD60" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE60" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="AF60" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG60" s="141" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="136" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="M62" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="P62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="S62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF62" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG62" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" s="136" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="M64" s="140" t="s">
-        <v>189</v>
-      </c>
-      <c r="P64" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="S64" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD64" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE64" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF64" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AG64" s="141" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" s="136" t="s">
-        <v>290</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="136" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="M66" s="140" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="P66" s="141" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="S66" s="141" t="s">
         <v>189</v>
@@ -12787,66 +12901,56 @@
         <v>189</v>
       </c>
       <c r="AE66" s="141" t="s">
-        <v>189</v>
+        <v>302</v>
       </c>
       <c r="AF66" s="141" t="s">
         <v>189</v>
       </c>
       <c r="AG66" s="141" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="136" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="M68" s="140" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="68">
-      <c r="B68" s="136" t="s">
-        <v>44</v>
-      </c>
-      <c r="M68" s="141" t="s">
-        <v>235</v>
-      </c>
       <c r="P68" s="141" t="s">
-        <v>235</v>
+        <v>189</v>
       </c>
       <c r="S68" s="141" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AD68" s="141" t="s">
-        <v>236</v>
+        <v>189</v>
       </c>
       <c r="AE68" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF68" s="144" t="s">
-        <v>238</v>
+      <c r="AF68" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG68" s="141" t="s">
+        <v>189</v>
       </c>
     </row>
     <row r="69">
-      <c r="B69" s="136" t="s">
-        <v>286</v>
-      </c>
-      <c r="M69" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="P69" s="141" t="s">
-        <v>285</v>
-      </c>
-      <c r="S69" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD69" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE69" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF69" s="144" t="s">
-        <v>189</v>
+      <c r="A69" s="136" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="70">
-      <c r="B70" s="136" t="s">
-        <v>287</v>
-      </c>
-      <c r="M70" s="141" t="s">
+      <c r="A70" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="M70" s="140" t="s">
         <v>189</v>
       </c>
       <c r="P70" s="141" t="s">
@@ -12861,38 +12965,23 @@
       <c r="AE70" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF70" s="144" t="s">
+      <c r="AF70" s="141" t="s">
         <v>189</v>
       </c>
+      <c r="AG70" s="141" t="s">
+        <v>189</v>
+      </c>
     </row>
     <row r="71">
-      <c r="B71" s="136" t="s">
-        <v>289</v>
-      </c>
-      <c r="M71" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="P71" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="S71" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AD71" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AE71" s="141" t="s">
-        <v>189</v>
-      </c>
-      <c r="AF71" s="144" t="s">
-        <v>189</v>
+      <c r="A71" s="136" t="s">
+        <v>307</v>
       </c>
     </row>
     <row r="72">
-      <c r="B72" s="136" t="s">
-        <v>291</v>
-      </c>
-      <c r="M72" s="141" t="s">
+      <c r="A72" s="136" t="s">
+        <v>308</v>
+      </c>
+      <c r="M72" s="140" t="s">
         <v>189</v>
       </c>
       <c r="P72" s="141" t="s">
@@ -12907,31 +12996,167 @@
       <c r="AE72" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AF72" s="144" t="s">
+      <c r="AF72" s="141" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="73">
-      <c r="B73" s="136" t="s">
-        <v>292</v>
-      </c>
-      <c r="M73" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="P73" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="S73" s="141" t="s">
+      <c r="AG72" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AD73" s="141" t="s">
+    </row>
+    <row r="74">
+      <c r="B74" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M74" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="P74" s="141" t="s">
+        <v>243</v>
+      </c>
+      <c r="S74" s="141" t="s">
+        <v>231</v>
+      </c>
+      <c r="AD74" s="141" t="s">
+        <v>244</v>
+      </c>
+      <c r="AE74" s="141" t="s">
+        <v>245</v>
+      </c>
+      <c r="AF74" s="144" t="s">
+        <v>246</v>
+      </c>
+      <c r="AG74" s="144" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="B75" s="136" t="s">
+        <v>303</v>
+      </c>
+      <c r="M75" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="P75" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="S75" s="141" t="s">
         <v>189</v>
       </c>
-      <c r="AE73" s="141" t="s">
-        <v>257</v>
-      </c>
-      <c r="AF73" s="144" t="s">
+      <c r="AD75" s="141" t="s">
         <v>189</v>
+      </c>
+      <c r="AE75" s="141" t="s">
+        <v>302</v>
+      </c>
+      <c r="AF75" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG75" s="144" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="B76" s="136" t="s">
+        <v>304</v>
+      </c>
+      <c r="M76" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P76" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S76" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD76" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE76" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF76" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG76" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="B77" s="136" t="s">
+        <v>306</v>
+      </c>
+      <c r="M77" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P77" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S77" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD77" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE77" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF77" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG77" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="B78" s="136" t="s">
+        <v>308</v>
+      </c>
+      <c r="M78" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="P78" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="S78" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AD78" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AE78" s="141" t="s">
+        <v>189</v>
+      </c>
+      <c r="AF78" s="144" t="s">
+        <v>189</v>
+      </c>
+      <c r="AG78" s="144" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="B79" s="136" t="s">
+        <v>309</v>
+      </c>
+      <c r="M79" s="141" t="s">
+        <v>271</v>
+      </c>
+      <c r="P79" s="141" t="s">
+        <v>271</v>
+      </c>
+      <c r="S79" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="AD79" s="141" t="s">
+        <v>272</v>
+      </c>
+      <c r="AE79" s="141" t="s">
+        <v>273</v>
+      </c>
+      <c r="AF79" s="144" t="s">
+        <v>231</v>
+      </c>
+      <c r="AG79" s="144" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="304"/>
@@ -12979,7 +13204,8 @@
     <mergeCell ref="A14:J14"/>
     <mergeCell ref="A25:L25"/>
     <mergeCell ref="A34:L34"/>
-    <mergeCell ref="A59:L59"/>
+    <mergeCell ref="A39:L39"/>
+    <mergeCell ref="A65:L65"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="297" uniqueCount="297">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -549,7 +549,7 @@
     <t>February</t>
   </si>
   <si>
-    <t>November</t>
+    <t>October</t>
   </si>
   <si>
     <t>April</t>
@@ -570,13 +570,13 @@
     <t>September</t>
   </si>
   <si>
-    <t>October</t>
+    <t>November</t>
   </si>
   <si>
     <t>December</t>
   </si>
   <si>
-    <t>As of November</t>
+    <t>As of October</t>
   </si>
   <si>
     <t xml:space="preserve">BALANCE OF </t>
@@ -714,15 +714,6 @@
     <t>60,000.00</t>
   </si>
   <si>
-    <t>8,207,000.00</t>
-  </si>
-  <si>
-    <t>20,050,000.00</t>
-  </si>
-  <si>
-    <t>142.53%</t>
-  </si>
-  <si>
     <t>432,000.00</t>
   </si>
   <si>
@@ -732,28 +723,10 @@
     <t>5010102000</t>
   </si>
   <si>
-    <t>-50,000.00</t>
-  </si>
-  <si>
-    <t>Infinity%</t>
-  </si>
-  <si>
     <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - PS</t>
   </si>
   <si>
     <t>8,879,000.00</t>
-  </si>
-  <si>
-    <t>110,000.00</t>
-  </si>
-  <si>
-    <t>8,769,000.00</t>
-  </si>
-  <si>
-    <t>20,100,000.00</t>
-  </si>
-  <si>
-    <t>126.38%</t>
   </si>
   <si>
     <t>200000000001000</t>
@@ -783,16 +756,10 @@
     <t>71,860,000.00</t>
   </si>
   <si>
-    <t>160,000.00</t>
+    <t>71,810,000.00</t>
   </si>
   <si>
-    <t>71,700,000.00</t>
-  </si>
-  <si>
-    <t>20,145,000.00</t>
-  </si>
-  <si>
-    <t>71.97%</t>
+    <t>99.94%</t>
   </si>
   <si>
     <t>SUB-ALLOTMENT-PS</t>
@@ -813,7 +780,7 @@
     <t>89,920,000.00</t>
   </si>
   <si>
-    <t>85,000.00</t>
+    <t>100.00%</t>
   </si>
   <si>
     <t>PRODUCTIVITY INCENTIVE ALLOWANCE- CIVILIAN</t>
@@ -822,7 +789,7 @@
     <t>5010208001</t>
   </si>
   <si>
-    <t>100.00%</t>
+    <t>85,000.00</t>
   </si>
   <si>
     <t xml:space="preserve">RM - MACHINERY </t>
@@ -852,9 +819,6 @@
     <t>75,000.00</t>
   </si>
   <si>
-    <t>75.00%</t>
-  </si>
-  <si>
     <t>90,000.00</t>
   </si>
   <si>
@@ -871,9 +835,6 @@
   </si>
   <si>
     <t>90,320,000.00</t>
-  </si>
-  <si>
-    <t>99.88%</t>
   </si>
   <si>
     <t>100000100002000</t>
@@ -7533,10 +7494,10 @@
         <v>172</v>
       </c>
       <c r="Z12" s="38" t="s">
+        <v>166</v>
+      </c>
+      <c r="AA12" s="38" t="s">
         <v>173</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>166</v>
       </c>
       <c r="AB12" s="38" t="s">
         <v>174</v>
@@ -11958,19 +11919,19 @@
         <v>219</v>
       </c>
       <c r="S28" s="138" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="AD28" s="138" t="s">
-        <v>220</v>
+        <v>189</v>
       </c>
       <c r="AE28" s="138" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="AF28" s="138" t="s">
-        <v>222</v>
+        <v>189</v>
       </c>
       <c r="AG28" s="138" t="s">
-        <v>223</v>
+        <v>197</v>
       </c>
     </row>
     <row r="29">
@@ -12013,13 +11974,13 @@
         <v>199</v>
       </c>
       <c r="M30" s="138" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="N30" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P30" s="138" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="S30" s="138" t="s">
         <v>189</v>
@@ -12028,7 +11989,7 @@
         <v>189</v>
       </c>
       <c r="AE30" s="138" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="AF30" s="138" t="s">
         <v>189</v>
@@ -12071,10 +12032,10 @@
     </row>
     <row r="32">
       <c r="C32" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K32" s="76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M32" s="138" t="s">
         <v>216</v>
@@ -12086,19 +12047,19 @@
         <v>216</v>
       </c>
       <c r="S32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AD32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AE32" s="138" t="s">
-        <v>227</v>
+        <v>216</v>
       </c>
       <c r="AF32" s="138" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG32" s="138" t="s">
-        <v>228</v>
+        <v>189</v>
       </c>
     </row>
     <row r="33">
@@ -12135,33 +12096,33 @@
     </row>
     <row r="34">
       <c r="A34" s="137" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="M34" s="139" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="P34" s="139" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="S34" s="139" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AD34" s="139" t="s">
-        <v>231</v>
+        <v>216</v>
       </c>
       <c r="AE34" s="139" t="s">
-        <v>232</v>
+        <v>225</v>
       </c>
       <c r="AF34" s="139" t="s">
-        <v>233</v>
+        <v>216</v>
       </c>
       <c r="AG34" s="139" t="s">
-        <v>234</v>
+        <v>197</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="13" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="36">
@@ -12171,10 +12132,10 @@
     </row>
     <row r="37">
       <c r="C37" s="13" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
       <c r="K37" s="76" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="M37" s="138" t="s">
         <v>210</v>
@@ -12203,19 +12164,19 @@
     </row>
     <row r="38">
       <c r="C38" s="13" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="K38" s="76" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="M38" s="138" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="N38" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P38" s="138" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="S38" s="138" t="s">
         <v>189</v>
@@ -12224,7 +12185,7 @@
         <v>189</v>
       </c>
       <c r="AE38" s="138" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="AF38" s="138" t="s">
         <v>189</v>
@@ -12235,13 +12196,13 @@
     </row>
     <row r="39">
       <c r="A39" s="137" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="M39" s="139" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="P39" s="139" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="S39" s="139" t="s">
         <v>216</v>
@@ -12250,7 +12211,7 @@
         <v>216</v>
       </c>
       <c r="AE39" s="139" t="s">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="AF39" s="139" t="s">
         <v>216</v>
@@ -12264,45 +12225,45 @@
         <v>44</v>
       </c>
       <c r="M40" s="140" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P40" s="141" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="S40" s="141" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AD40" s="141" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="AE40" s="141" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AF40" s="141" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="AG40" s="141" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="136" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="13" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="142" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" s="143" t="s">
-        <v>251</v>
+        <v>240</v>
       </c>
     </row>
     <row r="45">
@@ -12313,45 +12274,45 @@
         <v>187</v>
       </c>
       <c r="M45" s="138" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="N45" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P45" s="138" t="s">
-        <v>252</v>
+        <v>241</v>
       </c>
       <c r="S45" s="138" t="s">
-        <v>210</v>
+        <v>189</v>
       </c>
       <c r="AD45" s="138" t="s">
         <v>210</v>
       </c>
       <c r="AE45" s="138" t="s">
-        <v>253</v>
+        <v>242</v>
       </c>
       <c r="AF45" s="138" t="s">
-        <v>254</v>
+        <v>189</v>
       </c>
       <c r="AG45" s="138" t="s">
-        <v>193</v>
+        <v>243</v>
       </c>
     </row>
     <row r="46">
       <c r="C46" s="13" t="s">
-        <v>255</v>
+        <v>244</v>
       </c>
       <c r="K46" s="76" t="s">
-        <v>256</v>
+        <v>245</v>
       </c>
       <c r="M46" s="138" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="N46" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P46" s="138" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="S46" s="138" t="s">
         <v>189</v>
@@ -12360,13 +12321,13 @@
         <v>189</v>
       </c>
       <c r="AE46" s="138" t="s">
-        <v>254</v>
+        <v>246</v>
       </c>
       <c r="AF46" s="138" t="s">
         <v>189</v>
       </c>
       <c r="AG46" s="138" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="47">
@@ -12398,7 +12359,7 @@
         <v>189</v>
       </c>
       <c r="AG47" s="138" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="48">
@@ -12435,10 +12396,10 @@
     </row>
     <row r="49">
       <c r="C49" s="13" t="s">
-        <v>258</v>
+        <v>247</v>
       </c>
       <c r="K49" s="76" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="M49" s="138" t="s">
         <v>189</v>
@@ -12467,16 +12428,16 @@
     </row>
     <row r="50">
       <c r="C50" s="13" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="K50" s="76" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="M50" s="138" t="s">
         <v>206</v>
       </c>
       <c r="N50" s="138" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
       <c r="P50" s="138" t="s">
         <v>189</v>
@@ -12488,45 +12449,45 @@
         <v>189</v>
       </c>
       <c r="AE50" s="138" t="s">
-        <v>261</v>
+        <v>250</v>
       </c>
       <c r="AF50" s="138" t="s">
         <v>189</v>
       </c>
       <c r="AG50" s="138" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="51">
       <c r="C51" s="13" t="s">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="K51" s="76" t="s">
-        <v>263</v>
+        <v>252</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="S51" s="138" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="AD51" s="138" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>266</v>
+        <v>255</v>
       </c>
       <c r="AF51" s="138" t="s">
-        <v>265</v>
+        <v>189</v>
       </c>
       <c r="AG51" s="138" t="s">
-        <v>267</v>
+        <v>243</v>
       </c>
     </row>
     <row r="52">
@@ -12537,13 +12498,13 @@
         <v>213</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="N52" s="138" t="s">
-        <v>268</v>
+        <v>256</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>189</v>
@@ -12552,39 +12513,39 @@
         <v>189</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>269</v>
+        <v>257</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>189</v>
       </c>
       <c r="AG52" s="138" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="142" t="s">
-        <v>270</v>
+        <v>258</v>
       </c>
       <c r="M53" s="144" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P53" s="144" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="S53" s="144" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="AD53" s="144" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AE53" s="144" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AF53" s="144" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AG53" s="144" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
     </row>
     <row r="54">
@@ -12594,29 +12555,29 @@
     </row>
     <row r="55">
       <c r="A55" s="13" t="s">
-        <v>275</v>
+        <v>262</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="137" t="s">
-        <v>276</v>
+        <v>263</v>
       </c>
     </row>
     <row r="57">
       <c r="C57" s="13" t="s">
-        <v>277</v>
+        <v>264</v>
       </c>
       <c r="K57" s="76" t="s">
-        <v>278</v>
+        <v>265</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>189</v>
@@ -12625,7 +12586,7 @@
         <v>189</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>279</v>
+        <v>266</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>189</v>
@@ -12636,19 +12597,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>280</v>
+        <v>267</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>281</v>
+        <v>268</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>189</v>
@@ -12657,7 +12618,7 @@
         <v>189</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>282</v>
+        <v>269</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>189</v>
@@ -12668,19 +12629,19 @@
     </row>
     <row r="59">
       <c r="C59" s="13" t="s">
-        <v>283</v>
+        <v>270</v>
       </c>
       <c r="K59" s="76" t="s">
-        <v>284</v>
+        <v>271</v>
       </c>
       <c r="M59" s="138" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="N59" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P59" s="138" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="S59" s="138" t="s">
         <v>189</v>
@@ -12689,7 +12650,7 @@
         <v>189</v>
       </c>
       <c r="AE59" s="138" t="s">
-        <v>285</v>
+        <v>272</v>
       </c>
       <c r="AF59" s="138" t="s">
         <v>189</v>
@@ -12700,19 +12661,19 @@
     </row>
     <row r="60">
       <c r="C60" s="13" t="s">
-        <v>286</v>
+        <v>273</v>
       </c>
       <c r="K60" s="76" t="s">
-        <v>287</v>
+        <v>274</v>
       </c>
       <c r="M60" s="138" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="N60" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P60" s="138" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="S60" s="138" t="s">
         <v>189</v>
@@ -12721,7 +12682,7 @@
         <v>189</v>
       </c>
       <c r="AE60" s="138" t="s">
-        <v>288</v>
+        <v>275</v>
       </c>
       <c r="AF60" s="138" t="s">
         <v>189</v>
@@ -12732,19 +12693,19 @@
     </row>
     <row r="61">
       <c r="C61" s="13" t="s">
-        <v>289</v>
+        <v>276</v>
       </c>
       <c r="K61" s="76" t="s">
-        <v>290</v>
+        <v>277</v>
       </c>
       <c r="M61" s="138" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="N61" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P61" s="138" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="S61" s="138" t="s">
         <v>189</v>
@@ -12753,7 +12714,7 @@
         <v>189</v>
       </c>
       <c r="AE61" s="138" t="s">
-        <v>291</v>
+        <v>278</v>
       </c>
       <c r="AF61" s="138" t="s">
         <v>189</v>
@@ -12764,19 +12725,19 @@
     </row>
     <row r="62">
       <c r="C62" s="13" t="s">
-        <v>292</v>
+        <v>279</v>
       </c>
       <c r="K62" s="76" t="s">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="M62" s="138" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="N62" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P62" s="138" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="S62" s="138" t="s">
         <v>189</v>
@@ -12785,7 +12746,7 @@
         <v>189</v>
       </c>
       <c r="AE62" s="138" t="s">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="AF62" s="138" t="s">
         <v>189</v>
@@ -12796,19 +12757,19 @@
     </row>
     <row r="63">
       <c r="C63" s="13" t="s">
-        <v>295</v>
+        <v>282</v>
       </c>
       <c r="K63" s="76" t="s">
-        <v>296</v>
+        <v>283</v>
       </c>
       <c r="M63" s="138" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="N63" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P63" s="138" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="S63" s="138" t="s">
         <v>189</v>
@@ -12817,7 +12778,7 @@
         <v>189</v>
       </c>
       <c r="AE63" s="138" t="s">
-        <v>297</v>
+        <v>284</v>
       </c>
       <c r="AF63" s="138" t="s">
         <v>189</v>
@@ -12828,19 +12789,19 @@
     </row>
     <row r="64">
       <c r="C64" s="13" t="s">
-        <v>298</v>
+        <v>285</v>
       </c>
       <c r="K64" s="76" t="s">
-        <v>299</v>
+        <v>286</v>
       </c>
       <c r="M64" s="138" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="N64" s="138" t="s">
         <v>189</v>
       </c>
       <c r="P64" s="138" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="S64" s="138" t="s">
         <v>189</v>
@@ -12849,7 +12810,7 @@
         <v>189</v>
       </c>
       <c r="AE64" s="138" t="s">
-        <v>300</v>
+        <v>287</v>
       </c>
       <c r="AF64" s="138" t="s">
         <v>189</v>
@@ -12860,13 +12821,13 @@
     </row>
     <row r="65">
       <c r="A65" s="137" t="s">
-        <v>301</v>
+        <v>288</v>
       </c>
       <c r="M65" s="139" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="P65" s="139" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="S65" s="139" t="s">
         <v>216</v>
@@ -12875,7 +12836,7 @@
         <v>216</v>
       </c>
       <c r="AE65" s="139" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AF65" s="139" t="s">
         <v>216</v>
@@ -12886,13 +12847,13 @@
     </row>
     <row r="66">
       <c r="A66" s="136" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M66" s="140" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="P66" s="141" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="S66" s="141" t="s">
         <v>189</v>
@@ -12901,7 +12862,7 @@
         <v>189</v>
       </c>
       <c r="AE66" s="141" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AF66" s="141" t="s">
         <v>189</v>
@@ -12917,7 +12878,7 @@
     </row>
     <row r="68">
       <c r="A68" s="136" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M68" s="140" t="s">
         <v>189</v>
@@ -12943,12 +12904,12 @@
     </row>
     <row r="69">
       <c r="A69" s="136" t="s">
-        <v>305</v>
+        <v>292</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" s="136" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M70" s="140" t="s">
         <v>189</v>
@@ -12974,12 +12935,12 @@
     </row>
     <row r="71">
       <c r="A71" s="136" t="s">
-        <v>307</v>
+        <v>294</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" s="136" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M72" s="140" t="s">
         <v>189</v>
@@ -13008,36 +12969,36 @@
         <v>44</v>
       </c>
       <c r="M74" s="141" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="P74" s="141" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="S74" s="141" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AD74" s="141" t="s">
-        <v>244</v>
+        <v>190</v>
       </c>
       <c r="AE74" s="141" t="s">
-        <v>245</v>
+        <v>235</v>
       </c>
       <c r="AF74" s="144" t="s">
-        <v>246</v>
+        <v>192</v>
       </c>
       <c r="AG74" s="144" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" s="136" t="s">
-        <v>303</v>
+        <v>290</v>
       </c>
       <c r="M75" s="141" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="P75" s="141" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="S75" s="141" t="s">
         <v>189</v>
@@ -13046,7 +13007,7 @@
         <v>189</v>
       </c>
       <c r="AE75" s="141" t="s">
-        <v>302</v>
+        <v>289</v>
       </c>
       <c r="AF75" s="144" t="s">
         <v>189</v>
@@ -13057,7 +13018,7 @@
     </row>
     <row r="76">
       <c r="B76" s="136" t="s">
-        <v>304</v>
+        <v>291</v>
       </c>
       <c r="M76" s="141" t="s">
         <v>189</v>
@@ -13083,7 +13044,7 @@
     </row>
     <row r="77">
       <c r="B77" s="136" t="s">
-        <v>306</v>
+        <v>293</v>
       </c>
       <c r="M77" s="141" t="s">
         <v>189</v>
@@ -13109,7 +13070,7 @@
     </row>
     <row r="78">
       <c r="B78" s="136" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="M78" s="141" t="s">
         <v>189</v>
@@ -13135,28 +13096,28 @@
     </row>
     <row r="79">
       <c r="B79" s="136" t="s">
-        <v>309</v>
+        <v>296</v>
       </c>
       <c r="M79" s="141" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="P79" s="141" t="s">
-        <v>271</v>
+        <v>259</v>
       </c>
       <c r="S79" s="141" t="s">
-        <v>272</v>
+        <v>189</v>
       </c>
       <c r="AD79" s="141" t="s">
-        <v>272</v>
+        <v>260</v>
       </c>
       <c r="AE79" s="141" t="s">
-        <v>273</v>
+        <v>261</v>
       </c>
       <c r="AF79" s="144" t="s">
-        <v>231</v>
+        <v>189</v>
       </c>
       <c r="AG79" s="144" t="s">
-        <v>274</v>
+        <v>197</v>
       </c>
     </row>
     <row r="304"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="612">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -837,6 +837,18 @@
     <t>1,460,000.00</t>
   </si>
   <si>
+    <t>50,000.00</t>
+  </si>
+  <si>
+    <t>1,410,000.00</t>
+  </si>
+  <si>
+    <t>45,000.00</t>
+  </si>
+  <si>
+    <t>96.92%</t>
+  </si>
+  <si>
     <t>WATER EXPENSES</t>
   </si>
   <si>
@@ -852,126 +864,117 @@
     <t>16,487,000.00</t>
   </si>
   <si>
+    <t>16,437,000.00</t>
+  </si>
+  <si>
+    <t>99.73%</t>
+  </si>
+  <si>
+    <t>330101100002000</t>
+  </si>
+  <si>
+    <t>REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MOOE</t>
+  </si>
+  <si>
+    <t>ADVERTISING EXPENSES</t>
+  </si>
+  <si>
+    <t>5029901000</t>
+  </si>
+  <si>
+    <t>26,000.00</t>
+  </si>
+  <si>
+    <t>54,000.00</t>
+  </si>
+  <si>
+    <t>139,000.00</t>
+  </si>
+  <si>
+    <t>130,000.00</t>
+  </si>
+  <si>
+    <t>4,000.00</t>
+  </si>
+  <si>
+    <t>774,000.00</t>
+  </si>
+  <si>
+    <t>14,000.00</t>
+  </si>
+  <si>
+    <t>6,000.00</t>
+  </si>
+  <si>
+    <t>611,000.00</t>
+  </si>
+  <si>
+    <t>OTHER SUPPLIES AND MATERIALS EXPENSES</t>
+  </si>
+  <si>
+    <t>5020399000</t>
+  </si>
+  <si>
+    <t>613,000.00</t>
+  </si>
+  <si>
+    <t>PRINTING AND PUBLICATION EXPENSES</t>
+  </si>
+  <si>
+    <t>5029902000</t>
+  </si>
+  <si>
+    <t>36,000.00</t>
+  </si>
+  <si>
+    <t>RENT- MOTOR VEHICLES</t>
+  </si>
+  <si>
+    <t>5029905003</t>
+  </si>
+  <si>
+    <t>126,000.00</t>
+  </si>
+  <si>
+    <t>30,000.00</t>
+  </si>
+  <si>
+    <t>15,000.00</t>
+  </si>
+  <si>
+    <t>118,000.00</t>
+  </si>
+  <si>
+    <t>1,000.00</t>
+  </si>
+  <si>
+    <t>103,000.00</t>
+  </si>
+  <si>
+    <t>630,000.00</t>
+  </si>
+  <si>
+    <t>TRANSPORTATION AND DELIVERY EXPENSES</t>
+  </si>
+  <si>
+    <t>5029904000</t>
+  </si>
+  <si>
+    <t>1,726,000.00</t>
+  </si>
+  <si>
+    <t>106,000.00</t>
+  </si>
+  <si>
+    <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MOOE - MOOE</t>
+  </si>
+  <si>
+    <t>5,990,000.00</t>
+  </si>
+  <si>
     <t>0.00</t>
   </si>
   <si>
-    <t>330101100002000</t>
-  </si>
-  <si>
-    <t>REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MOOE</t>
-  </si>
-  <si>
-    <t>ADVERTISING EXPENSES</t>
-  </si>
-  <si>
-    <t>5029901000</t>
-  </si>
-  <si>
-    <t>26,000.00</t>
-  </si>
-  <si>
-    <t>54,000.00</t>
-  </si>
-  <si>
-    <t>139,000.00</t>
-  </si>
-  <si>
-    <t>130,000.00</t>
-  </si>
-  <si>
-    <t>4,000.00</t>
-  </si>
-  <si>
-    <t>774,000.00</t>
-  </si>
-  <si>
-    <t>14,000.00</t>
-  </si>
-  <si>
-    <t>6,000.00</t>
-  </si>
-  <si>
-    <t>611,000.00</t>
-  </si>
-  <si>
-    <t>OTHER SUPPLIES AND MATERIALS EXPENSES</t>
-  </si>
-  <si>
-    <t>5020399000</t>
-  </si>
-  <si>
-    <t>613,000.00</t>
-  </si>
-  <si>
-    <t>PRINTING AND PUBLICATION EXPENSES</t>
-  </si>
-  <si>
-    <t>5029902000</t>
-  </si>
-  <si>
-    <t>36,000.00</t>
-  </si>
-  <si>
-    <t>RENT- MOTOR VEHICLES</t>
-  </si>
-  <si>
-    <t>5029905003</t>
-  </si>
-  <si>
-    <t>126,000.00</t>
-  </si>
-  <si>
-    <t>30,000.00</t>
-  </si>
-  <si>
-    <t>50,000.00</t>
-  </si>
-  <si>
-    <t>45,000.00</t>
-  </si>
-  <si>
-    <t>10%</t>
-  </si>
-  <si>
-    <t>15,000.00</t>
-  </si>
-  <si>
-    <t>118,000.00</t>
-  </si>
-  <si>
-    <t>1,000.00</t>
-  </si>
-  <si>
-    <t>103,000.00</t>
-  </si>
-  <si>
-    <t>630,000.00</t>
-  </si>
-  <si>
-    <t>TRANSPORTATION AND DELIVERY EXPENSES</t>
-  </si>
-  <si>
-    <t>5029904000</t>
-  </si>
-  <si>
-    <t>1,726,000.00</t>
-  </si>
-  <si>
-    <t>106,000.00</t>
-  </si>
-  <si>
-    <t>SUBTOTAL REGULATION OF REGIONAL HEALTH FACILITIES AND SERVICES - MOOE - MOOE</t>
-  </si>
-  <si>
-    <t>5,990,000.00</t>
-  </si>
-  <si>
-    <t>5,940,000.00</t>
-  </si>
-  <si>
-    <t>99.25%</t>
-  </si>
-  <si>
     <t>310301100001000</t>
   </si>
   <si>
@@ -1215,15 +1218,9 @@
     <t>154,440.00</t>
   </si>
   <si>
-    <t>-50,000.00</t>
-  </si>
-  <si>
     <t>SUBTOTAL 2018-01-0044</t>
   </si>
   <si>
-    <t>104,440.00</t>
-  </si>
-  <si>
     <t>200000000001000</t>
   </si>
   <si>
@@ -1872,22 +1869,22 @@
     <t>19,740,000.00</t>
   </si>
   <si>
+    <t>CONAP-PS</t>
+  </si>
+  <si>
+    <t>TOTAL CONAP-PS</t>
+  </si>
+  <si>
     <t>TOTAL SAA MOOE</t>
   </si>
   <si>
     <t>121,091,632.98</t>
   </si>
   <si>
-    <t>121,041,632.98</t>
-  </si>
-  <si>
     <t>TOTAL SAA CO</t>
   </si>
   <si>
     <t>142,831,632.98</t>
-  </si>
-  <si>
-    <t>142,781,632.98</t>
   </si>
 </sst>
 </file>
@@ -2999,7 +2996,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO447"/>
+  <dimension ref="A1:TO450"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -13407,36 +13404,36 @@
         <v>261</v>
       </c>
       <c r="S43" s="138" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="AD43" s="138" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="AE43" s="138" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AF43" s="138" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="AG43" s="138" t="s">
-        <v>192</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="C44" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K44" s="76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M44" s="138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="N44" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P44" s="138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="S44" s="138" t="s">
         <v>191</v>
@@ -13445,7 +13442,7 @@
         <v>191</v>
       </c>
       <c r="AE44" s="138" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="AF44" s="138" t="s">
         <v>191</v>
@@ -13456,55 +13453,55 @@
     </row>
     <row r="45">
       <c r="A45" s="137" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="M45" s="139" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="P45" s="139" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="S45" s="139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AD45" s="139" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AE45" s="139" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="AF45" s="139" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="AG45" s="139" t="s">
-        <v>192</v>
+        <v>272</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="13" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="137" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48">
       <c r="C48" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K48" s="76" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M48" s="138" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="N48" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P48" s="138" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="S48" s="138" t="s">
         <v>191</v>
@@ -13513,7 +13510,7 @@
         <v>191</v>
       </c>
       <c r="AE48" s="138" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="AF48" s="138" t="s">
         <v>191</v>
@@ -13562,13 +13559,13 @@
         <v>194</v>
       </c>
       <c r="M50" s="138" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="N50" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P50" s="138" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="S50" s="138" t="s">
         <v>191</v>
@@ -13577,7 +13574,7 @@
         <v>191</v>
       </c>
       <c r="AE50" s="138" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="AF50" s="138" t="s">
         <v>191</v>
@@ -13594,13 +13591,13 @@
         <v>200</v>
       </c>
       <c r="M51" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N51" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P51" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S51" s="138" t="s">
         <v>191</v>
@@ -13609,7 +13606,7 @@
         <v>191</v>
       </c>
       <c r="AE51" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AF51" s="138" t="s">
         <v>191</v>
@@ -13626,13 +13623,13 @@
         <v>209</v>
       </c>
       <c r="M52" s="138" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="N52" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P52" s="138" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="S52" s="138" t="s">
         <v>191</v>
@@ -13641,7 +13638,7 @@
         <v>191</v>
       </c>
       <c r="AE52" s="138" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="AF52" s="138" t="s">
         <v>191</v>
@@ -13658,13 +13655,13 @@
         <v>212</v>
       </c>
       <c r="M53" s="138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="N53" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P53" s="138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="S53" s="138" t="s">
         <v>191</v>
@@ -13673,7 +13670,7 @@
         <v>191</v>
       </c>
       <c r="AE53" s="138" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="AF53" s="138" t="s">
         <v>191</v>
@@ -13690,13 +13687,13 @@
         <v>215</v>
       </c>
       <c r="M54" s="138" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="N54" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P54" s="138" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="S54" s="138" t="s">
         <v>191</v>
@@ -13705,7 +13702,7 @@
         <v>191</v>
       </c>
       <c r="AE54" s="138" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="AF54" s="138" t="s">
         <v>191</v>
@@ -13722,13 +13719,13 @@
         <v>218</v>
       </c>
       <c r="M55" s="138" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="N55" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P55" s="138" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="S55" s="138" t="s">
         <v>191</v>
@@ -13737,7 +13734,7 @@
         <v>191</v>
       </c>
       <c r="AE55" s="138" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="AF55" s="138" t="s">
         <v>191</v>
@@ -13754,13 +13751,13 @@
         <v>221</v>
       </c>
       <c r="M56" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N56" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P56" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="S56" s="138" t="s">
         <v>191</v>
@@ -13769,7 +13766,7 @@
         <v>191</v>
       </c>
       <c r="AE56" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AF56" s="138" t="s">
         <v>191</v>
@@ -13786,13 +13783,13 @@
         <v>223</v>
       </c>
       <c r="M57" s="138" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="N57" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P57" s="138" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="S57" s="138" t="s">
         <v>191</v>
@@ -13801,7 +13798,7 @@
         <v>191</v>
       </c>
       <c r="AE57" s="138" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="AF57" s="138" t="s">
         <v>191</v>
@@ -13812,19 +13809,19 @@
     </row>
     <row r="58">
       <c r="C58" s="13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K58" s="76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M58" s="138" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="N58" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P58" s="138" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="S58" s="138" t="s">
         <v>191</v>
@@ -13833,7 +13830,7 @@
         <v>191</v>
       </c>
       <c r="AE58" s="138" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="AF58" s="138" t="s">
         <v>191</v>
@@ -13850,13 +13847,13 @@
         <v>226</v>
       </c>
       <c r="M59" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="N59" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P59" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="S59" s="138" t="s">
         <v>191</v>
@@ -13865,7 +13862,7 @@
         <v>191</v>
       </c>
       <c r="AE59" s="138" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="AF59" s="138" t="s">
         <v>191</v>
@@ -13876,19 +13873,19 @@
     </row>
     <row r="60">
       <c r="C60" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K60" s="76" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M60" s="138" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="N60" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P60" s="138" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="S60" s="138" t="s">
         <v>191</v>
@@ -13897,7 +13894,7 @@
         <v>191</v>
       </c>
       <c r="AE60" s="138" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AF60" s="138" t="s">
         <v>191</v>
@@ -13908,19 +13905,19 @@
     </row>
     <row r="61">
       <c r="C61" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K61" s="76" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M61" s="138" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="N61" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P61" s="138" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="S61" s="138" t="s">
         <v>191</v>
@@ -13929,7 +13926,7 @@
         <v>191</v>
       </c>
       <c r="AE61" s="138" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="AF61" s="138" t="s">
         <v>191</v>
@@ -13946,13 +13943,13 @@
         <v>231</v>
       </c>
       <c r="M62" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N62" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P62" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="S62" s="138" t="s">
         <v>191</v>
@@ -13961,7 +13958,7 @@
         <v>191</v>
       </c>
       <c r="AE62" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AF62" s="138" t="s">
         <v>191</v>
@@ -13978,28 +13975,28 @@
         <v>234</v>
       </c>
       <c r="M63" s="138" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="N63" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P63" s="138" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="S63" s="138" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AD63" s="138" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AE63" s="138" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="AF63" s="138" t="s">
-        <v>292</v>
+        <v>191</v>
       </c>
       <c r="AG63" s="138" t="s">
-        <v>293</v>
+        <v>192</v>
       </c>
     </row>
     <row r="64">
@@ -14010,13 +14007,13 @@
         <v>240</v>
       </c>
       <c r="M64" s="138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="N64" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P64" s="138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="S64" s="138" t="s">
         <v>191</v>
@@ -14025,7 +14022,7 @@
         <v>191</v>
       </c>
       <c r="AE64" s="138" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="AF64" s="138" t="s">
         <v>191</v>
@@ -14042,13 +14039,13 @@
         <v>243</v>
       </c>
       <c r="M65" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="N65" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P65" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="S65" s="138" t="s">
         <v>191</v>
@@ -14057,7 +14054,7 @@
         <v>191</v>
       </c>
       <c r="AE65" s="138" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="AF65" s="138" t="s">
         <v>191</v>
@@ -14074,13 +14071,13 @@
         <v>246</v>
       </c>
       <c r="M66" s="138" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="N66" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P66" s="138" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="S66" s="138" t="s">
         <v>191</v>
@@ -14089,7 +14086,7 @@
         <v>191</v>
       </c>
       <c r="AE66" s="138" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="AF66" s="138" t="s">
         <v>191</v>
@@ -14106,13 +14103,13 @@
         <v>249</v>
       </c>
       <c r="M67" s="138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N67" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P67" s="138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="S67" s="138" t="s">
         <v>191</v>
@@ -14121,7 +14118,7 @@
         <v>191</v>
       </c>
       <c r="AE67" s="138" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="AF67" s="138" t="s">
         <v>191</v>
@@ -14138,13 +14135,13 @@
         <v>252</v>
       </c>
       <c r="M68" s="138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="N68" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P68" s="138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="S68" s="138" t="s">
         <v>191</v>
@@ -14153,7 +14150,7 @@
         <v>191</v>
       </c>
       <c r="AE68" s="138" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="AF68" s="138" t="s">
         <v>191</v>
@@ -14170,13 +14167,13 @@
         <v>254</v>
       </c>
       <c r="M69" s="138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="N69" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P69" s="138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="S69" s="138" t="s">
         <v>191</v>
@@ -14185,7 +14182,7 @@
         <v>191</v>
       </c>
       <c r="AE69" s="138" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="AF69" s="138" t="s">
         <v>191</v>
@@ -14196,19 +14193,19 @@
     </row>
     <row r="70">
       <c r="C70" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K70" s="76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M70" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="N70" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P70" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="S70" s="138" t="s">
         <v>191</v>
@@ -14217,7 +14214,7 @@
         <v>191</v>
       </c>
       <c r="AE70" s="138" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="AF70" s="138" t="s">
         <v>191</v>
@@ -14234,13 +14231,13 @@
         <v>260</v>
       </c>
       <c r="M71" s="138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="N71" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P71" s="138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="S71" s="138" t="s">
         <v>191</v>
@@ -14249,7 +14246,7 @@
         <v>191</v>
       </c>
       <c r="AE71" s="138" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="AF71" s="138" t="s">
         <v>191</v>
@@ -14260,19 +14257,19 @@
     </row>
     <row r="72">
       <c r="C72" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K72" s="76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M72" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N72" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P72" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S72" s="138" t="s">
         <v>191</v>
@@ -14281,7 +14278,7 @@
         <v>191</v>
       </c>
       <c r="AE72" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF72" s="138" t="s">
         <v>191</v>
@@ -14292,55 +14289,55 @@
     </row>
     <row r="73">
       <c r="A73" s="137" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="M73" s="139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="P73" s="139" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="S73" s="139" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AD73" s="139" t="s">
-        <v>291</v>
+        <v>307</v>
       </c>
       <c r="AE73" s="139" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="AF73" s="139" t="s">
-        <v>292</v>
+        <v>307</v>
       </c>
       <c r="AG73" s="139" t="s">
-        <v>306</v>
+        <v>192</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" s="137" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
     </row>
     <row r="76">
       <c r="C76" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K76" s="76" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M76" s="138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="N76" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P76" s="138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="S76" s="138" t="s">
         <v>191</v>
@@ -14349,7 +14346,7 @@
         <v>191</v>
       </c>
       <c r="AE76" s="138" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="AF76" s="138" t="s">
         <v>191</v>
@@ -14366,13 +14363,13 @@
         <v>189</v>
       </c>
       <c r="M77" s="138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="N77" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P77" s="138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="S77" s="138" t="s">
         <v>191</v>
@@ -14381,7 +14378,7 @@
         <v>191</v>
       </c>
       <c r="AE77" s="138" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="AF77" s="138" t="s">
         <v>191</v>
@@ -14398,13 +14395,13 @@
         <v>194</v>
       </c>
       <c r="M78" s="138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="N78" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P78" s="138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="S78" s="138" t="s">
         <v>191</v>
@@ -14413,7 +14410,7 @@
         <v>191</v>
       </c>
       <c r="AE78" s="138" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF78" s="138" t="s">
         <v>191</v>
@@ -14430,13 +14427,13 @@
         <v>197</v>
       </c>
       <c r="M79" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="N79" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P79" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="S79" s="138" t="s">
         <v>191</v>
@@ -14445,7 +14442,7 @@
         <v>191</v>
       </c>
       <c r="AE79" s="138" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="AF79" s="138" t="s">
         <v>191</v>
@@ -14456,19 +14453,19 @@
     </row>
     <row r="80">
       <c r="C80" s="13" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="K80" s="76" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M80" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="N80" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P80" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="S80" s="138" t="s">
         <v>191</v>
@@ -14477,7 +14474,7 @@
         <v>191</v>
       </c>
       <c r="AE80" s="138" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF80" s="138" t="s">
         <v>191</v>
@@ -14494,13 +14491,13 @@
         <v>200</v>
       </c>
       <c r="M81" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="N81" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P81" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="S81" s="138" t="s">
         <v>191</v>
@@ -14509,7 +14506,7 @@
         <v>191</v>
       </c>
       <c r="AE81" s="138" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="AF81" s="138" t="s">
         <v>191</v>
@@ -14526,13 +14523,13 @@
         <v>203</v>
       </c>
       <c r="M82" s="138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="N82" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P82" s="138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="S82" s="138" t="s">
         <v>191</v>
@@ -14541,7 +14538,7 @@
         <v>191</v>
       </c>
       <c r="AE82" s="138" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="AF82" s="138" t="s">
         <v>191</v>
@@ -14558,13 +14555,13 @@
         <v>206</v>
       </c>
       <c r="M83" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="N83" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P83" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="S83" s="138" t="s">
         <v>191</v>
@@ -14573,7 +14570,7 @@
         <v>191</v>
       </c>
       <c r="AE83" s="138" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="AF83" s="138" t="s">
         <v>191</v>
@@ -14590,13 +14587,13 @@
         <v>209</v>
       </c>
       <c r="M84" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="N84" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P84" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="S84" s="138" t="s">
         <v>191</v>
@@ -14605,7 +14602,7 @@
         <v>191</v>
       </c>
       <c r="AE84" s="138" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="AF84" s="138" t="s">
         <v>191</v>
@@ -14622,13 +14619,13 @@
         <v>212</v>
       </c>
       <c r="M85" s="138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="N85" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P85" s="138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="S85" s="138" t="s">
         <v>191</v>
@@ -14637,7 +14634,7 @@
         <v>191</v>
       </c>
       <c r="AE85" s="138" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="AF85" s="138" t="s">
         <v>191</v>
@@ -14654,13 +14651,13 @@
         <v>215</v>
       </c>
       <c r="M86" s="138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="N86" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P86" s="138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="S86" s="138" t="s">
         <v>191</v>
@@ -14669,7 +14666,7 @@
         <v>191</v>
       </c>
       <c r="AE86" s="138" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="AF86" s="138" t="s">
         <v>191</v>
@@ -14686,13 +14683,13 @@
         <v>221</v>
       </c>
       <c r="M87" s="138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="N87" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P87" s="138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="S87" s="138" t="s">
         <v>191</v>
@@ -14701,7 +14698,7 @@
         <v>191</v>
       </c>
       <c r="AE87" s="138" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="AF87" s="138" t="s">
         <v>191</v>
@@ -14718,13 +14715,13 @@
         <v>223</v>
       </c>
       <c r="M88" s="138" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="N88" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P88" s="138" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="S88" s="138" t="s">
         <v>191</v>
@@ -14733,7 +14730,7 @@
         <v>191</v>
       </c>
       <c r="AE88" s="138" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="AF88" s="138" t="s">
         <v>191</v>
@@ -14750,13 +14747,13 @@
         <v>226</v>
       </c>
       <c r="M89" s="138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="N89" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P89" s="138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="S89" s="138" t="s">
         <v>191</v>
@@ -14765,7 +14762,7 @@
         <v>191</v>
       </c>
       <c r="AE89" s="138" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="AF89" s="138" t="s">
         <v>191</v>
@@ -14776,19 +14773,19 @@
     </row>
     <row r="90">
       <c r="C90" s="13" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="K90" s="76" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="M90" s="138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="N90" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P90" s="138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="S90" s="138" t="s">
         <v>191</v>
@@ -14797,7 +14794,7 @@
         <v>191</v>
       </c>
       <c r="AE90" s="138" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="AF90" s="138" t="s">
         <v>191</v>
@@ -14808,19 +14805,19 @@
     </row>
     <row r="91">
       <c r="C91" s="13" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="K91" s="76" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="M91" s="138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="N91" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P91" s="138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="S91" s="138" t="s">
         <v>191</v>
@@ -14829,7 +14826,7 @@
         <v>191</v>
       </c>
       <c r="AE91" s="138" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="AF91" s="138" t="s">
         <v>191</v>
@@ -14840,19 +14837,19 @@
     </row>
     <row r="92">
       <c r="C92" s="13" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="K92" s="76" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="M92" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N92" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P92" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S92" s="138" t="s">
         <v>191</v>
@@ -14861,7 +14858,7 @@
         <v>191</v>
       </c>
       <c r="AE92" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF92" s="138" t="s">
         <v>191</v>
@@ -14878,13 +14875,13 @@
         <v>231</v>
       </c>
       <c r="M93" s="138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="N93" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P93" s="138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="S93" s="138" t="s">
         <v>191</v>
@@ -14893,7 +14890,7 @@
         <v>191</v>
       </c>
       <c r="AE93" s="138" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="AF93" s="138" t="s">
         <v>191</v>
@@ -14910,13 +14907,13 @@
         <v>234</v>
       </c>
       <c r="M94" s="138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="N94" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P94" s="138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="S94" s="138" t="s">
         <v>191</v>
@@ -14925,7 +14922,7 @@
         <v>191</v>
       </c>
       <c r="AE94" s="138" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="AF94" s="138" t="s">
         <v>191</v>
@@ -14942,13 +14939,13 @@
         <v>237</v>
       </c>
       <c r="M95" s="138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="N95" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P95" s="138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="S95" s="138" t="s">
         <v>191</v>
@@ -14957,7 +14954,7 @@
         <v>191</v>
       </c>
       <c r="AE95" s="138" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="AF95" s="138" t="s">
         <v>191</v>
@@ -14974,13 +14971,13 @@
         <v>240</v>
       </c>
       <c r="M96" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="N96" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P96" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="S96" s="138" t="s">
         <v>191</v>
@@ -14989,7 +14986,7 @@
         <v>191</v>
       </c>
       <c r="AE96" s="138" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="AF96" s="138" t="s">
         <v>191</v>
@@ -15006,13 +15003,13 @@
         <v>243</v>
       </c>
       <c r="M97" s="138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="N97" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P97" s="138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="S97" s="138" t="s">
         <v>191</v>
@@ -15021,7 +15018,7 @@
         <v>191</v>
       </c>
       <c r="AE97" s="138" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="AF97" s="138" t="s">
         <v>191</v>
@@ -15038,13 +15035,13 @@
         <v>246</v>
       </c>
       <c r="M98" s="138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="N98" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P98" s="138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="S98" s="138" t="s">
         <v>191</v>
@@ -15053,7 +15050,7 @@
         <v>191</v>
       </c>
       <c r="AE98" s="138" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="AF98" s="138" t="s">
         <v>191</v>
@@ -15064,19 +15061,19 @@
     </row>
     <row r="99">
       <c r="C99" s="13" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="K99" s="76" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="M99" s="138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="N99" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P99" s="138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="S99" s="138" t="s">
         <v>191</v>
@@ -15085,7 +15082,7 @@
         <v>191</v>
       </c>
       <c r="AE99" s="138" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="AF99" s="138" t="s">
         <v>191</v>
@@ -15102,13 +15099,13 @@
         <v>249</v>
       </c>
       <c r="M100" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="N100" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P100" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="S100" s="138" t="s">
         <v>191</v>
@@ -15117,7 +15114,7 @@
         <v>191</v>
       </c>
       <c r="AE100" s="138" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AF100" s="138" t="s">
         <v>191</v>
@@ -15134,13 +15131,13 @@
         <v>252</v>
       </c>
       <c r="M101" s="138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="N101" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P101" s="138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="S101" s="138" t="s">
         <v>191</v>
@@ -15149,7 +15146,7 @@
         <v>191</v>
       </c>
       <c r="AE101" s="138" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="AF101" s="138" t="s">
         <v>191</v>
@@ -15166,13 +15163,13 @@
         <v>254</v>
       </c>
       <c r="M102" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="N102" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P102" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="S102" s="138" t="s">
         <v>191</v>
@@ -15181,7 +15178,7 @@
         <v>191</v>
       </c>
       <c r="AE102" s="138" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="AF102" s="138" t="s">
         <v>191</v>
@@ -15192,19 +15189,19 @@
     </row>
     <row r="103">
       <c r="C103" s="13" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="K103" s="76" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="M103" s="138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="N103" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P103" s="138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="S103" s="138" t="s">
         <v>191</v>
@@ -15213,7 +15210,7 @@
         <v>191</v>
       </c>
       <c r="AE103" s="138" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="AF103" s="138" t="s">
         <v>191</v>
@@ -15230,13 +15227,13 @@
         <v>260</v>
       </c>
       <c r="M104" s="138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="N104" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P104" s="138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="S104" s="138" t="s">
         <v>191</v>
@@ -15245,7 +15242,7 @@
         <v>191</v>
       </c>
       <c r="AE104" s="138" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="AF104" s="138" t="s">
         <v>191</v>
@@ -15256,19 +15253,19 @@
     </row>
     <row r="105">
       <c r="C105" s="13" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="K105" s="76" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="M105" s="138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="N105" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P105" s="138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="S105" s="138" t="s">
         <v>191</v>
@@ -15277,7 +15274,7 @@
         <v>191</v>
       </c>
       <c r="AE105" s="138" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="AF105" s="138" t="s">
         <v>191</v>
@@ -15288,25 +15285,25 @@
     </row>
     <row r="106">
       <c r="A106" s="137" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="M106" s="139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="P106" s="139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="S106" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD106" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE106" s="139" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="AF106" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG106" s="139" t="s">
         <v>192</v>
@@ -15314,29 +15311,29 @@
     </row>
     <row r="107">
       <c r="A107" s="13" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="137" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
     </row>
     <row r="109">
       <c r="C109" s="13" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="K109" s="76" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="M109" s="138" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="N109" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P109" s="138" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S109" s="138" t="s">
         <v>191</v>
@@ -15345,7 +15342,7 @@
         <v>191</v>
       </c>
       <c r="AE109" s="138" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF109" s="138" t="s">
         <v>191</v>
@@ -15356,25 +15353,25 @@
     </row>
     <row r="110">
       <c r="A110" s="137" t="s">
+        <v>352</v>
+      </c>
+      <c r="M110" s="139" t="s">
         <v>351</v>
       </c>
-      <c r="M110" s="139" t="s">
-        <v>350</v>
-      </c>
       <c r="P110" s="139" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="S110" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD110" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE110" s="139" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="AF110" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG110" s="139" t="s">
         <v>192</v>
@@ -15382,12 +15379,12 @@
     </row>
     <row r="111">
       <c r="A111" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="137" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="113">
@@ -15398,13 +15395,13 @@
         <v>221</v>
       </c>
       <c r="M113" s="138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="N113" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P113" s="138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S113" s="138" t="s">
         <v>191</v>
@@ -15413,7 +15410,7 @@
         <v>191</v>
       </c>
       <c r="AE113" s="138" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF113" s="138" t="s">
         <v>191</v>
@@ -15424,25 +15421,25 @@
     </row>
     <row r="114">
       <c r="A114" s="137" t="s">
+        <v>356</v>
+      </c>
+      <c r="M114" s="139" t="s">
         <v>355</v>
       </c>
-      <c r="M114" s="139" t="s">
-        <v>354</v>
-      </c>
       <c r="P114" s="139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="S114" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD114" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE114" s="139" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="AF114" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG114" s="139" t="s">
         <v>192</v>
@@ -15450,12 +15447,12 @@
     </row>
     <row r="115">
       <c r="A115" s="13" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="137" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
     </row>
     <row r="117">
@@ -15466,13 +15463,13 @@
         <v>254</v>
       </c>
       <c r="M117" s="138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="N117" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P117" s="138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S117" s="138" t="s">
         <v>191</v>
@@ -15481,7 +15478,7 @@
         <v>191</v>
       </c>
       <c r="AE117" s="138" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF117" s="138" t="s">
         <v>191</v>
@@ -15492,25 +15489,25 @@
     </row>
     <row r="118">
       <c r="A118" s="137" t="s">
+        <v>360</v>
+      </c>
+      <c r="M118" s="139" t="s">
         <v>359</v>
       </c>
-      <c r="M118" s="139" t="s">
-        <v>358</v>
-      </c>
       <c r="P118" s="139" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="S118" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD118" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE118" s="139" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="AF118" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG118" s="139" t="s">
         <v>192</v>
@@ -15518,12 +15515,12 @@
     </row>
     <row r="119">
       <c r="A119" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="137" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
     </row>
     <row r="121">
@@ -15534,13 +15531,13 @@
         <v>223</v>
       </c>
       <c r="M121" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="N121" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P121" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S121" s="138" t="s">
         <v>191</v>
@@ -15549,7 +15546,7 @@
         <v>191</v>
       </c>
       <c r="AE121" s="138" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF121" s="138" t="s">
         <v>191</v>
@@ -15560,25 +15557,25 @@
     </row>
     <row r="122">
       <c r="A122" s="137" t="s">
+        <v>364</v>
+      </c>
+      <c r="M122" s="139" t="s">
         <v>363</v>
       </c>
-      <c r="M122" s="139" t="s">
-        <v>362</v>
-      </c>
       <c r="P122" s="139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="S122" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD122" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE122" s="139" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="AF122" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG122" s="139" t="s">
         <v>192</v>
@@ -15586,29 +15583,29 @@
     </row>
     <row r="123">
       <c r="A123" s="13" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="137" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="125">
       <c r="C125" s="13" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="K125" s="76" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="M125" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N125" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P125" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S125" s="138" t="s">
         <v>191</v>
@@ -15617,7 +15614,7 @@
         <v>191</v>
       </c>
       <c r="AE125" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF125" s="138" t="s">
         <v>191</v>
@@ -15628,25 +15625,25 @@
     </row>
     <row r="126">
       <c r="A126" s="137" t="s">
+        <v>368</v>
+      </c>
+      <c r="M126" s="139" t="s">
         <v>367</v>
       </c>
-      <c r="M126" s="139" t="s">
-        <v>366</v>
-      </c>
       <c r="P126" s="139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S126" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD126" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE126" s="139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF126" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG126" s="139" t="s">
         <v>192</v>
@@ -15654,7 +15651,7 @@
     </row>
     <row r="127">
       <c r="A127" s="13" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
     </row>
     <row r="128">
@@ -15670,13 +15667,13 @@
         <v>189</v>
       </c>
       <c r="M129" s="138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="N129" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P129" s="138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="S129" s="138" t="s">
         <v>191</v>
@@ -15685,7 +15682,7 @@
         <v>191</v>
       </c>
       <c r="AE129" s="138" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="AF129" s="138" t="s">
         <v>191</v>
@@ -15702,13 +15699,13 @@
         <v>212</v>
       </c>
       <c r="M130" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N130" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P130" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S130" s="138" t="s">
         <v>191</v>
@@ -15717,7 +15714,7 @@
         <v>191</v>
       </c>
       <c r="AE130" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF130" s="138" t="s">
         <v>191</v>
@@ -15728,25 +15725,25 @@
     </row>
     <row r="131">
       <c r="A131" s="137" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="M131" s="139" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="P131" s="139" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="S131" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD131" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE131" s="139" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="AF131" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG131" s="139" t="s">
         <v>192</v>
@@ -15754,7 +15751,7 @@
     </row>
     <row r="132">
       <c r="A132" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="133">
@@ -15764,19 +15761,19 @@
     </row>
     <row r="134">
       <c r="C134" s="13" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="K134" s="76" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="M134" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="N134" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P134" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S134" s="138" t="s">
         <v>191</v>
@@ -15785,7 +15782,7 @@
         <v>191</v>
       </c>
       <c r="AE134" s="138" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF134" s="138" t="s">
         <v>191</v>
@@ -15796,25 +15793,25 @@
     </row>
     <row r="135">
       <c r="A135" s="137" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="M135" s="139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="P135" s="139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="S135" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD135" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE135" s="139" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="AF135" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG135" s="139" t="s">
         <v>192</v>
@@ -15822,25 +15819,25 @@
     </row>
     <row r="136">
       <c r="A136" s="136" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="M136" s="140" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="P136" s="141" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="S136" s="141" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AD136" s="141" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AE136" s="141" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="AF136" s="141" t="s">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="AG136" s="141" t="s">
         <v>192</v>
@@ -15848,17 +15845,17 @@
     </row>
     <row r="137">
       <c r="A137" s="136" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="142" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
     </row>
     <row r="140">
@@ -15868,19 +15865,19 @@
     </row>
     <row r="141">
       <c r="C141" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K141" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M141" s="138" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="N141" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P141" s="138" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="S141" s="138" t="s">
         <v>191</v>
@@ -15889,71 +15886,71 @@
         <v>191</v>
       </c>
       <c r="AE141" s="138" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="AF141" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG141" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="142" t="s">
+        <v>385</v>
+      </c>
+      <c r="M142" s="144" t="s">
+        <v>383</v>
+      </c>
+      <c r="P142" s="144" t="s">
+        <v>383</v>
+      </c>
+      <c r="S142" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD142" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE142" s="144" t="s">
+        <v>383</v>
+      </c>
+      <c r="AF142" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG142" s="144" t="s">
         <v>384</v>
-      </c>
-      <c r="M142" s="144" t="s">
-        <v>382</v>
-      </c>
-      <c r="P142" s="144" t="s">
-        <v>382</v>
-      </c>
-      <c r="S142" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD142" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE142" s="144" t="s">
-        <v>382</v>
-      </c>
-      <c r="AF142" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG142" s="144" t="s">
-        <v>383</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="142" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="145">
       <c r="B145" s="143" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="146">
       <c r="C146" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K146" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M146" s="138" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="N146" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P146" s="138" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S146" s="138" t="s">
         <v>191</v>
@@ -15962,13 +15959,13 @@
         <v>191</v>
       </c>
       <c r="AE146" s="138" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="AF146" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG146" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="147">
@@ -15991,10 +15988,10 @@
         <v>191</v>
       </c>
       <c r="AD147" s="138" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AE147" s="138" t="s">
-        <v>388</v>
+        <v>307</v>
       </c>
       <c r="AF147" s="138" t="s">
         <v>191</v>
@@ -16008,57 +16005,57 @@
         <v>389</v>
       </c>
       <c r="M148" s="144" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="P148" s="144" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="S148" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AD148" s="144" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AE148" s="144" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="AF148" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG148" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="142" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="151">
       <c r="B151" s="143" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="152">
       <c r="C152" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K152" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M152" s="138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="N152" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P152" s="138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S152" s="138" t="s">
         <v>191</v>
@@ -16067,24 +16064,24 @@
         <v>191</v>
       </c>
       <c r="AE152" s="138" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF152" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG152" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="M153" s="144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="P153" s="144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="S153" s="144" t="s">
         <v>191</v>
@@ -16093,45 +16090,45 @@
         <v>191</v>
       </c>
       <c r="AE153" s="144" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="AF153" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG153" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="142" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
     </row>
     <row r="156">
       <c r="B156" s="143" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
     </row>
     <row r="157">
       <c r="C157" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K157" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M157" s="138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="N157" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P157" s="138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S157" s="138" t="s">
         <v>191</v>
@@ -16140,24 +16137,24 @@
         <v>191</v>
       </c>
       <c r="AE157" s="138" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF157" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG157" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="142" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="M158" s="144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="P158" s="144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="S158" s="144" t="s">
         <v>191</v>
@@ -16166,45 +16163,45 @@
         <v>191</v>
       </c>
       <c r="AE158" s="144" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="AF158" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG158" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="142" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
     </row>
     <row r="161">
       <c r="B161" s="143" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
     </row>
     <row r="162">
       <c r="C162" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K162" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M162" s="138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="N162" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P162" s="138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S162" s="138" t="s">
         <v>191</v>
@@ -16213,24 +16210,24 @@
         <v>191</v>
       </c>
       <c r="AE162" s="138" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF162" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG162" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="142" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="M163" s="144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="P163" s="144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="S163" s="144" t="s">
         <v>191</v>
@@ -16239,36 +16236,36 @@
         <v>191</v>
       </c>
       <c r="AE163" s="144" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="AF163" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG163" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="142" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="166">
       <c r="B166" s="143" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="167">
       <c r="C167" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K167" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M167" s="138" t="s">
         <v>224</v>
@@ -16292,12 +16289,12 @@
         <v>191</v>
       </c>
       <c r="AG167" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="142" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="M168" s="144" t="s">
         <v>224</v>
@@ -16318,39 +16315,39 @@
         <v>191</v>
       </c>
       <c r="AG168" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="171">
       <c r="B171" s="143" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
     </row>
     <row r="172">
       <c r="C172" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K172" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M172" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="N172" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P172" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S172" s="138" t="s">
         <v>191</v>
@@ -16359,24 +16356,24 @@
         <v>191</v>
       </c>
       <c r="AE172" s="138" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF172" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG172" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M173" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="P173" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="S173" s="144" t="s">
         <v>191</v>
@@ -16385,45 +16382,45 @@
         <v>191</v>
       </c>
       <c r="AE173" s="144" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="AF173" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG173" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="142" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
     </row>
     <row r="176">
       <c r="B176" s="143" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="177">
       <c r="C177" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K177" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M177" s="138" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="N177" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P177" s="138" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S177" s="138" t="s">
         <v>191</v>
@@ -16432,24 +16429,24 @@
         <v>191</v>
       </c>
       <c r="AE177" s="138" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF177" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG177" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="142" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="M178" s="144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="P178" s="144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="S178" s="144" t="s">
         <v>191</v>
@@ -16458,45 +16455,45 @@
         <v>191</v>
       </c>
       <c r="AE178" s="144" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="AF178" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG178" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="142" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
     </row>
     <row r="181">
       <c r="B181" s="143" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="182">
       <c r="C182" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K182" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M182" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N182" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P182" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S182" s="138" t="s">
         <v>191</v>
@@ -16505,24 +16502,24 @@
         <v>191</v>
       </c>
       <c r="AE182" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF182" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG182" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="142" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="M183" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P183" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S183" s="144" t="s">
         <v>191</v>
@@ -16531,45 +16528,45 @@
         <v>191</v>
       </c>
       <c r="AE183" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF183" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG183" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="142" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="186">
       <c r="B186" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="187">
       <c r="C187" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K187" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M187" s="138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="N187" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P187" s="138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S187" s="138" t="s">
         <v>191</v>
@@ -16578,24 +16575,24 @@
         <v>191</v>
       </c>
       <c r="AE187" s="138" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF187" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG187" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="142" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="M188" s="144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="P188" s="144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="S188" s="144" t="s">
         <v>191</v>
@@ -16604,45 +16601,45 @@
         <v>191</v>
       </c>
       <c r="AE188" s="144" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="AF188" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG188" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="142" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
     </row>
     <row r="191">
       <c r="B191" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="192">
       <c r="C192" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K192" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M192" s="138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="N192" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P192" s="138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S192" s="138" t="s">
         <v>191</v>
@@ -16651,24 +16648,24 @@
         <v>191</v>
       </c>
       <c r="AE192" s="138" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF192" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG192" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="142" t="s">
+        <v>422</v>
+      </c>
+      <c r="M193" s="144" t="s">
         <v>423</v>
       </c>
-      <c r="M193" s="144" t="s">
-        <v>424</v>
-      </c>
       <c r="P193" s="144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="S193" s="144" t="s">
         <v>191</v>
@@ -16677,45 +16674,45 @@
         <v>191</v>
       </c>
       <c r="AE193" s="144" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="AF193" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG193" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="142" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="196">
       <c r="B196" s="143" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197">
       <c r="C197" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K197" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M197" s="138" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="N197" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P197" s="138" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S197" s="138" t="s">
         <v>191</v>
@@ -16724,24 +16721,24 @@
         <v>191</v>
       </c>
       <c r="AE197" s="138" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF197" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG197" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="142" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="M198" s="144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="P198" s="144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="S198" s="144" t="s">
         <v>191</v>
@@ -16750,45 +16747,45 @@
         <v>191</v>
       </c>
       <c r="AE198" s="144" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="AF198" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG198" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="142" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="201">
       <c r="B201" s="143" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="202">
       <c r="C202" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K202" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M202" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="N202" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P202" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S202" s="138" t="s">
         <v>191</v>
@@ -16797,24 +16794,24 @@
         <v>191</v>
       </c>
       <c r="AE202" s="138" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF202" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG202" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="142" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M203" s="144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="P203" s="144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="S203" s="144" t="s">
         <v>191</v>
@@ -16823,45 +16820,45 @@
         <v>191</v>
       </c>
       <c r="AE203" s="144" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="AF203" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG203" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="142" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="206">
       <c r="B206" s="143" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
     </row>
     <row r="207">
       <c r="C207" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K207" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M207" s="138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="N207" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P207" s="138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S207" s="138" t="s">
         <v>191</v>
@@ -16870,24 +16867,24 @@
         <v>191</v>
       </c>
       <c r="AE207" s="138" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF207" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG207" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="142" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="M208" s="144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="P208" s="144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="S208" s="144" t="s">
         <v>191</v>
@@ -16896,45 +16893,45 @@
         <v>191</v>
       </c>
       <c r="AE208" s="144" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="AF208" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG208" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="142" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="211">
       <c r="B211" s="143" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
     </row>
     <row r="212">
       <c r="C212" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K212" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M212" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N212" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P212" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S212" s="138" t="s">
         <v>191</v>
@@ -16943,24 +16940,24 @@
         <v>191</v>
       </c>
       <c r="AE212" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF212" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG212" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="142" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="M213" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P213" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S213" s="144" t="s">
         <v>191</v>
@@ -16969,45 +16966,45 @@
         <v>191</v>
       </c>
       <c r="AE213" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF213" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG213" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="142" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="216">
       <c r="B216" s="143" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="217">
       <c r="C217" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K217" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M217" s="138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="N217" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P217" s="138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S217" s="138" t="s">
         <v>191</v>
@@ -17016,24 +17013,24 @@
         <v>191</v>
       </c>
       <c r="AE217" s="138" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF217" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG217" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="142" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="M218" s="144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="P218" s="144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="S218" s="144" t="s">
         <v>191</v>
@@ -17042,45 +17039,45 @@
         <v>191</v>
       </c>
       <c r="AE218" s="144" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="AF218" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG218" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="13" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="142" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
     </row>
     <row r="221">
       <c r="B221" s="143" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
     </row>
     <row r="222">
       <c r="C222" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K222" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M222" s="138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="N222" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P222" s="138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S222" s="138" t="s">
         <v>191</v>
@@ -17089,24 +17086,24 @@
         <v>191</v>
       </c>
       <c r="AE222" s="138" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF222" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG222" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="142" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="M223" s="144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="P223" s="144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="S223" s="144" t="s">
         <v>191</v>
@@ -17115,45 +17112,45 @@
         <v>191</v>
       </c>
       <c r="AE223" s="144" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="AF223" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG223" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="13" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="142" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="226">
       <c r="B226" s="143" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
     </row>
     <row r="227">
       <c r="C227" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K227" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M227" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N227" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P227" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S227" s="138" t="s">
         <v>191</v>
@@ -17162,24 +17159,24 @@
         <v>191</v>
       </c>
       <c r="AE227" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF227" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG227" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="142" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="M228" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P228" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S228" s="144" t="s">
         <v>191</v>
@@ -17188,45 +17185,45 @@
         <v>191</v>
       </c>
       <c r="AE228" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF228" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG228" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="13" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="142" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="231">
       <c r="B231" s="143" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="232">
       <c r="C232" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K232" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M232" s="138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="N232" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P232" s="138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S232" s="138" t="s">
         <v>191</v>
@@ -17235,24 +17232,24 @@
         <v>191</v>
       </c>
       <c r="AE232" s="138" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF232" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG232" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="142" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="M233" s="144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="P233" s="144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="S233" s="144" t="s">
         <v>191</v>
@@ -17261,45 +17258,45 @@
         <v>191</v>
       </c>
       <c r="AE233" s="144" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="AF233" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG233" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="142" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="236">
       <c r="B236" s="143" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="237">
       <c r="C237" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K237" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M237" s="138" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="N237" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P237" s="138" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S237" s="138" t="s">
         <v>191</v>
@@ -17308,24 +17305,24 @@
         <v>191</v>
       </c>
       <c r="AE237" s="138" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF237" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG237" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="142" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="M238" s="144" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="P238" s="144" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="S238" s="144" t="s">
         <v>191</v>
@@ -17334,45 +17331,45 @@
         <v>191</v>
       </c>
       <c r="AE238" s="144" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="AF238" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG238" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="142" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="241">
       <c r="B241" s="143" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="242">
       <c r="C242" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K242" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M242" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N242" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P242" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S242" s="138" t="s">
         <v>191</v>
@@ -17381,24 +17378,24 @@
         <v>191</v>
       </c>
       <c r="AE242" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF242" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG242" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="142" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="M243" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P243" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S243" s="144" t="s">
         <v>191</v>
@@ -17407,45 +17404,45 @@
         <v>191</v>
       </c>
       <c r="AE243" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF243" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG243" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="142" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="246">
       <c r="B246" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="247">
       <c r="C247" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K247" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M247" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N247" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P247" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S247" s="138" t="s">
         <v>191</v>
@@ -17454,24 +17451,24 @@
         <v>191</v>
       </c>
       <c r="AE247" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF247" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG247" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="142" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="M248" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P248" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S248" s="144" t="s">
         <v>191</v>
@@ -17480,45 +17477,45 @@
         <v>191</v>
       </c>
       <c r="AE248" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF248" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG248" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="13" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="142" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="251">
       <c r="B251" s="143" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="252">
       <c r="C252" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K252" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M252" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N252" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P252" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S252" s="138" t="s">
         <v>191</v>
@@ -17527,24 +17524,24 @@
         <v>191</v>
       </c>
       <c r="AE252" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF252" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG252" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="142" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="M253" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P253" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S253" s="144" t="s">
         <v>191</v>
@@ -17553,45 +17550,45 @@
         <v>191</v>
       </c>
       <c r="AE253" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF253" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG253" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="13" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="142" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="256">
       <c r="B256" s="143" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="257">
       <c r="C257" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K257" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M257" s="138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="N257" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P257" s="138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S257" s="138" t="s">
         <v>191</v>
@@ -17600,24 +17597,24 @@
         <v>191</v>
       </c>
       <c r="AE257" s="138" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF257" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG257" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="142" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="M258" s="144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="P258" s="144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="S258" s="144" t="s">
         <v>191</v>
@@ -17626,45 +17623,45 @@
         <v>191</v>
       </c>
       <c r="AE258" s="144" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="AF258" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG258" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="142" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="261">
       <c r="B261" s="143" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="262">
       <c r="C262" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K262" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M262" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N262" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P262" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S262" s="138" t="s">
         <v>191</v>
@@ -17673,24 +17670,24 @@
         <v>191</v>
       </c>
       <c r="AE262" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF262" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG262" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="142" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="M263" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P263" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S263" s="144" t="s">
         <v>191</v>
@@ -17699,45 +17696,45 @@
         <v>191</v>
       </c>
       <c r="AE263" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF263" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG263" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="142" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="266">
       <c r="B266" s="143" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="267">
       <c r="C267" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K267" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M267" s="138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="N267" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P267" s="138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S267" s="138" t="s">
         <v>191</v>
@@ -17746,24 +17743,24 @@
         <v>191</v>
       </c>
       <c r="AE267" s="138" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF267" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG267" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="142" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="M268" s="144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="P268" s="144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="S268" s="144" t="s">
         <v>191</v>
@@ -17772,45 +17769,45 @@
         <v>191</v>
       </c>
       <c r="AE268" s="144" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="AF268" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG268" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="142" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="271">
       <c r="B271" s="143" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="272">
       <c r="C272" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K272" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M272" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N272" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P272" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S272" s="138" t="s">
         <v>191</v>
@@ -17819,24 +17816,24 @@
         <v>191</v>
       </c>
       <c r="AE272" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF272" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG272" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="142" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="M273" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P273" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S273" s="144" t="s">
         <v>191</v>
@@ -17845,45 +17842,45 @@
         <v>191</v>
       </c>
       <c r="AE273" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF273" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG273" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="142" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="276">
       <c r="B276" s="143" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="277">
       <c r="C277" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K277" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M277" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N277" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P277" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S277" s="138" t="s">
         <v>191</v>
@@ -17892,24 +17889,24 @@
         <v>191</v>
       </c>
       <c r="AE277" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF277" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG277" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="142" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="M278" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P278" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S278" s="144" t="s">
         <v>191</v>
@@ -17918,45 +17915,45 @@
         <v>191</v>
       </c>
       <c r="AE278" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF278" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG278" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="142" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="281">
       <c r="B281" s="143" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
     </row>
     <row r="282">
       <c r="C282" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K282" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M282" s="138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="N282" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P282" s="138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S282" s="138" t="s">
         <v>191</v>
@@ -17965,24 +17962,24 @@
         <v>191</v>
       </c>
       <c r="AE282" s="138" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF282" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG282" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="142" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="M283" s="144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="P283" s="144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="S283" s="144" t="s">
         <v>191</v>
@@ -17991,45 +17988,45 @@
         <v>191</v>
       </c>
       <c r="AE283" s="144" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="AF283" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG283" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="142" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="286">
       <c r="B286" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="287">
       <c r="C287" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K287" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M287" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="N287" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P287" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S287" s="138" t="s">
         <v>191</v>
@@ -18038,24 +18035,24 @@
         <v>191</v>
       </c>
       <c r="AE287" s="138" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF287" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG287" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="142" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="M288" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="P288" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="S288" s="144" t="s">
         <v>191</v>
@@ -18064,45 +18061,45 @@
         <v>191</v>
       </c>
       <c r="AE288" s="144" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="AF288" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG288" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="142" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="291">
       <c r="B291" s="143" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="292">
       <c r="C292" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K292" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M292" s="138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="N292" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P292" s="138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S292" s="138" t="s">
         <v>191</v>
@@ -18111,24 +18108,24 @@
         <v>191</v>
       </c>
       <c r="AE292" s="138" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF292" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG292" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="142" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="M293" s="144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="P293" s="144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="S293" s="144" t="s">
         <v>191</v>
@@ -18137,45 +18134,45 @@
         <v>191</v>
       </c>
       <c r="AE293" s="144" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="AF293" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG293" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="13" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="142" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="296">
       <c r="B296" s="143" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="297">
       <c r="C297" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K297" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M297" s="138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="N297" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P297" s="138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S297" s="138" t="s">
         <v>191</v>
@@ -18184,24 +18181,24 @@
         <v>191</v>
       </c>
       <c r="AE297" s="138" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF297" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG297" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="142" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="M298" s="144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="P298" s="144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="S298" s="144" t="s">
         <v>191</v>
@@ -18210,45 +18207,45 @@
         <v>191</v>
       </c>
       <c r="AE298" s="144" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="AF298" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG298" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="142" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="301">
       <c r="B301" s="143" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="302">
       <c r="C302" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K302" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M302" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N302" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P302" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S302" s="138" t="s">
         <v>191</v>
@@ -18257,24 +18254,24 @@
         <v>191</v>
       </c>
       <c r="AE302" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF302" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG302" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="142" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="M303" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P303" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S303" s="144" t="s">
         <v>191</v>
@@ -18283,45 +18280,45 @@
         <v>191</v>
       </c>
       <c r="AE303" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF303" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG303" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="142" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="306">
       <c r="B306" s="143" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="307">
       <c r="C307" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K307" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M307" s="138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="N307" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P307" s="138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S307" s="138" t="s">
         <v>191</v>
@@ -18330,24 +18327,24 @@
         <v>191</v>
       </c>
       <c r="AE307" s="138" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF307" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG307" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="142" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="M308" s="144" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="P308" s="144" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="S308" s="144" t="s">
         <v>191</v>
@@ -18356,45 +18353,45 @@
         <v>191</v>
       </c>
       <c r="AE308" s="144" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="AF308" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG308" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="142" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="311">
       <c r="B311" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="312">
       <c r="C312" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K312" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M312" s="138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="N312" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P312" s="138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S312" s="138" t="s">
         <v>191</v>
@@ -18403,24 +18400,24 @@
         <v>191</v>
       </c>
       <c r="AE312" s="138" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF312" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG312" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="142" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="M313" s="144" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="P313" s="144" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="S313" s="144" t="s">
         <v>191</v>
@@ -18429,36 +18426,36 @@
         <v>191</v>
       </c>
       <c r="AE313" s="144" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="AF313" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG313" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="142" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="316">
       <c r="B316" s="143" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="317">
       <c r="C317" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K317" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M317" s="138" t="s">
         <v>224</v>
@@ -18482,12 +18479,12 @@
         <v>191</v>
       </c>
       <c r="AG317" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="142" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="M318" s="144" t="s">
         <v>224</v>
@@ -18508,39 +18505,39 @@
         <v>191</v>
       </c>
       <c r="AG318" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="142" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
     </row>
     <row r="321">
       <c r="B321" s="143" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
     </row>
     <row r="322">
       <c r="C322" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K322" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M322" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N322" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P322" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S322" s="138" t="s">
         <v>191</v>
@@ -18549,24 +18546,24 @@
         <v>191</v>
       </c>
       <c r="AE322" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF322" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG322" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="142" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="M323" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P323" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S323" s="144" t="s">
         <v>191</v>
@@ -18575,45 +18572,45 @@
         <v>191</v>
       </c>
       <c r="AE323" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF323" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG323" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="13" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="142" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
     </row>
     <row r="326">
       <c r="B326" s="143" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
     </row>
     <row r="327">
       <c r="C327" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K327" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M327" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="N327" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P327" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S327" s="138" t="s">
         <v>191</v>
@@ -18622,24 +18619,24 @@
         <v>191</v>
       </c>
       <c r="AE327" s="138" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF327" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG327" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="142" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="M328" s="144" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P328" s="144" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="S328" s="144" t="s">
         <v>191</v>
@@ -18648,45 +18645,45 @@
         <v>191</v>
       </c>
       <c r="AE328" s="144" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="AF328" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG328" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="142" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="331">
       <c r="B331" s="143" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
     </row>
     <row r="332">
       <c r="C332" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K332" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M332" s="138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="N332" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P332" s="138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S332" s="138" t="s">
         <v>191</v>
@@ -18695,24 +18692,24 @@
         <v>191</v>
       </c>
       <c r="AE332" s="138" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF332" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG332" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="142" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="M333" s="144" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="P333" s="144" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="S333" s="144" t="s">
         <v>191</v>
@@ -18721,45 +18718,45 @@
         <v>191</v>
       </c>
       <c r="AE333" s="144" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="AF333" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG333" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="142" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
     </row>
     <row r="336">
       <c r="B336" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="337">
       <c r="C337" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K337" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M337" s="138" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="N337" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P337" s="138" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S337" s="138" t="s">
         <v>191</v>
@@ -18768,24 +18765,24 @@
         <v>191</v>
       </c>
       <c r="AE337" s="138" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF337" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG337" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="142" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="M338" s="144" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="P338" s="144" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="S338" s="144" t="s">
         <v>191</v>
@@ -18794,45 +18791,45 @@
         <v>191</v>
       </c>
       <c r="AE338" s="144" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="AF338" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG338" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="142" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="341">
       <c r="B341" s="143" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="342">
       <c r="C342" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K342" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M342" s="138" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="N342" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P342" s="138" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S342" s="138" t="s">
         <v>191</v>
@@ -18841,24 +18838,24 @@
         <v>191</v>
       </c>
       <c r="AE342" s="138" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF342" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG342" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="142" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="M343" s="144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="P343" s="144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S343" s="144" t="s">
         <v>191</v>
@@ -18867,45 +18864,45 @@
         <v>191</v>
       </c>
       <c r="AE343" s="144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AF343" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG343" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="142" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="346">
       <c r="B346" s="143" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="347">
       <c r="C347" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K347" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M347" s="138" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="N347" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P347" s="138" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S347" s="138" t="s">
         <v>191</v>
@@ -18914,24 +18911,24 @@
         <v>191</v>
       </c>
       <c r="AE347" s="138" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF347" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG347" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="142" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="M348" s="144" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="P348" s="144" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="S348" s="144" t="s">
         <v>191</v>
@@ -18940,45 +18937,45 @@
         <v>191</v>
       </c>
       <c r="AE348" s="144" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="AF348" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG348" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="142" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
     <row r="351">
       <c r="B351" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="352">
       <c r="C352" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K352" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M352" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="N352" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P352" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S352" s="138" t="s">
         <v>191</v>
@@ -18987,24 +18984,24 @@
         <v>191</v>
       </c>
       <c r="AE352" s="138" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF352" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG352" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="142" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="M353" s="144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="P353" s="144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="S353" s="144" t="s">
         <v>191</v>
@@ -19013,45 +19010,45 @@
         <v>191</v>
       </c>
       <c r="AE353" s="144" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="AF353" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG353" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="142" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
     </row>
     <row r="356">
       <c r="B356" s="143" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="357">
       <c r="C357" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K357" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M357" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N357" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P357" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S357" s="138" t="s">
         <v>191</v>
@@ -19060,24 +19057,24 @@
         <v>191</v>
       </c>
       <c r="AE357" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF357" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG357" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="142" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="M358" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P358" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S358" s="144" t="s">
         <v>191</v>
@@ -19086,45 +19083,45 @@
         <v>191</v>
       </c>
       <c r="AE358" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF358" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG358" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="142" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
     </row>
     <row r="361">
       <c r="B361" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="362">
       <c r="C362" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K362" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M362" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N362" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P362" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S362" s="138" t="s">
         <v>191</v>
@@ -19133,24 +19130,24 @@
         <v>191</v>
       </c>
       <c r="AE362" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF362" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG362" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="142" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="M363" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P363" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S363" s="144" t="s">
         <v>191</v>
@@ -19159,45 +19156,45 @@
         <v>191</v>
       </c>
       <c r="AE363" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF363" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG363" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="142" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
     </row>
     <row r="366">
       <c r="B366" s="143" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
     </row>
     <row r="367">
       <c r="C367" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K367" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M367" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="N367" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P367" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S367" s="138" t="s">
         <v>191</v>
@@ -19206,24 +19203,24 @@
         <v>191</v>
       </c>
       <c r="AE367" s="138" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF367" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG367" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="142" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="M368" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="P368" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="S368" s="144" t="s">
         <v>191</v>
@@ -19232,45 +19229,45 @@
         <v>191</v>
       </c>
       <c r="AE368" s="144" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="AF368" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG368" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="142" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
     </row>
     <row r="371">
       <c r="B371" s="143" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
     </row>
     <row r="372">
       <c r="C372" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K372" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M372" s="138" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="N372" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P372" s="138" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S372" s="138" t="s">
         <v>191</v>
@@ -19279,24 +19276,24 @@
         <v>191</v>
       </c>
       <c r="AE372" s="138" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF372" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG372" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="142" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="M373" s="144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="P373" s="144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="S373" s="144" t="s">
         <v>191</v>
@@ -19305,45 +19302,45 @@
         <v>191</v>
       </c>
       <c r="AE373" s="144" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="AF373" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG373" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="13" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="142" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="376">
       <c r="B376" s="143" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
     </row>
     <row r="377">
       <c r="C377" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K377" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M377" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="N377" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P377" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S377" s="138" t="s">
         <v>191</v>
@@ -19352,24 +19349,24 @@
         <v>191</v>
       </c>
       <c r="AE377" s="138" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF377" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG377" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="142" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="M378" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="P378" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="S378" s="144" t="s">
         <v>191</v>
@@ -19378,45 +19375,45 @@
         <v>191</v>
       </c>
       <c r="AE378" s="144" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="AF378" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG378" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="13" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="142" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="381">
       <c r="B381" s="143" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="382">
       <c r="C382" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K382" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M382" s="138" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="N382" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P382" s="138" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S382" s="138" t="s">
         <v>191</v>
@@ -19425,24 +19422,24 @@
         <v>191</v>
       </c>
       <c r="AE382" s="138" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF382" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG382" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="142" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="M383" s="144" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="P383" s="144" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="S383" s="144" t="s">
         <v>191</v>
@@ -19451,45 +19448,45 @@
         <v>191</v>
       </c>
       <c r="AE383" s="144" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="AF383" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG383" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="13" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="142" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
     </row>
     <row r="386">
       <c r="B386" s="143" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
     </row>
     <row r="387">
       <c r="C387" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K387" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M387" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="N387" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P387" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S387" s="138" t="s">
         <v>191</v>
@@ -19498,24 +19495,24 @@
         <v>191</v>
       </c>
       <c r="AE387" s="138" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF387" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG387" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="142" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="M388" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="P388" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="S388" s="144" t="s">
         <v>191</v>
@@ -19524,45 +19521,45 @@
         <v>191</v>
       </c>
       <c r="AE388" s="144" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="AF388" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG388" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="13" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="142" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
     </row>
     <row r="391">
       <c r="B391" s="143" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
     </row>
     <row r="392">
       <c r="C392" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K392" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M392" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="N392" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P392" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S392" s="138" t="s">
         <v>191</v>
@@ -19571,24 +19568,24 @@
         <v>191</v>
       </c>
       <c r="AE392" s="138" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF392" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG392" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="142" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="M393" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="P393" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="S393" s="144" t="s">
         <v>191</v>
@@ -19597,45 +19594,45 @@
         <v>191</v>
       </c>
       <c r="AE393" s="144" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="AF393" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG393" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="142" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
     </row>
     <row r="396">
       <c r="B396" s="143" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
     </row>
     <row r="397">
       <c r="C397" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K397" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M397" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N397" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P397" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S397" s="138" t="s">
         <v>191</v>
@@ -19644,24 +19641,24 @@
         <v>191</v>
       </c>
       <c r="AE397" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF397" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG397" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="142" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="M398" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P398" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S398" s="144" t="s">
         <v>191</v>
@@ -19670,45 +19667,45 @@
         <v>191</v>
       </c>
       <c r="AE398" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF398" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG398" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="142" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
     </row>
     <row r="401">
       <c r="B401" s="143" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
     </row>
     <row r="402">
       <c r="C402" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K402" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M402" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="N402" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P402" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S402" s="138" t="s">
         <v>191</v>
@@ -19717,24 +19714,24 @@
         <v>191</v>
       </c>
       <c r="AE402" s="138" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF402" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG402" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="142" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="M403" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="P403" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="S403" s="144" t="s">
         <v>191</v>
@@ -19743,45 +19740,45 @@
         <v>191</v>
       </c>
       <c r="AE403" s="144" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="AF403" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG403" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="142" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
     </row>
     <row r="406">
       <c r="B406" s="143" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
     </row>
     <row r="407">
       <c r="C407" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K407" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M407" s="138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="N407" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P407" s="138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S407" s="138" t="s">
         <v>191</v>
@@ -19790,24 +19787,24 @@
         <v>191</v>
       </c>
       <c r="AE407" s="138" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF407" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG407" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="142" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="M408" s="144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="P408" s="144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="S408" s="144" t="s">
         <v>191</v>
@@ -19816,36 +19813,36 @@
         <v>191</v>
       </c>
       <c r="AE408" s="144" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="AF408" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG408" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="13" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="142" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
     </row>
     <row r="411">
       <c r="B411" s="143" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="412">
       <c r="C412" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K412" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M412" s="138" t="s">
         <v>224</v>
@@ -19869,12 +19866,12 @@
         <v>191</v>
       </c>
       <c r="AG412" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="142" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="M413" s="144" t="s">
         <v>224</v>
@@ -19895,39 +19892,39 @@
         <v>191</v>
       </c>
       <c r="AG413" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="13" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" s="142" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
     </row>
     <row r="416">
       <c r="B416" s="143" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
     </row>
     <row r="417">
       <c r="C417" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K417" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M417" s="138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="N417" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P417" s="138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S417" s="138" t="s">
         <v>191</v>
@@ -19936,24 +19933,24 @@
         <v>191</v>
       </c>
       <c r="AE417" s="138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF417" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG417" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="418">
       <c r="A418" s="142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="M418" s="144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="P418" s="144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="S418" s="144" t="s">
         <v>191</v>
@@ -19962,45 +19959,45 @@
         <v>191</v>
       </c>
       <c r="AE418" s="144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="AF418" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG418" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" s="13" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" s="142" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
     </row>
     <row r="421">
       <c r="B421" s="143" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
     </row>
     <row r="422">
       <c r="C422" s="13" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="K422" s="76" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="M422" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="N422" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P422" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S422" s="138" t="s">
         <v>191</v>
@@ -20009,24 +20006,24 @@
         <v>191</v>
       </c>
       <c r="AE422" s="138" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF422" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG422" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="423">
       <c r="A423" s="142" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="M423" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="P423" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="S423" s="144" t="s">
         <v>191</v>
@@ -20035,13 +20032,13 @@
         <v>191</v>
       </c>
       <c r="AE423" s="144" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="AF423" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG423" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="424">
@@ -20051,7 +20048,7 @@
     </row>
     <row r="425">
       <c r="A425" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="426">
@@ -20061,19 +20058,19 @@
     </row>
     <row r="427">
       <c r="C427" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="K427" s="76" t="s">
         <v>588</v>
       </c>
-      <c r="K427" s="76" t="s">
+      <c r="M427" s="138" t="s">
         <v>589</v>
       </c>
-      <c r="M427" s="138" t="s">
-        <v>590</v>
-      </c>
       <c r="N427" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P427" s="138" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="S427" s="138" t="s">
         <v>191</v>
@@ -20082,7 +20079,7 @@
         <v>191</v>
       </c>
       <c r="AE427" s="138" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="AF427" s="138" t="s">
         <v>191</v>
@@ -20096,16 +20093,16 @@
         <v>96</v>
       </c>
       <c r="K428" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="M428" s="138" t="s">
         <v>591</v>
       </c>
-      <c r="M428" s="138" t="s">
-        <v>592</v>
-      </c>
       <c r="N428" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P428" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="S428" s="138" t="s">
         <v>191</v>
@@ -20114,7 +20111,7 @@
         <v>191</v>
       </c>
       <c r="AE428" s="138" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="AF428" s="138" t="s">
         <v>191</v>
@@ -20125,25 +20122,25 @@
     </row>
     <row r="429">
       <c r="A429" s="137" t="s">
+        <v>592</v>
+      </c>
+      <c r="M429" s="139" t="s">
         <v>593</v>
       </c>
-      <c r="M429" s="139" t="s">
-        <v>594</v>
-      </c>
       <c r="P429" s="139" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S429" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AD429" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AE429" s="139" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF429" s="139" t="s">
-        <v>267</v>
+        <v>307</v>
       </c>
       <c r="AG429" s="139" t="s">
         <v>192</v>
@@ -20151,13 +20148,13 @@
     </row>
     <row r="430">
       <c r="A430" s="136" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="M430" s="140" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="P430" s="141" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="S430" s="141" t="s">
         <v>191</v>
@@ -20166,7 +20163,7 @@
         <v>191</v>
       </c>
       <c r="AE430" s="141" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="AF430" s="141" t="s">
         <v>191</v>
@@ -20177,7 +20174,7 @@
     </row>
     <row r="431">
       <c r="A431" s="136" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
     </row>
     <row r="432">
@@ -20187,29 +20184,29 @@
     </row>
     <row r="433">
       <c r="A433" s="142" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
     </row>
     <row r="434">
       <c r="B434" s="143" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="435">
       <c r="C435" s="13" t="s">
+        <v>598</v>
+      </c>
+      <c r="K435" s="76" t="s">
         <v>599</v>
       </c>
-      <c r="K435" s="76" t="s">
-        <v>600</v>
-      </c>
       <c r="M435" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="N435" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P435" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S435" s="138" t="s">
         <v>191</v>
@@ -20218,24 +20215,24 @@
         <v>191</v>
       </c>
       <c r="AE435" s="138" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF435" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG435" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="436">
       <c r="A436" s="142" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="M436" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="P436" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="S436" s="144" t="s">
         <v>191</v>
@@ -20244,36 +20241,36 @@
         <v>191</v>
       </c>
       <c r="AE436" s="144" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="AF436" s="144" t="s">
         <v>191</v>
       </c>
       <c r="AG436" s="144" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="437">
       <c r="A437" s="13" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
     </row>
     <row r="438">
       <c r="A438" s="142" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="439">
       <c r="B439" s="143" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
     </row>
     <row r="440">
       <c r="C440" s="13" t="s">
+        <v>587</v>
+      </c>
+      <c r="K440" s="76" t="s">
         <v>588</v>
-      </c>
-      <c r="K440" s="76" t="s">
-        <v>589</v>
       </c>
       <c r="M440" s="138" t="s">
         <v>224</v>
@@ -20297,7 +20294,7 @@
         <v>191</v>
       </c>
       <c r="AG440" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="441">
@@ -20305,16 +20302,16 @@
         <v>96</v>
       </c>
       <c r="K441" s="76" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="M441" s="138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="N441" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P441" s="138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="S441" s="138" t="s">
         <v>191</v>
@@ -20323,114 +20320,93 @@
         <v>191</v>
       </c>
       <c r="AE441" s="138" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="AF441" s="138" t="s">
         <v>191</v>
       </c>
       <c r="AG441" s="138" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
     </row>
     <row r="442">
       <c r="A442" s="142" t="s">
+        <v>604</v>
+      </c>
+      <c r="M442" s="144" t="s">
         <v>605</v>
       </c>
-      <c r="M442" s="144" t="s">
+      <c r="P442" s="144" t="s">
+        <v>605</v>
+      </c>
+      <c r="S442" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD442" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE442" s="144" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF442" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG442" s="144" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" s="136" t="s">
         <v>606</v>
       </c>
-      <c r="P442" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="S442" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD442" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE442" s="144" t="s">
-        <v>606</v>
-      </c>
-      <c r="AF442" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG442" s="144" t="s">
-        <v>383</v>
-      </c>
     </row>
     <row r="444">
-      <c r="B444" s="136" t="s">
-        <v>375</v>
-      </c>
-      <c r="M444" s="141" t="s">
-        <v>376</v>
+      <c r="A444" s="136" t="s">
+        <v>607</v>
+      </c>
+      <c r="M444" s="140" t="s">
+        <v>191</v>
       </c>
       <c r="P444" s="141" t="s">
-        <v>376</v>
+        <v>191</v>
       </c>
       <c r="S444" s="141" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AD444" s="141" t="s">
-        <v>291</v>
+        <v>191</v>
       </c>
       <c r="AE444" s="141" t="s">
-        <v>377</v>
-      </c>
-      <c r="AF444" s="144" t="s">
-        <v>292</v>
-      </c>
-      <c r="AG444" s="144" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="B445" s="136" t="s">
-        <v>595</v>
-      </c>
-      <c r="M445" s="141" t="s">
-        <v>594</v>
-      </c>
-      <c r="P445" s="141" t="s">
-        <v>594</v>
-      </c>
-      <c r="S445" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD445" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE445" s="141" t="s">
-        <v>594</v>
-      </c>
-      <c r="AF445" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG445" s="144" t="s">
-        <v>192</v>
+        <v>191</v>
+      </c>
+      <c r="AF444" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG444" s="141" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="446">
       <c r="B446" s="136" t="s">
-        <v>607</v>
+        <v>376</v>
       </c>
       <c r="M446" s="141" t="s">
-        <v>608</v>
+        <v>377</v>
       </c>
       <c r="P446" s="141" t="s">
-        <v>608</v>
+        <v>377</v>
       </c>
       <c r="S446" s="141" t="s">
-        <v>191</v>
+        <v>262</v>
       </c>
       <c r="AD446" s="141" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="AE446" s="141" t="s">
-        <v>609</v>
+        <v>378</v>
       </c>
       <c r="AF446" s="144" t="s">
-        <v>191</v>
+        <v>264</v>
       </c>
       <c r="AG446" s="144" t="s">
         <v>192</v>
@@ -20438,27 +20414,105 @@
     </row>
     <row r="447">
       <c r="B447" s="136" t="s">
+        <v>594</v>
+      </c>
+      <c r="M447" s="141" t="s">
+        <v>593</v>
+      </c>
+      <c r="P447" s="141" t="s">
+        <v>593</v>
+      </c>
+      <c r="S447" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD447" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE447" s="141" t="s">
+        <v>593</v>
+      </c>
+      <c r="AF447" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG447" s="144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="B448" s="136" t="s">
+        <v>607</v>
+      </c>
+      <c r="M448" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="P448" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="S448" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD448" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE448" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF448" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG448" s="144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="B449" s="136" t="s">
+        <v>608</v>
+      </c>
+      <c r="M449" s="141" t="s">
+        <v>609</v>
+      </c>
+      <c r="P449" s="141" t="s">
+        <v>609</v>
+      </c>
+      <c r="S449" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD449" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE449" s="141" t="s">
+        <v>609</v>
+      </c>
+      <c r="AF449" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG449" s="144" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="B450" s="136" t="s">
         <v>610</v>
       </c>
-      <c r="M447" s="141" t="s">
+      <c r="M450" s="141" t="s">
         <v>611</v>
       </c>
-      <c r="P447" s="141" t="s">
+      <c r="P450" s="141" t="s">
         <v>611</v>
       </c>
-      <c r="S447" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD447" s="141" t="s">
-        <v>291</v>
-      </c>
-      <c r="AE447" s="141" t="s">
-        <v>612</v>
-      </c>
-      <c r="AF447" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG447" s="144" t="s">
+      <c r="S450" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD450" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE450" s="141" t="s">
+        <v>611</v>
+      </c>
+      <c r="AF450" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG450" s="144" t="s">
         <v>192</v>
       </c>
     </row>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="613" uniqueCount="613">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="624" uniqueCount="624">
   <si>
     <t>JAN-DEC</t>
   </si>
@@ -549,6 +549,9 @@
     <t>February</t>
   </si>
   <si>
+    <t>December</t>
+  </si>
+  <si>
     <t>April</t>
   </si>
   <si>
@@ -573,10 +576,7 @@
     <t>November</t>
   </si>
   <si>
-    <t>December</t>
-  </si>
-  <si>
-    <t>As of January</t>
+    <t>As of December</t>
   </si>
   <si>
     <t xml:space="preserve">BALANCE OF </t>
@@ -1164,18 +1164,48 @@
     <t>5010204001</t>
   </si>
   <si>
+    <t>200,000.00</t>
+  </si>
+  <si>
+    <t>-200,000.00</t>
+  </si>
+  <si>
+    <t>110,000.00</t>
+  </si>
+  <si>
+    <t>Infinity%</t>
+  </si>
+  <si>
     <t>719,000.00</t>
   </si>
   <si>
     <t>480,000.00</t>
   </si>
   <si>
+    <t>SALARIES AND WAGES - CASUAL/ CONTRACTUAL</t>
+  </si>
+  <si>
+    <t>5010102000</t>
+  </si>
+  <si>
     <t>SUBTOTAL EPIDEMIOLOGY AND SURVEILLANCE - MOOE</t>
   </si>
   <si>
     <t>1,199,000.00</t>
   </si>
   <si>
+    <t>400,000.00</t>
+  </si>
+  <si>
+    <t>799,000.00</t>
+  </si>
+  <si>
+    <t>160,000.00</t>
+  </si>
+  <si>
+    <t>86.66%</t>
+  </si>
+  <si>
     <t>310500100001000</t>
   </si>
   <si>
@@ -1188,6 +1218,12 @@
     <t>1,172,989,000.00</t>
   </si>
   <si>
+    <t>1,172,589,000.00</t>
+  </si>
+  <si>
+    <t>99.99%</t>
+  </si>
+  <si>
     <t>SUB-ALLOTMENT-MOOE</t>
   </si>
   <si>
@@ -1429,9 +1465,6 @@
   </si>
   <si>
     <t>Conduct of Capacity Enhancement for Chief Nurse on Establishing Regional Nurse Network (Batch 2)</t>
-  </si>
-  <si>
-    <t>400,000.00</t>
   </si>
   <si>
     <t>SUBTOTAL 2018-04-0657</t>
@@ -3000,7 +3033,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:TO455"/>
+  <dimension ref="A1:TO459"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="14" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
@@ -8422,34 +8455,34 @@
         <v>165</v>
       </c>
       <c r="S12" s="38" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="T12" s="38" t="s">
+        <v>167</v>
+      </c>
+      <c r="U12" s="38" t="s">
+        <v>168</v>
+      </c>
+      <c r="V12" s="39" t="s">
+        <v>169</v>
+      </c>
+      <c r="W12" s="38" t="s">
+        <v>170</v>
+      </c>
+      <c r="X12" s="38" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y12" s="38" t="s">
+        <v>172</v>
+      </c>
+      <c r="Z12" s="38" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA12" s="38" t="s">
+        <v>174</v>
+      </c>
+      <c r="AB12" s="38" t="s">
         <v>166</v>
-      </c>
-      <c r="U12" s="38" t="s">
-        <v>167</v>
-      </c>
-      <c r="V12" s="39" t="s">
-        <v>168</v>
-      </c>
-      <c r="W12" s="38" t="s">
-        <v>169</v>
-      </c>
-      <c r="X12" s="38" t="s">
-        <v>170</v>
-      </c>
-      <c r="Y12" s="38" t="s">
-        <v>171</v>
-      </c>
-      <c r="Z12" s="38" t="s">
-        <v>172</v>
-      </c>
-      <c r="AA12" s="38" t="s">
-        <v>173</v>
-      </c>
-      <c r="AB12" s="38" t="s">
-        <v>174</v>
       </c>
       <c r="AC12" s="63"/>
       <c r="AD12" s="82" t="s">
@@ -15747,16 +15780,16 @@
         <v>191</v>
       </c>
       <c r="AD131" s="138" t="s">
-        <v>191</v>
+        <v>371</v>
       </c>
       <c r="AE131" s="138" t="s">
-        <v>190</v>
+        <v>372</v>
       </c>
       <c r="AF131" s="138" t="s">
-        <v>191</v>
+        <v>373</v>
       </c>
       <c r="AG131" s="138" t="s">
-        <v>191</v>
+        <v>374</v>
       </c>
     </row>
     <row r="132">
@@ -15767,13 +15800,13 @@
         <v>193</v>
       </c>
       <c r="M132" s="138" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="N132" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P132" s="138" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="S132" s="138" t="s">
         <v>191</v>
@@ -15782,7 +15815,7 @@
         <v>191</v>
       </c>
       <c r="AE132" s="138" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="AF132" s="138" t="s">
         <v>191</v>
@@ -15799,13 +15832,13 @@
         <v>215</v>
       </c>
       <c r="M133" s="138" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="N133" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P133" s="138" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="S133" s="138" t="s">
         <v>191</v>
@@ -15814,7 +15847,7 @@
         <v>191</v>
       </c>
       <c r="AE133" s="138" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="AF133" s="138" t="s">
         <v>191</v>
@@ -15824,4458 +15857,4458 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" s="137" t="s">
-        <v>373</v>
-      </c>
-      <c r="M134" s="139" t="s">
+      <c r="C134" s="13" t="s">
+        <v>377</v>
+      </c>
+      <c r="K134" s="76" t="s">
+        <v>378</v>
+      </c>
+      <c r="M134" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="N134" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P134" s="138" t="s">
+        <v>190</v>
+      </c>
+      <c r="S134" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD134" s="138" t="s">
+        <v>371</v>
+      </c>
+      <c r="AE134" s="138" t="s">
+        <v>372</v>
+      </c>
+      <c r="AF134" s="138" t="s">
+        <v>295</v>
+      </c>
+      <c r="AG134" s="138" t="s">
         <v>374</v>
       </c>
-      <c r="P134" s="139" t="s">
-        <v>374</v>
-      </c>
-      <c r="S134" s="139" t="s">
+    </row>
+    <row r="135">
+      <c r="A135" s="137" t="s">
+        <v>379</v>
+      </c>
+      <c r="M135" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="P135" s="139" t="s">
+        <v>380</v>
+      </c>
+      <c r="S135" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AD134" s="139" t="s">
+      <c r="AD135" s="139" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE135" s="139" t="s">
+        <v>382</v>
+      </c>
+      <c r="AF135" s="139" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG135" s="139" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" s="137" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="C138" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="K138" s="76" t="s">
+        <v>286</v>
+      </c>
+      <c r="M138" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="N138" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P138" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="S138" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD138" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE138" s="138" t="s">
+        <v>366</v>
+      </c>
+      <c r="AF138" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG138" s="138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" s="137" t="s">
+        <v>386</v>
+      </c>
+      <c r="M139" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="P139" s="139" t="s">
+        <v>366</v>
+      </c>
+      <c r="S139" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AE134" s="139" t="s">
-        <v>374</v>
-      </c>
-      <c r="AF134" s="139" t="s">
+      <c r="AD139" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AG134" s="139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="135">
-      <c r="A135" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="136">
-      <c r="A136" s="137" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="137">
-      <c r="C137" s="13" t="s">
-        <v>285</v>
-      </c>
-      <c r="K137" s="76" t="s">
-        <v>286</v>
-      </c>
-      <c r="M137" s="138" t="s">
+      <c r="AE139" s="139" t="s">
         <v>366</v>
       </c>
-      <c r="N137" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P137" s="138" t="s">
-        <v>366</v>
-      </c>
-      <c r="S137" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD137" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE137" s="138" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF137" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG137" s="138" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="138">
-      <c r="A138" s="137" t="s">
-        <v>376</v>
-      </c>
-      <c r="M138" s="139" t="s">
-        <v>366</v>
-      </c>
-      <c r="P138" s="139" t="s">
-        <v>366</v>
-      </c>
-      <c r="S138" s="139" t="s">
+      <c r="AF139" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AD138" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="AE138" s="139" t="s">
-        <v>366</v>
-      </c>
-      <c r="AF138" s="139" t="s">
-        <v>190</v>
-      </c>
-      <c r="AG138" s="139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="139">
-      <c r="A139" s="136" t="s">
-        <v>377</v>
-      </c>
-      <c r="M139" s="140" t="s">
-        <v>378</v>
-      </c>
-      <c r="P139" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="S139" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD139" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE139" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF139" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG139" s="141" t="s">
+      <c r="AG139" s="139" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="136" t="s">
-        <v>379</v>
+        <v>387</v>
+      </c>
+      <c r="M140" s="140" t="s">
+        <v>388</v>
+      </c>
+      <c r="P140" s="141" t="s">
+        <v>388</v>
+      </c>
+      <c r="S140" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD140" s="141" t="s">
+        <v>381</v>
+      </c>
+      <c r="AE140" s="141" t="s">
+        <v>389</v>
+      </c>
+      <c r="AF140" s="141" t="s">
+        <v>383</v>
+      </c>
+      <c r="AG140" s="141" t="s">
+        <v>390</v>
       </c>
     </row>
     <row r="141">
-      <c r="A141" s="13" t="s">
+      <c r="A141" s="136" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" s="13" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="142">
-      <c r="A142" s="142" t="s">
-        <v>380</v>
-      </c>
-    </row>
     <row r="143">
-      <c r="B143" s="143" t="s">
+      <c r="A143" s="142" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="B144" s="143" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="144">
-      <c r="C144" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K144" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M144" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="N144" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P144" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="S144" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD144" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE144" s="138" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF144" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG144" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
     <row r="145">
-      <c r="A145" s="142" t="s">
-        <v>385</v>
-      </c>
-      <c r="M145" s="144" t="s">
-        <v>383</v>
-      </c>
-      <c r="P145" s="144" t="s">
-        <v>383</v>
-      </c>
-      <c r="S145" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD145" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE145" s="144" t="s">
-        <v>383</v>
-      </c>
-      <c r="AF145" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG145" s="144" t="s">
-        <v>384</v>
+      <c r="C145" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K145" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M145" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="N145" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P145" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="S145" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD145" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE145" s="138" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF145" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG145" s="138" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="146">
-      <c r="A146" s="13" t="s">
+      <c r="A146" s="142" t="s">
+        <v>397</v>
+      </c>
+      <c r="M146" s="144" t="s">
+        <v>395</v>
+      </c>
+      <c r="P146" s="144" t="s">
+        <v>395</v>
+      </c>
+      <c r="S146" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD146" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE146" s="144" t="s">
+        <v>395</v>
+      </c>
+      <c r="AF146" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG146" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" s="13" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="147">
-      <c r="A147" s="142" t="s">
-        <v>386</v>
-      </c>
-    </row>
     <row r="148">
-      <c r="B148" s="143" t="s">
-        <v>387</v>
+      <c r="A148" s="142" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="149">
-      <c r="C149" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K149" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M149" s="138" t="s">
-        <v>388</v>
-      </c>
-      <c r="N149" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P149" s="138" t="s">
-        <v>388</v>
-      </c>
-      <c r="S149" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD149" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE149" s="138" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF149" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG149" s="138" t="s">
-        <v>384</v>
+      <c r="B149" s="143" t="s">
+        <v>399</v>
       </c>
     </row>
     <row r="150">
       <c r="C150" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K150" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M150" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="N150" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P150" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="S150" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD150" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE150" s="138" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF150" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG150" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="C151" s="13" t="s">
         <v>264</v>
       </c>
-      <c r="K150" s="76" t="s">
+      <c r="K151" s="76" t="s">
         <v>265</v>
       </c>
-      <c r="M150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="N150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="S150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE150" s="138" t="s">
+      <c r="M151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="N151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="S151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE151" s="138" t="s">
         <v>190</v>
       </c>
-      <c r="AF150" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG150" s="138" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="151">
-      <c r="A151" s="142" t="s">
-        <v>389</v>
-      </c>
-      <c r="M151" s="144" t="s">
-        <v>388</v>
-      </c>
-      <c r="P151" s="144" t="s">
-        <v>388</v>
-      </c>
-      <c r="S151" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD151" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE151" s="144" t="s">
-        <v>388</v>
-      </c>
-      <c r="AF151" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG151" s="144" t="s">
-        <v>384</v>
+      <c r="AF151" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG151" s="138" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="13" t="s">
-        <v>390</v>
+      <c r="A152" s="142" t="s">
+        <v>401</v>
+      </c>
+      <c r="M152" s="144" t="s">
+        <v>400</v>
+      </c>
+      <c r="P152" s="144" t="s">
+        <v>400</v>
+      </c>
+      <c r="S152" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD152" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE152" s="144" t="s">
+        <v>400</v>
+      </c>
+      <c r="AF152" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG152" s="144" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="153">
-      <c r="A153" s="142" t="s">
-        <v>391</v>
+      <c r="A153" s="13" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="154">
-      <c r="B154" s="143" t="s">
-        <v>392</v>
+      <c r="A154" s="142" t="s">
+        <v>403</v>
       </c>
     </row>
     <row r="155">
-      <c r="C155" s="13" t="s">
+      <c r="B155" s="143" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="C156" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K156" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M156" s="138" t="s">
+        <v>405</v>
+      </c>
+      <c r="N156" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P156" s="138" t="s">
+        <v>405</v>
+      </c>
+      <c r="S156" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD156" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE156" s="138" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF156" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG156" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" s="142" t="s">
+        <v>406</v>
+      </c>
+      <c r="M157" s="144" t="s">
+        <v>405</v>
+      </c>
+      <c r="P157" s="144" t="s">
+        <v>405</v>
+      </c>
+      <c r="S157" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD157" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE157" s="144" t="s">
+        <v>405</v>
+      </c>
+      <c r="AF157" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG157" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" s="142" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="B160" s="143" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="C161" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K161" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M161" s="138" t="s">
+        <v>410</v>
+      </c>
+      <c r="N161" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P161" s="138" t="s">
+        <v>410</v>
+      </c>
+      <c r="S161" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD161" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE161" s="138" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF161" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG161" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" s="142" t="s">
+        <v>411</v>
+      </c>
+      <c r="M162" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="P162" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="S162" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD162" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE162" s="144" t="s">
+        <v>410</v>
+      </c>
+      <c r="AF162" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG162" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" s="142" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="B165" s="143" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="C166" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K166" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M166" s="138" t="s">
+        <v>415</v>
+      </c>
+      <c r="N166" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P166" s="138" t="s">
+        <v>415</v>
+      </c>
+      <c r="S166" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD166" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE166" s="138" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF166" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG166" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" s="142" t="s">
+        <v>416</v>
+      </c>
+      <c r="M167" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="P167" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="S167" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD167" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE167" s="144" t="s">
+        <v>415</v>
+      </c>
+      <c r="AF167" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG167" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" s="142" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="B170" s="143" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="C171" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K171" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M171" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="N171" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P171" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="S171" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD171" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE171" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF171" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG171" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="142" t="s">
+        <v>420</v>
+      </c>
+      <c r="M172" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="P172" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="S172" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD172" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE172" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF172" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG172" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" s="142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="B175" s="143" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="C176" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K176" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M176" s="138" t="s">
+        <v>423</v>
+      </c>
+      <c r="N176" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P176" s="138" t="s">
+        <v>423</v>
+      </c>
+      <c r="S176" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD176" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE176" s="138" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF176" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG176" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" s="142" t="s">
+        <v>424</v>
+      </c>
+      <c r="M177" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="P177" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="S177" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD177" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE177" s="144" t="s">
+        <v>423</v>
+      </c>
+      <c r="AF177" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG177" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="142" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="B180" s="143" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="C181" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K181" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M181" s="138" t="s">
+        <v>426</v>
+      </c>
+      <c r="N181" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P181" s="138" t="s">
+        <v>426</v>
+      </c>
+      <c r="S181" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD181" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE181" s="138" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF181" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG181" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="142" t="s">
+        <v>424</v>
+      </c>
+      <c r="M182" s="144" t="s">
+        <v>426</v>
+      </c>
+      <c r="P182" s="144" t="s">
+        <v>426</v>
+      </c>
+      <c r="S182" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD182" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE182" s="144" t="s">
+        <v>426</v>
+      </c>
+      <c r="AF182" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG182" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="13" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="142" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="B185" s="143" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="C186" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K186" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M186" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="N186" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P186" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="S186" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD186" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE186" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF186" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG186" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="142" t="s">
+        <v>430</v>
+      </c>
+      <c r="M187" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="P187" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="S187" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD187" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE187" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF187" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG187" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="142" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="B190" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="C191" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K191" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M191" s="138" t="s">
+        <v>433</v>
+      </c>
+      <c r="N191" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P191" s="138" t="s">
+        <v>433</v>
+      </c>
+      <c r="S191" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD191" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE191" s="138" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF191" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG191" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="142" t="s">
+        <v>434</v>
+      </c>
+      <c r="M192" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="P192" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="S192" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD192" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE192" s="144" t="s">
+        <v>433</v>
+      </c>
+      <c r="AF192" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG192" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="142" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="B195" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="C196" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K196" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M196" s="138" t="s">
+        <v>435</v>
+      </c>
+      <c r="N196" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P196" s="138" t="s">
+        <v>435</v>
+      </c>
+      <c r="S196" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD196" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE196" s="138" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF196" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG196" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="142" t="s">
+        <v>434</v>
+      </c>
+      <c r="M197" s="144" t="s">
+        <v>435</v>
+      </c>
+      <c r="P197" s="144" t="s">
+        <v>435</v>
+      </c>
+      <c r="S197" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD197" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE197" s="144" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF197" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG197" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="142" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="B200" s="143" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="C201" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K201" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M201" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="N201" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P201" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="S201" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD201" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE201" s="138" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF201" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG201" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="142" t="s">
+        <v>439</v>
+      </c>
+      <c r="M202" s="144" t="s">
+        <v>438</v>
+      </c>
+      <c r="P202" s="144" t="s">
+        <v>438</v>
+      </c>
+      <c r="S202" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD202" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE202" s="144" t="s">
+        <v>438</v>
+      </c>
+      <c r="AF202" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG202" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="142" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="B205" s="143" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="C206" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K206" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M206" s="138" t="s">
+        <v>376</v>
+      </c>
+      <c r="N206" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P206" s="138" t="s">
+        <v>376</v>
+      </c>
+      <c r="S206" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD206" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE206" s="138" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF206" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG206" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="M207" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="P207" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="S207" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD207" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE207" s="144" t="s">
+        <v>376</v>
+      </c>
+      <c r="AF207" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG207" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="142" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="B210" s="143" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="C211" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K211" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M211" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="N211" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P211" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="S211" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD211" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE211" s="138" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF211" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG211" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="142" t="s">
+        <v>442</v>
+      </c>
+      <c r="M212" s="144" t="s">
+        <v>444</v>
+      </c>
+      <c r="P212" s="144" t="s">
+        <v>444</v>
+      </c>
+      <c r="S212" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD212" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE212" s="144" t="s">
+        <v>444</v>
+      </c>
+      <c r="AF212" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG212" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="142" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="B215" s="143" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="C216" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K216" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M216" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="N216" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P216" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="S216" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD216" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE216" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF216" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG216" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="142" t="s">
+        <v>448</v>
+      </c>
+      <c r="M217" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="P217" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="S217" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD217" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE217" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF217" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG217" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="142" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="B220" s="143" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="C221" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K221" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M221" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="N221" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P221" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="S221" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD221" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE221" s="138" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF221" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG221" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="142" t="s">
+        <v>452</v>
+      </c>
+      <c r="M222" s="144" t="s">
+        <v>451</v>
+      </c>
+      <c r="P222" s="144" t="s">
+        <v>451</v>
+      </c>
+      <c r="S222" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD222" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE222" s="144" t="s">
+        <v>451</v>
+      </c>
+      <c r="AF222" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG222" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="13" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" s="142" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="B225" s="143" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="C226" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K226" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M226" s="138" t="s">
+        <v>456</v>
+      </c>
+      <c r="N226" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P226" s="138" t="s">
+        <v>456</v>
+      </c>
+      <c r="S226" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD226" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE226" s="138" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF226" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG226" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" s="142" t="s">
+        <v>457</v>
+      </c>
+      <c r="M227" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="P227" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="S227" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD227" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE227" s="144" t="s">
+        <v>456</v>
+      </c>
+      <c r="AF227" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG227" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" s="13" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" s="142" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="B230" s="143" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="C231" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K231" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M231" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="N231" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P231" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="S231" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD231" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE231" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF231" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG231" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" s="142" t="s">
+        <v>462</v>
+      </c>
+      <c r="M232" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="P232" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="S232" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD232" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE232" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF232" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG232" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" s="13" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="142" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="B235" s="143" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="C236" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K236" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M236" s="138" t="s">
+        <v>465</v>
+      </c>
+      <c r="N236" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P236" s="138" t="s">
+        <v>465</v>
+      </c>
+      <c r="S236" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD236" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE236" s="138" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF236" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG236" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="142" t="s">
+        <v>466</v>
+      </c>
+      <c r="M237" s="144" t="s">
+        <v>465</v>
+      </c>
+      <c r="P237" s="144" t="s">
+        <v>465</v>
+      </c>
+      <c r="S237" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD237" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE237" s="144" t="s">
+        <v>465</v>
+      </c>
+      <c r="AF237" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG237" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" s="142" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="B240" s="143" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="C241" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K241" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M241" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="N241" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P241" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="S241" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD241" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE241" s="138" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF241" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG241" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" s="142" t="s">
+        <v>469</v>
+      </c>
+      <c r="M242" s="144" t="s">
+        <v>468</v>
+      </c>
+      <c r="P242" s="144" t="s">
+        <v>468</v>
+      </c>
+      <c r="S242" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD242" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE242" s="144" t="s">
+        <v>468</v>
+      </c>
+      <c r="AF242" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG242" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" s="13" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" s="142" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="B245" s="143" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="C246" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K246" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M246" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="K155" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M155" s="138" t="s">
+      <c r="N246" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P246" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="S246" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD246" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE246" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF246" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG246" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" s="142" t="s">
+        <v>472</v>
+      </c>
+      <c r="M247" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P247" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="S247" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD247" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE247" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF247" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG247" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" s="142" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="B250" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="C251" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="N155" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P155" s="138" t="s">
+      <c r="K251" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M251" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="N251" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P251" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="S251" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD251" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE251" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF251" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG251" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" s="142" t="s">
+        <v>475</v>
+      </c>
+      <c r="M252" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="P252" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="S252" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD252" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE252" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF252" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG252" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" s="13" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" s="142" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="B255" s="143" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="C256" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="S155" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD155" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE155" s="138" t="s">
+      <c r="K256" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M256" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="N256" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P256" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="S256" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD256" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE256" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF256" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG256" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="142" t="s">
+        <v>478</v>
+      </c>
+      <c r="M257" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P257" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="S257" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD257" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE257" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF257" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG257" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="13" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="142" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="B260" s="143" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="C261" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="AF155" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG155" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="156">
-      <c r="A156" s="142" t="s">
+      <c r="K261" s="76" t="s">
         <v>394</v>
       </c>
-      <c r="M156" s="144" t="s">
+      <c r="M261" s="138" t="s">
+        <v>482</v>
+      </c>
+      <c r="N261" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P261" s="138" t="s">
+        <v>482</v>
+      </c>
+      <c r="S261" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD261" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE261" s="138" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF261" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG261" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="142" t="s">
+        <v>483</v>
+      </c>
+      <c r="M262" s="144" t="s">
+        <v>482</v>
+      </c>
+      <c r="P262" s="144" t="s">
+        <v>482</v>
+      </c>
+      <c r="S262" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD262" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE262" s="144" t="s">
+        <v>482</v>
+      </c>
+      <c r="AF262" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG262" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="142" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="B265" s="143" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="C266" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="P156" s="144" t="s">
+      <c r="K266" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M266" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="N266" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P266" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="S266" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD266" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE266" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF266" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG266" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="142" t="s">
+        <v>486</v>
+      </c>
+      <c r="M267" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P267" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="S267" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD267" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE267" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF267" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG267" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="142" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="B270" s="143" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="C271" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="S156" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD156" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE156" s="144" t="s">
+      <c r="K271" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M271" s="138" t="s">
+        <v>490</v>
+      </c>
+      <c r="N271" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P271" s="138" t="s">
+        <v>490</v>
+      </c>
+      <c r="S271" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD271" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE271" s="138" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF271" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG271" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="142" t="s">
+        <v>491</v>
+      </c>
+      <c r="M272" s="144" t="s">
+        <v>490</v>
+      </c>
+      <c r="P272" s="144" t="s">
+        <v>490</v>
+      </c>
+      <c r="S272" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD272" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE272" s="144" t="s">
+        <v>490</v>
+      </c>
+      <c r="AF272" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG272" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="142" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="B275" s="143" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="C276" s="13" t="s">
         <v>393</v>
       </c>
-      <c r="AF156" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG156" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" s="142" t="s">
+      <c r="K276" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M276" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="N276" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P276" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="S276" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD276" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE276" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF276" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG276" s="138" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="159">
-      <c r="B159" s="143" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="C160" s="13" t="s">
+    <row r="277">
+      <c r="A277" s="142" t="s">
+        <v>494</v>
+      </c>
+      <c r="M277" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="P277" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="S277" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD277" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE277" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF277" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG277" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="142" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="B280" s="143" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="C281" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K281" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M281" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="N281" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P281" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="S281" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD281" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE281" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF281" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG281" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="142" t="s">
+        <v>496</v>
+      </c>
+      <c r="M282" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="P282" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="S282" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD282" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE282" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF282" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG282" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="142" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="B285" s="143" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="C286" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K286" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M286" s="138" t="s">
+        <v>498</v>
+      </c>
+      <c r="N286" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P286" s="138" t="s">
+        <v>498</v>
+      </c>
+      <c r="S286" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD286" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE286" s="138" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF286" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG286" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" s="142" t="s">
+        <v>499</v>
+      </c>
+      <c r="M287" s="144" t="s">
+        <v>498</v>
+      </c>
+      <c r="P287" s="144" t="s">
+        <v>498</v>
+      </c>
+      <c r="S287" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD287" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE287" s="144" t="s">
+        <v>498</v>
+      </c>
+      <c r="AF287" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG287" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" s="142" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="B290" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="C291" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K291" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M291" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="N291" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P291" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="S291" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD291" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE291" s="138" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF291" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG291" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" s="142" t="s">
+        <v>501</v>
+      </c>
+      <c r="M292" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="P292" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="S292" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD292" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE292" s="144" t="s">
+        <v>447</v>
+      </c>
+      <c r="AF292" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG292" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" s="142" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="B295" s="143" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="C296" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K296" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M296" s="138" t="s">
+        <v>504</v>
+      </c>
+      <c r="N296" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P296" s="138" t="s">
+        <v>504</v>
+      </c>
+      <c r="S296" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD296" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE296" s="138" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF296" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG296" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" s="142" t="s">
+        <v>505</v>
+      </c>
+      <c r="M297" s="144" t="s">
+        <v>504</v>
+      </c>
+      <c r="P297" s="144" t="s">
+        <v>504</v>
+      </c>
+      <c r="S297" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD297" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE297" s="144" t="s">
+        <v>504</v>
+      </c>
+      <c r="AF297" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG297" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" s="13" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" s="142" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="B300" s="143" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="C301" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K301" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M301" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="N301" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P301" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="S301" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD301" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE301" s="138" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF301" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG301" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" s="142" t="s">
+        <v>510</v>
+      </c>
+      <c r="M302" s="144" t="s">
+        <v>509</v>
+      </c>
+      <c r="P302" s="144" t="s">
+        <v>509</v>
+      </c>
+      <c r="S302" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD302" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE302" s="144" t="s">
+        <v>509</v>
+      </c>
+      <c r="AF302" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG302" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" s="142" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="B305" s="143" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="C306" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K306" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M306" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="K160" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M160" s="138" t="s">
-        <v>398</v>
-      </c>
-      <c r="N160" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P160" s="138" t="s">
-        <v>398</v>
-      </c>
-      <c r="S160" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD160" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE160" s="138" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF160" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG160" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" s="142" t="s">
-        <v>399</v>
-      </c>
-      <c r="M161" s="144" t="s">
-        <v>398</v>
-      </c>
-      <c r="P161" s="144" t="s">
-        <v>398</v>
-      </c>
-      <c r="S161" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD161" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE161" s="144" t="s">
-        <v>398</v>
-      </c>
-      <c r="AF161" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG161" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" s="142" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="B164" s="143" t="s">
-        <v>402</v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="C165" s="13" t="s">
+      <c r="N306" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P306" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="K165" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M165" s="138" t="s">
-        <v>403</v>
-      </c>
-      <c r="N165" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P165" s="138" t="s">
-        <v>403</v>
-      </c>
-      <c r="S165" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD165" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE165" s="138" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF165" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG165" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" s="142" t="s">
-        <v>404</v>
-      </c>
-      <c r="M166" s="144" t="s">
-        <v>403</v>
-      </c>
-      <c r="P166" s="144" t="s">
-        <v>403</v>
-      </c>
-      <c r="S166" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD166" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE166" s="144" t="s">
-        <v>403</v>
-      </c>
-      <c r="AF166" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG166" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" s="142" t="s">
-        <v>406</v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="B169" s="143" t="s">
+      <c r="S306" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD306" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE306" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF306" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG306" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" s="142" t="s">
+        <v>513</v>
+      </c>
+      <c r="M307" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P307" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="S307" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD307" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE307" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF307" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG307" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" s="142" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="B310" s="143" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="C311" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K311" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M311" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="N311" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P311" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="S311" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD311" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE311" s="138" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF311" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG311" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" s="142" t="s">
+        <v>517</v>
+      </c>
+      <c r="M312" s="144" t="s">
+        <v>516</v>
+      </c>
+      <c r="P312" s="144" t="s">
+        <v>516</v>
+      </c>
+      <c r="S312" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD312" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE312" s="144" t="s">
+        <v>516</v>
+      </c>
+      <c r="AF312" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG312" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" s="142" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="B315" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="C316" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K316" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M316" s="138" t="s">
+        <v>519</v>
+      </c>
+      <c r="N316" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P316" s="138" t="s">
+        <v>519</v>
+      </c>
+      <c r="S316" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD316" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE316" s="138" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF316" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG316" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" s="142" t="s">
+        <v>520</v>
+      </c>
+      <c r="M317" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="P317" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="S317" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD317" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE317" s="144" t="s">
+        <v>519</v>
+      </c>
+      <c r="AF317" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG317" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" s="142" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="B320" s="143" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="C321" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K321" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M321" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="N321" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P321" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="S321" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD321" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE321" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF321" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG321" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" s="142" t="s">
+        <v>523</v>
+      </c>
+      <c r="M322" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="P322" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="S322" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD322" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE322" s="144" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF322" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG322" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" s="142" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="B325" s="143" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="C326" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K326" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M326" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="N326" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P326" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="S326" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD326" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE326" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF326" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG326" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" s="142" t="s">
+        <v>527</v>
+      </c>
+      <c r="M327" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="P327" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="S327" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD327" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE327" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF327" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG327" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" s="13" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" s="142" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="B330" s="143" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="C331" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K331" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M331" s="138" t="s">
+        <v>530</v>
+      </c>
+      <c r="N331" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P331" s="138" t="s">
+        <v>530</v>
+      </c>
+      <c r="S331" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD331" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE331" s="138" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF331" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG331" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" s="142" t="s">
+        <v>531</v>
+      </c>
+      <c r="M332" s="144" t="s">
+        <v>530</v>
+      </c>
+      <c r="P332" s="144" t="s">
+        <v>530</v>
+      </c>
+      <c r="S332" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD332" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE332" s="144" t="s">
+        <v>530</v>
+      </c>
+      <c r="AF332" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG332" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" s="142" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="B335" s="143" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="C336" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K336" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M336" s="138" t="s">
+        <v>534</v>
+      </c>
+      <c r="N336" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P336" s="138" t="s">
+        <v>534</v>
+      </c>
+      <c r="S336" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD336" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE336" s="138" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF336" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG336" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" s="142" t="s">
+        <v>535</v>
+      </c>
+      <c r="M337" s="144" t="s">
+        <v>534</v>
+      </c>
+      <c r="P337" s="144" t="s">
+        <v>534</v>
+      </c>
+      <c r="S337" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD337" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE337" s="144" t="s">
+        <v>534</v>
+      </c>
+      <c r="AF337" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG337" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" s="142" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="B340" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="C341" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K341" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M341" s="138" t="s">
+        <v>537</v>
+      </c>
+      <c r="N341" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P341" s="138" t="s">
+        <v>537</v>
+      </c>
+      <c r="S341" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD341" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE341" s="138" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF341" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG341" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" s="142" t="s">
+        <v>538</v>
+      </c>
+      <c r="M342" s="144" t="s">
+        <v>537</v>
+      </c>
+      <c r="P342" s="144" t="s">
+        <v>537</v>
+      </c>
+      <c r="S342" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD342" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE342" s="144" t="s">
+        <v>537</v>
+      </c>
+      <c r="AF342" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG342" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" s="142" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="B345" s="143" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="C346" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K346" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M346" s="138" t="s">
+        <v>541</v>
+      </c>
+      <c r="N346" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P346" s="138" t="s">
+        <v>541</v>
+      </c>
+      <c r="S346" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD346" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE346" s="138" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF346" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG346" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" s="142" t="s">
+        <v>542</v>
+      </c>
+      <c r="M347" s="144" t="s">
+        <v>541</v>
+      </c>
+      <c r="P347" s="144" t="s">
+        <v>541</v>
+      </c>
+      <c r="S347" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD347" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE347" s="144" t="s">
+        <v>541</v>
+      </c>
+      <c r="AF347" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG347" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" s="142" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="B350" s="143" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="C351" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K351" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M351" s="138" t="s">
+        <v>545</v>
+      </c>
+      <c r="N351" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P351" s="138" t="s">
+        <v>545</v>
+      </c>
+      <c r="S351" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD351" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE351" s="138" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF351" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG351" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" s="142" t="s">
+        <v>546</v>
+      </c>
+      <c r="M352" s="144" t="s">
+        <v>545</v>
+      </c>
+      <c r="P352" s="144" t="s">
+        <v>545</v>
+      </c>
+      <c r="S352" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD352" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE352" s="144" t="s">
+        <v>545</v>
+      </c>
+      <c r="AF352" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG352" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" s="142" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="B355" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="C356" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K356" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M356" s="138" t="s">
+        <v>548</v>
+      </c>
+      <c r="N356" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P356" s="138" t="s">
+        <v>548</v>
+      </c>
+      <c r="S356" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD356" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE356" s="138" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF356" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG356" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" s="142" t="s">
+        <v>549</v>
+      </c>
+      <c r="M357" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="P357" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="S357" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD357" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE357" s="144" t="s">
+        <v>548</v>
+      </c>
+      <c r="AF357" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG357" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" s="142" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="B360" s="143" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="C361" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K361" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M361" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="N361" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P361" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="S361" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD361" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE361" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF361" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG361" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" s="142" t="s">
+        <v>553</v>
+      </c>
+      <c r="M362" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="P362" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="S362" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD362" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE362" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF362" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG362" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" s="142" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="B365" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="C366" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K366" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M366" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="N366" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P366" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="S366" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD366" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE366" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF366" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG366" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" s="142" t="s">
+        <v>555</v>
+      </c>
+      <c r="M367" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="P367" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="S367" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD367" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE367" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF367" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG367" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" s="142" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="B370" s="143" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="C371" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K371" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M371" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="N371" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P371" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="S371" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD371" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE371" s="138" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF371" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG371" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" s="142" t="s">
+        <v>558</v>
+      </c>
+      <c r="M372" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="P372" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="S372" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD372" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE372" s="144" t="s">
+        <v>552</v>
+      </c>
+      <c r="AF372" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG372" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" s="142" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="B375" s="143" t="s">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="C376" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K376" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M376" s="138" t="s">
+        <v>561</v>
+      </c>
+      <c r="N376" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P376" s="138" t="s">
+        <v>561</v>
+      </c>
+      <c r="S376" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD376" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE376" s="138" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF376" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG376" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" s="142" t="s">
+        <v>562</v>
+      </c>
+      <c r="M377" s="144" t="s">
+        <v>561</v>
+      </c>
+      <c r="P377" s="144" t="s">
+        <v>561</v>
+      </c>
+      <c r="S377" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD377" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE377" s="144" t="s">
+        <v>561</v>
+      </c>
+      <c r="AF377" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG377" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" s="13" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="170">
-      <c r="C170" s="13" t="s">
+    <row r="379">
+      <c r="A379" s="142" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="B380" s="143" t="s">
+        <v>564</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="C381" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K381" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M381" s="138" t="s">
         <v>381</v>
       </c>
-      <c r="K170" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M170" s="138" t="s">
+      <c r="N381" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P381" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="S381" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD381" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE381" s="138" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF381" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG381" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" s="142" t="s">
+        <v>565</v>
+      </c>
+      <c r="M382" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="P382" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="S382" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD382" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE382" s="144" t="s">
+        <v>381</v>
+      </c>
+      <c r="AF382" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG382" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" s="13" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" s="142" t="s">
+        <v>566</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="B385" s="143" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="C386" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K386" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M386" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="N386" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P386" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="S386" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD386" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE386" s="138" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF386" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG386" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" s="142" t="s">
+        <v>568</v>
+      </c>
+      <c r="M387" s="144" t="s">
+        <v>567</v>
+      </c>
+      <c r="P387" s="144" t="s">
+        <v>567</v>
+      </c>
+      <c r="S387" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD387" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE387" s="144" t="s">
+        <v>567</v>
+      </c>
+      <c r="AF387" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG387" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" s="13" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" s="142" t="s">
+        <v>570</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="B390" s="143" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="C391" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K391" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M391" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="N391" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P391" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="S391" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD391" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE391" s="138" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF391" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG391" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" s="142" t="s">
+        <v>572</v>
+      </c>
+      <c r="M392" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="P392" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="S392" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD392" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE392" s="144" t="s">
+        <v>526</v>
+      </c>
+      <c r="AF392" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG392" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" s="13" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" s="142" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="B395" s="143" t="s">
+        <v>574</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="C396" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K396" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M396" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="N396" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P396" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="S396" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD396" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE396" s="138" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF396" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG396" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" s="142" t="s">
+        <v>575</v>
+      </c>
+      <c r="M397" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="P397" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="S397" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD397" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE397" s="144" t="s">
+        <v>329</v>
+      </c>
+      <c r="AF397" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG397" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" s="142" t="s">
+        <v>576</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="B400" s="143" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="C401" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K401" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M401" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="N401" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P401" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="S401" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD401" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE401" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF401" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG401" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" s="142" t="s">
+        <v>578</v>
+      </c>
+      <c r="M402" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="P402" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="S402" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD402" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE402" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF402" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG402" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" s="142" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="B405" s="143" t="s">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="C406" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K406" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M406" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="N406" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P406" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="S406" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD406" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE406" s="138" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF406" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG406" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" s="142" t="s">
+        <v>581</v>
+      </c>
+      <c r="M407" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="P407" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="S407" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD407" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE407" s="144" t="s">
+        <v>429</v>
+      </c>
+      <c r="AF407" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG407" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" s="142" t="s">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="B410" s="143" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="C411" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K411" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M411" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="N411" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P411" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="S411" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD411" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE411" s="138" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF411" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG411" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" s="142" t="s">
+        <v>585</v>
+      </c>
+      <c r="M412" s="144" t="s">
+        <v>584</v>
+      </c>
+      <c r="P412" s="144" t="s">
+        <v>584</v>
+      </c>
+      <c r="S412" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD412" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE412" s="144" t="s">
+        <v>584</v>
+      </c>
+      <c r="AF412" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG412" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" s="13" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" s="142" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="B415" s="143" t="s">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="C416" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K416" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M416" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="N170" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P170" s="138" t="s">
+      <c r="N416" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P416" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="S170" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD170" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE170" s="138" t="s">
+      <c r="S416" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD416" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE416" s="138" t="s">
         <v>227</v>
       </c>
-      <c r="AF170" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG170" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" s="142" t="s">
-        <v>408</v>
-      </c>
-      <c r="M171" s="144" t="s">
+      <c r="AF416" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG416" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" s="142" t="s">
+        <v>589</v>
+      </c>
+      <c r="M417" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="P171" s="144" t="s">
+      <c r="P417" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="S171" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD171" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE171" s="144" t="s">
+      <c r="S417" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD417" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE417" s="144" t="s">
         <v>227</v>
       </c>
-      <c r="AF171" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG171" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="172">
-      <c r="A172" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="173">
-      <c r="A173" s="142" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="174">
-      <c r="B174" s="143" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="175">
-      <c r="C175" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K175" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M175" s="138" t="s">
-        <v>411</v>
-      </c>
-      <c r="N175" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P175" s="138" t="s">
-        <v>411</v>
-      </c>
-      <c r="S175" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD175" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE175" s="138" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF175" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG175" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="176">
-      <c r="A176" s="142" t="s">
-        <v>412</v>
-      </c>
-      <c r="M176" s="144" t="s">
-        <v>411</v>
-      </c>
-      <c r="P176" s="144" t="s">
-        <v>411</v>
-      </c>
-      <c r="S176" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD176" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE176" s="144" t="s">
-        <v>411</v>
-      </c>
-      <c r="AF176" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG176" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="142" t="s">
-        <v>409</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="B179" s="143" t="s">
-        <v>413</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="C180" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K180" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M180" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="N180" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P180" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="S180" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD180" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE180" s="138" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF180" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG180" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="142" t="s">
-        <v>412</v>
-      </c>
-      <c r="M181" s="144" t="s">
-        <v>414</v>
-      </c>
-      <c r="P181" s="144" t="s">
-        <v>414</v>
-      </c>
-      <c r="S181" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD181" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE181" s="144" t="s">
-        <v>414</v>
-      </c>
-      <c r="AF181" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG181" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="13" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="142" t="s">
-        <v>415</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="B184" s="143" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="C185" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K185" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M185" s="138" t="s">
+      <c r="AF417" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG417" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" s="13" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" s="142" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="B420" s="143" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="C421" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K421" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M421" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="N421" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P421" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="S421" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD421" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE421" s="138" t="s">
+        <v>592</v>
+      </c>
+      <c r="AF421" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG421" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" s="142" t="s">
+        <v>593</v>
+      </c>
+      <c r="M422" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="P422" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="S422" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD422" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE422" s="144" t="s">
+        <v>592</v>
+      </c>
+      <c r="AF422" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG422" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" s="13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" s="142" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="B425" s="143" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="C426" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K426" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M426" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="N426" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P426" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="S426" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD426" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE426" s="138" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF426" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG426" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" s="142" t="s">
+        <v>596</v>
+      </c>
+      <c r="M427" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="P427" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="S427" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD427" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE427" s="144" t="s">
+        <v>461</v>
+      </c>
+      <c r="AF427" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG427" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" s="13" t="s">
         <v>417</v>
       </c>
-      <c r="N185" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P185" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="S185" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD185" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE185" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF185" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG185" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="142" t="s">
-        <v>418</v>
-      </c>
-      <c r="M186" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="P186" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="S186" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD186" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE186" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF186" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG186" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="B189" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="C190" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K190" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M190" s="138" t="s">
-        <v>421</v>
-      </c>
-      <c r="N190" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P190" s="138" t="s">
-        <v>421</v>
-      </c>
-      <c r="S190" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD190" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE190" s="138" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF190" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG190" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="142" t="s">
-        <v>422</v>
-      </c>
-      <c r="M191" s="144" t="s">
-        <v>421</v>
-      </c>
-      <c r="P191" s="144" t="s">
-        <v>421</v>
-      </c>
-      <c r="S191" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD191" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE191" s="144" t="s">
-        <v>421</v>
-      </c>
-      <c r="AF191" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG191" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="142" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="B194" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="C195" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K195" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M195" s="138" t="s">
-        <v>423</v>
-      </c>
-      <c r="N195" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P195" s="138" t="s">
-        <v>423</v>
-      </c>
-      <c r="S195" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD195" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE195" s="138" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF195" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG195" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="142" t="s">
-        <v>422</v>
-      </c>
-      <c r="M196" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="P196" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="S196" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD196" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE196" s="144" t="s">
-        <v>423</v>
-      </c>
-      <c r="AF196" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG196" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="142" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="B199" s="143" t="s">
-        <v>425</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="C200" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K200" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M200" s="138" t="s">
-        <v>426</v>
-      </c>
-      <c r="N200" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P200" s="138" t="s">
-        <v>426</v>
-      </c>
-      <c r="S200" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD200" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE200" s="138" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF200" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG200" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="142" t="s">
-        <v>427</v>
-      </c>
-      <c r="M201" s="144" t="s">
-        <v>426</v>
-      </c>
-      <c r="P201" s="144" t="s">
-        <v>426</v>
-      </c>
-      <c r="S201" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD201" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE201" s="144" t="s">
-        <v>426</v>
-      </c>
-      <c r="AF201" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG201" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="142" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="B204" s="143" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="C205" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K205" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M205" s="138" t="s">
-        <v>372</v>
-      </c>
-      <c r="N205" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P205" s="138" t="s">
-        <v>372</v>
-      </c>
-      <c r="S205" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD205" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE205" s="138" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF205" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG205" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="142" t="s">
-        <v>430</v>
-      </c>
-      <c r="M206" s="144" t="s">
-        <v>372</v>
-      </c>
-      <c r="P206" s="144" t="s">
-        <v>372</v>
-      </c>
-      <c r="S206" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD206" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE206" s="144" t="s">
-        <v>372</v>
-      </c>
-      <c r="AF206" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG206" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="142" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="B209" s="143" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="C210" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K210" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M210" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="N210" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P210" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="S210" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD210" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE210" s="138" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF210" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG210" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="142" t="s">
-        <v>430</v>
-      </c>
-      <c r="M211" s="144" t="s">
-        <v>432</v>
-      </c>
-      <c r="P211" s="144" t="s">
-        <v>432</v>
-      </c>
-      <c r="S211" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD211" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE211" s="144" t="s">
-        <v>432</v>
-      </c>
-      <c r="AF211" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG211" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="142" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="B214" s="143" t="s">
-        <v>434</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="C215" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K215" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M215" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="N215" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P215" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="S215" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD215" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE215" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF215" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG215" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="142" t="s">
-        <v>436</v>
-      </c>
-      <c r="M216" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="P216" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="S216" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD216" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE216" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF216" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG216" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="142" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="B219" s="143" t="s">
-        <v>438</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="C220" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K220" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M220" s="138" t="s">
-        <v>439</v>
-      </c>
-      <c r="N220" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P220" s="138" t="s">
-        <v>439</v>
-      </c>
-      <c r="S220" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD220" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE220" s="138" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF220" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG220" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="142" t="s">
-        <v>440</v>
-      </c>
-      <c r="M221" s="144" t="s">
-        <v>439</v>
-      </c>
-      <c r="P221" s="144" t="s">
-        <v>439</v>
-      </c>
-      <c r="S221" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD221" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE221" s="144" t="s">
-        <v>439</v>
-      </c>
-      <c r="AF221" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG221" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="13" t="s">
-        <v>441</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="142" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="224">
-      <c r="B224" s="143" t="s">
-        <v>443</v>
-      </c>
-    </row>
-    <row r="225">
-      <c r="C225" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K225" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M225" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="N225" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P225" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="S225" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD225" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE225" s="138" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF225" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG225" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="226">
-      <c r="A226" s="142" t="s">
-        <v>445</v>
-      </c>
-      <c r="M226" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="P226" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="S226" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD226" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE226" s="144" t="s">
-        <v>444</v>
-      </c>
-      <c r="AF226" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG226" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="227">
-      <c r="A227" s="13" t="s">
-        <v>446</v>
-      </c>
-    </row>
-    <row r="228">
-      <c r="A228" s="142" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="229">
-      <c r="B229" s="143" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="230">
-      <c r="C230" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K230" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M230" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="N230" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P230" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="S230" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD230" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE230" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF230" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG230" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="231">
-      <c r="A231" s="142" t="s">
-        <v>450</v>
-      </c>
-      <c r="M231" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="P231" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="S231" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD231" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE231" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF231" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG231" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="232">
-      <c r="A232" s="13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="233">
-      <c r="A233" s="142" t="s">
-        <v>451</v>
-      </c>
-    </row>
-    <row r="234">
-      <c r="B234" s="143" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="235">
-      <c r="C235" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K235" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M235" s="138" t="s">
-        <v>453</v>
-      </c>
-      <c r="N235" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P235" s="138" t="s">
-        <v>453</v>
-      </c>
-      <c r="S235" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD235" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE235" s="138" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF235" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG235" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" s="142" t="s">
-        <v>454</v>
-      </c>
-      <c r="M236" s="144" t="s">
-        <v>453</v>
-      </c>
-      <c r="P236" s="144" t="s">
-        <v>453</v>
-      </c>
-      <c r="S236" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD236" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE236" s="144" t="s">
-        <v>453</v>
-      </c>
-      <c r="AF236" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG236" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="238">
-      <c r="A238" s="142" t="s">
-        <v>455</v>
-      </c>
-    </row>
-    <row r="239">
-      <c r="B239" s="143" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="240">
-      <c r="C240" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K240" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M240" s="138" t="s">
-        <v>456</v>
-      </c>
-      <c r="N240" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P240" s="138" t="s">
-        <v>456</v>
-      </c>
-      <c r="S240" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD240" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE240" s="138" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF240" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG240" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="241">
-      <c r="A241" s="142" t="s">
-        <v>457</v>
-      </c>
-      <c r="M241" s="144" t="s">
-        <v>456</v>
-      </c>
-      <c r="P241" s="144" t="s">
-        <v>456</v>
-      </c>
-      <c r="S241" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD241" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE241" s="144" t="s">
-        <v>456</v>
-      </c>
-      <c r="AF241" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG241" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="242">
-      <c r="A242" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="243">
-      <c r="A243" s="142" t="s">
-        <v>458</v>
-      </c>
-    </row>
-    <row r="244">
-      <c r="B244" s="143" t="s">
-        <v>459</v>
-      </c>
-    </row>
-    <row r="245">
-      <c r="C245" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K245" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M245" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="N245" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P245" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="S245" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD245" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE245" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF245" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG245" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="246">
-      <c r="A246" s="142" t="s">
-        <v>461</v>
-      </c>
-      <c r="M246" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="P246" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="S246" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD246" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE246" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF246" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG246" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="247">
-      <c r="A247" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="248">
-      <c r="A248" s="142" t="s">
-        <v>462</v>
-      </c>
-    </row>
-    <row r="249">
-      <c r="B249" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="250">
-      <c r="C250" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K250" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M250" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="N250" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P250" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="S250" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD250" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE250" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF250" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG250" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="251">
-      <c r="A251" s="142" t="s">
-        <v>464</v>
-      </c>
-      <c r="M251" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="P251" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="S251" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD251" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE251" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF251" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG251" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="252">
-      <c r="A252" s="13" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="253">
-      <c r="A253" s="142" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="254">
-      <c r="B254" s="143" t="s">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="255">
-      <c r="C255" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K255" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M255" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="N255" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P255" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="S255" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD255" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE255" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF255" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG255" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="256">
-      <c r="A256" s="142" t="s">
-        <v>467</v>
-      </c>
-      <c r="M256" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="P256" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="S256" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD256" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE256" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF256" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG256" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="257">
-      <c r="A257" s="13" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="258">
-      <c r="A258" s="142" t="s">
-        <v>469</v>
-      </c>
-    </row>
-    <row r="259">
-      <c r="B259" s="143" t="s">
-        <v>470</v>
-      </c>
-    </row>
-    <row r="260">
-      <c r="C260" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K260" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M260" s="138" t="s">
-        <v>471</v>
-      </c>
-      <c r="N260" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P260" s="138" t="s">
-        <v>471</v>
-      </c>
-      <c r="S260" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD260" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE260" s="138" t="s">
-        <v>471</v>
-      </c>
-      <c r="AF260" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG260" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="261">
-      <c r="A261" s="142" t="s">
-        <v>472</v>
-      </c>
-      <c r="M261" s="144" t="s">
-        <v>471</v>
-      </c>
-      <c r="P261" s="144" t="s">
-        <v>471</v>
-      </c>
-      <c r="S261" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD261" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE261" s="144" t="s">
-        <v>471</v>
-      </c>
-      <c r="AF261" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG261" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="262">
-      <c r="A262" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="263">
-      <c r="A263" s="142" t="s">
-        <v>473</v>
-      </c>
-    </row>
-    <row r="264">
-      <c r="B264" s="143" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="265">
-      <c r="C265" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K265" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M265" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="N265" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P265" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="S265" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD265" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE265" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF265" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG265" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="266">
-      <c r="A266" s="142" t="s">
-        <v>475</v>
-      </c>
-      <c r="M266" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="P266" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="S266" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD266" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE266" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF266" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG266" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="267">
-      <c r="A267" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="268">
-      <c r="A268" s="142" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="269">
-      <c r="B269" s="143" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="270">
-      <c r="C270" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K270" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M270" s="138" t="s">
-        <v>479</v>
-      </c>
-      <c r="N270" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P270" s="138" t="s">
-        <v>479</v>
-      </c>
-      <c r="S270" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD270" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE270" s="138" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF270" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG270" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="271">
-      <c r="A271" s="142" t="s">
-        <v>480</v>
-      </c>
-      <c r="M271" s="144" t="s">
-        <v>479</v>
-      </c>
-      <c r="P271" s="144" t="s">
-        <v>479</v>
-      </c>
-      <c r="S271" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD271" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE271" s="144" t="s">
-        <v>479</v>
-      </c>
-      <c r="AF271" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG271" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="272">
-      <c r="A272" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="273">
-      <c r="A273" s="142" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="274">
-      <c r="B274" s="143" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="275">
-      <c r="C275" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K275" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M275" s="138" t="s">
+    </row>
+    <row r="429">
+      <c r="A429" s="142" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="B430" s="143" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="C431" s="13" t="s">
+        <v>393</v>
+      </c>
+      <c r="K431" s="76" t="s">
+        <v>394</v>
+      </c>
+      <c r="M431" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="N275" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P275" s="138" t="s">
+      <c r="N431" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P431" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="S275" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD275" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE275" s="138" t="s">
+      <c r="S431" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD431" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE431" s="138" t="s">
         <v>329</v>
       </c>
-      <c r="AF275" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG275" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="276">
-      <c r="A276" s="142" t="s">
-        <v>483</v>
-      </c>
-      <c r="M276" s="144" t="s">
+      <c r="AF431" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG431" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" s="142" t="s">
+        <v>599</v>
+      </c>
+      <c r="M432" s="144" t="s">
         <v>329</v>
       </c>
-      <c r="P276" s="144" t="s">
+      <c r="P432" s="144" t="s">
         <v>329</v>
       </c>
-      <c r="S276" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD276" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE276" s="144" t="s">
+      <c r="S432" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD432" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE432" s="144" t="s">
         <v>329</v>
       </c>
-      <c r="AF276" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG276" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="277">
-      <c r="A277" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="278">
-      <c r="A278" s="142" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="279">
-      <c r="B279" s="143" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="280">
-      <c r="C280" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K280" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M280" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="N280" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P280" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="S280" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD280" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE280" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF280" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG280" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="281">
-      <c r="A281" s="142" t="s">
-        <v>485</v>
-      </c>
-      <c r="M281" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="P281" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="S281" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD281" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE281" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF281" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG281" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="282">
-      <c r="A282" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="142" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="284">
-      <c r="B284" s="143" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="285">
-      <c r="C285" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K285" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M285" s="138" t="s">
-        <v>487</v>
-      </c>
-      <c r="N285" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P285" s="138" t="s">
-        <v>487</v>
-      </c>
-      <c r="S285" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD285" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE285" s="138" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF285" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG285" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="286">
-      <c r="A286" s="142" t="s">
-        <v>488</v>
-      </c>
-      <c r="M286" s="144" t="s">
-        <v>487</v>
-      </c>
-      <c r="P286" s="144" t="s">
-        <v>487</v>
-      </c>
-      <c r="S286" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD286" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE286" s="144" t="s">
-        <v>487</v>
-      </c>
-      <c r="AF286" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG286" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="287">
-      <c r="A287" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="288">
-      <c r="A288" s="142" t="s">
-        <v>489</v>
-      </c>
-    </row>
-    <row r="289">
-      <c r="B289" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="290">
-      <c r="C290" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K290" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M290" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="N290" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P290" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="S290" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD290" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE290" s="138" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF290" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG290" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="291">
-      <c r="A291" s="142" t="s">
-        <v>490</v>
-      </c>
-      <c r="M291" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="P291" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="S291" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD291" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE291" s="144" t="s">
-        <v>435</v>
-      </c>
-      <c r="AF291" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG291" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="292">
-      <c r="A292" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="293">
-      <c r="A293" s="142" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="294">
-      <c r="B294" s="143" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="295">
-      <c r="C295" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K295" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M295" s="138" t="s">
-        <v>493</v>
-      </c>
-      <c r="N295" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P295" s="138" t="s">
-        <v>493</v>
-      </c>
-      <c r="S295" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD295" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE295" s="138" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF295" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG295" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="296">
-      <c r="A296" s="142" t="s">
-        <v>494</v>
-      </c>
-      <c r="M296" s="144" t="s">
-        <v>493</v>
-      </c>
-      <c r="P296" s="144" t="s">
-        <v>493</v>
-      </c>
-      <c r="S296" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD296" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE296" s="144" t="s">
-        <v>493</v>
-      </c>
-      <c r="AF296" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG296" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="297">
-      <c r="A297" s="13" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="298">
-      <c r="A298" s="142" t="s">
-        <v>496</v>
-      </c>
-    </row>
-    <row r="299">
-      <c r="B299" s="143" t="s">
-        <v>497</v>
-      </c>
-    </row>
-    <row r="300">
-      <c r="C300" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K300" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M300" s="138" t="s">
-        <v>498</v>
-      </c>
-      <c r="N300" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P300" s="138" t="s">
-        <v>498</v>
-      </c>
-      <c r="S300" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD300" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE300" s="138" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF300" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG300" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="301">
-      <c r="A301" s="142" t="s">
-        <v>499</v>
-      </c>
-      <c r="M301" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="P301" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="S301" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD301" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE301" s="144" t="s">
-        <v>498</v>
-      </c>
-      <c r="AF301" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG301" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" s="142" t="s">
-        <v>500</v>
-      </c>
-    </row>
-    <row r="304">
-      <c r="B304" s="143" t="s">
-        <v>501</v>
-      </c>
-    </row>
-    <row r="305">
-      <c r="C305" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K305" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M305" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="N305" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P305" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="S305" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD305" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE305" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF305" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG305" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" s="142" t="s">
-        <v>502</v>
-      </c>
-      <c r="M306" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="P306" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="S306" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD306" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE306" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF306" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG306" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" s="142" t="s">
-        <v>503</v>
-      </c>
-    </row>
-    <row r="309">
-      <c r="B309" s="143" t="s">
-        <v>504</v>
-      </c>
-    </row>
-    <row r="310">
-      <c r="C310" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K310" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M310" s="138" t="s">
-        <v>505</v>
-      </c>
-      <c r="N310" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P310" s="138" t="s">
-        <v>505</v>
-      </c>
-      <c r="S310" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD310" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE310" s="138" t="s">
-        <v>505</v>
-      </c>
-      <c r="AF310" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG310" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" s="142" t="s">
-        <v>506</v>
-      </c>
-      <c r="M311" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="P311" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="S311" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD311" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE311" s="144" t="s">
-        <v>505</v>
-      </c>
-      <c r="AF311" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG311" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" s="142" t="s">
-        <v>507</v>
-      </c>
-    </row>
-    <row r="314">
-      <c r="B314" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="315">
-      <c r="C315" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K315" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M315" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="N315" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P315" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="S315" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD315" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE315" s="138" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF315" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG315" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" s="142" t="s">
-        <v>509</v>
-      </c>
-      <c r="M316" s="144" t="s">
-        <v>508</v>
-      </c>
-      <c r="P316" s="144" t="s">
-        <v>508</v>
-      </c>
-      <c r="S316" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD316" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE316" s="144" t="s">
-        <v>508</v>
-      </c>
-      <c r="AF316" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG316" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" s="142" t="s">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="319">
-      <c r="B319" s="143" t="s">
-        <v>511</v>
-      </c>
-    </row>
-    <row r="320">
-      <c r="C320" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K320" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M320" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="N320" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P320" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="S320" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD320" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE320" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF320" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG320" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" s="142" t="s">
-        <v>512</v>
-      </c>
-      <c r="M321" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="P321" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="S321" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD321" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE321" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF321" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG321" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" s="142" t="s">
-        <v>513</v>
-      </c>
-    </row>
-    <row r="324">
-      <c r="B324" s="143" t="s">
-        <v>514</v>
-      </c>
-    </row>
-    <row r="325">
-      <c r="C325" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K325" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M325" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="N325" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P325" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="S325" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD325" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE325" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF325" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG325" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" s="142" t="s">
-        <v>516</v>
-      </c>
-      <c r="M326" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="P326" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="S326" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD326" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE326" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF326" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG326" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" s="13" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" s="142" t="s">
-        <v>517</v>
-      </c>
-    </row>
-    <row r="329">
-      <c r="B329" s="143" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="330">
-      <c r="C330" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K330" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M330" s="138" t="s">
-        <v>519</v>
-      </c>
-      <c r="N330" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P330" s="138" t="s">
-        <v>519</v>
-      </c>
-      <c r="S330" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD330" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE330" s="138" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF330" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG330" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" s="142" t="s">
-        <v>520</v>
-      </c>
-      <c r="M331" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="P331" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="S331" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD331" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE331" s="144" t="s">
-        <v>519</v>
-      </c>
-      <c r="AF331" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG331" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" s="142" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="334">
-      <c r="B334" s="143" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="335">
-      <c r="C335" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K335" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M335" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="N335" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P335" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="S335" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD335" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE335" s="138" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF335" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG335" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" s="142" t="s">
-        <v>524</v>
-      </c>
-      <c r="M336" s="144" t="s">
-        <v>523</v>
-      </c>
-      <c r="P336" s="144" t="s">
-        <v>523</v>
-      </c>
-      <c r="S336" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD336" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE336" s="144" t="s">
-        <v>523</v>
-      </c>
-      <c r="AF336" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG336" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" s="142" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="339">
-      <c r="B339" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="340">
-      <c r="C340" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K340" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M340" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="N340" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P340" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="S340" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD340" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE340" s="138" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF340" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG340" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" s="142" t="s">
-        <v>527</v>
-      </c>
-      <c r="M341" s="144" t="s">
-        <v>526</v>
-      </c>
-      <c r="P341" s="144" t="s">
-        <v>526</v>
-      </c>
-      <c r="S341" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD341" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE341" s="144" t="s">
-        <v>526</v>
-      </c>
-      <c r="AF341" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG341" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" s="142" t="s">
-        <v>528</v>
-      </c>
-    </row>
-    <row r="344">
-      <c r="B344" s="143" t="s">
-        <v>529</v>
-      </c>
-    </row>
-    <row r="345">
-      <c r="C345" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K345" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M345" s="138" t="s">
-        <v>530</v>
-      </c>
-      <c r="N345" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P345" s="138" t="s">
-        <v>530</v>
-      </c>
-      <c r="S345" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD345" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE345" s="138" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF345" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG345" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="346">
-      <c r="A346" s="142" t="s">
-        <v>531</v>
-      </c>
-      <c r="M346" s="144" t="s">
-        <v>530</v>
-      </c>
-      <c r="P346" s="144" t="s">
-        <v>530</v>
-      </c>
-      <c r="S346" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD346" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE346" s="144" t="s">
-        <v>530</v>
-      </c>
-      <c r="AF346" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG346" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" s="142" t="s">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="349">
-      <c r="B349" s="143" t="s">
-        <v>533</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="C350" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K350" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M350" s="138" t="s">
-        <v>534</v>
-      </c>
-      <c r="N350" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P350" s="138" t="s">
-        <v>534</v>
-      </c>
-      <c r="S350" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD350" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE350" s="138" t="s">
-        <v>534</v>
-      </c>
-      <c r="AF350" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG350" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" s="142" t="s">
-        <v>535</v>
-      </c>
-      <c r="M351" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="P351" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="S351" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD351" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE351" s="144" t="s">
-        <v>534</v>
-      </c>
-      <c r="AF351" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG351" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" s="142" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="354">
-      <c r="B354" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="355">
-      <c r="C355" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K355" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M355" s="138" t="s">
-        <v>537</v>
-      </c>
-      <c r="N355" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P355" s="138" t="s">
-        <v>537</v>
-      </c>
-      <c r="S355" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD355" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE355" s="138" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF355" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG355" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" s="142" t="s">
-        <v>538</v>
-      </c>
-      <c r="M356" s="144" t="s">
-        <v>537</v>
-      </c>
-      <c r="P356" s="144" t="s">
-        <v>537</v>
-      </c>
-      <c r="S356" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD356" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE356" s="144" t="s">
-        <v>537</v>
-      </c>
-      <c r="AF356" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG356" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" s="142" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="359">
-      <c r="B359" s="143" t="s">
-        <v>540</v>
-      </c>
-    </row>
-    <row r="360">
-      <c r="C360" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K360" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M360" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="N360" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P360" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="S360" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD360" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE360" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF360" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG360" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" s="142" t="s">
-        <v>542</v>
-      </c>
-      <c r="M361" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="P361" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="S361" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD361" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE361" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF361" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG361" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" s="142" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="364">
-      <c r="B364" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="365">
-      <c r="C365" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K365" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M365" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="N365" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P365" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="S365" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD365" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE365" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF365" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG365" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" s="142" t="s">
-        <v>544</v>
-      </c>
-      <c r="M366" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="P366" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="S366" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD366" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE366" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF366" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG366" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" s="142" t="s">
-        <v>545</v>
-      </c>
-    </row>
-    <row r="369">
-      <c r="B369" s="143" t="s">
-        <v>546</v>
-      </c>
-    </row>
-    <row r="370">
-      <c r="C370" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K370" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M370" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="N370" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P370" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="S370" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD370" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE370" s="138" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF370" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG370" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" s="142" t="s">
-        <v>547</v>
-      </c>
-      <c r="M371" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="P371" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="S371" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD371" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE371" s="144" t="s">
-        <v>541</v>
-      </c>
-      <c r="AF371" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG371" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" s="142" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="374">
-      <c r="B374" s="143" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="375">
-      <c r="C375" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K375" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M375" s="138" t="s">
-        <v>550</v>
-      </c>
-      <c r="N375" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P375" s="138" t="s">
-        <v>550</v>
-      </c>
-      <c r="S375" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD375" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE375" s="138" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF375" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG375" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" s="142" t="s">
-        <v>551</v>
-      </c>
-      <c r="M376" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="P376" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="S376" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD376" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE376" s="144" t="s">
-        <v>550</v>
-      </c>
-      <c r="AF376" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG376" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" s="13" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" s="142" t="s">
-        <v>552</v>
-      </c>
-    </row>
-    <row r="379">
-      <c r="B379" s="143" t="s">
-        <v>553</v>
-      </c>
-    </row>
-    <row r="380">
-      <c r="C380" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K380" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M380" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="N380" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P380" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="S380" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD380" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE380" s="138" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF380" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG380" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" s="142" t="s">
-        <v>554</v>
-      </c>
-      <c r="M381" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="P381" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="S381" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD381" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE381" s="144" t="s">
-        <v>460</v>
-      </c>
-      <c r="AF381" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG381" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" s="142" t="s">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="384">
-      <c r="B384" s="143" t="s">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="385">
-      <c r="C385" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K385" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M385" s="138" t="s">
-        <v>556</v>
-      </c>
-      <c r="N385" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P385" s="138" t="s">
-        <v>556</v>
-      </c>
-      <c r="S385" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD385" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE385" s="138" t="s">
-        <v>556</v>
-      </c>
-      <c r="AF385" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG385" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" s="142" t="s">
-        <v>557</v>
-      </c>
-      <c r="M386" s="144" t="s">
-        <v>556</v>
-      </c>
-      <c r="P386" s="144" t="s">
-        <v>556</v>
-      </c>
-      <c r="S386" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD386" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE386" s="144" t="s">
-        <v>556</v>
-      </c>
-      <c r="AF386" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG386" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" s="13" t="s">
-        <v>558</v>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" s="142" t="s">
-        <v>559</v>
-      </c>
-    </row>
-    <row r="389">
-      <c r="B389" s="143" t="s">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="390">
-      <c r="C390" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K390" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M390" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="N390" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P390" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="S390" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD390" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE390" s="138" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF390" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG390" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" s="142" t="s">
-        <v>561</v>
-      </c>
-      <c r="M391" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="P391" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="S391" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD391" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE391" s="144" t="s">
-        <v>515</v>
-      </c>
-      <c r="AF391" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG391" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" s="13" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" s="142" t="s">
-        <v>562</v>
-      </c>
-    </row>
-    <row r="394">
-      <c r="B394" s="143" t="s">
-        <v>563</v>
-      </c>
-    </row>
-    <row r="395">
-      <c r="C395" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K395" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M395" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="N395" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P395" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="S395" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD395" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE395" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF395" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG395" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" s="142" t="s">
-        <v>564</v>
-      </c>
-      <c r="M396" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="P396" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="S396" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD396" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE396" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF396" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG396" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" s="142" t="s">
-        <v>565</v>
-      </c>
-    </row>
-    <row r="399">
-      <c r="B399" s="143" t="s">
-        <v>566</v>
-      </c>
-    </row>
-    <row r="400">
-      <c r="C400" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K400" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M400" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="N400" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P400" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="S400" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD400" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE400" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF400" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG400" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" s="142" t="s">
-        <v>567</v>
-      </c>
-      <c r="M401" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="P401" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="S401" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD401" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE401" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF401" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG401" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" s="142" t="s">
-        <v>568</v>
-      </c>
-    </row>
-    <row r="404">
-      <c r="B404" s="143" t="s">
-        <v>569</v>
-      </c>
-    </row>
-    <row r="405">
-      <c r="C405" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K405" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M405" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="N405" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P405" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="S405" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD405" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE405" s="138" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF405" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG405" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" s="142" t="s">
-        <v>570</v>
-      </c>
-      <c r="M406" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="P406" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="S406" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD406" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE406" s="144" t="s">
-        <v>417</v>
-      </c>
-      <c r="AF406" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG406" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" s="142" t="s">
-        <v>571</v>
-      </c>
-    </row>
-    <row r="409">
-      <c r="B409" s="143" t="s">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="410">
-      <c r="C410" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K410" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M410" s="138" t="s">
-        <v>573</v>
-      </c>
-      <c r="N410" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P410" s="138" t="s">
-        <v>573</v>
-      </c>
-      <c r="S410" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD410" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE410" s="138" t="s">
-        <v>573</v>
-      </c>
-      <c r="AF410" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG410" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" s="142" t="s">
-        <v>574</v>
-      </c>
-      <c r="M411" s="144" t="s">
-        <v>573</v>
-      </c>
-      <c r="P411" s="144" t="s">
-        <v>573</v>
-      </c>
-      <c r="S411" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD411" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE411" s="144" t="s">
-        <v>573</v>
-      </c>
-      <c r="AF411" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG411" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" s="13" t="s">
-        <v>575</v>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" s="142" t="s">
-        <v>576</v>
-      </c>
-    </row>
-    <row r="414">
-      <c r="B414" s="143" t="s">
-        <v>577</v>
-      </c>
-    </row>
-    <row r="415">
-      <c r="C415" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K415" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M415" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="N415" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P415" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="S415" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD415" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE415" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF415" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG415" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" s="142" t="s">
-        <v>578</v>
-      </c>
-      <c r="M416" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="P416" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="S416" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD416" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE416" s="144" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF416" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG416" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" s="13" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" s="142" t="s">
-        <v>579</v>
-      </c>
-    </row>
-    <row r="419">
-      <c r="B419" s="143" t="s">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="420">
-      <c r="C420" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K420" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M420" s="138" t="s">
-        <v>581</v>
-      </c>
-      <c r="N420" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P420" s="138" t="s">
-        <v>581</v>
-      </c>
-      <c r="S420" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD420" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE420" s="138" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF420" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG420" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" s="142" t="s">
-        <v>582</v>
-      </c>
-      <c r="M421" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="P421" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="S421" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD421" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE421" s="144" t="s">
-        <v>581</v>
-      </c>
-      <c r="AF421" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG421" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" s="13" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" s="142" t="s">
-        <v>583</v>
-      </c>
-    </row>
-    <row r="424">
-      <c r="B424" s="143" t="s">
-        <v>584</v>
-      </c>
-    </row>
-    <row r="425">
-      <c r="C425" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K425" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M425" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="N425" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P425" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="S425" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD425" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE425" s="138" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF425" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG425" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" s="142" t="s">
-        <v>585</v>
-      </c>
-      <c r="M426" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="P426" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="S426" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD426" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE426" s="144" t="s">
-        <v>449</v>
-      </c>
-      <c r="AF426" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG426" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" s="13" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" s="142" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="429">
-      <c r="B429" s="143" t="s">
-        <v>587</v>
-      </c>
-    </row>
-    <row r="430">
-      <c r="C430" s="13" t="s">
-        <v>381</v>
-      </c>
-      <c r="K430" s="76" t="s">
-        <v>382</v>
-      </c>
-      <c r="M430" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="N430" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P430" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="S430" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD430" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE430" s="138" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF430" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG430" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" s="142" t="s">
-        <v>588</v>
-      </c>
-      <c r="M431" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="P431" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="S431" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD431" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE431" s="144" t="s">
-        <v>329</v>
-      </c>
-      <c r="AF431" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG431" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" s="136" t="s">
+      <c r="AF432" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG432" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" s="136" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="433">
-      <c r="A433" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
     <row r="434">
-      <c r="A434" s="137" t="s">
+      <c r="A434" s="13" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" s="137" t="s">
         <v>94</v>
-      </c>
-    </row>
-    <row r="435">
-      <c r="C435" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="K435" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="M435" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="N435" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P435" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="S435" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD435" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE435" s="138" t="s">
-        <v>592</v>
-      </c>
-      <c r="AF435" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG435" s="138" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="436">
       <c r="C436" s="13" t="s">
-        <v>96</v>
+        <v>601</v>
       </c>
       <c r="K436" s="76" t="s">
-        <v>593</v>
+        <v>602</v>
       </c>
       <c r="M436" s="138" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="N436" s="138" t="s">
         <v>191</v>
       </c>
       <c r="P436" s="138" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="S436" s="138" t="s">
         <v>191</v>
@@ -20284,7 +20317,7 @@
         <v>191</v>
       </c>
       <c r="AE436" s="138" t="s">
-        <v>594</v>
+        <v>603</v>
       </c>
       <c r="AF436" s="138" t="s">
         <v>191</v>
@@ -20294,275 +20327,286 @@
       </c>
     </row>
     <row r="437">
-      <c r="A437" s="137" t="s">
-        <v>595</v>
-      </c>
-      <c r="M437" s="139" t="s">
-        <v>596</v>
-      </c>
-      <c r="P437" s="139" t="s">
-        <v>596</v>
-      </c>
-      <c r="S437" s="139" t="s">
+      <c r="C437" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="K437" s="76" t="s">
+        <v>604</v>
+      </c>
+      <c r="M437" s="138" t="s">
+        <v>605</v>
+      </c>
+      <c r="N437" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P437" s="138" t="s">
+        <v>605</v>
+      </c>
+      <c r="S437" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD437" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE437" s="138" t="s">
+        <v>605</v>
+      </c>
+      <c r="AF437" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG437" s="138" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" s="137" t="s">
+        <v>606</v>
+      </c>
+      <c r="M438" s="139" t="s">
+        <v>607</v>
+      </c>
+      <c r="P438" s="139" t="s">
+        <v>607</v>
+      </c>
+      <c r="S438" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AD437" s="139" t="s">
+      <c r="AD438" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AE437" s="139" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF437" s="139" t="s">
+      <c r="AE438" s="139" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF438" s="139" t="s">
         <v>190</v>
       </c>
-      <c r="AG437" s="139" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" s="136" t="s">
-        <v>597</v>
-      </c>
-      <c r="M438" s="140" t="s">
-        <v>596</v>
-      </c>
-      <c r="P438" s="141" t="s">
-        <v>596</v>
-      </c>
-      <c r="S438" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD438" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE438" s="141" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF438" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG438" s="141" t="s">
+      <c r="AG438" s="139" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="439">
       <c r="A439" s="136" t="s">
-        <v>598</v>
+        <v>608</v>
+      </c>
+      <c r="M439" s="140" t="s">
+        <v>607</v>
+      </c>
+      <c r="P439" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="S439" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD439" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE439" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF439" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG439" s="141" t="s">
+        <v>195</v>
       </c>
     </row>
     <row r="440">
-      <c r="A440" s="13" t="s">
-        <v>191</v>
+      <c r="A440" s="136" t="s">
+        <v>609</v>
       </c>
     </row>
     <row r="441">
-      <c r="A441" s="142" t="s">
-        <v>599</v>
+      <c r="A441" s="13" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="442">
-      <c r="B442" s="143" t="s">
+      <c r="A442" s="142" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="B443" s="143" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="C444" s="13" t="s">
+        <v>612</v>
+      </c>
+      <c r="K444" s="76" t="s">
+        <v>613</v>
+      </c>
+      <c r="M444" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="N444" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P444" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="S444" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD444" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE444" s="138" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF444" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG444" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" s="142" t="s">
+        <v>614</v>
+      </c>
+      <c r="M445" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="P445" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="S445" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD445" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE445" s="144" t="s">
+        <v>474</v>
+      </c>
+      <c r="AF445" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG445" s="144" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" s="13" t="s">
         <v>600</v>
       </c>
     </row>
-    <row r="443">
-      <c r="C443" s="13" t="s">
-        <v>601</v>
-      </c>
-      <c r="K443" s="76" t="s">
-        <v>602</v>
-      </c>
-      <c r="M443" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="N443" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P443" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="S443" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD443" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE443" s="138" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF443" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG443" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" s="142" t="s">
-        <v>603</v>
-      </c>
-      <c r="M444" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="P444" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="S444" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD444" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE444" s="144" t="s">
-        <v>463</v>
-      </c>
-      <c r="AF444" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG444" s="144" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" s="13" t="s">
-        <v>589</v>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" s="142" t="s">
-        <v>604</v>
-      </c>
-    </row>
     <row r="447">
-      <c r="B447" s="143" t="s">
-        <v>605</v>
+      <c r="A447" s="142" t="s">
+        <v>615</v>
       </c>
     </row>
     <row r="448">
-      <c r="C448" s="13" t="s">
-        <v>590</v>
-      </c>
-      <c r="K448" s="76" t="s">
-        <v>591</v>
-      </c>
-      <c r="M448" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="N448" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P448" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="S448" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD448" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE448" s="138" t="s">
-        <v>227</v>
-      </c>
-      <c r="AF448" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG448" s="138" t="s">
-        <v>384</v>
+      <c r="B448" s="143" t="s">
+        <v>616</v>
       </c>
     </row>
     <row r="449">
       <c r="C449" s="13" t="s">
+        <v>601</v>
+      </c>
+      <c r="K449" s="76" t="s">
+        <v>602</v>
+      </c>
+      <c r="M449" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="N449" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P449" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="S449" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD449" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE449" s="138" t="s">
+        <v>227</v>
+      </c>
+      <c r="AF449" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG449" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="C450" s="13" t="s">
         <v>96</v>
       </c>
-      <c r="K449" s="76" t="s">
-        <v>593</v>
-      </c>
-      <c r="M449" s="138" t="s">
-        <v>606</v>
-      </c>
-      <c r="N449" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="P449" s="138" t="s">
-        <v>606</v>
-      </c>
-      <c r="S449" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD449" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE449" s="138" t="s">
-        <v>606</v>
-      </c>
-      <c r="AF449" s="138" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG449" s="138" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" s="142" t="s">
-        <v>607</v>
-      </c>
-      <c r="M450" s="144" t="s">
-        <v>608</v>
-      </c>
-      <c r="P450" s="144" t="s">
-        <v>608</v>
-      </c>
-      <c r="S450" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD450" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE450" s="144" t="s">
-        <v>608</v>
-      </c>
-      <c r="AF450" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG450" s="144" t="s">
-        <v>384</v>
+      <c r="K450" s="76" t="s">
+        <v>604</v>
+      </c>
+      <c r="M450" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="N450" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="P450" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="S450" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD450" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE450" s="138" t="s">
+        <v>617</v>
+      </c>
+      <c r="AF450" s="138" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG450" s="138" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" s="142" t="s">
+        <v>618</v>
+      </c>
+      <c r="M451" s="144" t="s">
+        <v>619</v>
+      </c>
+      <c r="P451" s="144" t="s">
+        <v>619</v>
+      </c>
+      <c r="S451" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD451" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE451" s="144" t="s">
+        <v>619</v>
+      </c>
+      <c r="AF451" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG451" s="144" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="452">
-      <c r="B452" s="136" t="s">
-        <v>377</v>
-      </c>
-      <c r="M452" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="P452" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="S452" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD452" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE452" s="141" t="s">
-        <v>378</v>
-      </c>
-      <c r="AF452" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG452" s="144" t="s">
-        <v>195</v>
+      <c r="A452" s="136" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="453">
-      <c r="B453" s="136" t="s">
-        <v>597</v>
-      </c>
-      <c r="M453" s="141" t="s">
-        <v>596</v>
+      <c r="A453" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M453" s="140" t="s">
+        <v>191</v>
       </c>
       <c r="P453" s="141" t="s">
-        <v>596</v>
+        <v>191</v>
       </c>
       <c r="S453" s="141" t="s">
         <v>191</v>
@@ -20571,64 +20615,142 @@
         <v>191</v>
       </c>
       <c r="AE453" s="141" t="s">
-        <v>596</v>
-      </c>
-      <c r="AF453" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG453" s="144" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="454">
-      <c r="B454" s="136" t="s">
-        <v>609</v>
-      </c>
-      <c r="M454" s="141" t="s">
-        <v>610</v>
-      </c>
-      <c r="P454" s="141" t="s">
-        <v>610</v>
-      </c>
-      <c r="S454" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AD454" s="141" t="s">
-        <v>191</v>
-      </c>
-      <c r="AE454" s="141" t="s">
-        <v>610</v>
-      </c>
-      <c r="AF454" s="144" t="s">
-        <v>191</v>
-      </c>
-      <c r="AG454" s="144" t="s">
-        <v>195</v>
+        <v>191</v>
+      </c>
+      <c r="AF453" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG453" s="141" t="s">
+        <v>191</v>
       </c>
     </row>
     <row r="455">
       <c r="B455" s="136" t="s">
-        <v>611</v>
+        <v>387</v>
       </c>
       <c r="M455" s="141" t="s">
-        <v>612</v>
+        <v>388</v>
       </c>
       <c r="P455" s="141" t="s">
-        <v>612</v>
+        <v>388</v>
       </c>
       <c r="S455" s="141" t="s">
         <v>191</v>
       </c>
       <c r="AD455" s="141" t="s">
-        <v>191</v>
+        <v>381</v>
       </c>
       <c r="AE455" s="141" t="s">
-        <v>612</v>
+        <v>389</v>
       </c>
       <c r="AF455" s="144" t="s">
-        <v>191</v>
+        <v>383</v>
       </c>
       <c r="AG455" s="144" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="B456" s="136" t="s">
+        <v>608</v>
+      </c>
+      <c r="M456" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="P456" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="S456" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD456" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE456" s="141" t="s">
+        <v>607</v>
+      </c>
+      <c r="AF456" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG456" s="144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="B457" s="136" t="s">
+        <v>44</v>
+      </c>
+      <c r="M457" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="P457" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="S457" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD457" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE457" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AF457" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG457" s="144" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="B458" s="136" t="s">
+        <v>620</v>
+      </c>
+      <c r="M458" s="141" t="s">
+        <v>621</v>
+      </c>
+      <c r="P458" s="141" t="s">
+        <v>621</v>
+      </c>
+      <c r="S458" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD458" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE458" s="141" t="s">
+        <v>621</v>
+      </c>
+      <c r="AF458" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG458" s="144" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="B459" s="136" t="s">
+        <v>622</v>
+      </c>
+      <c r="M459" s="141" t="s">
+        <v>623</v>
+      </c>
+      <c r="P459" s="141" t="s">
+        <v>623</v>
+      </c>
+      <c r="S459" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AD459" s="141" t="s">
+        <v>191</v>
+      </c>
+      <c r="AE459" s="141" t="s">
+        <v>623</v>
+      </c>
+      <c r="AF459" s="144" t="s">
+        <v>191</v>
+      </c>
+      <c r="AG459" s="144" t="s">
         <v>195</v>
       </c>
     </row>
@@ -20681,9 +20803,9 @@
     <mergeCell ref="A120:L120"/>
     <mergeCell ref="A124:L124"/>
     <mergeCell ref="A128:L128"/>
-    <mergeCell ref="A134:L134"/>
-    <mergeCell ref="A138:L138"/>
-    <mergeCell ref="A437:L437"/>
+    <mergeCell ref="A135:L135"/>
+    <mergeCell ref="A139:L139"/>
+    <mergeCell ref="A438:L438"/>
   </mergeCells>
   <pageMargins left="0.15748031496062992" right="0" top="0.15748031496062992" bottom="0.39370078740157483" header="0.31496062992125984" footer="0.15748031496062992"/>
   <pageSetup paperSize="9" scale="61" orientation="landscape" r:id="rId2"/>

--- a/BUDGET/excel_reports/SAOB2.xlsx
+++ b/BUDGET/excel_reports/SAOB2.xlsx
@@ -2425,7 +2425,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="133">
     <xf numFmtId="0" applyNumberFormat="1" fontId="0" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="1" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1"/>
     <xf numFmtId="43" applyNumberFormat="1" fontId="7" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="2"/>
@@ -2755,26 +2755,20 @@
     <xf numFmtId="166" applyNumberFormat="1" fontId="4" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="43" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="4" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" applyNumberFormat="1" fontId="11" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="43" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="4" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="166" applyNumberFormat="1" fontId="12" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" applyNumberFormat="1" fontId="13" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" applyNumberFormat="1" fontId="14" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
     <xf numFmtId="0" applyNumberFormat="1" fontId="15" applyFont="1" fillId="0" applyFill="1" borderId="0" applyBorder="1" xfId="0"/>
@@ -15261,28 +15255,28 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" s="119" t="s">
+      <c r="A126" s="125" t="s">
         <v>381</v>
       </c>
-      <c r="M126" s="125">
+      <c r="M126" s="126">
         <v>138834622</v>
       </c>
-      <c r="P126" s="126">
+      <c r="P126" s="127">
         <v>138834622</v>
       </c>
-      <c r="S126" s="126">
-        <v>0</v>
-      </c>
-      <c r="AD126" s="126">
+      <c r="S126" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD126" s="127">
         <v>122199399.36999998</v>
       </c>
-      <c r="AE126" s="126">
+      <c r="AE126" s="127">
         <v>16635222.629999992</v>
       </c>
-      <c r="AF126" s="126">
+      <c r="AF126" s="127">
         <v>40050000</v>
       </c>
-      <c r="AG126" s="127">
+      <c r="AG126" s="128">
         <v>0.28847271251979206</v>
       </c>
     </row>
@@ -15297,7 +15291,7 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" s="128" t="s">
+      <c r="A129" s="125" t="s">
         <v>43</v>
       </c>
     </row>
@@ -15659,28 +15653,28 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" s="128" t="s">
+      <c r="A142" s="125" t="s">
         <v>386</v>
       </c>
-      <c r="M142" s="130">
+      <c r="M142" s="127">
         <v>16957356.66</v>
       </c>
-      <c r="P142" s="130">
+      <c r="P142" s="127">
         <v>16957356.66</v>
       </c>
-      <c r="S142" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD142" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE142" s="130">
+      <c r="S142" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD142" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE142" s="127">
         <v>16957356.66</v>
       </c>
-      <c r="AF142" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG142" s="131">
+      <c r="AF142" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG142" s="128">
         <v>0</v>
       </c>
     </row>
@@ -15790,28 +15784,28 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" s="119" t="s">
+      <c r="A149" s="125" t="s">
         <v>394</v>
       </c>
-      <c r="M149" s="125">
+      <c r="M149" s="126">
         <v>1331465000</v>
       </c>
-      <c r="P149" s="126">
+      <c r="P149" s="127">
         <v>1331465000</v>
       </c>
-      <c r="S149" s="126">
-        <v>0</v>
-      </c>
-      <c r="AD149" s="126">
-        <v>0</v>
-      </c>
-      <c r="AE149" s="126">
+      <c r="S149" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD149" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE149" s="127">
         <v>1331465000</v>
       </c>
-      <c r="AF149" s="126">
-        <v>0</v>
-      </c>
-      <c r="AG149" s="127">
+      <c r="AF149" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG149" s="128">
         <v>0</v>
       </c>
     </row>
@@ -15826,7 +15820,7 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" s="128" t="s">
+      <c r="A152" s="125" t="s">
         <v>47</v>
       </c>
     </row>
@@ -15868,28 +15862,28 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" s="128" t="s">
+      <c r="A155" s="125" t="s">
         <v>398</v>
       </c>
-      <c r="M155" s="130">
+      <c r="M155" s="127">
         <v>2000000</v>
       </c>
-      <c r="P155" s="130">
+      <c r="P155" s="127">
         <v>2000000</v>
       </c>
-      <c r="S155" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD155" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE155" s="130">
+      <c r="S155" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD155" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE155" s="127">
         <v>2000000</v>
       </c>
-      <c r="AF155" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG155" s="131">
+      <c r="AF155" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG155" s="128">
         <v>0</v>
       </c>
     </row>
@@ -15899,7 +15893,7 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" s="128" t="s">
+      <c r="A157" s="125" t="s">
         <v>49</v>
       </c>
     </row>
@@ -15973,28 +15967,28 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" s="128" t="s">
+      <c r="A161" s="125" t="s">
         <v>399</v>
       </c>
-      <c r="M161" s="130">
+      <c r="M161" s="127">
         <v>19740000</v>
       </c>
-      <c r="P161" s="130">
+      <c r="P161" s="127">
         <v>19740000</v>
       </c>
-      <c r="S161" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD161" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE161" s="130">
+      <c r="S161" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD161" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE161" s="127">
         <v>19740000</v>
       </c>
-      <c r="AF161" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG161" s="131">
+      <c r="AF161" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG161" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20428,28 +20422,28 @@
       </c>
     </row>
     <row r="320">
-      <c r="A320" s="119" t="s">
+      <c r="A320" s="125" t="s">
         <v>596</v>
       </c>
-      <c r="M320" s="125">
+      <c r="M320" s="126">
         <v>1172989000</v>
       </c>
-      <c r="P320" s="126">
+      <c r="P320" s="127">
         <v>1172989000</v>
       </c>
-      <c r="S320" s="126">
-        <v>0</v>
-      </c>
-      <c r="AD320" s="126">
+      <c r="S320" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD320" s="127">
         <v>157465562.45</v>
       </c>
-      <c r="AE320" s="126">
+      <c r="AE320" s="127">
         <v>1015523437.5500001</v>
       </c>
-      <c r="AF320" s="126">
+      <c r="AF320" s="127">
         <v>20000</v>
       </c>
-      <c r="AG320" s="127">
+      <c r="AG320" s="128">
         <v>1.705045827369225E-05</v>
       </c>
     </row>
@@ -20464,7 +20458,7 @@
       </c>
     </row>
     <row r="323">
-      <c r="A323" s="128" t="s">
+      <c r="A323" s="125" t="s">
         <v>107</v>
       </c>
     </row>
@@ -20506,28 +20500,28 @@
       </c>
     </row>
     <row r="326">
-      <c r="A326" s="128" t="s">
+      <c r="A326" s="125" t="s">
         <v>601</v>
       </c>
-      <c r="M326" s="130">
+      <c r="M326" s="127">
         <v>330000</v>
       </c>
-      <c r="P326" s="130">
+      <c r="P326" s="127">
         <v>330000</v>
       </c>
-      <c r="S326" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD326" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE326" s="130">
+      <c r="S326" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD326" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE326" s="127">
         <v>330000</v>
       </c>
-      <c r="AF326" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG326" s="131">
+      <c r="AF326" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG326" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20537,7 +20531,7 @@
       </c>
     </row>
     <row r="328">
-      <c r="A328" s="128" t="s">
+      <c r="A328" s="125" t="s">
         <v>132</v>
       </c>
     </row>
@@ -20579,28 +20573,28 @@
       </c>
     </row>
     <row r="331">
-      <c r="A331" s="128" t="s">
+      <c r="A331" s="125" t="s">
         <v>602</v>
       </c>
-      <c r="M331" s="130">
+      <c r="M331" s="127">
         <v>1080000</v>
       </c>
-      <c r="P331" s="130">
+      <c r="P331" s="127">
         <v>1080000</v>
       </c>
-      <c r="S331" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD331" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE331" s="130">
+      <c r="S331" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD331" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE331" s="127">
         <v>1080000</v>
       </c>
-      <c r="AF331" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG331" s="131">
+      <c r="AF331" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG331" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20610,7 +20604,7 @@
       </c>
     </row>
     <row r="333">
-      <c r="A333" s="128" t="s">
+      <c r="A333" s="125" t="s">
         <v>159</v>
       </c>
     </row>
@@ -20652,28 +20646,28 @@
       </c>
     </row>
     <row r="336">
-      <c r="A336" s="128" t="s">
+      <c r="A336" s="125" t="s">
         <v>603</v>
       </c>
-      <c r="M336" s="130">
+      <c r="M336" s="127">
         <v>3958000</v>
       </c>
-      <c r="P336" s="130">
+      <c r="P336" s="127">
         <v>3958000</v>
       </c>
-      <c r="S336" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD336" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE336" s="130">
+      <c r="S336" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD336" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE336" s="127">
         <v>3958000</v>
       </c>
-      <c r="AF336" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG336" s="131">
+      <c r="AF336" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG336" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20683,7 +20677,7 @@
       </c>
     </row>
     <row r="338">
-      <c r="A338" s="128" t="s">
+      <c r="A338" s="125" t="s">
         <v>95</v>
       </c>
     </row>
@@ -20725,28 +20719,28 @@
       </c>
     </row>
     <row r="341">
-      <c r="A341" s="128" t="s">
+      <c r="A341" s="125" t="s">
         <v>605</v>
       </c>
-      <c r="M341" s="130">
+      <c r="M341" s="127">
         <v>864000</v>
       </c>
-      <c r="P341" s="130">
+      <c r="P341" s="127">
         <v>864000</v>
       </c>
-      <c r="S341" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD341" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE341" s="130">
+      <c r="S341" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD341" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE341" s="127">
         <v>864000</v>
       </c>
-      <c r="AF341" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG341" s="131">
+      <c r="AF341" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG341" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20756,7 +20750,7 @@
       </c>
     </row>
     <row r="343">
-      <c r="A343" s="128" t="s">
+      <c r="A343" s="125" t="s">
         <v>67</v>
       </c>
     </row>
@@ -20798,28 +20792,28 @@
       </c>
     </row>
     <row r="346">
-      <c r="A346" s="128" t="s">
+      <c r="A346" s="125" t="s">
         <v>606</v>
       </c>
-      <c r="M346" s="130">
+      <c r="M346" s="127">
         <v>1307792</v>
       </c>
-      <c r="P346" s="130">
+      <c r="P346" s="127">
         <v>1307792</v>
       </c>
-      <c r="S346" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD346" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE346" s="130">
+      <c r="S346" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD346" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE346" s="127">
         <v>1307792</v>
       </c>
-      <c r="AF346" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG346" s="131">
+      <c r="AF346" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG346" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20829,7 +20823,7 @@
       </c>
     </row>
     <row r="348">
-      <c r="A348" s="128" t="s">
+      <c r="A348" s="125" t="s">
         <v>71</v>
       </c>
     </row>
@@ -20871,28 +20865,28 @@
       </c>
     </row>
     <row r="351">
-      <c r="A351" s="128" t="s">
+      <c r="A351" s="125" t="s">
         <v>608</v>
       </c>
-      <c r="M351" s="130">
+      <c r="M351" s="127">
         <v>11435400</v>
       </c>
-      <c r="P351" s="130">
+      <c r="P351" s="127">
         <v>11435400</v>
       </c>
-      <c r="S351" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD351" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE351" s="130">
+      <c r="S351" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD351" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE351" s="127">
         <v>11435400</v>
       </c>
-      <c r="AF351" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG351" s="131">
+      <c r="AF351" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG351" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20902,7 +20896,7 @@
       </c>
     </row>
     <row r="353">
-      <c r="A353" s="128" t="s">
+      <c r="A353" s="125" t="s">
         <v>75</v>
       </c>
     </row>
@@ -20944,28 +20938,28 @@
       </c>
     </row>
     <row r="356">
-      <c r="A356" s="128" t="s">
+      <c r="A356" s="125" t="s">
         <v>609</v>
       </c>
-      <c r="M356" s="130">
+      <c r="M356" s="127">
         <v>870300</v>
       </c>
-      <c r="P356" s="130">
+      <c r="P356" s="127">
         <v>870300</v>
       </c>
-      <c r="S356" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD356" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE356" s="130">
+      <c r="S356" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD356" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE356" s="127">
         <v>870300</v>
       </c>
-      <c r="AF356" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG356" s="131">
+      <c r="AF356" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG356" s="128">
         <v>0</v>
       </c>
     </row>
@@ -20975,7 +20969,7 @@
       </c>
     </row>
     <row r="358">
-      <c r="A358" s="128" t="s">
+      <c r="A358" s="125" t="s">
         <v>78</v>
       </c>
     </row>
@@ -21017,28 +21011,28 @@
       </c>
     </row>
     <row r="361">
-      <c r="A361" s="128" t="s">
+      <c r="A361" s="125" t="s">
         <v>610</v>
       </c>
-      <c r="M361" s="130">
+      <c r="M361" s="127">
         <v>300000</v>
       </c>
-      <c r="P361" s="130">
+      <c r="P361" s="127">
         <v>300000</v>
       </c>
-      <c r="S361" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD361" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE361" s="130">
+      <c r="S361" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD361" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE361" s="127">
         <v>300000</v>
       </c>
-      <c r="AF361" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG361" s="131">
+      <c r="AF361" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG361" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21048,7 +21042,7 @@
       </c>
     </row>
     <row r="363">
-      <c r="A363" s="128" t="s">
+      <c r="A363" s="125" t="s">
         <v>69</v>
       </c>
     </row>
@@ -21090,28 +21084,28 @@
       </c>
     </row>
     <row r="366">
-      <c r="A366" s="128" t="s">
+      <c r="A366" s="125" t="s">
         <v>612</v>
       </c>
-      <c r="M366" s="130">
+      <c r="M366" s="127">
         <v>1452888</v>
       </c>
-      <c r="P366" s="130">
+      <c r="P366" s="127">
         <v>1452888</v>
       </c>
-      <c r="S366" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD366" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE366" s="130">
+      <c r="S366" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD366" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE366" s="127">
         <v>1452888</v>
       </c>
-      <c r="AF366" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG366" s="131">
+      <c r="AF366" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG366" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21121,7 +21115,7 @@
       </c>
     </row>
     <row r="368">
-      <c r="A368" s="128" t="s">
+      <c r="A368" s="125" t="s">
         <v>80</v>
       </c>
     </row>
@@ -21163,28 +21157,28 @@
       </c>
     </row>
     <row r="371">
-      <c r="A371" s="128" t="s">
+      <c r="A371" s="125" t="s">
         <v>613</v>
       </c>
-      <c r="M371" s="130">
+      <c r="M371" s="127">
         <v>7020000</v>
       </c>
-      <c r="P371" s="130">
+      <c r="P371" s="127">
         <v>7020000</v>
       </c>
-      <c r="S371" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD371" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE371" s="130">
+      <c r="S371" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD371" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE371" s="127">
         <v>7020000</v>
       </c>
-      <c r="AF371" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG371" s="131">
+      <c r="AF371" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG371" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21194,7 +21188,7 @@
       </c>
     </row>
     <row r="373">
-      <c r="A373" s="128" t="s">
+      <c r="A373" s="125" t="s">
         <v>98</v>
       </c>
     </row>
@@ -21236,28 +21230,28 @@
       </c>
     </row>
     <row r="376">
-      <c r="A376" s="128" t="s">
+      <c r="A376" s="125" t="s">
         <v>614</v>
       </c>
-      <c r="M376" s="130">
+      <c r="M376" s="127">
         <v>400000</v>
       </c>
-      <c r="P376" s="130">
+      <c r="P376" s="127">
         <v>400000</v>
       </c>
-      <c r="S376" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD376" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE376" s="130">
+      <c r="S376" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD376" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE376" s="127">
         <v>400000</v>
       </c>
-      <c r="AF376" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG376" s="131">
+      <c r="AF376" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG376" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21267,7 +21261,7 @@
       </c>
     </row>
     <row r="378">
-      <c r="A378" s="128" t="s">
+      <c r="A378" s="125" t="s">
         <v>75</v>
       </c>
     </row>
@@ -21309,28 +21303,28 @@
       </c>
     </row>
     <row r="381">
-      <c r="A381" s="128" t="s">
+      <c r="A381" s="125" t="s">
         <v>609</v>
       </c>
-      <c r="M381" s="130">
+      <c r="M381" s="127">
         <v>380850</v>
       </c>
-      <c r="P381" s="130">
+      <c r="P381" s="127">
         <v>380850</v>
       </c>
-      <c r="S381" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD381" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE381" s="130">
+      <c r="S381" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD381" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE381" s="127">
         <v>380850</v>
       </c>
-      <c r="AF381" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG381" s="131">
+      <c r="AF381" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG381" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21340,7 +21334,7 @@
       </c>
     </row>
     <row r="383">
-      <c r="A383" s="128" t="s">
+      <c r="A383" s="125" t="s">
         <v>144</v>
       </c>
     </row>
@@ -21382,28 +21376,28 @@
       </c>
     </row>
     <row r="386">
-      <c r="A386" s="128" t="s">
+      <c r="A386" s="125" t="s">
         <v>615</v>
       </c>
-      <c r="M386" s="130">
+      <c r="M386" s="127">
         <v>400000</v>
       </c>
-      <c r="P386" s="130">
+      <c r="P386" s="127">
         <v>400000</v>
       </c>
-      <c r="S386" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD386" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE386" s="130">
+      <c r="S386" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD386" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE386" s="127">
         <v>400000</v>
       </c>
-      <c r="AF386" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG386" s="131">
+      <c r="AF386" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG386" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21413,7 +21407,7 @@
       </c>
     </row>
     <row r="388">
-      <c r="A388" s="128" t="s">
+      <c r="A388" s="125" t="s">
         <v>101</v>
       </c>
     </row>
@@ -21455,28 +21449,28 @@
       </c>
     </row>
     <row r="391">
-      <c r="A391" s="128" t="s">
+      <c r="A391" s="125" t="s">
         <v>616</v>
       </c>
-      <c r="M391" s="130">
+      <c r="M391" s="127">
         <v>400000</v>
       </c>
-      <c r="P391" s="130">
+      <c r="P391" s="127">
         <v>400000</v>
       </c>
-      <c r="S391" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD391" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE391" s="130">
+      <c r="S391" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD391" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE391" s="127">
         <v>400000</v>
       </c>
-      <c r="AF391" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG391" s="131">
+      <c r="AF391" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG391" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21486,7 +21480,7 @@
       </c>
     </row>
     <row r="393">
-      <c r="A393" s="128" t="s">
+      <c r="A393" s="125" t="s">
         <v>82</v>
       </c>
     </row>
@@ -21528,28 +21522,28 @@
       </c>
     </row>
     <row r="396">
-      <c r="A396" s="128" t="s">
+      <c r="A396" s="125" t="s">
         <v>617</v>
       </c>
-      <c r="M396" s="130">
+      <c r="M396" s="127">
         <v>547287</v>
       </c>
-      <c r="P396" s="130">
+      <c r="P396" s="127">
         <v>547287</v>
       </c>
-      <c r="S396" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD396" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE396" s="130">
+      <c r="S396" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD396" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE396" s="127">
         <v>547287</v>
       </c>
-      <c r="AF396" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG396" s="131">
+      <c r="AF396" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG396" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21559,7 +21553,7 @@
       </c>
     </row>
     <row r="398">
-      <c r="A398" s="128" t="s">
+      <c r="A398" s="125" t="s">
         <v>84</v>
       </c>
     </row>
@@ -21601,28 +21595,28 @@
       </c>
     </row>
     <row r="401">
-      <c r="A401" s="128" t="s">
+      <c r="A401" s="125" t="s">
         <v>618</v>
       </c>
-      <c r="M401" s="130">
+      <c r="M401" s="127">
         <v>480000</v>
       </c>
-      <c r="P401" s="130">
+      <c r="P401" s="127">
         <v>480000</v>
       </c>
-      <c r="S401" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD401" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE401" s="130">
+      <c r="S401" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD401" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE401" s="127">
         <v>480000</v>
       </c>
-      <c r="AF401" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG401" s="131">
+      <c r="AF401" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG401" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21632,7 +21626,7 @@
       </c>
     </row>
     <row r="403">
-      <c r="A403" s="128" t="s">
+      <c r="A403" s="125" t="s">
         <v>84</v>
       </c>
     </row>
@@ -21674,28 +21668,28 @@
       </c>
     </row>
     <row r="406">
-      <c r="A406" s="128" t="s">
+      <c r="A406" s="125" t="s">
         <v>618</v>
       </c>
-      <c r="M406" s="130">
+      <c r="M406" s="127">
         <v>751364</v>
       </c>
-      <c r="P406" s="130">
+      <c r="P406" s="127">
         <v>751364</v>
       </c>
-      <c r="S406" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD406" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE406" s="130">
+      <c r="S406" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD406" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE406" s="127">
         <v>751364</v>
       </c>
-      <c r="AF406" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG406" s="131">
+      <c r="AF406" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG406" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21705,7 +21699,7 @@
       </c>
     </row>
     <row r="408">
-      <c r="A408" s="128" t="s">
+      <c r="A408" s="125" t="s">
         <v>87</v>
       </c>
     </row>
@@ -21747,28 +21741,28 @@
       </c>
     </row>
     <row r="411">
-      <c r="A411" s="128" t="s">
+      <c r="A411" s="125" t="s">
         <v>619</v>
       </c>
-      <c r="M411" s="130">
+      <c r="M411" s="127">
         <v>550000</v>
       </c>
-      <c r="P411" s="130">
+      <c r="P411" s="127">
         <v>550000</v>
       </c>
-      <c r="S411" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD411" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE411" s="130">
+      <c r="S411" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD411" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE411" s="127">
         <v>550000</v>
       </c>
-      <c r="AF411" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG411" s="131">
+      <c r="AF411" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG411" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21778,7 +21772,7 @@
       </c>
     </row>
     <row r="413">
-      <c r="A413" s="128" t="s">
+      <c r="A413" s="125" t="s">
         <v>89</v>
       </c>
     </row>
@@ -21820,28 +21814,28 @@
       </c>
     </row>
     <row r="416">
-      <c r="A416" s="128" t="s">
+      <c r="A416" s="125" t="s">
         <v>620</v>
       </c>
-      <c r="M416" s="130">
+      <c r="M416" s="127">
         <v>254796</v>
       </c>
-      <c r="P416" s="130">
+      <c r="P416" s="127">
         <v>254796</v>
       </c>
-      <c r="S416" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD416" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE416" s="130">
+      <c r="S416" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD416" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE416" s="127">
         <v>254796</v>
       </c>
-      <c r="AF416" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG416" s="131">
+      <c r="AF416" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG416" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21851,7 +21845,7 @@
       </c>
     </row>
     <row r="418">
-      <c r="A418" s="128" t="s">
+      <c r="A418" s="125" t="s">
         <v>103</v>
       </c>
     </row>
@@ -21893,28 +21887,28 @@
       </c>
     </row>
     <row r="421">
-      <c r="A421" s="128" t="s">
+      <c r="A421" s="125" t="s">
         <v>622</v>
       </c>
-      <c r="M421" s="130">
+      <c r="M421" s="127">
         <v>3477618</v>
       </c>
-      <c r="P421" s="130">
+      <c r="P421" s="127">
         <v>3477618</v>
       </c>
-      <c r="S421" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD421" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE421" s="130">
+      <c r="S421" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD421" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE421" s="127">
         <v>3477618</v>
       </c>
-      <c r="AF421" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG421" s="131">
+      <c r="AF421" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG421" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21924,7 +21918,7 @@
       </c>
     </row>
     <row r="423">
-      <c r="A423" s="128" t="s">
+      <c r="A423" s="125" t="s">
         <v>105</v>
       </c>
     </row>
@@ -21966,28 +21960,28 @@
       </c>
     </row>
     <row r="426">
-      <c r="A426" s="128" t="s">
+      <c r="A426" s="125" t="s">
         <v>623</v>
       </c>
-      <c r="M426" s="130">
+      <c r="M426" s="127">
         <v>400000</v>
       </c>
-      <c r="P426" s="130">
+      <c r="P426" s="127">
         <v>400000</v>
       </c>
-      <c r="S426" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD426" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE426" s="130">
+      <c r="S426" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD426" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE426" s="127">
         <v>400000</v>
       </c>
-      <c r="AF426" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG426" s="131">
+      <c r="AF426" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG426" s="128">
         <v>0</v>
       </c>
     </row>
@@ -21997,7 +21991,7 @@
       </c>
     </row>
     <row r="428">
-      <c r="A428" s="128" t="s">
+      <c r="A428" s="125" t="s">
         <v>97</v>
       </c>
     </row>
@@ -22039,28 +22033,28 @@
       </c>
     </row>
     <row r="431">
-      <c r="A431" s="128" t="s">
+      <c r="A431" s="125" t="s">
         <v>624</v>
       </c>
-      <c r="M431" s="130">
+      <c r="M431" s="127">
         <v>120120</v>
       </c>
-      <c r="P431" s="130">
+      <c r="P431" s="127">
         <v>120120</v>
       </c>
-      <c r="S431" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD431" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE431" s="130">
+      <c r="S431" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD431" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE431" s="127">
         <v>120120</v>
       </c>
-      <c r="AF431" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG431" s="131">
+      <c r="AF431" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG431" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22070,7 +22064,7 @@
       </c>
     </row>
     <row r="433">
-      <c r="A433" s="128" t="s">
+      <c r="A433" s="125" t="s">
         <v>112</v>
       </c>
     </row>
@@ -22112,28 +22106,28 @@
       </c>
     </row>
     <row r="436">
-      <c r="A436" s="128" t="s">
+      <c r="A436" s="125" t="s">
         <v>625</v>
       </c>
-      <c r="M436" s="130">
+      <c r="M436" s="127">
         <v>137280</v>
       </c>
-      <c r="P436" s="130">
+      <c r="P436" s="127">
         <v>137280</v>
       </c>
-      <c r="S436" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD436" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE436" s="130">
+      <c r="S436" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD436" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE436" s="127">
         <v>137280</v>
       </c>
-      <c r="AF436" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG436" s="131">
+      <c r="AF436" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG436" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22143,7 +22137,7 @@
       </c>
     </row>
     <row r="438">
-      <c r="A438" s="128" t="s">
+      <c r="A438" s="125" t="s">
         <v>65</v>
       </c>
     </row>
@@ -22217,28 +22211,28 @@
       </c>
     </row>
     <row r="442">
-      <c r="A442" s="128" t="s">
+      <c r="A442" s="125" t="s">
         <v>626</v>
       </c>
-      <c r="M442" s="130">
+      <c r="M442" s="127">
         <v>154440</v>
       </c>
-      <c r="P442" s="130">
+      <c r="P442" s="127">
         <v>154440</v>
       </c>
-      <c r="S442" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD442" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE442" s="130">
+      <c r="S442" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD442" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE442" s="127">
         <v>154440</v>
       </c>
-      <c r="AF442" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG442" s="131">
+      <c r="AF442" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG442" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22248,7 +22242,7 @@
       </c>
     </row>
     <row r="444">
-      <c r="A444" s="128" t="s">
+      <c r="A444" s="125" t="s">
         <v>127</v>
       </c>
     </row>
@@ -22290,28 +22284,28 @@
       </c>
     </row>
     <row r="447">
-      <c r="A447" s="128" t="s">
+      <c r="A447" s="125" t="s">
         <v>627</v>
       </c>
-      <c r="M447" s="130">
+      <c r="M447" s="127">
         <v>24000</v>
       </c>
-      <c r="P447" s="130">
+      <c r="P447" s="127">
         <v>24000</v>
       </c>
-      <c r="S447" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD447" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE447" s="130">
+      <c r="S447" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD447" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE447" s="127">
         <v>24000</v>
       </c>
-      <c r="AF447" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG447" s="131">
+      <c r="AF447" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG447" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22321,7 +22315,7 @@
       </c>
     </row>
     <row r="449">
-      <c r="A449" s="128" t="s">
+      <c r="A449" s="125" t="s">
         <v>129</v>
       </c>
     </row>
@@ -22363,28 +22357,28 @@
       </c>
     </row>
     <row r="452">
-      <c r="A452" s="128" t="s">
+      <c r="A452" s="125" t="s">
         <v>628</v>
       </c>
-      <c r="M452" s="130">
+      <c r="M452" s="127">
         <v>2200000</v>
       </c>
-      <c r="P452" s="130">
+      <c r="P452" s="127">
         <v>2200000</v>
       </c>
-      <c r="S452" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD452" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE452" s="130">
+      <c r="S452" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD452" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE452" s="127">
         <v>2200000</v>
       </c>
-      <c r="AF452" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG452" s="131">
+      <c r="AF452" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG452" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22394,7 +22388,7 @@
       </c>
     </row>
     <row r="454">
-      <c r="A454" s="128" t="s">
+      <c r="A454" s="125" t="s">
         <v>125</v>
       </c>
     </row>
@@ -22436,28 +22430,28 @@
       </c>
     </row>
     <row r="457">
-      <c r="A457" s="128" t="s">
+      <c r="A457" s="125" t="s">
         <v>629</v>
       </c>
-      <c r="M457" s="130">
+      <c r="M457" s="127">
         <v>7500000</v>
       </c>
-      <c r="P457" s="130">
+      <c r="P457" s="127">
         <v>7500000</v>
       </c>
-      <c r="S457" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD457" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE457" s="130">
+      <c r="S457" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD457" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE457" s="127">
         <v>7500000</v>
       </c>
-      <c r="AF457" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG457" s="131">
+      <c r="AF457" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG457" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22467,7 +22461,7 @@
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="128" t="s">
+      <c r="A459" s="125" t="s">
         <v>134</v>
       </c>
     </row>
@@ -22509,28 +22503,28 @@
       </c>
     </row>
     <row r="462">
-      <c r="A462" s="128" t="s">
+      <c r="A462" s="125" t="s">
         <v>630</v>
       </c>
-      <c r="M462" s="130">
+      <c r="M462" s="127">
         <v>65000</v>
       </c>
-      <c r="P462" s="130">
+      <c r="P462" s="127">
         <v>65000</v>
       </c>
-      <c r="S462" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD462" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE462" s="130">
+      <c r="S462" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD462" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE462" s="127">
         <v>65000</v>
       </c>
-      <c r="AF462" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG462" s="131">
+      <c r="AF462" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG462" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22540,7 +22534,7 @@
       </c>
     </row>
     <row r="464">
-      <c r="A464" s="128" t="s">
+      <c r="A464" s="125" t="s">
         <v>137</v>
       </c>
     </row>
@@ -22582,28 +22576,28 @@
       </c>
     </row>
     <row r="467">
-      <c r="A467" s="128" t="s">
+      <c r="A467" s="125" t="s">
         <v>631</v>
       </c>
-      <c r="M467" s="130">
+      <c r="M467" s="127">
         <v>350000</v>
       </c>
-      <c r="P467" s="130">
+      <c r="P467" s="127">
         <v>350000</v>
       </c>
-      <c r="S467" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD467" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE467" s="130">
+      <c r="S467" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD467" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE467" s="127">
         <v>350000</v>
       </c>
-      <c r="AF467" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG467" s="131">
+      <c r="AF467" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG467" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22613,7 +22607,7 @@
       </c>
     </row>
     <row r="469">
-      <c r="A469" s="128" t="s">
+      <c r="A469" s="125" t="s">
         <v>140</v>
       </c>
     </row>
@@ -22655,28 +22649,28 @@
       </c>
     </row>
     <row r="472">
-      <c r="A472" s="128" t="s">
+      <c r="A472" s="125" t="s">
         <v>632</v>
       </c>
-      <c r="M472" s="130">
+      <c r="M472" s="127">
         <v>350000</v>
       </c>
-      <c r="P472" s="130">
+      <c r="P472" s="127">
         <v>350000</v>
       </c>
-      <c r="S472" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD472" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE472" s="130">
+      <c r="S472" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD472" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE472" s="127">
         <v>350000</v>
       </c>
-      <c r="AF472" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG472" s="131">
+      <c r="AF472" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG472" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22686,7 +22680,7 @@
       </c>
     </row>
     <row r="474">
-      <c r="A474" s="128" t="s">
+      <c r="A474" s="125" t="s">
         <v>142</v>
       </c>
     </row>
@@ -22728,28 +22722,28 @@
       </c>
     </row>
     <row r="477">
-      <c r="A477" s="128" t="s">
+      <c r="A477" s="125" t="s">
         <v>633</v>
       </c>
-      <c r="M477" s="130">
+      <c r="M477" s="127">
         <v>370000</v>
       </c>
-      <c r="P477" s="130">
+      <c r="P477" s="127">
         <v>370000</v>
       </c>
-      <c r="S477" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD477" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE477" s="130">
+      <c r="S477" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD477" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE477" s="127">
         <v>370000</v>
       </c>
-      <c r="AF477" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG477" s="131">
+      <c r="AF477" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG477" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22759,7 +22753,7 @@
       </c>
     </row>
     <row r="479">
-      <c r="A479" s="128" t="s">
+      <c r="A479" s="125" t="s">
         <v>151</v>
       </c>
     </row>
@@ -22801,28 +22795,28 @@
       </c>
     </row>
     <row r="482">
-      <c r="A482" s="128" t="s">
+      <c r="A482" s="125" t="s">
         <v>634</v>
       </c>
-      <c r="M482" s="130">
+      <c r="M482" s="127">
         <v>500000</v>
       </c>
-      <c r="P482" s="130">
+      <c r="P482" s="127">
         <v>500000</v>
       </c>
-      <c r="S482" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD482" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE482" s="130">
+      <c r="S482" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD482" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE482" s="127">
         <v>500000</v>
       </c>
-      <c r="AF482" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG482" s="131">
+      <c r="AF482" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG482" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22832,7 +22826,7 @@
       </c>
     </row>
     <row r="484">
-      <c r="A484" s="128" t="s">
+      <c r="A484" s="125" t="s">
         <v>153</v>
       </c>
     </row>
@@ -22874,28 +22868,28 @@
       </c>
     </row>
     <row r="487">
-      <c r="A487" s="128" t="s">
+      <c r="A487" s="125" t="s">
         <v>635</v>
       </c>
-      <c r="M487" s="130">
+      <c r="M487" s="127">
         <v>300000</v>
       </c>
-      <c r="P487" s="130">
+      <c r="P487" s="127">
         <v>300000</v>
       </c>
-      <c r="S487" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD487" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE487" s="130">
+      <c r="S487" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD487" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE487" s="127">
         <v>300000</v>
       </c>
-      <c r="AF487" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG487" s="131">
+      <c r="AF487" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG487" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22905,7 +22899,7 @@
       </c>
     </row>
     <row r="489">
-      <c r="A489" s="128" t="s">
+      <c r="A489" s="125" t="s">
         <v>155</v>
       </c>
     </row>
@@ -22947,28 +22941,28 @@
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="128" t="s">
+      <c r="A492" s="125" t="s">
         <v>636</v>
       </c>
-      <c r="M492" s="130">
+      <c r="M492" s="127">
         <v>6000000</v>
       </c>
-      <c r="P492" s="130">
+      <c r="P492" s="127">
         <v>6000000</v>
       </c>
-      <c r="S492" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD492" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE492" s="130">
+      <c r="S492" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD492" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE492" s="127">
         <v>6000000</v>
       </c>
-      <c r="AF492" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG492" s="131">
+      <c r="AF492" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG492" s="128">
         <v>0</v>
       </c>
     </row>
@@ -22978,7 +22972,7 @@
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="128" t="s">
+      <c r="A494" s="125" t="s">
         <v>161</v>
       </c>
     </row>
@@ -23020,28 +23014,28 @@
       </c>
     </row>
     <row r="497">
-      <c r="A497" s="128" t="s">
+      <c r="A497" s="125" t="s">
         <v>637</v>
       </c>
-      <c r="M497" s="130">
+      <c r="M497" s="127">
         <v>500000</v>
       </c>
-      <c r="P497" s="130">
+      <c r="P497" s="127">
         <v>500000</v>
       </c>
-      <c r="S497" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD497" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE497" s="130">
+      <c r="S497" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD497" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE497" s="127">
         <v>500000</v>
       </c>
-      <c r="AF497" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG497" s="131">
+      <c r="AF497" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG497" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23051,7 +23045,7 @@
       </c>
     </row>
     <row r="499">
-      <c r="A499" s="128" t="s">
+      <c r="A499" s="125" t="s">
         <v>63</v>
       </c>
     </row>
@@ -23093,28 +23087,28 @@
       </c>
     </row>
     <row r="502">
-      <c r="A502" s="128" t="s">
+      <c r="A502" s="125" t="s">
         <v>638</v>
       </c>
-      <c r="M502" s="130">
+      <c r="M502" s="127">
         <v>4177440</v>
       </c>
-      <c r="P502" s="130">
+      <c r="P502" s="127">
         <v>4177440</v>
       </c>
-      <c r="S502" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD502" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE502" s="130">
+      <c r="S502" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD502" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE502" s="127">
         <v>4177440</v>
       </c>
-      <c r="AF502" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG502" s="131">
+      <c r="AF502" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG502" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23124,7 +23118,7 @@
       </c>
     </row>
     <row r="504">
-      <c r="A504" s="128" t="s">
+      <c r="A504" s="125" t="s">
         <v>114</v>
       </c>
     </row>
@@ -23166,28 +23160,28 @@
       </c>
     </row>
     <row r="507">
-      <c r="A507" s="128" t="s">
+      <c r="A507" s="125" t="s">
         <v>639</v>
       </c>
-      <c r="M507" s="130">
+      <c r="M507" s="127">
         <v>1173747.98</v>
       </c>
-      <c r="P507" s="130">
+      <c r="P507" s="127">
         <v>1173747.98</v>
       </c>
-      <c r="S507" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD507" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE507" s="130">
+      <c r="S507" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD507" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE507" s="127">
         <v>1173747.98</v>
       </c>
-      <c r="AF507" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG507" s="131">
+      <c r="AF507" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG507" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23197,7 +23191,7 @@
       </c>
     </row>
     <row r="509">
-      <c r="A509" s="128" t="s">
+      <c r="A509" s="125" t="s">
         <v>118</v>
       </c>
     </row>
@@ -23239,28 +23233,28 @@
       </c>
     </row>
     <row r="512">
-      <c r="A512" s="128" t="s">
+      <c r="A512" s="125" t="s">
         <v>640</v>
       </c>
-      <c r="M512" s="130">
+      <c r="M512" s="127">
         <v>400000</v>
       </c>
-      <c r="P512" s="130">
+      <c r="P512" s="127">
         <v>400000</v>
       </c>
-      <c r="S512" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD512" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE512" s="130">
+      <c r="S512" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD512" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE512" s="127">
         <v>400000</v>
       </c>
-      <c r="AF512" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG512" s="131">
+      <c r="AF512" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG512" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23270,7 +23264,7 @@
       </c>
     </row>
     <row r="514">
-      <c r="A514" s="128" t="s">
+      <c r="A514" s="125" t="s">
         <v>120</v>
       </c>
     </row>
@@ -23312,28 +23306,28 @@
       </c>
     </row>
     <row r="517">
-      <c r="A517" s="128" t="s">
+      <c r="A517" s="125" t="s">
         <v>641</v>
       </c>
-      <c r="M517" s="130">
+      <c r="M517" s="127">
         <v>432000</v>
       </c>
-      <c r="P517" s="130">
+      <c r="P517" s="127">
         <v>432000</v>
       </c>
-      <c r="S517" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD517" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE517" s="130">
+      <c r="S517" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD517" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE517" s="127">
         <v>432000</v>
       </c>
-      <c r="AF517" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG517" s="131">
+      <c r="AF517" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG517" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23343,7 +23337,7 @@
       </c>
     </row>
     <row r="519">
-      <c r="A519" s="128" t="s">
+      <c r="A519" s="125" t="s">
         <v>109</v>
       </c>
     </row>
@@ -23385,28 +23379,28 @@
       </c>
     </row>
     <row r="522">
-      <c r="A522" s="128" t="s">
+      <c r="A522" s="125" t="s">
         <v>642</v>
       </c>
-      <c r="M522" s="130">
+      <c r="M522" s="127">
         <v>1000000</v>
       </c>
-      <c r="P522" s="130">
+      <c r="P522" s="127">
         <v>1000000</v>
       </c>
-      <c r="S522" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD522" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE522" s="130">
+      <c r="S522" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD522" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE522" s="127">
         <v>1000000</v>
       </c>
-      <c r="AF522" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG522" s="131">
+      <c r="AF522" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG522" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23416,7 +23410,7 @@
       </c>
     </row>
     <row r="524">
-      <c r="A524" s="128" t="s">
+      <c r="A524" s="125" t="s">
         <v>111</v>
       </c>
     </row>
@@ -23458,28 +23452,28 @@
       </c>
     </row>
     <row r="527">
-      <c r="A527" s="128" t="s">
+      <c r="A527" s="125" t="s">
         <v>643</v>
       </c>
-      <c r="M527" s="130">
+      <c r="M527" s="127">
         <v>500000</v>
       </c>
-      <c r="P527" s="130">
+      <c r="P527" s="127">
         <v>500000</v>
       </c>
-      <c r="S527" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD527" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE527" s="130">
+      <c r="S527" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD527" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE527" s="127">
         <v>500000</v>
       </c>
-      <c r="AF527" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG527" s="131">
+      <c r="AF527" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG527" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23489,7 +23483,7 @@
       </c>
     </row>
     <row r="529">
-      <c r="A529" s="128" t="s">
+      <c r="A529" s="125" t="s">
         <v>116</v>
       </c>
     </row>
@@ -23531,28 +23525,28 @@
       </c>
     </row>
     <row r="532">
-      <c r="A532" s="128" t="s">
+      <c r="A532" s="125" t="s">
         <v>645</v>
       </c>
-      <c r="M532" s="130">
+      <c r="M532" s="127">
         <v>203220</v>
       </c>
-      <c r="P532" s="130">
+      <c r="P532" s="127">
         <v>203220</v>
       </c>
-      <c r="S532" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD532" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE532" s="130">
+      <c r="S532" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD532" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE532" s="127">
         <v>203220</v>
       </c>
-      <c r="AF532" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG532" s="131">
+      <c r="AF532" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG532" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23562,7 +23556,7 @@
       </c>
     </row>
     <row r="534">
-      <c r="A534" s="128" t="s">
+      <c r="A534" s="125" t="s">
         <v>147</v>
       </c>
     </row>
@@ -23604,28 +23598,28 @@
       </c>
     </row>
     <row r="537">
-      <c r="A537" s="128" t="s">
+      <c r="A537" s="125" t="s">
         <v>647</v>
       </c>
-      <c r="M537" s="130">
+      <c r="M537" s="127">
         <v>7500000</v>
       </c>
-      <c r="P537" s="130">
+      <c r="P537" s="127">
         <v>7500000</v>
       </c>
-      <c r="S537" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD537" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE537" s="130">
+      <c r="S537" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD537" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE537" s="127">
         <v>7500000</v>
       </c>
-      <c r="AF537" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG537" s="131">
+      <c r="AF537" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG537" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23635,7 +23629,7 @@
       </c>
     </row>
     <row r="539">
-      <c r="A539" s="128" t="s">
+      <c r="A539" s="125" t="s">
         <v>157</v>
       </c>
     </row>
@@ -23677,28 +23671,28 @@
       </c>
     </row>
     <row r="542">
-      <c r="A542" s="128" t="s">
+      <c r="A542" s="125" t="s">
         <v>649</v>
       </c>
-      <c r="M542" s="130">
+      <c r="M542" s="127">
         <v>5000000</v>
       </c>
-      <c r="P542" s="130">
+      <c r="P542" s="127">
         <v>5000000</v>
       </c>
-      <c r="S542" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD542" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE542" s="130">
+      <c r="S542" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD542" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE542" s="127">
         <v>5000000</v>
       </c>
-      <c r="AF542" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG542" s="131">
+      <c r="AF542" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG542" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23708,7 +23702,7 @@
       </c>
     </row>
     <row r="544">
-      <c r="A544" s="128" t="s">
+      <c r="A544" s="125" t="s">
         <v>149</v>
       </c>
     </row>
@@ -23750,28 +23744,28 @@
       </c>
     </row>
     <row r="547">
-      <c r="A547" s="128" t="s">
+      <c r="A547" s="125" t="s">
         <v>650</v>
       </c>
-      <c r="M547" s="130">
+      <c r="M547" s="127">
         <v>1000000</v>
       </c>
-      <c r="P547" s="130">
+      <c r="P547" s="127">
         <v>1000000</v>
       </c>
-      <c r="S547" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD547" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE547" s="130">
+      <c r="S547" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD547" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE547" s="127">
         <v>1000000</v>
       </c>
-      <c r="AF547" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG547" s="131">
+      <c r="AF547" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG547" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23781,7 +23775,7 @@
       </c>
     </row>
     <row r="549">
-      <c r="A549" s="128" t="s">
+      <c r="A549" s="125" t="s">
         <v>91</v>
       </c>
     </row>
@@ -23823,28 +23817,28 @@
       </c>
     </row>
     <row r="552">
-      <c r="A552" s="128" t="s">
+      <c r="A552" s="125" t="s">
         <v>652</v>
       </c>
-      <c r="M552" s="130">
+      <c r="M552" s="127">
         <v>9632690</v>
       </c>
-      <c r="P552" s="130">
+      <c r="P552" s="127">
         <v>9632690</v>
       </c>
-      <c r="S552" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD552" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE552" s="130">
+      <c r="S552" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD552" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE552" s="127">
         <v>9632690</v>
       </c>
-      <c r="AF552" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG552" s="131">
+      <c r="AF552" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG552" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23854,7 +23848,7 @@
       </c>
     </row>
     <row r="554">
-      <c r="A554" s="128" t="s">
+      <c r="A554" s="125" t="s">
         <v>93</v>
       </c>
     </row>
@@ -23896,28 +23890,28 @@
       </c>
     </row>
     <row r="557">
-      <c r="A557" s="128" t="s">
+      <c r="A557" s="125" t="s">
         <v>654</v>
       </c>
-      <c r="M557" s="130">
+      <c r="M557" s="127">
         <v>500000</v>
       </c>
-      <c r="P557" s="130">
+      <c r="P557" s="127">
         <v>500000</v>
       </c>
-      <c r="S557" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD557" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE557" s="130">
+      <c r="S557" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD557" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE557" s="127">
         <v>500000</v>
       </c>
-      <c r="AF557" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG557" s="131">
+      <c r="AF557" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG557" s="128">
         <v>0</v>
       </c>
     </row>
@@ -23927,7 +23921,7 @@
       </c>
     </row>
     <row r="559">
-      <c r="A559" s="128" t="s">
+      <c r="A559" s="125" t="s">
         <v>80</v>
       </c>
     </row>
@@ -23969,28 +23963,28 @@
       </c>
     </row>
     <row r="562">
-      <c r="A562" s="128" t="s">
+      <c r="A562" s="125" t="s">
         <v>613</v>
       </c>
-      <c r="M562" s="130">
+      <c r="M562" s="127">
         <v>8350000</v>
       </c>
-      <c r="P562" s="130">
+      <c r="P562" s="127">
         <v>8350000</v>
       </c>
-      <c r="S562" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD562" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE562" s="130">
+      <c r="S562" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD562" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE562" s="127">
         <v>8350000</v>
       </c>
-      <c r="AF562" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG562" s="131">
+      <c r="AF562" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG562" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24000,7 +23994,7 @@
       </c>
     </row>
     <row r="564">
-      <c r="A564" s="128" t="s">
+      <c r="A564" s="125" t="s">
         <v>73</v>
       </c>
     </row>
@@ -24042,28 +24036,28 @@
       </c>
     </row>
     <row r="567">
-      <c r="A567" s="128" t="s">
+      <c r="A567" s="125" t="s">
         <v>656</v>
       </c>
-      <c r="M567" s="130">
+      <c r="M567" s="127">
         <v>5000000</v>
       </c>
-      <c r="P567" s="130">
+      <c r="P567" s="127">
         <v>5000000</v>
       </c>
-      <c r="S567" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD567" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE567" s="130">
+      <c r="S567" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD567" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE567" s="127">
         <v>5000000</v>
       </c>
-      <c r="AF567" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG567" s="131">
+      <c r="AF567" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG567" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24073,7 +24067,7 @@
       </c>
     </row>
     <row r="569">
-      <c r="A569" s="128" t="s">
+      <c r="A569" s="125" t="s">
         <v>113</v>
       </c>
     </row>
@@ -24115,28 +24109,28 @@
       </c>
     </row>
     <row r="572">
-      <c r="A572" s="128" t="s">
+      <c r="A572" s="125" t="s">
         <v>657</v>
       </c>
-      <c r="M572" s="130">
+      <c r="M572" s="127">
         <v>550000</v>
       </c>
-      <c r="P572" s="130">
+      <c r="P572" s="127">
         <v>550000</v>
       </c>
-      <c r="S572" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD572" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE572" s="130">
+      <c r="S572" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD572" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE572" s="127">
         <v>550000</v>
       </c>
-      <c r="AF572" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG572" s="131">
+      <c r="AF572" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG572" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24146,7 +24140,7 @@
       </c>
     </row>
     <row r="574">
-      <c r="A574" s="128" t="s">
+      <c r="A574" s="125" t="s">
         <v>122</v>
       </c>
     </row>
@@ -24188,28 +24182,28 @@
       </c>
     </row>
     <row r="577">
-      <c r="A577" s="128" t="s">
+      <c r="A577" s="125" t="s">
         <v>658</v>
       </c>
-      <c r="M577" s="130">
+      <c r="M577" s="127">
         <v>1800000</v>
       </c>
-      <c r="P577" s="130">
+      <c r="P577" s="127">
         <v>1800000</v>
       </c>
-      <c r="S577" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD577" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE577" s="130">
+      <c r="S577" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD577" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE577" s="127">
         <v>1800000</v>
       </c>
-      <c r="AF577" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG577" s="131">
+      <c r="AF577" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG577" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24219,7 +24213,7 @@
       </c>
     </row>
     <row r="579">
-      <c r="A579" s="128" t="s">
+      <c r="A579" s="125" t="s">
         <v>123</v>
       </c>
     </row>
@@ -24261,28 +24255,28 @@
       </c>
     </row>
     <row r="582">
-      <c r="A582" s="128" t="s">
+      <c r="A582" s="125" t="s">
         <v>659</v>
       </c>
-      <c r="M582" s="130">
+      <c r="M582" s="127">
         <v>5000000</v>
       </c>
-      <c r="P582" s="130">
+      <c r="P582" s="127">
         <v>5000000</v>
       </c>
-      <c r="S582" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD582" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE582" s="130">
+      <c r="S582" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD582" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE582" s="127">
         <v>5000000</v>
       </c>
-      <c r="AF582" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG582" s="131">
+      <c r="AF582" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG582" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24292,7 +24286,7 @@
       </c>
     </row>
     <row r="584">
-      <c r="A584" s="128" t="s">
+      <c r="A584" s="125" t="s">
         <v>100</v>
       </c>
     </row>
@@ -24334,28 +24328,28 @@
       </c>
     </row>
     <row r="587">
-      <c r="A587" s="128" t="s">
+      <c r="A587" s="125" t="s">
         <v>660</v>
       </c>
-      <c r="M587" s="130">
+      <c r="M587" s="127">
         <v>2000000</v>
       </c>
-      <c r="P587" s="130">
+      <c r="P587" s="127">
         <v>2000000</v>
       </c>
-      <c r="S587" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD587" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE587" s="130">
+      <c r="S587" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD587" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE587" s="127">
         <v>2000000</v>
       </c>
-      <c r="AF587" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG587" s="131">
+      <c r="AF587" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG587" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24365,7 +24359,7 @@
       </c>
     </row>
     <row r="589">
-      <c r="A589" s="128" t="s">
+      <c r="A589" s="125" t="s">
         <v>163</v>
       </c>
     </row>
@@ -24407,28 +24401,28 @@
       </c>
     </row>
     <row r="592">
-      <c r="A592" s="128" t="s">
+      <c r="A592" s="125" t="s">
         <v>661</v>
       </c>
-      <c r="M592" s="130">
+      <c r="M592" s="127">
         <v>1000000</v>
       </c>
-      <c r="P592" s="130">
+      <c r="P592" s="127">
         <v>1000000</v>
       </c>
-      <c r="S592" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD592" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE592" s="130">
+      <c r="S592" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD592" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE592" s="127">
         <v>1000000</v>
       </c>
-      <c r="AF592" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG592" s="131">
+      <c r="AF592" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG592" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24438,7 +24432,7 @@
       </c>
     </row>
     <row r="594">
-      <c r="A594" s="128" t="s">
+      <c r="A594" s="125" t="s">
         <v>146</v>
       </c>
     </row>
@@ -24480,28 +24474,28 @@
       </c>
     </row>
     <row r="597">
-      <c r="A597" s="128" t="s">
+      <c r="A597" s="125" t="s">
         <v>662</v>
       </c>
-      <c r="M597" s="130">
+      <c r="M597" s="127">
         <v>150000</v>
       </c>
-      <c r="P597" s="130">
+      <c r="P597" s="127">
         <v>150000</v>
       </c>
-      <c r="S597" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD597" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE597" s="130">
+      <c r="S597" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD597" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE597" s="127">
         <v>150000</v>
       </c>
-      <c r="AF597" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG597" s="131">
+      <c r="AF597" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG597" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24511,7 +24505,7 @@
       </c>
     </row>
     <row r="599">
-      <c r="A599" s="128" t="s">
+      <c r="A599" s="125" t="s">
         <v>139</v>
       </c>
     </row>
@@ -24553,28 +24547,28 @@
       </c>
     </row>
     <row r="602">
-      <c r="A602" s="128" t="s">
+      <c r="A602" s="125" t="s">
         <v>663</v>
       </c>
-      <c r="M602" s="130">
+      <c r="M602" s="127">
         <v>1000000</v>
       </c>
-      <c r="P602" s="130">
+      <c r="P602" s="127">
         <v>1000000</v>
       </c>
-      <c r="S602" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD602" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE602" s="130">
+      <c r="S602" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD602" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE602" s="127">
         <v>1000000</v>
       </c>
-      <c r="AF602" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG602" s="131">
+      <c r="AF602" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG602" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24584,7 +24578,7 @@
       </c>
     </row>
     <row r="604">
-      <c r="A604" s="128" t="s">
+      <c r="A604" s="125" t="s">
         <v>136</v>
       </c>
     </row>
@@ -24626,28 +24620,28 @@
       </c>
     </row>
     <row r="607">
-      <c r="A607" s="128" t="s">
+      <c r="A607" s="125" t="s">
         <v>664</v>
       </c>
-      <c r="M607" s="130">
+      <c r="M607" s="127">
         <v>491400</v>
       </c>
-      <c r="P607" s="130">
+      <c r="P607" s="127">
         <v>491400</v>
       </c>
-      <c r="S607" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD607" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE607" s="130">
+      <c r="S607" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD607" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE607" s="127">
         <v>491400</v>
       </c>
-      <c r="AF607" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG607" s="131">
+      <c r="AF607" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG607" s="128">
         <v>0</v>
       </c>
     </row>
@@ -24657,7 +24651,7 @@
       </c>
     </row>
     <row r="609">
-      <c r="A609" s="128" t="s">
+      <c r="A609" s="125" t="s">
         <v>131</v>
       </c>
     </row>
@@ -24699,184 +24693,184 @@
       </c>
     </row>
     <row r="612">
-      <c r="A612" s="128" t="s">
+      <c r="A612" s="125" t="s">
         <v>665</v>
       </c>
-      <c r="M612" s="130">
+      <c r="M612" s="127">
         <v>10000000</v>
       </c>
-      <c r="P612" s="130">
+      <c r="P612" s="127">
         <v>10000000</v>
       </c>
-      <c r="S612" s="130">
-        <v>0</v>
-      </c>
-      <c r="AD612" s="130">
-        <v>0</v>
-      </c>
-      <c r="AE612" s="130">
+      <c r="S612" s="127">
+        <v>0</v>
+      </c>
+      <c r="AD612" s="127">
+        <v>0</v>
+      </c>
+      <c r="AE612" s="127">
         <v>10000000</v>
       </c>
-      <c r="AF612" s="130">
-        <v>0</v>
-      </c>
-      <c r="AG612" s="131">
+      <c r="AF612" s="127">
+        <v>0</v>
+      </c>
+      <c r="AG612" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="614">
-      <c r="B614" s="119" t="s">
+      <c r="B614" s="125" t="s">
         <v>381</v>
       </c>
-      <c r="M614" s="126" t="s">
+      <c r="M614" s="127" t="s">
         <v>666</v>
       </c>
-      <c r="P614" s="126" t="s">
+      <c r="P614" s="127" t="s">
         <v>666</v>
       </c>
-      <c r="S614" s="126" t="s">
+      <c r="S614" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD614" s="126" t="s">
+      <c r="AD614" s="127" t="s">
         <v>667</v>
       </c>
-      <c r="AE614" s="126" t="s">
+      <c r="AE614" s="127" t="s">
         <v>668</v>
       </c>
-      <c r="AF614" s="130" t="s">
+      <c r="AF614" s="127" t="s">
         <v>669</v>
       </c>
-      <c r="AG614" s="131">
+      <c r="AG614" s="128">
         <v>0.28847271251979206</v>
       </c>
     </row>
     <row r="615">
-      <c r="B615" s="119" t="s">
+      <c r="B615" s="125" t="s">
         <v>394</v>
       </c>
-      <c r="M615" s="126" t="s">
+      <c r="M615" s="127" t="s">
         <v>670</v>
       </c>
-      <c r="P615" s="126" t="s">
+      <c r="P615" s="127" t="s">
         <v>670</v>
       </c>
-      <c r="S615" s="126" t="s">
+      <c r="S615" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD615" s="126" t="s">
+      <c r="AD615" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AE615" s="126" t="s">
+      <c r="AE615" s="127" t="s">
         <v>670</v>
       </c>
-      <c r="AF615" s="130" t="s">
+      <c r="AF615" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AG615" s="131">
+      <c r="AG615" s="128">
         <v>0</v>
       </c>
     </row>
     <row r="616">
-      <c r="B616" s="119" t="s">
+      <c r="B616" s="125" t="s">
         <v>596</v>
       </c>
-      <c r="M616" s="126" t="s">
+      <c r="M616" s="127" t="s">
         <v>671</v>
       </c>
-      <c r="P616" s="126" t="s">
+      <c r="P616" s="127" t="s">
         <v>671</v>
       </c>
-      <c r="S616" s="126" t="s">
+      <c r="S616" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD616" s="126" t="s">
+      <c r="AD616" s="127" t="s">
         <v>672</v>
       </c>
-      <c r="AE616" s="126" t="s">
+      <c r="AE616" s="127" t="s">
         <v>673</v>
       </c>
-      <c r="AF616" s="130" t="s">
+      <c r="AF616" s="127" t="s">
         <v>674</v>
       </c>
-      <c r="AG616" s="131">
+      <c r="AG616" s="128">
         <v>1.705045827369225E-05</v>
       </c>
     </row>
     <row r="617">
-      <c r="B617" s="119" t="s">
+      <c r="B617" s="125" t="s">
         <v>675</v>
       </c>
-      <c r="M617" s="126" t="s">
+      <c r="M617" s="127" t="s">
         <v>676</v>
       </c>
-      <c r="P617" s="126" t="s">
+      <c r="P617" s="127" t="s">
         <v>676</v>
       </c>
-      <c r="S617" s="126" t="s">
+      <c r="S617" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD617" s="126" t="s">
+      <c r="AD617" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AE617" s="126" t="s">
+      <c r="AE617" s="127" t="s">
         <v>676</v>
       </c>
-      <c r="AF617" s="130" t="s">
+      <c r="AF617" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AG617" s="130" t="s">
+      <c r="AG617" s="127" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="618">
-      <c r="B618" s="119" t="s">
+      <c r="B618" s="125" t="s">
         <v>677</v>
       </c>
-      <c r="M618" s="126" t="s">
+      <c r="M618" s="127" t="s">
         <v>678</v>
       </c>
-      <c r="P618" s="126" t="s">
+      <c r="P618" s="127" t="s">
         <v>678</v>
       </c>
-      <c r="S618" s="126" t="s">
+      <c r="S618" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD618" s="126" t="s">
+      <c r="AD618" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AE618" s="126" t="s">
+      <c r="AE618" s="127" t="s">
         <v>678</v>
       </c>
-      <c r="AF618" s="130" t="s">
+      <c r="AF618" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AG618" s="130" t="s">
+      <c r="AG618" s="127" t="s">
         <v>285</v>
       </c>
     </row>
     <row r="619">
-      <c r="B619" s="119" t="s">
+      <c r="B619" s="125" t="s">
         <v>679</v>
       </c>
-      <c r="M619" s="126" t="s">
+      <c r="M619" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="P619" s="126" t="s">
+      <c r="P619" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="S619" s="126" t="s">
+      <c r="S619" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AD619" s="126" t="s">
+      <c r="AD619" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AE619" s="126" t="s">
+      <c r="AE619" s="127" t="s">
         <v>680</v>
       </c>
-      <c r="AF619" s="130" t="s">
+      <c r="AF619" s="127" t="s">
         <v>285</v>
       </c>
-      <c r="AG619" s="130" t="s">
+      <c r="AG619" s="127" t="s">
         <v>285</v>
       </c>
     </row>
@@ -25080,919 +25074,919 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="133" t="s">
+      <c r="A6" s="131" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="7">
-      <c r="B7" s="132" t="s">
+      <c r="B7" s="130" t="s">
         <v>31</v>
       </c>
-      <c r="C7" s="134">
+      <c r="C7" s="132">
         <v>83660000</v>
       </c>
     </row>
     <row r="8">
-      <c r="B8" s="132" t="s">
+      <c r="B8" s="130" t="s">
         <v>32</v>
       </c>
-      <c r="C8" s="134">
+      <c r="C8" s="132">
         <v>10607000</v>
       </c>
     </row>
     <row r="9">
-      <c r="B9" s="132" t="s">
+      <c r="B9" s="130" t="s">
         <v>33</v>
       </c>
-      <c r="C9" s="134">
+      <c r="C9" s="132">
         <v>30824000</v>
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="132" t="s">
+      <c r="B10" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="134">
+      <c r="C10" s="132">
         <v>57090</v>
       </c>
     </row>
     <row r="11">
-      <c r="B11" s="132" t="s">
+      <c r="B11" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="134">
+      <c r="C11" s="132">
         <v>140135</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" s="132" t="s">
+      <c r="B12" s="130" t="s">
         <v>34</v>
       </c>
-      <c r="C12" s="134">
+      <c r="C12" s="132">
         <v>1427580</v>
       </c>
     </row>
     <row r="13">
-      <c r="B13" s="132" t="s">
+      <c r="B13" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="134">
+      <c r="C13" s="132">
         <v>150133</v>
       </c>
     </row>
     <row r="14">
-      <c r="B14" s="132" t="s">
+      <c r="B14" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="134">
+      <c r="C14" s="132">
         <v>50690</v>
       </c>
     </row>
     <row r="15">
-      <c r="B15" s="132" t="s">
+      <c r="B15" s="130" t="s">
         <v>35</v>
       </c>
-      <c r="C15" s="134">
+      <c r="C15" s="132">
         <v>651686</v>
       </c>
     </row>
     <row r="16">
-      <c r="B16" s="132" t="s">
+      <c r="B16" s="130" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="134">
+      <c r="C16" s="132">
         <v>37118</v>
       </c>
     </row>
     <row r="17">
-      <c r="B17" s="132" t="s">
+      <c r="B17" s="130" t="s">
         <v>37</v>
       </c>
-      <c r="C17" s="134">
+      <c r="C17" s="132">
         <v>223687</v>
       </c>
     </row>
     <row r="18">
-      <c r="B18" s="132" t="s">
+      <c r="B18" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="134">
+      <c r="C18" s="132">
         <v>635628</v>
       </c>
     </row>
     <row r="19">
-      <c r="B19" s="132" t="s">
+      <c r="B19" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="134">
+      <c r="C19" s="132">
         <v>502875</v>
       </c>
     </row>
     <row r="20">
-      <c r="B20" s="132" t="s">
+      <c r="B20" s="130" t="s">
         <v>39</v>
       </c>
-      <c r="C20" s="134">
+      <c r="C20" s="132">
         <v>5940000</v>
       </c>
     </row>
     <row r="21">
-      <c r="B21" s="132" t="s">
+      <c r="B21" s="130" t="s">
         <v>40</v>
       </c>
-      <c r="C21" s="134">
+      <c r="C21" s="132">
         <v>992000</v>
       </c>
     </row>
     <row r="22">
-      <c r="B22" s="132" t="s">
+      <c r="B22" s="130" t="s">
         <v>41</v>
       </c>
-      <c r="C22" s="134">
+      <c r="C22" s="132">
         <v>2935000</v>
       </c>
     </row>
     <row r="23">
-      <c r="A23" s="133" t="s">
+      <c r="A23" s="131" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="24">
-      <c r="A24" s="133" t="s">
+      <c r="A24" s="131" t="s">
         <v>43</v>
       </c>
-      <c r="B24" s="132" t="s">
+      <c r="B24" s="130" t="s">
         <v>44</v>
       </c>
-      <c r="C24" s="134">
+      <c r="C24" s="132">
         <v>16957356.66</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" s="133" t="s">
+      <c r="A25" s="131" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="26">
-      <c r="B26" s="132" t="s">
+      <c r="B26" s="130" t="s">
         <v>45</v>
       </c>
-      <c r="C26" s="134">
+      <c r="C26" s="132">
         <v>1331465000</v>
       </c>
     </row>
     <row r="27">
-      <c r="A27" s="133" t="s">
+      <c r="A27" s="131" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="28">
-      <c r="A28" s="133" t="s">
+      <c r="A28" s="131" t="s">
         <v>47</v>
       </c>
-      <c r="B28" s="132" t="s">
+      <c r="B28" s="130" t="s">
         <v>48</v>
       </c>
-      <c r="C28" s="134">
+      <c r="C28" s="132">
         <v>2000000</v>
       </c>
     </row>
     <row r="29">
-      <c r="A29" s="133" t="s">
+      <c r="A29" s="131" t="s">
         <v>49</v>
       </c>
-      <c r="B29" s="132" t="s">
+      <c r="B29" s="130" t="s">
         <v>50</v>
       </c>
-      <c r="C29" s="134">
+      <c r="C29" s="132">
         <v>19740000</v>
       </c>
     </row>
     <row r="30">
-      <c r="A30" s="133" t="s">
+      <c r="A30" s="131" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="31">
-      <c r="B31" s="132" t="s">
+      <c r="B31" s="130" t="s">
         <v>52</v>
       </c>
-      <c r="C31" s="134">
+      <c r="C31" s="132">
         <v>16487000</v>
       </c>
     </row>
     <row r="32">
-      <c r="B32" s="132" t="s">
+      <c r="B32" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="134">
+      <c r="C32" s="132">
         <v>5990000</v>
       </c>
     </row>
     <row r="33">
-      <c r="B33" s="132" t="s">
+      <c r="B33" s="130" t="s">
         <v>54</v>
       </c>
-      <c r="C33" s="134">
+      <c r="C33" s="132">
         <v>340658000</v>
       </c>
     </row>
     <row r="34">
-      <c r="B34" s="132" t="s">
+      <c r="B34" s="130" t="s">
         <v>55</v>
       </c>
-      <c r="C34" s="134">
+      <c r="C34" s="132">
         <v>1361000</v>
       </c>
     </row>
     <row r="35">
-      <c r="B35" s="132" t="s">
+      <c r="B35" s="130" t="s">
         <v>56</v>
       </c>
-      <c r="C35" s="134">
+      <c r="C35" s="132">
         <v>18100000</v>
       </c>
     </row>
     <row r="36">
-      <c r="B36" s="132" t="s">
+      <c r="B36" s="130" t="s">
         <v>57</v>
       </c>
-      <c r="C36" s="134">
+      <c r="C36" s="132">
         <v>4756000</v>
       </c>
     </row>
     <row r="37">
-      <c r="B37" s="132" t="s">
+      <c r="B37" s="130" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="134">
+      <c r="C37" s="132">
         <v>769184000</v>
       </c>
     </row>
     <row r="38">
-      <c r="B38" s="132" t="s">
+      <c r="B38" s="130" t="s">
         <v>59</v>
       </c>
-      <c r="C38" s="134">
+      <c r="C38" s="132">
         <v>7627000</v>
       </c>
     </row>
     <row r="39">
-      <c r="B39" s="132" t="s">
+      <c r="B39" s="130" t="s">
         <v>60</v>
       </c>
-      <c r="C39" s="134">
+      <c r="C39" s="132">
         <v>1199000</v>
       </c>
     </row>
     <row r="40">
-      <c r="B40" s="132" t="s">
+      <c r="B40" s="130" t="s">
         <v>61</v>
       </c>
-      <c r="C40" s="134">
+      <c r="C40" s="132">
         <v>7627000</v>
       </c>
     </row>
     <row r="41">
-      <c r="A41" s="133" t="s">
+      <c r="A41" s="131" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="42">
-      <c r="A42" s="133" t="s">
+      <c r="A42" s="131" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="132" t="s">
+      <c r="B42" s="130" t="s">
         <v>64</v>
       </c>
-      <c r="C42" s="134">
+      <c r="C42" s="132">
         <v>4177440</v>
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="133" t="s">
+      <c r="A43" s="131" t="s">
         <v>65</v>
       </c>
-      <c r="B43" s="132" t="s">
+      <c r="B43" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C43" s="134">
+      <c r="C43" s="132">
         <v>154440</v>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="133" t="s">
+      <c r="A44" s="131" t="s">
         <v>67</v>
       </c>
-      <c r="B44" s="132" t="s">
+      <c r="B44" s="130" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="134">
+      <c r="C44" s="132">
         <v>1307792</v>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="133" t="s">
+      <c r="A45" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="B45" s="132" t="s">
+      <c r="B45" s="130" t="s">
         <v>70</v>
       </c>
-      <c r="C45" s="134">
+      <c r="C45" s="132">
         <v>1452888</v>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="133" t="s">
+      <c r="A46" s="131" t="s">
         <v>71</v>
       </c>
-      <c r="B46" s="132" t="s">
+      <c r="B46" s="130" t="s">
         <v>72</v>
       </c>
-      <c r="C46" s="134">
+      <c r="C46" s="132">
         <v>11435400</v>
       </c>
     </row>
     <row r="47">
-      <c r="A47" s="133" t="s">
+      <c r="A47" s="131" t="s">
         <v>73</v>
       </c>
-      <c r="B47" s="132" t="s">
+      <c r="B47" s="130" t="s">
         <v>74</v>
       </c>
-      <c r="C47" s="134">
+      <c r="C47" s="132">
         <v>5000000</v>
       </c>
     </row>
     <row r="48">
-      <c r="A48" s="133" t="s">
+      <c r="A48" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B48" s="132" t="s">
+      <c r="B48" s="130" t="s">
         <v>76</v>
       </c>
-      <c r="C48" s="134">
+      <c r="C48" s="132">
         <v>380850</v>
       </c>
     </row>
     <row r="49">
-      <c r="A49" s="133" t="s">
+      <c r="A49" s="131" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="132" t="s">
+      <c r="B49" s="130" t="s">
         <v>77</v>
       </c>
-      <c r="C49" s="134">
+      <c r="C49" s="132">
         <v>870300</v>
       </c>
     </row>
     <row r="50">
-      <c r="A50" s="133" t="s">
+      <c r="A50" s="131" t="s">
         <v>78</v>
       </c>
-      <c r="B50" s="132" t="s">
+      <c r="B50" s="130" t="s">
         <v>79</v>
       </c>
-      <c r="C50" s="134">
+      <c r="C50" s="132">
         <v>300000</v>
       </c>
     </row>
     <row r="51">
-      <c r="A51" s="133" t="s">
+      <c r="A51" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B51" s="132" t="s">
+      <c r="B51" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C51" s="134">
+      <c r="C51" s="132">
         <v>8350000</v>
       </c>
     </row>
     <row r="52">
-      <c r="A52" s="133" t="s">
+      <c r="A52" s="131" t="s">
         <v>80</v>
       </c>
-      <c r="B52" s="132" t="s">
+      <c r="B52" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C52" s="134">
+      <c r="C52" s="132">
         <v>7020000</v>
       </c>
     </row>
     <row r="53">
-      <c r="A53" s="133" t="s">
+      <c r="A53" s="131" t="s">
         <v>82</v>
       </c>
-      <c r="B53" s="132" t="s">
+      <c r="B53" s="130" t="s">
         <v>83</v>
       </c>
-      <c r="C53" s="134">
+      <c r="C53" s="132">
         <v>547287</v>
       </c>
     </row>
     <row r="54">
-      <c r="A54" s="133" t="s">
+      <c r="A54" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B54" s="132" t="s">
+      <c r="B54" s="130" t="s">
         <v>85</v>
       </c>
-      <c r="C54" s="134">
+      <c r="C54" s="132">
         <v>480000</v>
       </c>
     </row>
     <row r="55">
-      <c r="A55" s="133" t="s">
+      <c r="A55" s="131" t="s">
         <v>84</v>
       </c>
-      <c r="B55" s="132" t="s">
+      <c r="B55" s="130" t="s">
         <v>86</v>
       </c>
-      <c r="C55" s="134">
+      <c r="C55" s="132">
         <v>751364</v>
       </c>
     </row>
     <row r="56">
-      <c r="A56" s="133" t="s">
+      <c r="A56" s="131" t="s">
         <v>87</v>
       </c>
-      <c r="B56" s="132" t="s">
+      <c r="B56" s="130" t="s">
         <v>88</v>
       </c>
-      <c r="C56" s="134">
+      <c r="C56" s="132">
         <v>550000</v>
       </c>
     </row>
     <row r="57">
-      <c r="A57" s="133" t="s">
+      <c r="A57" s="131" t="s">
         <v>89</v>
       </c>
-      <c r="B57" s="132" t="s">
+      <c r="B57" s="130" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="134">
+      <c r="C57" s="132">
         <v>254796</v>
       </c>
     </row>
     <row r="58">
-      <c r="A58" s="133" t="s">
+      <c r="A58" s="131" t="s">
         <v>91</v>
       </c>
-      <c r="B58" s="132" t="s">
+      <c r="B58" s="130" t="s">
         <v>92</v>
       </c>
-      <c r="C58" s="134">
+      <c r="C58" s="132">
         <v>9632690</v>
       </c>
     </row>
     <row r="59">
-      <c r="A59" s="133" t="s">
+      <c r="A59" s="131" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="132" t="s">
+      <c r="B59" s="130" t="s">
         <v>94</v>
       </c>
-      <c r="C59" s="134">
+      <c r="C59" s="132">
         <v>500000</v>
       </c>
     </row>
     <row r="60">
-      <c r="A60" s="133" t="s">
+      <c r="A60" s="131" t="s">
         <v>95</v>
       </c>
-      <c r="B60" s="132" t="s">
+      <c r="B60" s="130" t="s">
         <v>96</v>
       </c>
-      <c r="C60" s="134">
+      <c r="C60" s="132">
         <v>864000</v>
       </c>
     </row>
     <row r="61">
-      <c r="A61" s="133" t="s">
+      <c r="A61" s="131" t="s">
         <v>97</v>
       </c>
-      <c r="B61" s="132" t="s">
+      <c r="B61" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C61" s="134">
+      <c r="C61" s="132">
         <v>120120</v>
       </c>
     </row>
     <row r="62">
-      <c r="A62" s="133" t="s">
+      <c r="A62" s="131" t="s">
         <v>98</v>
       </c>
-      <c r="B62" s="132" t="s">
+      <c r="B62" s="130" t="s">
         <v>99</v>
       </c>
-      <c r="C62" s="134">
+      <c r="C62" s="132">
         <v>400000</v>
       </c>
     </row>
     <row r="63">
-      <c r="A63" s="133" t="s">
+      <c r="A63" s="131" t="s">
         <v>100</v>
       </c>
-      <c r="B63" s="132" t="s">
+      <c r="B63" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C63" s="134">
+      <c r="C63" s="132">
         <v>2000000</v>
       </c>
     </row>
     <row r="64">
-      <c r="A64" s="133" t="s">
+      <c r="A64" s="131" t="s">
         <v>101</v>
       </c>
-      <c r="B64" s="132" t="s">
+      <c r="B64" s="130" t="s">
         <v>102</v>
       </c>
-      <c r="C64" s="134">
+      <c r="C64" s="132">
         <v>400000</v>
       </c>
     </row>
     <row r="65">
-      <c r="A65" s="133" t="s">
+      <c r="A65" s="131" t="s">
         <v>103</v>
       </c>
-      <c r="B65" s="132" t="s">
+      <c r="B65" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="C65" s="134">
+      <c r="C65" s="132">
         <v>3477618</v>
       </c>
     </row>
     <row r="66">
-      <c r="A66" s="133" t="s">
+      <c r="A66" s="131" t="s">
         <v>105</v>
       </c>
-      <c r="B66" s="132" t="s">
+      <c r="B66" s="130" t="s">
         <v>106</v>
       </c>
-      <c r="C66" s="134">
+      <c r="C66" s="132">
         <v>400000</v>
       </c>
     </row>
     <row r="67">
-      <c r="A67" s="133" t="s">
+      <c r="A67" s="131" t="s">
         <v>107</v>
       </c>
-      <c r="B67" s="132" t="s">
+      <c r="B67" s="130" t="s">
         <v>108</v>
       </c>
-      <c r="C67" s="134">
+      <c r="C67" s="132">
         <v>330000</v>
       </c>
     </row>
     <row r="68">
-      <c r="A68" s="133" t="s">
+      <c r="A68" s="131" t="s">
         <v>109</v>
       </c>
-      <c r="B68" s="132" t="s">
+      <c r="B68" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="C68" s="134">
+      <c r="C68" s="132">
         <v>1000000</v>
       </c>
     </row>
     <row r="69">
-      <c r="A69" s="133" t="s">
+      <c r="A69" s="131" t="s">
         <v>111</v>
       </c>
-      <c r="B69" s="132" t="s">
+      <c r="B69" s="130" t="s">
         <v>110</v>
       </c>
-      <c r="C69" s="134">
+      <c r="C69" s="132">
         <v>500000</v>
       </c>
     </row>
     <row r="70">
-      <c r="A70" s="133" t="s">
+      <c r="A70" s="131" t="s">
         <v>112</v>
       </c>
-      <c r="B70" s="132" t="s">
+      <c r="B70" s="130" t="s">
         <v>66</v>
       </c>
-      <c r="C70" s="134">
+      <c r="C70" s="132">
         <v>137280</v>
       </c>
     </row>
     <row r="71">
-      <c r="A71" s="133" t="s">
+      <c r="A71" s="131" t="s">
         <v>113</v>
       </c>
-      <c r="B71" s="132" t="s">
+      <c r="B71" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="134">
+      <c r="C71" s="132">
         <v>550000</v>
       </c>
     </row>
     <row r="72">
-      <c r="A72" s="133" t="s">
+      <c r="A72" s="131" t="s">
         <v>114</v>
       </c>
-      <c r="B72" s="132" t="s">
+      <c r="B72" s="130" t="s">
         <v>115</v>
       </c>
-      <c r="C72" s="134">
+      <c r="C72" s="132">
         <v>1173747.98</v>
       </c>
     </row>
     <row r="73">
-      <c r="A73" s="133" t="s">
+      <c r="A73" s="131" t="s">
         <v>116</v>
       </c>
-      <c r="B73" s="132" t="s">
+      <c r="B73" s="130" t="s">
         <v>117</v>
       </c>
-      <c r="C73" s="134">
+      <c r="C73" s="132">
         <v>203220</v>
       </c>
     </row>
     <row r="74">
-      <c r="A74" s="133" t="s">
+      <c r="A74" s="131" t="s">
         <v>118</v>
       </c>
-      <c r="B74" s="132" t="s">
+      <c r="B74" s="130" t="s">
         <v>119</v>
       </c>
-      <c r="C74" s="134">
+      <c r="C74" s="132">
         <v>400000</v>
       </c>
     </row>
     <row r="75">
-      <c r="A75" s="133" t="s">
+      <c r="A75" s="131" t="s">
         <v>120</v>
       </c>
-      <c r="B75" s="132" t="s">
+      <c r="B75" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="C75" s="134">
+      <c r="C75" s="132">
         <v>432000</v>
       </c>
     </row>
     <row r="76">
-      <c r="A76" s="133" t="s">
+      <c r="A76" s="131" t="s">
         <v>122</v>
       </c>
-      <c r="B76" s="132" t="s">
+      <c r="B76" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C76" s="134">
+      <c r="C76" s="132">
         <v>1800000</v>
       </c>
     </row>
     <row r="77">
-      <c r="A77" s="133" t="s">
+      <c r="A77" s="131" t="s">
         <v>123</v>
       </c>
-      <c r="B77" s="132" t="s">
+      <c r="B77" s="130" t="s">
         <v>124</v>
       </c>
-      <c r="C77" s="134">
+      <c r="C77" s="132">
         <v>5000000</v>
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="133" t="s">
+      <c r="A78" s="131" t="s">
         <v>125</v>
       </c>
-      <c r="B78" s="132" t="s">
+      <c r="B78" s="130" t="s">
         <v>126</v>
       </c>
-      <c r="C78" s="134">
+      <c r="C78" s="132">
         <v>7500000</v>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="133" t="s">
+      <c r="A79" s="131" t="s">
         <v>127</v>
       </c>
-      <c r="B79" s="132" t="s">
+      <c r="B79" s="130" t="s">
         <v>128</v>
       </c>
-      <c r="C79" s="134">
+      <c r="C79" s="132">
         <v>24000</v>
       </c>
     </row>
     <row r="80">
-      <c r="A80" s="133" t="s">
+      <c r="A80" s="131" t="s">
         <v>129</v>
       </c>
-      <c r="B80" s="132" t="s">
+      <c r="B80" s="130" t="s">
         <v>130</v>
       </c>
-      <c r="C80" s="134">
+      <c r="C80" s="132">
         <v>2200000</v>
       </c>
     </row>
     <row r="81">
-      <c r="A81" s="133" t="s">
+      <c r="A81" s="131" t="s">
         <v>131</v>
       </c>
-      <c r="B81" s="132" t="s">
+      <c r="B81" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C81" s="134">
+      <c r="C81" s="132">
         <v>10000000</v>
       </c>
     </row>
     <row r="82">
-      <c r="A82" s="133" t="s">
+      <c r="A82" s="131" t="s">
         <v>132</v>
       </c>
-      <c r="B82" s="132" t="s">
+      <c r="B82" s="130" t="s">
         <v>133</v>
       </c>
-      <c r="C82" s="134">
+      <c r="C82" s="132">
         <v>1080000</v>
       </c>
     </row>
     <row r="83">
-      <c r="A83" s="133" t="s">
+      <c r="A83" s="131" t="s">
         <v>134</v>
       </c>
-      <c r="B83" s="132" t="s">
+      <c r="B83" s="130" t="s">
         <v>135</v>
       </c>
-      <c r="C83" s="134">
+      <c r="C83" s="132">
         <v>65000</v>
       </c>
     </row>
     <row r="84">
-      <c r="A84" s="133" t="s">
+      <c r="A84" s="131" t="s">
         <v>136</v>
       </c>
-      <c r="B84" s="132" t="s">
+      <c r="B84" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C84" s="134">
+      <c r="C84" s="132">
         <v>491400</v>
       </c>
     </row>
     <row r="85">
-      <c r="A85" s="133" t="s">
+      <c r="A85" s="131" t="s">
         <v>137</v>
       </c>
-      <c r="B85" s="132" t="s">
+      <c r="B85" s="130" t="s">
         <v>138</v>
       </c>
-      <c r="C85" s="134">
+      <c r="C85" s="132">
         <v>350000</v>
       </c>
     </row>
     <row r="86">
-      <c r="A86" s="133" t="s">
+      <c r="A86" s="131" t="s">
         <v>139</v>
       </c>
-      <c r="B86" s="132" t="s">
+      <c r="B86" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C86" s="134">
+      <c r="C86" s="132">
         <v>1000000</v>
       </c>
     </row>
     <row r="87">
-      <c r="A87" s="133" t="s">
+      <c r="A87" s="131" t="s">
         <v>140</v>
       </c>
-      <c r="B87" s="132" t="s">
+      <c r="B87" s="130" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="134">
+      <c r="C87" s="132">
         <v>350000</v>
       </c>
     </row>
     <row r="88">
-      <c r="A88" s="133" t="s">
+      <c r="A88" s="131" t="s">
         <v>142</v>
       </c>
-      <c r="B88" s="132" t="s">
+      <c r="B88" s="130" t="s">
         <v>143</v>
       </c>
-      <c r="C88" s="134">
+      <c r="C88" s="132">
         <v>370000</v>
       </c>
     </row>
     <row r="89">
-      <c r="A89" s="133" t="s">
+      <c r="A89" s="131" t="s">
         <v>144</v>
       </c>
-      <c r="B89" s="132" t="s">
+      <c r="B89" s="130" t="s">
         <v>145</v>
       </c>
-      <c r="C89" s="134">
+      <c r="C89" s="132">
         <v>400000</v>
       </c>
     </row>
     <row r="90">
-      <c r="A90" s="133" t="s">
+      <c r="A90" s="131" t="s">
         <v>146</v>
       </c>
-      <c r="B90" s="132" t="s">
+      <c r="B90" s="130" t="s">
         <v>81</v>
       </c>
-      <c r="C90" s="134">
+      <c r="C90" s="132">
         <v>150000</v>
       </c>
     </row>
     <row r="91">
-      <c r="A91" s="133" t="s">
+      <c r="A91" s="131" t="s">
         <v>147</v>
       </c>
-      <c r="B91" s="132" t="s">
+      <c r="B91" s="130" t="s">
         <v>148</v>
       </c>
-      <c r="C91" s="134">
+      <c r="C91" s="132">
         <v>7500000</v>
       </c>
     </row>
     <row r="92">
-      <c r="A92" s="133" t="s">
+      <c r="A92" s="131" t="s">
         <v>149</v>
       </c>
-      <c r="B92" s="132" t="s">
+      <c r="B92" s="130" t="s">
         <v>150</v>
       </c>
-      <c r="C92" s="134">
+      <c r="C92" s="132">
         <v>1000000</v>
       </c>
     </row>
     <row r="93">
-      <c r="A93" s="133" t="s">
+      <c r="A93" s="131" t="s">
         <v>151</v>
       </c>
-      <c r="B93" s="132" t="s">
+      <c r="B93" s="130" t="s">
         <v>152</v>
       </c>
-      <c r="C93" s="134">
+      <c r="C93" s="132">
         <v>500000</v>
       </c>
     </row>
     <row r="94">
-      <c r="A94" s="133" t="s">
+      <c r="A94" s="131" t="s">
         <v>153</v>
       </c>
-      <c r="B94" s="132" t="s">
+      <c r="B94" s="130" t="s">
         <v>154</v>
       </c>
-      <c r="C94" s="134">
+      <c r="C94" s="132">
         <v>300000</v>
       </c>
     </row>
     <row r="95">
-      <c r="A95" s="133" t="s">
+      <c r="A95" s="131" t="s">
         <v>155</v>
       </c>
-      <c r="B95" s="132" t="s">
+      <c r="B95" s="130" t="s">
         <v>156</v>
       </c>
-      <c r="C95" s="134">
+      <c r="C95" s="132">
         <v>6000000</v>
       </c>
     </row>
     <row r="96">
-      <c r="A96" s="133" t="s">
+      <c r="A96" s="131" t="s">
         <v>157</v>
       </c>
-      <c r="B96" s="132" t="s">
+      <c r="B96" s="130" t="s">
         <v>158</v>
       </c>
-      <c r="C96" s="134">
+      <c r="C96" s="132">
         <v>5000000</v>
       </c>
     </row>
     <row r="97">
-      <c r="A97" s="133" t="s">
+      <c r="A97" s="131" t="s">
         <v>159</v>
       </c>
-      <c r="B97" s="132" t="s">
+      <c r="B97" s="130" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="134">
+      <c r="C97" s="132">
         <v>3958000</v>
       </c>
     </row>
     <row r="98">
-      <c r="A98" s="133" t="s">
+      <c r="A98" s="131" t="s">
         <v>161</v>
       </c>
-      <c r="B98" s="132" t="s">
+      <c r="B98" s="130" t="s">
         <v>162</v>
       </c>
-      <c r="C98" s="134">
+      <c r="C98" s="132">
         <v>500000</v>
       </c>
     </row>
     <row r="99">
-      <c r="A99" s="133" t="s">
+      <c r="A99" s="131" t="s">
         <v>163</v>
       </c>
-      <c r="B99" s="132" t="s">
+      <c r="B99" s="130" t="s">
         <v>164</v>
       </c>
-      <c r="C99" s="134">
+      <c r="C99" s="132">
         <v>1000000</v>
       </c>
     </row>
